--- a/サンプルプロジェクト/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/shell/シェルスクリプト開発標準.xlsx
+++ b/サンプルプロジェクト/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/shell/シェルスクリプト開発標準.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C75838-A4D4-4E20-A242-B226BE876A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1785" windowWidth="20100" windowHeight="9630" tabRatio="822"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="21" r:id="rId1"/>
@@ -32,7 +33,15 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1752,9 +1761,6 @@
     <t>※1 コンポーネント設定ファイル、環境設定ファイルに関しては、「Nablarch Application Framework 解説書 =&gt; リポジトリ」を参照のこと。</t>
   </si>
   <si>
-    <t>※2 テスト環境と結合テスト移行の環境では環境が大きく異なる場合があり、環境設定ファイルのみでは環境差異を吸収できない場合がある。</t>
-  </si>
-  <si>
     <t>　  環境差異が、プロパティにインジェクションする値だけではなく、クラス名やプロパティ名（数）等影響が広範囲に広がる場合が該当する。</t>
   </si>
   <si>
@@ -2164,11 +2170,18 @@
     <t>TIS</t>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>※2 テスト環境と結合テスト以降の環境では環境が大きく異なる場合があり、環境設定ファイルのみでは環境差異を吸収できない場合がある。</t>
+    <rPh sb="14" eb="16">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -2554,7 +2567,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2781,81 +2794,6 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2967,6 +2905,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2976,6 +2989,18 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3023,17 +3048,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3044,12 +3063,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3057,6 +3070,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3086,39 +3117,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="パーセント 2" xfId="5"/>
+    <cellStyle name="パーセント 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="ハイパーリンク" xfId="6" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 2 2" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3141,7 +3160,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3156,7 +3181,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3240,7 +3271,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3340,7 +3377,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3448,7 +3491,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15460" name="Text Box 100"/>
+        <xdr:cNvPr id="15460" name="Text Box 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000643C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3567,7 +3616,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15461" name="Line 101"/>
+        <xdr:cNvPr id="15461" name="Line 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000653C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3621,7 +3676,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15462" name="Text Box 102"/>
+        <xdr:cNvPr id="15462" name="Text Box 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000663C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3710,7 +3771,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9"/>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3723,7 +3790,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15464" name="Text Box 104"/>
+          <xdr:cNvPr id="15464" name="Text Box 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000683C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3941,7 +4014,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15465" name="Group 105"/>
+          <xdr:cNvPr id="15465" name="Group 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000693C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -3962,7 +4041,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15466" name="Line 106"/>
+            <xdr:cNvPr id="15466" name="Line 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006A3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -3991,7 +4076,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15467" name="Text Box 107"/>
+            <xdr:cNvPr id="15467" name="Text Box 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006B3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4052,7 +4143,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15468" name="Group 108"/>
+          <xdr:cNvPr id="15468" name="Group 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006C3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4073,7 +4170,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15469" name="Line 109"/>
+            <xdr:cNvPr id="15469" name="Line 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006D3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4102,7 +4205,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15470" name="Text Box 110"/>
+            <xdr:cNvPr id="15470" name="Text Box 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4163,7 +4272,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="グループ化 8"/>
+          <xdr:cNvPr id="9" name="グループ化 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4176,7 +4291,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15472" name="AutoShape 112"/>
+            <xdr:cNvPr id="15472" name="AutoShape 112">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000703C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks/>
             </xdr:cNvSpPr>
@@ -4208,7 +4329,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15473" name="Line 113"/>
+            <xdr:cNvPr id="15473" name="Line 113">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000713C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4237,7 +4364,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15474" name="Text Box 114"/>
+            <xdr:cNvPr id="15474" name="Text Box 114">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000723C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4319,7 +4452,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4332,7 +4471,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15437" name="Text Box 77"/>
+          <xdr:cNvPr id="15437" name="Text Box 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004D3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4545,7 +4690,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15438" name="Group 78"/>
+          <xdr:cNvPr id="15438" name="Group 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004E3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4566,7 +4717,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15439" name="Line 79"/>
+            <xdr:cNvPr id="15439" name="Line 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004F3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4595,7 +4752,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15440" name="Text Box 80"/>
+            <xdr:cNvPr id="15440" name="Text Box 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000503C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4656,7 +4819,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15498" name="Group 138"/>
+          <xdr:cNvPr id="15498" name="Group 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008A3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4677,7 +4846,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15499" name="Line 139"/>
+            <xdr:cNvPr id="15499" name="Line 139">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008B3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4706,7 +4881,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15500" name="Text Box 140"/>
+            <xdr:cNvPr id="15500" name="Text Box 140">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008C3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4767,7 +4948,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15501" name="Group 141"/>
+          <xdr:cNvPr id="15501" name="Group 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008D3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4788,7 +4975,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15502" name="Line 142"/>
+            <xdr:cNvPr id="15502" name="Line 142">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008E3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4817,7 +5010,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15503" name="Text Box 143"/>
+            <xdr:cNvPr id="15503" name="Text Box 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008F3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4878,7 +5077,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15504" name="Group 144"/>
+          <xdr:cNvPr id="15504" name="Group 144">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000903C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4899,7 +5104,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15505" name="Line 145"/>
+            <xdr:cNvPr id="15505" name="Line 145">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000913C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4928,7 +5139,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15506" name="Text Box 146"/>
+            <xdr:cNvPr id="15506" name="Text Box 146">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000923C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4989,7 +5206,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15507" name="Group 147"/>
+          <xdr:cNvPr id="15507" name="Group 147">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000933C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -5010,7 +5233,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15508" name="Line 148"/>
+            <xdr:cNvPr id="15508" name="Line 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000943C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -5039,7 +5268,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15509" name="Text Box 149"/>
+            <xdr:cNvPr id="15509" name="Text Box 149">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000953C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -5100,7 +5335,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15510" name="Group 150"/>
+          <xdr:cNvPr id="15510" name="Group 150">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000963C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -5121,7 +5362,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15511" name="Line 151"/>
+            <xdr:cNvPr id="15511" name="Line 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000973C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -5150,7 +5397,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15512" name="Text Box 152"/>
+            <xdr:cNvPr id="15512" name="Text Box 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000983C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -5211,7 +5464,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15513" name="Group 153"/>
+          <xdr:cNvPr id="15513" name="Group 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000993C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -5232,7 +5491,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15514" name="Line 154"/>
+            <xdr:cNvPr id="15514" name="Line 154">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009A3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -5261,7 +5526,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15515" name="Text Box 155"/>
+            <xdr:cNvPr id="15515" name="Text Box 155">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009B3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -5338,7 +5609,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7"/>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5351,7 +5628,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15528" name="Text Box 168"/>
+          <xdr:cNvPr id="15528" name="Text Box 168">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A83C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5485,7 +5768,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15530" name="Line 170"/>
+          <xdr:cNvPr id="15530" name="Line 170">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AA3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5514,7 +5803,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15531" name="Text Box 171"/>
+          <xdr:cNvPr id="15531" name="Text Box 171">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AB3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5579,7 +5874,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15529" name="AutoShape 169"/>
+          <xdr:cNvPr id="15529" name="AutoShape 169">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A93C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks/>
           </xdr:cNvSpPr>
@@ -5627,7 +5928,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15549" name="Group 189"/>
+        <xdr:cNvPr id="15549" name="Group 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BD3C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -5642,7 +5949,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15380" name="Rectangle 20"/>
+          <xdr:cNvPr id="15380" name="Rectangle 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000143C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5670,7 +5983,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15381" name="Rectangle 21"/>
+          <xdr:cNvPr id="15381" name="Rectangle 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000153C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5747,7 +6066,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15382" name="AutoShape 22"/>
+          <xdr:cNvPr id="15382" name="AutoShape 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000163C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5796,7 +6121,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15383" name="AutoShape 23"/>
+          <xdr:cNvPr id="15383" name="AutoShape 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000173C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5845,7 +6176,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15384" name="AutoShape 24"/>
+          <xdr:cNvPr id="15384" name="AutoShape 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000183C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5954,7 +6291,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15385" name="Line 25"/>
+          <xdr:cNvPr id="15385" name="Line 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000193C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5980,7 +6323,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15386" name="Text Box 26"/>
+          <xdr:cNvPr id="15386" name="Text Box 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6023,7 +6372,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15387" name="Line 27"/>
+          <xdr:cNvPr id="15387" name="Line 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6049,7 +6404,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15388" name="Text Box 28"/>
+          <xdr:cNvPr id="15388" name="Text Box 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6092,7 +6453,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15398" name="Text Box 38"/>
+          <xdr:cNvPr id="15398" name="Text Box 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000263C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6135,7 +6502,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15400" name="Text Box 40"/>
+          <xdr:cNvPr id="15400" name="Text Box 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000283C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6178,7 +6551,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15402" name="Text Box 42"/>
+          <xdr:cNvPr id="15402" name="Text Box 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6221,7 +6600,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15404" name="Text Box 44"/>
+          <xdr:cNvPr id="15404" name="Text Box 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6264,7 +6649,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15538" name="AutoShape 178"/>
+          <xdr:cNvPr id="15538" name="AutoShape 178">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B23C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6338,7 +6729,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15539" name="Line 179"/>
+          <xdr:cNvPr id="15539" name="Line 179">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B33C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6364,7 +6761,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15540" name="Line 180"/>
+          <xdr:cNvPr id="15540" name="Line 180">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B43C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6390,7 +6793,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15541" name="Line 181"/>
+          <xdr:cNvPr id="15541" name="Line 181">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B53C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6416,7 +6825,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15542" name="Line 182"/>
+          <xdr:cNvPr id="15542" name="Line 182">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B63C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6442,7 +6857,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15543" name="Line 183"/>
+          <xdr:cNvPr id="15543" name="Line 183">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B73C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6468,7 +6889,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15544" name="Line 184"/>
+          <xdr:cNvPr id="15544" name="Line 184">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B83C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6494,7 +6921,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15547" name="Text Box 187"/>
+          <xdr:cNvPr id="15547" name="Text Box 187">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BB3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6537,7 +6970,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15548" name="Text Box 188"/>
+          <xdr:cNvPr id="15548" name="Text Box 188">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BC3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6596,7 +7035,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Rectangle 196"/>
+        <xdr:cNvPr id="70" name="Rectangle 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6799,7 +7244,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Rectangle 198"/>
+        <xdr:cNvPr id="73" name="Rectangle 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6915,7 +7366,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16405" name="Group 21"/>
+        <xdr:cNvPr id="16405" name="Group 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015400000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -6930,7 +7387,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16386" name="AutoShape 2"/>
+          <xdr:cNvPr id="16386" name="AutoShape 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6954,7 +7417,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16387" name="AutoShape 3"/>
+          <xdr:cNvPr id="16387" name="AutoShape 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7042,7 +7511,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16388" name="AutoShape 4"/>
+          <xdr:cNvPr id="16388" name="AutoShape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7130,7 +7605,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16389" name="AutoShape 5"/>
+          <xdr:cNvPr id="16389" name="AutoShape 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7233,7 +7714,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16390" name="Text Box 6"/>
+          <xdr:cNvPr id="16390" name="Text Box 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7297,7 +7784,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16391" name="Text Box 7"/>
+          <xdr:cNvPr id="16391" name="Text Box 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7361,7 +7854,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16392" name="Line 8"/>
+          <xdr:cNvPr id="16392" name="Line 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -7388,7 +7887,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16396" name="Line 12"/>
+          <xdr:cNvPr id="16396" name="Line 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -7415,7 +7920,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16397" name="AutoShape 13"/>
+          <xdr:cNvPr id="16397" name="AutoShape 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7503,7 +8014,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16398" name="Line 14"/>
+          <xdr:cNvPr id="16398" name="Line 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -7530,7 +8047,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16399" name="Text Box 15"/>
+          <xdr:cNvPr id="16399" name="Text Box 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7594,7 +8117,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16402" name="Line 18"/>
+          <xdr:cNvPr id="16402" name="Line 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -7621,7 +8150,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16403" name="Text Box 19"/>
+          <xdr:cNvPr id="16403" name="Text Box 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7701,7 +8236,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 39"/>
+        <xdr:cNvPr id="17" name="Rectangle 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8234,7 +8775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8843,7 +9384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8859,57 +9400,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="126" t="s">
-        <v>413</v>
-      </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="132" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="141" t="s">
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="116" t="s">
         <v>280</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="123" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="125" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="117">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="92">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="119"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="94"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -8917,53 +9458,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126" t="s">
-        <v>414</v>
-      </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="123" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="129" t="str">
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="104" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="117" t="str">
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="92" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="119"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="94"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -8971,43 +9512,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="118"/>
-      <c r="AI3" s="119"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="94"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -9044,1031 +9585,1187 @@
       <c r="A7" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="120" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="120" t="s">
+      <c r="E7" s="97"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="120" t="s">
+      <c r="H7" s="97"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="120" t="s">
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="120" t="s">
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="121"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="96"/>
     </row>
     <row r="8" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="87">
         <v>1</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="141" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" s="142"/>
+      <c r="D8" s="143">
+        <v>43336</v>
+      </c>
+      <c r="E8" s="144"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="146" t="s">
         <v>415</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106">
-        <v>43336</v>
-      </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109" t="s">
+      <c r="H8" s="147"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="148" t="s">
         <v>416</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="111" t="s">
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151" t="s">
         <v>417</v>
       </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="114" t="s">
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="153"/>
+      <c r="AF8" s="148" t="s">
         <v>418</v>
       </c>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="115"/>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="113"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="150"/>
     </row>
     <row r="9" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="72"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="103"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="99"/>
-      <c r="AI9" s="100"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="139"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="139"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="139"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="135"/>
+      <c r="AG9" s="136"/>
+      <c r="AH9" s="136"/>
+      <c r="AI9" s="137"/>
     </row>
     <row r="10" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="72"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="100"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="135"/>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="136"/>
+      <c r="AI10" s="137"/>
     </row>
     <row r="11" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="98"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="99"/>
-      <c r="AI11" s="100"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="139"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="137"/>
     </row>
     <row r="12" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="102"/>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="102"/>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="102"/>
-      <c r="AC12" s="102"/>
-      <c r="AD12" s="102"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="100"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="139"/>
+      <c r="S12" s="139"/>
+      <c r="T12" s="139"/>
+      <c r="U12" s="139"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="140"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="137"/>
     </row>
     <row r="13" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="102"/>
-      <c r="AB13" s="102"/>
-      <c r="AC13" s="102"/>
-      <c r="AD13" s="102"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="98"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="99"/>
-      <c r="AI13" s="100"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="140"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="137"/>
     </row>
     <row r="14" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="72"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="102"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="102"/>
-      <c r="AC14" s="102"/>
-      <c r="AD14" s="102"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="99"/>
-      <c r="AI14" s="100"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="139"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="139"/>
+      <c r="W14" s="139"/>
+      <c r="X14" s="139"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="139"/>
+      <c r="AB14" s="139"/>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="140"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="137"/>
     </row>
     <row r="15" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="72"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="98"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="99"/>
-      <c r="AI15" s="100"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="139"/>
+      <c r="X15" s="139"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="140"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="137"/>
     </row>
     <row r="16" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="72"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="102"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="102"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="100"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="135"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="137"/>
     </row>
     <row r="17" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="102"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="102"/>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="102"/>
-      <c r="AB17" s="102"/>
-      <c r="AC17" s="102"/>
-      <c r="AD17" s="102"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="98"/>
-      <c r="AG17" s="99"/>
-      <c r="AH17" s="99"/>
-      <c r="AI17" s="100"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="139"/>
+      <c r="U17" s="139"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="139"/>
+      <c r="AB17" s="139"/>
+      <c r="AC17" s="139"/>
+      <c r="AD17" s="139"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="136"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="137"/>
     </row>
     <row r="18" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="102"/>
-      <c r="W18" s="102"/>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="102"/>
-      <c r="AB18" s="102"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="102"/>
-      <c r="AE18" s="103"/>
-      <c r="AF18" s="98"/>
-      <c r="AG18" s="99"/>
-      <c r="AH18" s="99"/>
-      <c r="AI18" s="100"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="139"/>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="135"/>
+      <c r="AG18" s="136"/>
+      <c r="AH18" s="136"/>
+      <c r="AI18" s="137"/>
     </row>
     <row r="19" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="102"/>
-      <c r="W19" s="102"/>
-      <c r="X19" s="102"/>
-      <c r="Y19" s="102"/>
-      <c r="Z19" s="102"/>
-      <c r="AA19" s="102"/>
-      <c r="AB19" s="102"/>
-      <c r="AC19" s="102"/>
-      <c r="AD19" s="102"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="98"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="99"/>
-      <c r="AI19" s="100"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="140"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="136"/>
+      <c r="AI19" s="137"/>
     </row>
     <row r="20" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="72"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="102"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="102"/>
-      <c r="AA20" s="102"/>
-      <c r="AB20" s="102"/>
-      <c r="AC20" s="102"/>
-      <c r="AD20" s="102"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="100"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="139"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="139"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="140"/>
+      <c r="AF20" s="135"/>
+      <c r="AG20" s="136"/>
+      <c r="AH20" s="136"/>
+      <c r="AI20" s="137"/>
     </row>
     <row r="21" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="72"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="102"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="102"/>
-      <c r="X21" s="102"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="102"/>
-      <c r="AA21" s="102"/>
-      <c r="AB21" s="102"/>
-      <c r="AC21" s="102"/>
-      <c r="AD21" s="102"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="99"/>
-      <c r="AH21" s="99"/>
-      <c r="AI21" s="100"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="140"/>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="136"/>
+      <c r="AI21" s="137"/>
     </row>
     <row r="22" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="72"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="102"/>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="102"/>
-      <c r="Z22" s="102"/>
-      <c r="AA22" s="102"/>
-      <c r="AB22" s="102"/>
-      <c r="AC22" s="102"/>
-      <c r="AD22" s="102"/>
-      <c r="AE22" s="103"/>
-      <c r="AF22" s="98"/>
-      <c r="AG22" s="99"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="100"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="138"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="139"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="140"/>
+      <c r="AF22" s="135"/>
+      <c r="AG22" s="136"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="137"/>
     </row>
     <row r="23" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="72"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="102"/>
-      <c r="Y23" s="102"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="102"/>
-      <c r="AB23" s="102"/>
-      <c r="AC23" s="102"/>
-      <c r="AD23" s="102"/>
-      <c r="AE23" s="103"/>
-      <c r="AF23" s="98"/>
-      <c r="AG23" s="99"/>
-      <c r="AH23" s="99"/>
-      <c r="AI23" s="100"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="140"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="137"/>
     </row>
     <row r="24" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="72"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="102"/>
-      <c r="Y24" s="102"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="102"/>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="103"/>
-      <c r="AF24" s="98"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="100"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="139"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="139"/>
+      <c r="Y24" s="139"/>
+      <c r="Z24" s="139"/>
+      <c r="AA24" s="139"/>
+      <c r="AB24" s="139"/>
+      <c r="AC24" s="139"/>
+      <c r="AD24" s="139"/>
+      <c r="AE24" s="140"/>
+      <c r="AF24" s="135"/>
+      <c r="AG24" s="136"/>
+      <c r="AH24" s="136"/>
+      <c r="AI24" s="137"/>
     </row>
     <row r="25" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="72"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="102"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="102"/>
-      <c r="Y25" s="102"/>
-      <c r="Z25" s="102"/>
-      <c r="AA25" s="102"/>
-      <c r="AB25" s="102"/>
-      <c r="AC25" s="102"/>
-      <c r="AD25" s="102"/>
-      <c r="AE25" s="103"/>
-      <c r="AF25" s="98"/>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="99"/>
-      <c r="AI25" s="100"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="138"/>
+      <c r="R25" s="139"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="139"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="139"/>
+      <c r="X25" s="139"/>
+      <c r="Y25" s="139"/>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="139"/>
+      <c r="AB25" s="139"/>
+      <c r="AC25" s="139"/>
+      <c r="AD25" s="139"/>
+      <c r="AE25" s="140"/>
+      <c r="AF25" s="135"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="136"/>
+      <c r="AI25" s="137"/>
     </row>
     <row r="26" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="72"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="102"/>
-      <c r="Y26" s="102"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="102"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="102"/>
-      <c r="AE26" s="103"/>
-      <c r="AF26" s="98"/>
-      <c r="AG26" s="99"/>
-      <c r="AH26" s="99"/>
-      <c r="AI26" s="100"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="139"/>
+      <c r="S26" s="139"/>
+      <c r="T26" s="139"/>
+      <c r="U26" s="139"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="139"/>
+      <c r="AA26" s="139"/>
+      <c r="AB26" s="139"/>
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="140"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="137"/>
     </row>
     <row r="27" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="72"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="102"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="102"/>
-      <c r="X27" s="102"/>
-      <c r="Y27" s="102"/>
-      <c r="Z27" s="102"/>
-      <c r="AA27" s="102"/>
-      <c r="AB27" s="102"/>
-      <c r="AC27" s="102"/>
-      <c r="AD27" s="102"/>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="98"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="99"/>
-      <c r="AI27" s="100"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="139"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="139"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="139"/>
+      <c r="X27" s="139"/>
+      <c r="Y27" s="139"/>
+      <c r="Z27" s="139"/>
+      <c r="AA27" s="139"/>
+      <c r="AB27" s="139"/>
+      <c r="AC27" s="139"/>
+      <c r="AD27" s="139"/>
+      <c r="AE27" s="140"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="137"/>
     </row>
     <row r="28" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="72"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
-      <c r="V28" s="102"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="102"/>
-      <c r="Z28" s="102"/>
-      <c r="AA28" s="102"/>
-      <c r="AB28" s="102"/>
-      <c r="AC28" s="102"/>
-      <c r="AD28" s="102"/>
-      <c r="AE28" s="103"/>
-      <c r="AF28" s="98"/>
-      <c r="AG28" s="99"/>
-      <c r="AH28" s="99"/>
-      <c r="AI28" s="100"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="140"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="137"/>
     </row>
     <row r="29" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="72"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="102"/>
-      <c r="V29" s="102"/>
-      <c r="W29" s="102"/>
-      <c r="X29" s="102"/>
-      <c r="Y29" s="102"/>
-      <c r="Z29" s="102"/>
-      <c r="AA29" s="102"/>
-      <c r="AB29" s="102"/>
-      <c r="AC29" s="102"/>
-      <c r="AD29" s="102"/>
-      <c r="AE29" s="103"/>
-      <c r="AF29" s="98"/>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="99"/>
-      <c r="AI29" s="100"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="139"/>
+      <c r="S29" s="139"/>
+      <c r="T29" s="139"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="139"/>
+      <c r="W29" s="139"/>
+      <c r="X29" s="139"/>
+      <c r="Y29" s="139"/>
+      <c r="Z29" s="139"/>
+      <c r="AA29" s="139"/>
+      <c r="AB29" s="139"/>
+      <c r="AC29" s="139"/>
+      <c r="AD29" s="139"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="135"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="137"/>
     </row>
     <row r="30" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="72"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="102"/>
-      <c r="S30" s="102"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="102"/>
-      <c r="V30" s="102"/>
-      <c r="W30" s="102"/>
-      <c r="X30" s="102"/>
-      <c r="Y30" s="102"/>
-      <c r="Z30" s="102"/>
-      <c r="AA30" s="102"/>
-      <c r="AB30" s="102"/>
-      <c r="AC30" s="102"/>
-      <c r="AD30" s="102"/>
-      <c r="AE30" s="103"/>
-      <c r="AF30" s="98"/>
-      <c r="AG30" s="99"/>
-      <c r="AH30" s="99"/>
-      <c r="AI30" s="100"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="138"/>
+      <c r="R30" s="139"/>
+      <c r="S30" s="139"/>
+      <c r="T30" s="139"/>
+      <c r="U30" s="139"/>
+      <c r="V30" s="139"/>
+      <c r="W30" s="139"/>
+      <c r="X30" s="139"/>
+      <c r="Y30" s="139"/>
+      <c r="Z30" s="139"/>
+      <c r="AA30" s="139"/>
+      <c r="AB30" s="139"/>
+      <c r="AC30" s="139"/>
+      <c r="AD30" s="139"/>
+      <c r="AE30" s="140"/>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="137"/>
     </row>
     <row r="31" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="72"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="102"/>
-      <c r="V31" s="102"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="102"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="102"/>
-      <c r="AA31" s="102"/>
-      <c r="AB31" s="102"/>
-      <c r="AC31" s="102"/>
-      <c r="AD31" s="102"/>
-      <c r="AE31" s="103"/>
-      <c r="AF31" s="98"/>
-      <c r="AG31" s="99"/>
-      <c r="AH31" s="99"/>
-      <c r="AI31" s="100"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="138"/>
+      <c r="R31" s="139"/>
+      <c r="S31" s="139"/>
+      <c r="T31" s="139"/>
+      <c r="U31" s="139"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
+      <c r="AB31" s="139"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="139"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="137"/>
     </row>
     <row r="32" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="72"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="102"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="102"/>
-      <c r="V32" s="102"/>
-      <c r="W32" s="102"/>
-      <c r="X32" s="102"/>
-      <c r="Y32" s="102"/>
-      <c r="Z32" s="102"/>
-      <c r="AA32" s="102"/>
-      <c r="AB32" s="102"/>
-      <c r="AC32" s="102"/>
-      <c r="AD32" s="102"/>
-      <c r="AE32" s="103"/>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="99"/>
-      <c r="AH32" s="99"/>
-      <c r="AI32" s="100"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="138"/>
+      <c r="R32" s="139"/>
+      <c r="S32" s="139"/>
+      <c r="T32" s="139"/>
+      <c r="U32" s="139"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="139"/>
+      <c r="X32" s="139"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="139"/>
+      <c r="AB32" s="139"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="139"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="135"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="137"/>
     </row>
     <row r="33" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="72"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="102"/>
-      <c r="AA33" s="102"/>
-      <c r="AB33" s="102"/>
-      <c r="AC33" s="102"/>
-      <c r="AD33" s="102"/>
-      <c r="AE33" s="103"/>
-      <c r="AF33" s="98"/>
-      <c r="AG33" s="99"/>
-      <c r="AH33" s="99"/>
-      <c r="AI33" s="100"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="138"/>
+      <c r="R33" s="139"/>
+      <c r="S33" s="139"/>
+      <c r="T33" s="139"/>
+      <c r="U33" s="139"/>
+      <c r="V33" s="139"/>
+      <c r="W33" s="139"/>
+      <c r="X33" s="139"/>
+      <c r="Y33" s="139"/>
+      <c r="Z33" s="139"/>
+      <c r="AA33" s="139"/>
+      <c r="AB33" s="139"/>
+      <c r="AC33" s="139"/>
+      <c r="AD33" s="139"/>
+      <c r="AE33" s="140"/>
+      <c r="AF33" s="135"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="136"/>
+      <c r="AI33" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -10092,162 +10789,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10258,7 +10799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10404,53 +10945,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="141" t="str">
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="123" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
       <c r="AG1" s="154">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
@@ -10462,48 +11003,48 @@
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="123" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
       <c r="AG2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -10515,46 +11056,46 @@
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
       <c r="AG3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -10681,7 +11222,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10874,7 +11415,7 @@
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="12"/>
@@ -10989,7 +11530,7 @@
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -12039,14 +12580,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12056,6 +12589,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12066,7 +12607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12082,175 +12623,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="163" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="141" t="str">
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="160" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="160" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="177" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="C6" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12276,7 +12817,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="C15" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.15">
@@ -12306,7 +12847,7 @@
     <row r="21" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="D21" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.15">
@@ -12314,7 +12855,7 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C24" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.15">
@@ -12323,36 +12864,36 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E28" s="174" t="s">
+      <c r="E28" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="175"/>
-      <c r="M28" s="175"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="174" t="s">
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="161"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="R28" s="175"/>
-      <c r="S28" s="175"/>
-      <c r="T28" s="175"/>
-      <c r="U28" s="175"/>
-      <c r="V28" s="175"/>
-      <c r="W28" s="175"/>
-      <c r="X28" s="175"/>
-      <c r="Y28" s="175"/>
-      <c r="Z28" s="175"/>
-      <c r="AA28" s="175"/>
-      <c r="AB28" s="175"/>
-      <c r="AC28" s="175"/>
-      <c r="AD28" s="176"/>
+      <c r="R28" s="161"/>
+      <c r="S28" s="161"/>
+      <c r="T28" s="161"/>
+      <c r="U28" s="161"/>
+      <c r="V28" s="161"/>
+      <c r="W28" s="161"/>
+      <c r="X28" s="161"/>
+      <c r="Y28" s="161"/>
+      <c r="Z28" s="161"/>
+      <c r="AA28" s="161"/>
+      <c r="AB28" s="161"/>
+      <c r="AC28" s="161"/>
+      <c r="AD28" s="162"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
@@ -12663,6 +13204,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="Q28:AD28"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
@@ -12670,18 +13223,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E28:P28"/>
-    <mergeCell ref="Q28:AD28"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12694,7 +13235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12712,163 +13253,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="163" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="169" t="s">
         <v>275</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="141" t="str">
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="160" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="160" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="177" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12913,7 +13454,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -12990,7 +13531,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -13030,7 +13571,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -13107,7 +13648,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -13222,7 +13763,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -13337,7 +13878,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -13491,7 +14032,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -13531,35 +14072,35 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="85" t="s">
-        <v>391</v>
-      </c>
-      <c r="G21" s="183" t="s">
+        <v>390</v>
+      </c>
+      <c r="G21" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
-      <c r="P21" s="183"/>
-      <c r="Q21" s="183"/>
-      <c r="R21" s="183"/>
-      <c r="S21" s="183" t="s">
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="180"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="180"/>
+      <c r="Q21" s="180"/>
+      <c r="R21" s="180"/>
+      <c r="S21" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="T21" s="183"/>
-      <c r="U21" s="183"/>
-      <c r="V21" s="183"/>
-      <c r="W21" s="183"/>
-      <c r="X21" s="183"/>
-      <c r="Y21" s="183"/>
-      <c r="Z21" s="183"/>
-      <c r="AA21" s="183"/>
-      <c r="AB21" s="183"/>
-      <c r="AC21" s="183"/>
+      <c r="T21" s="180"/>
+      <c r="U21" s="180"/>
+      <c r="V21" s="180"/>
+      <c r="W21" s="180"/>
+      <c r="X21" s="180"/>
+      <c r="Y21" s="180"/>
+      <c r="Z21" s="180"/>
+      <c r="AA21" s="180"/>
+      <c r="AB21" s="180"/>
+      <c r="AC21" s="180"/>
       <c r="AD21" s="50"/>
       <c r="AE21" s="50"/>
       <c r="AF21" s="50"/>
@@ -13576,33 +14117,33 @@
       <c r="F22" s="72">
         <v>1</v>
       </c>
-      <c r="G22" s="184" t="s">
+      <c r="G22" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="184"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="184"/>
-      <c r="N22" s="184"/>
-      <c r="O22" s="184"/>
-      <c r="P22" s="184"/>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="184"/>
-      <c r="S22" s="184" t="s">
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="181"/>
+      <c r="S22" s="181" t="s">
         <v>212</v>
       </c>
-      <c r="T22" s="184"/>
-      <c r="U22" s="184"/>
-      <c r="V22" s="184"/>
-      <c r="W22" s="184"/>
-      <c r="X22" s="184"/>
-      <c r="Y22" s="184"/>
-      <c r="Z22" s="184"/>
-      <c r="AA22" s="184"/>
-      <c r="AB22" s="184"/>
-      <c r="AC22" s="184"/>
+      <c r="T22" s="181"/>
+      <c r="U22" s="181"/>
+      <c r="V22" s="181"/>
+      <c r="W22" s="181"/>
+      <c r="X22" s="181"/>
+      <c r="Y22" s="181"/>
+      <c r="Z22" s="181"/>
+      <c r="AA22" s="181"/>
+      <c r="AB22" s="181"/>
+      <c r="AC22" s="181"/>
       <c r="AD22" s="50"/>
       <c r="AE22" s="50"/>
       <c r="AF22" s="50"/>
@@ -13619,33 +14160,33 @@
       <c r="F23" s="72">
         <v>2</v>
       </c>
-      <c r="G23" s="184" t="s">
+      <c r="G23" s="181" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="184"/>
-      <c r="O23" s="184"/>
-      <c r="P23" s="184"/>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="184"/>
-      <c r="S23" s="184" t="s">
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="181"/>
+      <c r="S23" s="181" t="s">
         <v>213</v>
       </c>
-      <c r="T23" s="184"/>
-      <c r="U23" s="184"/>
-      <c r="V23" s="184"/>
-      <c r="W23" s="184"/>
-      <c r="X23" s="184"/>
-      <c r="Y23" s="184"/>
-      <c r="Z23" s="184"/>
-      <c r="AA23" s="184"/>
-      <c r="AB23" s="184"/>
-      <c r="AC23" s="184"/>
+      <c r="T23" s="181"/>
+      <c r="U23" s="181"/>
+      <c r="V23" s="181"/>
+      <c r="W23" s="181"/>
+      <c r="X23" s="181"/>
+      <c r="Y23" s="181"/>
+      <c r="Z23" s="181"/>
+      <c r="AA23" s="181"/>
+      <c r="AB23" s="181"/>
+      <c r="AC23" s="181"/>
       <c r="AD23" s="50"/>
       <c r="AE23" s="50"/>
       <c r="AF23" s="50"/>
@@ -13774,35 +14315,35 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="85" t="s">
-        <v>392</v>
-      </c>
-      <c r="G27" s="181" t="s">
+        <v>391</v>
+      </c>
+      <c r="G27" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="181"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="181"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="181"/>
-      <c r="R27" s="181"/>
-      <c r="S27" s="181" t="s">
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="183"/>
+      <c r="Q27" s="183"/>
+      <c r="R27" s="183"/>
+      <c r="S27" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="181"/>
-      <c r="U27" s="181"/>
-      <c r="V27" s="181"/>
-      <c r="W27" s="181"/>
-      <c r="X27" s="181"/>
-      <c r="Y27" s="181"/>
-      <c r="Z27" s="181"/>
-      <c r="AA27" s="181"/>
-      <c r="AB27" s="181"/>
-      <c r="AC27" s="181"/>
+      <c r="T27" s="183"/>
+      <c r="U27" s="183"/>
+      <c r="V27" s="183"/>
+      <c r="W27" s="183"/>
+      <c r="X27" s="183"/>
+      <c r="Y27" s="183"/>
+      <c r="Z27" s="183"/>
+      <c r="AA27" s="183"/>
+      <c r="AB27" s="183"/>
+      <c r="AC27" s="183"/>
       <c r="AD27" s="50"/>
       <c r="AE27" s="50"/>
       <c r="AF27" s="50"/>
@@ -13819,33 +14360,33 @@
       <c r="F28" s="86">
         <v>1</v>
       </c>
-      <c r="G28" s="180" t="s">
+      <c r="G28" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="180"/>
-      <c r="Q28" s="180"/>
-      <c r="R28" s="180"/>
-      <c r="S28" s="180" t="s">
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="182"/>
+      <c r="O28" s="182"/>
+      <c r="P28" s="182"/>
+      <c r="Q28" s="182"/>
+      <c r="R28" s="182"/>
+      <c r="S28" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="T28" s="180"/>
-      <c r="U28" s="180"/>
-      <c r="V28" s="180"/>
-      <c r="W28" s="180"/>
-      <c r="X28" s="180"/>
-      <c r="Y28" s="180"/>
-      <c r="Z28" s="180"/>
-      <c r="AA28" s="180"/>
-      <c r="AB28" s="180"/>
-      <c r="AC28" s="180"/>
+      <c r="T28" s="182"/>
+      <c r="U28" s="182"/>
+      <c r="V28" s="182"/>
+      <c r="W28" s="182"/>
+      <c r="X28" s="182"/>
+      <c r="Y28" s="182"/>
+      <c r="Z28" s="182"/>
+      <c r="AA28" s="182"/>
+      <c r="AB28" s="182"/>
+      <c r="AC28" s="182"/>
       <c r="AD28" s="50"/>
       <c r="AE28" s="50"/>
       <c r="AF28" s="50"/>
@@ -13862,33 +14403,33 @@
       <c r="F29" s="86">
         <v>2</v>
       </c>
-      <c r="G29" s="180" t="s">
+      <c r="G29" s="182" t="s">
         <v>203</v>
       </c>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="180"/>
-      <c r="Q29" s="180"/>
-      <c r="R29" s="180"/>
-      <c r="S29" s="180" t="s">
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="182"/>
+      <c r="P29" s="182"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="T29" s="180"/>
-      <c r="U29" s="180"/>
-      <c r="V29" s="180"/>
-      <c r="W29" s="180"/>
-      <c r="X29" s="180"/>
-      <c r="Y29" s="180"/>
-      <c r="Z29" s="180"/>
-      <c r="AA29" s="180"/>
-      <c r="AB29" s="180"/>
-      <c r="AC29" s="180"/>
+      <c r="T29" s="182"/>
+      <c r="U29" s="182"/>
+      <c r="V29" s="182"/>
+      <c r="W29" s="182"/>
+      <c r="X29" s="182"/>
+      <c r="Y29" s="182"/>
+      <c r="Z29" s="182"/>
+      <c r="AA29" s="182"/>
+      <c r="AB29" s="182"/>
+      <c r="AC29" s="182"/>
       <c r="AD29" s="50"/>
       <c r="AE29" s="50"/>
       <c r="AF29" s="50"/>
@@ -13905,33 +14446,33 @@
       <c r="F30" s="86">
         <v>3</v>
       </c>
-      <c r="G30" s="180" t="s">
+      <c r="G30" s="182" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="180"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="180" t="s">
+      <c r="H30" s="182"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="182"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182"/>
+      <c r="O30" s="182"/>
+      <c r="P30" s="182"/>
+      <c r="Q30" s="182"/>
+      <c r="R30" s="182"/>
+      <c r="S30" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="T30" s="180"/>
-      <c r="U30" s="180"/>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
-      <c r="Y30" s="180"/>
-      <c r="Z30" s="180"/>
-      <c r="AA30" s="180"/>
-      <c r="AB30" s="180"/>
-      <c r="AC30" s="180"/>
+      <c r="T30" s="182"/>
+      <c r="U30" s="182"/>
+      <c r="V30" s="182"/>
+      <c r="W30" s="182"/>
+      <c r="X30" s="182"/>
+      <c r="Y30" s="182"/>
+      <c r="Z30" s="182"/>
+      <c r="AA30" s="182"/>
+      <c r="AB30" s="182"/>
+      <c r="AC30" s="182"/>
       <c r="AD30" s="50"/>
       <c r="AE30" s="50"/>
       <c r="AF30" s="50"/>
@@ -13948,33 +14489,33 @@
       <c r="F31" s="84">
         <v>4</v>
       </c>
-      <c r="G31" s="180" t="s">
+      <c r="G31" s="182" t="s">
         <v>205</v>
       </c>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="180"/>
-      <c r="Q31" s="180"/>
-      <c r="R31" s="180"/>
-      <c r="S31" s="180" t="s">
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="182"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="T31" s="180"/>
-      <c r="U31" s="180"/>
-      <c r="V31" s="180"/>
-      <c r="W31" s="180"/>
-      <c r="X31" s="180"/>
-      <c r="Y31" s="180"/>
-      <c r="Z31" s="180"/>
-      <c r="AA31" s="180"/>
-      <c r="AB31" s="180"/>
-      <c r="AC31" s="180"/>
+      <c r="T31" s="182"/>
+      <c r="U31" s="182"/>
+      <c r="V31" s="182"/>
+      <c r="W31" s="182"/>
+      <c r="X31" s="182"/>
+      <c r="Y31" s="182"/>
+      <c r="Z31" s="182"/>
+      <c r="AA31" s="182"/>
+      <c r="AB31" s="182"/>
+      <c r="AC31" s="182"/>
       <c r="AD31" s="50"/>
       <c r="AE31" s="50"/>
       <c r="AF31" s="50"/>
@@ -13991,33 +14532,33 @@
       <c r="F32" s="84">
         <v>5</v>
       </c>
-      <c r="G32" s="180" t="s">
+      <c r="G32" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="180"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="180"/>
-      <c r="Q32" s="180"/>
-      <c r="R32" s="180"/>
-      <c r="S32" s="180" t="s">
+      <c r="H32" s="182"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="182"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="182"/>
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="182"/>
+      <c r="S32" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="T32" s="180"/>
-      <c r="U32" s="180"/>
-      <c r="V32" s="180"/>
-      <c r="W32" s="180"/>
-      <c r="X32" s="180"/>
-      <c r="Y32" s="180"/>
-      <c r="Z32" s="180"/>
-      <c r="AA32" s="180"/>
-      <c r="AB32" s="180"/>
-      <c r="AC32" s="180"/>
+      <c r="T32" s="182"/>
+      <c r="U32" s="182"/>
+      <c r="V32" s="182"/>
+      <c r="W32" s="182"/>
+      <c r="X32" s="182"/>
+      <c r="Y32" s="182"/>
+      <c r="Z32" s="182"/>
+      <c r="AA32" s="182"/>
+      <c r="AB32" s="182"/>
+      <c r="AC32" s="182"/>
       <c r="AD32" s="50"/>
       <c r="AE32" s="50"/>
       <c r="AF32" s="50"/>
@@ -14034,33 +14575,33 @@
       <c r="F33" s="84">
         <v>6</v>
       </c>
-      <c r="G33" s="180" t="s">
+      <c r="G33" s="182" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="180"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="180"/>
-      <c r="Q33" s="180"/>
-      <c r="R33" s="180"/>
-      <c r="S33" s="180" t="s">
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="182"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="182"/>
+      <c r="Q33" s="182"/>
+      <c r="R33" s="182"/>
+      <c r="S33" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="180"/>
-      <c r="U33" s="180"/>
-      <c r="V33" s="180"/>
-      <c r="W33" s="180"/>
-      <c r="X33" s="180"/>
-      <c r="Y33" s="180"/>
-      <c r="Z33" s="180"/>
-      <c r="AA33" s="180"/>
-      <c r="AB33" s="180"/>
-      <c r="AC33" s="180"/>
+      <c r="T33" s="182"/>
+      <c r="U33" s="182"/>
+      <c r="V33" s="182"/>
+      <c r="W33" s="182"/>
+      <c r="X33" s="182"/>
+      <c r="Y33" s="182"/>
+      <c r="Z33" s="182"/>
+      <c r="AA33" s="182"/>
+      <c r="AB33" s="182"/>
+      <c r="AC33" s="182"/>
       <c r="AD33" s="50"/>
       <c r="AE33" s="50"/>
       <c r="AF33" s="50"/>
@@ -14147,7 +14688,7 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -14263,36 +14804,36 @@
       <c r="C39" s="50"/>
       <c r="D39" s="50"/>
       <c r="E39" s="85" t="s">
-        <v>392</v>
-      </c>
-      <c r="F39" s="181" t="s">
+        <v>391</v>
+      </c>
+      <c r="F39" s="183" t="s">
         <v>207</v>
       </c>
-      <c r="G39" s="181"/>
-      <c r="H39" s="181"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="181"/>
-      <c r="K39" s="181"/>
-      <c r="L39" s="181"/>
-      <c r="M39" s="181"/>
-      <c r="N39" s="181"/>
-      <c r="O39" s="181"/>
-      <c r="P39" s="181"/>
-      <c r="Q39" s="181"/>
-      <c r="R39" s="181" t="s">
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="183"/>
+      <c r="M39" s="183"/>
+      <c r="N39" s="183"/>
+      <c r="O39" s="183"/>
+      <c r="P39" s="183"/>
+      <c r="Q39" s="183"/>
+      <c r="R39" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="S39" s="181"/>
-      <c r="T39" s="181"/>
-      <c r="U39" s="181"/>
-      <c r="V39" s="181"/>
-      <c r="W39" s="181"/>
-      <c r="X39" s="181"/>
-      <c r="Y39" s="181"/>
-      <c r="Z39" s="181"/>
-      <c r="AA39" s="181"/>
-      <c r="AB39" s="181"/>
-      <c r="AC39" s="181"/>
+      <c r="S39" s="183"/>
+      <c r="T39" s="183"/>
+      <c r="U39" s="183"/>
+      <c r="V39" s="183"/>
+      <c r="W39" s="183"/>
+      <c r="X39" s="183"/>
+      <c r="Y39" s="183"/>
+      <c r="Z39" s="183"/>
+      <c r="AA39" s="183"/>
+      <c r="AB39" s="183"/>
+      <c r="AC39" s="183"/>
       <c r="AD39" s="50"/>
       <c r="AE39" s="50"/>
       <c r="AF39" s="50"/>
@@ -14308,34 +14849,34 @@
       <c r="E40" s="86">
         <v>1</v>
       </c>
-      <c r="F40" s="180" t="s">
+      <c r="F40" s="182" t="s">
         <v>176</v>
       </c>
-      <c r="G40" s="180"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="180"/>
-      <c r="J40" s="180"/>
-      <c r="K40" s="180"/>
-      <c r="L40" s="180"/>
-      <c r="M40" s="180"/>
-      <c r="N40" s="180"/>
-      <c r="O40" s="180"/>
-      <c r="P40" s="180"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="182" t="s">
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="182"/>
+      <c r="K40" s="182"/>
+      <c r="L40" s="182"/>
+      <c r="M40" s="182"/>
+      <c r="N40" s="182"/>
+      <c r="O40" s="182"/>
+      <c r="P40" s="182"/>
+      <c r="Q40" s="182"/>
+      <c r="R40" s="184" t="s">
         <v>215</v>
       </c>
-      <c r="S40" s="182"/>
-      <c r="T40" s="182"/>
-      <c r="U40" s="182"/>
-      <c r="V40" s="182"/>
-      <c r="W40" s="182"/>
-      <c r="X40" s="182"/>
-      <c r="Y40" s="182"/>
-      <c r="Z40" s="182"/>
-      <c r="AA40" s="182"/>
-      <c r="AB40" s="182"/>
-      <c r="AC40" s="182"/>
+      <c r="S40" s="184"/>
+      <c r="T40" s="184"/>
+      <c r="U40" s="184"/>
+      <c r="V40" s="184"/>
+      <c r="W40" s="184"/>
+      <c r="X40" s="184"/>
+      <c r="Y40" s="184"/>
+      <c r="Z40" s="184"/>
+      <c r="AA40" s="184"/>
+      <c r="AB40" s="184"/>
+      <c r="AC40" s="184"/>
       <c r="AD40" s="50"/>
       <c r="AE40" s="50"/>
       <c r="AF40" s="50"/>
@@ -14351,34 +14892,34 @@
       <c r="E41" s="86">
         <v>2</v>
       </c>
-      <c r="F41" s="180" t="s">
+      <c r="F41" s="182" t="s">
         <v>208</v>
       </c>
-      <c r="G41" s="180"/>
-      <c r="H41" s="180"/>
-      <c r="I41" s="180"/>
-      <c r="J41" s="180"/>
-      <c r="K41" s="180"/>
-      <c r="L41" s="180"/>
-      <c r="M41" s="180"/>
-      <c r="N41" s="180"/>
-      <c r="O41" s="180"/>
-      <c r="P41" s="180"/>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="182" t="s">
+      <c r="G41" s="182"/>
+      <c r="H41" s="182"/>
+      <c r="I41" s="182"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="182"/>
+      <c r="L41" s="182"/>
+      <c r="M41" s="182"/>
+      <c r="N41" s="182"/>
+      <c r="O41" s="182"/>
+      <c r="P41" s="182"/>
+      <c r="Q41" s="182"/>
+      <c r="R41" s="184" t="s">
         <v>216</v>
       </c>
-      <c r="S41" s="182"/>
-      <c r="T41" s="182"/>
-      <c r="U41" s="182"/>
-      <c r="V41" s="182"/>
-      <c r="W41" s="182"/>
-      <c r="X41" s="182"/>
-      <c r="Y41" s="182"/>
-      <c r="Z41" s="182"/>
-      <c r="AA41" s="182"/>
-      <c r="AB41" s="182"/>
-      <c r="AC41" s="182"/>
+      <c r="S41" s="184"/>
+      <c r="T41" s="184"/>
+      <c r="U41" s="184"/>
+      <c r="V41" s="184"/>
+      <c r="W41" s="184"/>
+      <c r="X41" s="184"/>
+      <c r="Y41" s="184"/>
+      <c r="Z41" s="184"/>
+      <c r="AA41" s="184"/>
+      <c r="AB41" s="184"/>
+      <c r="AC41" s="184"/>
       <c r="AD41" s="50"/>
       <c r="AE41" s="50"/>
       <c r="AF41" s="50"/>
@@ -14394,34 +14935,34 @@
       <c r="E42" s="86">
         <v>3</v>
       </c>
-      <c r="F42" s="180" t="s">
+      <c r="F42" s="182" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="180"/>
-      <c r="H42" s="180"/>
-      <c r="I42" s="180"/>
-      <c r="J42" s="180"/>
-      <c r="K42" s="180"/>
-      <c r="L42" s="180"/>
-      <c r="M42" s="180"/>
-      <c r="N42" s="180"/>
-      <c r="O42" s="180"/>
-      <c r="P42" s="180"/>
-      <c r="Q42" s="180"/>
-      <c r="R42" s="182" t="s">
+      <c r="G42" s="182"/>
+      <c r="H42" s="182"/>
+      <c r="I42" s="182"/>
+      <c r="J42" s="182"/>
+      <c r="K42" s="182"/>
+      <c r="L42" s="182"/>
+      <c r="M42" s="182"/>
+      <c r="N42" s="182"/>
+      <c r="O42" s="182"/>
+      <c r="P42" s="182"/>
+      <c r="Q42" s="182"/>
+      <c r="R42" s="184" t="s">
         <v>217</v>
       </c>
-      <c r="S42" s="182"/>
-      <c r="T42" s="182"/>
-      <c r="U42" s="182"/>
-      <c r="V42" s="182"/>
-      <c r="W42" s="182"/>
-      <c r="X42" s="182"/>
-      <c r="Y42" s="182"/>
-      <c r="Z42" s="182"/>
-      <c r="AA42" s="182"/>
-      <c r="AB42" s="182"/>
-      <c r="AC42" s="182"/>
+      <c r="S42" s="184"/>
+      <c r="T42" s="184"/>
+      <c r="U42" s="184"/>
+      <c r="V42" s="184"/>
+      <c r="W42" s="184"/>
+      <c r="X42" s="184"/>
+      <c r="Y42" s="184"/>
+      <c r="Z42" s="184"/>
+      <c r="AA42" s="184"/>
+      <c r="AB42" s="184"/>
+      <c r="AC42" s="184"/>
       <c r="AD42" s="50"/>
       <c r="AE42" s="50"/>
       <c r="AF42" s="50"/>
@@ -14437,34 +14978,34 @@
       <c r="E43" s="84">
         <v>4</v>
       </c>
-      <c r="F43" s="180" t="s">
+      <c r="F43" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="180"/>
-      <c r="L43" s="180"/>
-      <c r="M43" s="180"/>
-      <c r="N43" s="180"/>
-      <c r="O43" s="180"/>
-      <c r="P43" s="180"/>
-      <c r="Q43" s="180"/>
-      <c r="R43" s="182" t="s">
+      <c r="G43" s="182"/>
+      <c r="H43" s="182"/>
+      <c r="I43" s="182"/>
+      <c r="J43" s="182"/>
+      <c r="K43" s="182"/>
+      <c r="L43" s="182"/>
+      <c r="M43" s="182"/>
+      <c r="N43" s="182"/>
+      <c r="O43" s="182"/>
+      <c r="P43" s="182"/>
+      <c r="Q43" s="182"/>
+      <c r="R43" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="S43" s="182"/>
-      <c r="T43" s="182"/>
-      <c r="U43" s="182"/>
-      <c r="V43" s="182"/>
-      <c r="W43" s="182"/>
-      <c r="X43" s="182"/>
-      <c r="Y43" s="182"/>
-      <c r="Z43" s="182"/>
-      <c r="AA43" s="182"/>
-      <c r="AB43" s="182"/>
-      <c r="AC43" s="182"/>
+      <c r="S43" s="184"/>
+      <c r="T43" s="184"/>
+      <c r="U43" s="184"/>
+      <c r="V43" s="184"/>
+      <c r="W43" s="184"/>
+      <c r="X43" s="184"/>
+      <c r="Y43" s="184"/>
+      <c r="Z43" s="184"/>
+      <c r="AA43" s="184"/>
+      <c r="AB43" s="184"/>
+      <c r="AC43" s="184"/>
       <c r="AD43" s="50"/>
       <c r="AE43" s="50"/>
       <c r="AF43" s="50"/>
@@ -14480,34 +15021,34 @@
       <c r="E44" s="84">
         <v>5</v>
       </c>
-      <c r="F44" s="180" t="s">
+      <c r="F44" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="180"/>
-      <c r="H44" s="180"/>
-      <c r="I44" s="180"/>
-      <c r="J44" s="180"/>
-      <c r="K44" s="180"/>
-      <c r="L44" s="180"/>
-      <c r="M44" s="180"/>
-      <c r="N44" s="180"/>
-      <c r="O44" s="180"/>
-      <c r="P44" s="180"/>
-      <c r="Q44" s="180"/>
-      <c r="R44" s="182" t="s">
+      <c r="G44" s="182"/>
+      <c r="H44" s="182"/>
+      <c r="I44" s="182"/>
+      <c r="J44" s="182"/>
+      <c r="K44" s="182"/>
+      <c r="L44" s="182"/>
+      <c r="M44" s="182"/>
+      <c r="N44" s="182"/>
+      <c r="O44" s="182"/>
+      <c r="P44" s="182"/>
+      <c r="Q44" s="182"/>
+      <c r="R44" s="184" t="s">
         <v>219</v>
       </c>
-      <c r="S44" s="182"/>
-      <c r="T44" s="182"/>
-      <c r="U44" s="182"/>
-      <c r="V44" s="182"/>
-      <c r="W44" s="182"/>
-      <c r="X44" s="182"/>
-      <c r="Y44" s="182"/>
-      <c r="Z44" s="182"/>
-      <c r="AA44" s="182"/>
-      <c r="AB44" s="182"/>
-      <c r="AC44" s="182"/>
+      <c r="S44" s="184"/>
+      <c r="T44" s="184"/>
+      <c r="U44" s="184"/>
+      <c r="V44" s="184"/>
+      <c r="W44" s="184"/>
+      <c r="X44" s="184"/>
+      <c r="Y44" s="184"/>
+      <c r="Z44" s="184"/>
+      <c r="AA44" s="184"/>
+      <c r="AB44" s="184"/>
+      <c r="AC44" s="184"/>
       <c r="AD44" s="50"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="50"/>
@@ -14523,34 +15064,34 @@
       <c r="E45" s="84">
         <v>6</v>
       </c>
-      <c r="F45" s="180" t="s">
+      <c r="F45" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="180"/>
-      <c r="H45" s="180"/>
-      <c r="I45" s="180"/>
-      <c r="J45" s="180"/>
-      <c r="K45" s="180"/>
-      <c r="L45" s="180"/>
-      <c r="M45" s="180"/>
-      <c r="N45" s="180"/>
-      <c r="O45" s="180"/>
-      <c r="P45" s="180"/>
-      <c r="Q45" s="180"/>
-      <c r="R45" s="182" t="s">
+      <c r="G45" s="182"/>
+      <c r="H45" s="182"/>
+      <c r="I45" s="182"/>
+      <c r="J45" s="182"/>
+      <c r="K45" s="182"/>
+      <c r="L45" s="182"/>
+      <c r="M45" s="182"/>
+      <c r="N45" s="182"/>
+      <c r="O45" s="182"/>
+      <c r="P45" s="182"/>
+      <c r="Q45" s="182"/>
+      <c r="R45" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="S45" s="182"/>
-      <c r="T45" s="182"/>
-      <c r="U45" s="182"/>
-      <c r="V45" s="182"/>
-      <c r="W45" s="182"/>
-      <c r="X45" s="182"/>
-      <c r="Y45" s="182"/>
-      <c r="Z45" s="182"/>
-      <c r="AA45" s="182"/>
-      <c r="AB45" s="182"/>
-      <c r="AC45" s="182"/>
+      <c r="S45" s="184"/>
+      <c r="T45" s="184"/>
+      <c r="U45" s="184"/>
+      <c r="V45" s="184"/>
+      <c r="W45" s="184"/>
+      <c r="X45" s="184"/>
+      <c r="Y45" s="184"/>
+      <c r="Z45" s="184"/>
+      <c r="AA45" s="184"/>
+      <c r="AB45" s="184"/>
+      <c r="AC45" s="184"/>
       <c r="AD45" s="50"/>
       <c r="AE45" s="50"/>
       <c r="AF45" s="50"/>
@@ -14603,7 +15144,7 @@
       <c r="C47" s="50"/>
       <c r="D47" s="50"/>
       <c r="E47" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="50"/>
@@ -14642,7 +15183,7 @@
       <c r="C48" s="50"/>
       <c r="D48" s="50"/>
       <c r="E48" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="50"/>
@@ -15124,7 +15665,7 @@
       <c r="B61" s="50"/>
       <c r="C61" s="50"/>
       <c r="D61" s="50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
@@ -15391,7 +15932,7 @@
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -15468,7 +16009,7 @@
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
@@ -16889,7 +17430,7 @@
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
@@ -18032,7 +18573,7 @@
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
       <c r="D137" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -18109,7 +18650,7 @@
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
@@ -19666,7 +20207,7 @@
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
       <c r="E180" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -20305,7 +20846,7 @@
       <c r="C197" s="12"/>
       <c r="D197" s="12"/>
       <c r="E197" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
@@ -20866,7 +21407,7 @@
       <c r="C212" s="12"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F212" s="12"/>
       <c r="G212" s="12"/>
@@ -21647,19 +22188,30 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G21:R21"/>
-    <mergeCell ref="G22:R22"/>
-    <mergeCell ref="G23:R23"/>
-    <mergeCell ref="S21:AC21"/>
-    <mergeCell ref="S22:AC22"/>
-    <mergeCell ref="S23:AC23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="F44:Q44"/>
+    <mergeCell ref="F45:Q45"/>
+    <mergeCell ref="R39:AC39"/>
+    <mergeCell ref="R40:AC40"/>
+    <mergeCell ref="R41:AC41"/>
+    <mergeCell ref="R42:AC42"/>
+    <mergeCell ref="R43:AC43"/>
+    <mergeCell ref="R44:AC44"/>
+    <mergeCell ref="R45:AC45"/>
+    <mergeCell ref="F39:Q39"/>
+    <mergeCell ref="F40:Q40"/>
+    <mergeCell ref="F41:Q41"/>
+    <mergeCell ref="F42:Q42"/>
+    <mergeCell ref="F43:Q43"/>
     <mergeCell ref="G32:R32"/>
     <mergeCell ref="G33:R33"/>
     <mergeCell ref="S27:AC27"/>
@@ -21674,30 +22226,19 @@
     <mergeCell ref="G29:R29"/>
     <mergeCell ref="G30:R30"/>
     <mergeCell ref="G31:R31"/>
-    <mergeCell ref="F44:Q44"/>
-    <mergeCell ref="F45:Q45"/>
-    <mergeCell ref="R39:AC39"/>
-    <mergeCell ref="R40:AC40"/>
-    <mergeCell ref="R41:AC41"/>
-    <mergeCell ref="R42:AC42"/>
-    <mergeCell ref="R43:AC43"/>
-    <mergeCell ref="R44:AC44"/>
-    <mergeCell ref="R45:AC45"/>
-    <mergeCell ref="F39:Q39"/>
-    <mergeCell ref="F40:Q40"/>
-    <mergeCell ref="F41:Q41"/>
-    <mergeCell ref="F42:Q42"/>
-    <mergeCell ref="F43:Q43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="G21:R21"/>
+    <mergeCell ref="G22:R22"/>
+    <mergeCell ref="G23:R23"/>
+    <mergeCell ref="S21:AC21"/>
+    <mergeCell ref="S22:AC22"/>
+    <mergeCell ref="S23:AC23"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -21719,7 +22260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -21735,163 +22276,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="163" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="141" t="str">
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="160" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="160" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="177" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -21936,7 +22477,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -22089,7 +22630,7 @@
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -22129,7 +22670,7 @@
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -22984,7 +23525,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -23513,7 +24054,7 @@
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -24458,7 +24999,7 @@
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="74" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
@@ -24499,7 +25040,7 @@
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="74" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -25814,7 +26355,7 @@
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
@@ -25893,36 +26434,36 @@
       <c r="F108" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G108" s="99"/>
-      <c r="H108" s="99"/>
-      <c r="I108" s="99"/>
-      <c r="J108" s="99"/>
-      <c r="K108" s="99"/>
-      <c r="L108" s="99"/>
-      <c r="M108" s="99"/>
-      <c r="N108" s="99"/>
-      <c r="O108" s="99"/>
-      <c r="P108" s="99"/>
-      <c r="Q108" s="99"/>
-      <c r="R108" s="99"/>
-      <c r="S108" s="99"/>
-      <c r="T108" s="99"/>
-      <c r="U108" s="99"/>
-      <c r="V108" s="100"/>
+      <c r="G108" s="136"/>
+      <c r="H108" s="136"/>
+      <c r="I108" s="136"/>
+      <c r="J108" s="136"/>
+      <c r="K108" s="136"/>
+      <c r="L108" s="136"/>
+      <c r="M108" s="136"/>
+      <c r="N108" s="136"/>
+      <c r="O108" s="136"/>
+      <c r="P108" s="136"/>
+      <c r="Q108" s="136"/>
+      <c r="R108" s="136"/>
+      <c r="S108" s="136"/>
+      <c r="T108" s="136"/>
+      <c r="U108" s="136"/>
+      <c r="V108" s="137"/>
       <c r="W108" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X108" s="99"/>
-      <c r="Y108" s="99"/>
-      <c r="Z108" s="99"/>
-      <c r="AA108" s="99"/>
-      <c r="AB108" s="99"/>
-      <c r="AC108" s="99"/>
-      <c r="AD108" s="99"/>
-      <c r="AE108" s="99"/>
-      <c r="AF108" s="99"/>
-      <c r="AG108" s="99"/>
-      <c r="AH108" s="100"/>
+      <c r="X108" s="136"/>
+      <c r="Y108" s="136"/>
+      <c r="Z108" s="136"/>
+      <c r="AA108" s="136"/>
+      <c r="AB108" s="136"/>
+      <c r="AC108" s="136"/>
+      <c r="AD108" s="136"/>
+      <c r="AE108" s="136"/>
+      <c r="AF108" s="136"/>
+      <c r="AG108" s="136"/>
+      <c r="AH108" s="137"/>
       <c r="AI108" s="12"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.15">
@@ -26515,36 +27056,36 @@
       <c r="F124" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G124" s="99"/>
-      <c r="H124" s="99"/>
-      <c r="I124" s="99"/>
-      <c r="J124" s="99"/>
-      <c r="K124" s="99"/>
-      <c r="L124" s="99"/>
-      <c r="M124" s="99"/>
-      <c r="N124" s="99"/>
-      <c r="O124" s="99"/>
-      <c r="P124" s="99"/>
-      <c r="Q124" s="99"/>
-      <c r="R124" s="99"/>
-      <c r="S124" s="99"/>
-      <c r="T124" s="99"/>
-      <c r="U124" s="99"/>
-      <c r="V124" s="100"/>
+      <c r="G124" s="136"/>
+      <c r="H124" s="136"/>
+      <c r="I124" s="136"/>
+      <c r="J124" s="136"/>
+      <c r="K124" s="136"/>
+      <c r="L124" s="136"/>
+      <c r="M124" s="136"/>
+      <c r="N124" s="136"/>
+      <c r="O124" s="136"/>
+      <c r="P124" s="136"/>
+      <c r="Q124" s="136"/>
+      <c r="R124" s="136"/>
+      <c r="S124" s="136"/>
+      <c r="T124" s="136"/>
+      <c r="U124" s="136"/>
+      <c r="V124" s="137"/>
       <c r="W124" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X124" s="99"/>
-      <c r="Y124" s="99"/>
-      <c r="Z124" s="99"/>
-      <c r="AA124" s="99"/>
-      <c r="AB124" s="99"/>
-      <c r="AC124" s="99"/>
-      <c r="AD124" s="99"/>
-      <c r="AE124" s="99"/>
-      <c r="AF124" s="99"/>
-      <c r="AG124" s="99"/>
-      <c r="AH124" s="100"/>
+      <c r="X124" s="136"/>
+      <c r="Y124" s="136"/>
+      <c r="Z124" s="136"/>
+      <c r="AA124" s="136"/>
+      <c r="AB124" s="136"/>
+      <c r="AC124" s="136"/>
+      <c r="AD124" s="136"/>
+      <c r="AE124" s="136"/>
+      <c r="AF124" s="136"/>
+      <c r="AG124" s="136"/>
+      <c r="AH124" s="137"/>
       <c r="AI124" s="12"/>
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.15">
@@ -26930,7 +27471,7 @@
       <c r="U134" s="18"/>
       <c r="V134" s="82"/>
       <c r="W134" s="74" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X134" s="18"/>
       <c r="Y134" s="18"/>
@@ -27445,7 +27986,7 @@
       <c r="U147" s="18"/>
       <c r="V147" s="82"/>
       <c r="W147" s="74" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="X147" s="18"/>
       <c r="Y147" s="18"/>
@@ -32253,7 +32794,7 @@
       <c r="C271" s="12"/>
       <c r="D271" s="12"/>
       <c r="E271" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F271" s="12"/>
       <c r="G271" s="18"/>
@@ -34741,7 +35282,7 @@
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
       <c r="E335" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F335" s="12"/>
       <c r="G335" s="12"/>
@@ -35269,20 +35810,15 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="W198:AH198"/>
-    <mergeCell ref="F49:V49"/>
-    <mergeCell ref="W49:AH49"/>
-    <mergeCell ref="F79:V79"/>
-    <mergeCell ref="W79:AH79"/>
-    <mergeCell ref="F108:V108"/>
-    <mergeCell ref="W108:AH108"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="F295:V295"/>
     <mergeCell ref="W295:AH295"/>
     <mergeCell ref="F337:V337"/>
@@ -35299,15 +35835,20 @@
     <mergeCell ref="F166:V166"/>
     <mergeCell ref="W166:AH166"/>
     <mergeCell ref="F198:V198"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="W198:AH198"/>
+    <mergeCell ref="F49:V49"/>
+    <mergeCell ref="W49:AH49"/>
+    <mergeCell ref="F79:V79"/>
+    <mergeCell ref="W79:AH79"/>
+    <mergeCell ref="F108:V108"/>
+    <mergeCell ref="W108:AH108"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -35332,7 +35873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -35345,163 +35886,163 @@
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="163" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="169" t="s">
         <v>277</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="188" t="str">
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="160" t="s">
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="160" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="177" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="201"/>
+      <c r="U3" s="201"/>
+      <c r="V3" s="201"/>
+      <c r="W3" s="201"/>
+      <c r="X3" s="201"/>
+      <c r="Y3" s="201"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -35903,38 +36444,38 @@
       <c r="D11" s="75">
         <v>1</v>
       </c>
-      <c r="E11" s="200" t="s">
+      <c r="E11" s="191" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="201"/>
-      <c r="R11" s="201"/>
-      <c r="S11" s="201"/>
-      <c r="T11" s="201"/>
-      <c r="U11" s="202"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="100"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="192"/>
+      <c r="N11" s="192"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="192"/>
+      <c r="R11" s="192"/>
+      <c r="S11" s="192"/>
+      <c r="T11" s="192"/>
+      <c r="U11" s="193"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="136"/>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="136"/>
+      <c r="AA11" s="136"/>
+      <c r="AB11" s="136"/>
+      <c r="AC11" s="136"/>
+      <c r="AD11" s="136"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="136"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="137"/>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
@@ -35962,39 +36503,39 @@
         <v>2</v>
       </c>
       <c r="E12" s="74"/>
-      <c r="F12" s="197" t="s">
+      <c r="F12" s="188" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="198"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="198"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="198"/>
-      <c r="P12" s="198"/>
-      <c r="Q12" s="198"/>
-      <c r="R12" s="198"/>
-      <c r="S12" s="198"/>
-      <c r="T12" s="198"/>
-      <c r="U12" s="199"/>
-      <c r="V12" s="197" t="s">
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="189"/>
+      <c r="S12" s="189"/>
+      <c r="T12" s="189"/>
+      <c r="U12" s="190"/>
+      <c r="V12" s="188" t="s">
         <v>173</v>
       </c>
-      <c r="W12" s="198"/>
-      <c r="X12" s="198"/>
-      <c r="Y12" s="198"/>
-      <c r="Z12" s="198"/>
-      <c r="AA12" s="198"/>
-      <c r="AB12" s="198"/>
-      <c r="AC12" s="198"/>
-      <c r="AD12" s="198"/>
-      <c r="AE12" s="198"/>
-      <c r="AF12" s="198"/>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="199"/>
+      <c r="W12" s="189"/>
+      <c r="X12" s="189"/>
+      <c r="Y12" s="189"/>
+      <c r="Z12" s="189"/>
+      <c r="AA12" s="189"/>
+      <c r="AB12" s="189"/>
+      <c r="AC12" s="189"/>
+      <c r="AD12" s="189"/>
+      <c r="AE12" s="189"/>
+      <c r="AF12" s="189"/>
+      <c r="AG12" s="189"/>
+      <c r="AH12" s="190"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
@@ -36022,39 +36563,39 @@
         <v>3</v>
       </c>
       <c r="E13" s="74"/>
-      <c r="F13" s="197" t="s">
+      <c r="F13" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="198"/>
-      <c r="H13" s="198"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="198"/>
-      <c r="M13" s="198"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="198"/>
-      <c r="P13" s="198"/>
-      <c r="Q13" s="198"/>
-      <c r="R13" s="198"/>
-      <c r="S13" s="198"/>
-      <c r="T13" s="198"/>
-      <c r="U13" s="199"/>
-      <c r="V13" s="197" t="s">
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="189"/>
+      <c r="S13" s="189"/>
+      <c r="T13" s="189"/>
+      <c r="U13" s="190"/>
+      <c r="V13" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="W13" s="198"/>
-      <c r="X13" s="198"/>
-      <c r="Y13" s="198"/>
-      <c r="Z13" s="198"/>
-      <c r="AA13" s="198"/>
-      <c r="AB13" s="198"/>
-      <c r="AC13" s="198"/>
-      <c r="AD13" s="198"/>
-      <c r="AE13" s="198"/>
-      <c r="AF13" s="198"/>
-      <c r="AG13" s="198"/>
-      <c r="AH13" s="199"/>
+      <c r="W13" s="189"/>
+      <c r="X13" s="189"/>
+      <c r="Y13" s="189"/>
+      <c r="Z13" s="189"/>
+      <c r="AA13" s="189"/>
+      <c r="AB13" s="189"/>
+      <c r="AC13" s="189"/>
+      <c r="AD13" s="189"/>
+      <c r="AE13" s="189"/>
+      <c r="AF13" s="189"/>
+      <c r="AG13" s="189"/>
+      <c r="AH13" s="190"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
@@ -36082,39 +36623,39 @@
         <v>4</v>
       </c>
       <c r="E14" s="74"/>
-      <c r="F14" s="197" t="s">
+      <c r="F14" s="188" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="198"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="198"/>
-      <c r="L14" s="198"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
-      <c r="O14" s="198"/>
-      <c r="P14" s="198"/>
-      <c r="Q14" s="198"/>
-      <c r="R14" s="198"/>
-      <c r="S14" s="198"/>
-      <c r="T14" s="198"/>
-      <c r="U14" s="199"/>
-      <c r="V14" s="197" t="s">
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="189"/>
+      <c r="S14" s="189"/>
+      <c r="T14" s="189"/>
+      <c r="U14" s="190"/>
+      <c r="V14" s="188" t="s">
         <v>110</v>
       </c>
-      <c r="W14" s="198"/>
-      <c r="X14" s="198"/>
-      <c r="Y14" s="198"/>
-      <c r="Z14" s="198"/>
-      <c r="AA14" s="198"/>
-      <c r="AB14" s="198"/>
-      <c r="AC14" s="198"/>
-      <c r="AD14" s="198"/>
-      <c r="AE14" s="198"/>
-      <c r="AF14" s="198"/>
-      <c r="AG14" s="198"/>
-      <c r="AH14" s="199"/>
+      <c r="W14" s="189"/>
+      <c r="X14" s="189"/>
+      <c r="Y14" s="189"/>
+      <c r="Z14" s="189"/>
+      <c r="AA14" s="189"/>
+      <c r="AB14" s="189"/>
+      <c r="AC14" s="189"/>
+      <c r="AD14" s="189"/>
+      <c r="AE14" s="189"/>
+      <c r="AF14" s="189"/>
+      <c r="AG14" s="189"/>
+      <c r="AH14" s="190"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
@@ -36141,40 +36682,40 @@
       <c r="D15" s="75">
         <v>5</v>
       </c>
-      <c r="E15" s="197" t="s">
+      <c r="E15" s="188" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
-      <c r="P15" s="198"/>
-      <c r="Q15" s="198"/>
-      <c r="R15" s="198"/>
-      <c r="S15" s="198"/>
-      <c r="T15" s="198"/>
-      <c r="U15" s="199"/>
-      <c r="V15" s="197" t="s">
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="189"/>
+      <c r="S15" s="189"/>
+      <c r="T15" s="189"/>
+      <c r="U15" s="190"/>
+      <c r="V15" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="W15" s="198"/>
-      <c r="X15" s="198"/>
-      <c r="Y15" s="198"/>
-      <c r="Z15" s="198"/>
-      <c r="AA15" s="198"/>
-      <c r="AB15" s="198"/>
-      <c r="AC15" s="198"/>
-      <c r="AD15" s="198"/>
-      <c r="AE15" s="198"/>
-      <c r="AF15" s="198"/>
-      <c r="AG15" s="198"/>
-      <c r="AH15" s="199"/>
+      <c r="W15" s="189"/>
+      <c r="X15" s="189"/>
+      <c r="Y15" s="189"/>
+      <c r="Z15" s="189"/>
+      <c r="AA15" s="189"/>
+      <c r="AB15" s="189"/>
+      <c r="AC15" s="189"/>
+      <c r="AD15" s="189"/>
+      <c r="AE15" s="189"/>
+      <c r="AF15" s="189"/>
+      <c r="AG15" s="189"/>
+      <c r="AH15" s="190"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
@@ -36254,8 +36795,8 @@
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
-        <v>365</v>
+      <c r="D17" s="203" t="s">
+        <v>419</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -36311,7 +36852,7 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -36367,7 +36908,7 @@
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -36423,7 +36964,7 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -36479,7 +37020,7 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -36535,7 +37076,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -36591,7 +37132,7 @@
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -38534,15 +39075,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="V15:AH15"/>
     <mergeCell ref="E10:U10"/>
     <mergeCell ref="E11:U11"/>
@@ -38555,14 +39095,15 @@
     <mergeCell ref="V12:AH12"/>
     <mergeCell ref="V13:AH13"/>
     <mergeCell ref="V14:AH14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/shell/シェルスクリプト開発標準.xlsx
+++ b/サンプルプロジェクト/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/shell/シェルスクリプト開発標準.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C75838-A4D4-4E20-A242-B226BE876A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="1785" windowWidth="20100" windowHeight="9630" tabRatio="822"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="21" r:id="rId1"/>
@@ -33,15 +32,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1761,6 +1752,9 @@
     <t>※1 コンポーネント設定ファイル、環境設定ファイルに関しては、「Nablarch Application Framework 解説書 =&gt; リポジトリ」を参照のこと。</t>
   </si>
   <si>
+    <t>※2 テスト環境と結合テスト移行の環境では環境が大きく異なる場合があり、環境設定ファイルのみでは環境差異を吸収できない場合がある。</t>
+  </si>
+  <si>
     <t>　  環境差異が、プロパティにインジェクションする値だけではなく、クラス名やプロパティ名（数）等影響が広範囲に広がる場合が該当する。</t>
   </si>
   <si>
@@ -2170,18 +2164,11 @@
     <t>TIS</t>
     <phoneticPr fontId="11"/>
   </si>
-  <si>
-    <t>※2 テスト環境と結合テスト以降の環境では環境が大きく異なる場合があり、環境設定ファイルのみでは環境差異を吸収できない場合がある。</t>
-    <rPh sb="14" eb="16">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -2567,7 +2554,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2794,6 +2781,81 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2905,81 +2967,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2989,18 +2976,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3048,11 +3023,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3063,6 +3044,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3070,24 +3057,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3117,27 +3086,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="パーセント 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="パーセント 2" xfId="5"/>
     <cellStyle name="ハイパーリンク" xfId="6" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 2" xfId="3"/>
+    <cellStyle name="標準 2 2" xfId="4"/>
+    <cellStyle name="標準_画面標準" xfId="1"/>
+    <cellStyle name="標準_画面標準定義" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3160,13 +3141,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Group 17"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3181,13 +3156,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="3" name="Text Box 12"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3271,13 +3240,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="4" name="Text Box 13"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3377,13 +3340,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Text Box 18"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3491,13 +3448,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15460" name="Text Box 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000643C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15460" name="Text Box 100"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3616,13 +3567,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15461" name="Line 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000653C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15461" name="Line 101"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3676,13 +3621,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15462" name="Text Box 102">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000663C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15462" name="Text Box 102"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3771,13 +3710,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="グループ化 9"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3790,13 +3723,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15464" name="Text Box 104">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000683C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15464" name="Text Box 104"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4014,13 +3941,7 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15465" name="Group 105">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000693C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15465" name="Group 105"/>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4041,13 +3962,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15466" name="Line 106">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006A3C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15466" name="Line 106"/>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4076,13 +3991,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15467" name="Text Box 107">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006B3C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15467" name="Text Box 107"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4143,13 +4052,7 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15468" name="Group 108">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006C3C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15468" name="Group 108"/>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4170,13 +4073,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15469" name="Line 109">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006D3C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15469" name="Line 109"/>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4205,13 +4102,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15470" name="Text Box 110">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E3C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15470" name="Text Box 110"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4272,13 +4163,7 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="グループ化 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="9" name="グループ化 8"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4291,13 +4176,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15472" name="AutoShape 112">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000703C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15472" name="AutoShape 112"/>
             <xdr:cNvSpPr>
               <a:spLocks/>
             </xdr:cNvSpPr>
@@ -4329,13 +4208,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15473" name="Line 113">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000713C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15473" name="Line 113"/>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4364,13 +4237,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15474" name="Text Box 114">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000723C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15474" name="Text Box 114"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4452,13 +4319,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4471,13 +4332,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15437" name="Text Box 77">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004D3C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15437" name="Text Box 77"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4690,13 +4545,7 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15438" name="Group 78">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004E3C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15438" name="Group 78"/>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4717,13 +4566,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15439" name="Line 79">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004F3C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15439" name="Line 79"/>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4752,13 +4595,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15440" name="Text Box 80">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000503C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15440" name="Text Box 80"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4819,13 +4656,7 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15498" name="Group 138">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008A3C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15498" name="Group 138"/>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4846,13 +4677,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15499" name="Line 139">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008B3C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15499" name="Line 139"/>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4881,13 +4706,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15500" name="Text Box 140">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008C3C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15500" name="Text Box 140"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4948,13 +4767,7 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15501" name="Group 141">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008D3C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15501" name="Group 141"/>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4975,13 +4788,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15502" name="Line 142">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008E3C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15502" name="Line 142"/>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -5010,13 +4817,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15503" name="Text Box 143">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008F3C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15503" name="Text Box 143"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -5077,13 +4878,7 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15504" name="Group 144">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000903C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15504" name="Group 144"/>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -5104,13 +4899,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15505" name="Line 145">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000913C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15505" name="Line 145"/>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -5139,13 +4928,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15506" name="Text Box 146">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000923C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15506" name="Text Box 146"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -5206,13 +4989,7 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15507" name="Group 147">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000933C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15507" name="Group 147"/>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -5233,13 +5010,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15508" name="Line 148">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000943C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15508" name="Line 148"/>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -5268,13 +5039,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15509" name="Text Box 149">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000953C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15509" name="Text Box 149"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -5335,13 +5100,7 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15510" name="Group 150">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000963C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15510" name="Group 150"/>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -5362,13 +5121,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15511" name="Line 151">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000973C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15511" name="Line 151"/>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -5397,13 +5150,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15512" name="Text Box 152">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000983C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15512" name="Text Box 152"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -5464,13 +5211,7 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15513" name="Group 153">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000993C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15513" name="Group 153"/>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -5491,13 +5232,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15514" name="Line 154">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009A3C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15514" name="Line 154"/>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -5526,13 +5261,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15515" name="Text Box 155">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009B3C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="15515" name="Text Box 155"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -5609,13 +5338,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="グループ化 7"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5628,13 +5351,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15528" name="Text Box 168">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A83C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15528" name="Text Box 168"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5768,13 +5485,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15530" name="Line 170">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AA3C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15530" name="Line 170"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5803,13 +5514,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15531" name="Text Box 171">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AB3C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15531" name="Text Box 171"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5874,13 +5579,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15529" name="AutoShape 169">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A93C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15529" name="AutoShape 169"/>
           <xdr:cNvSpPr>
             <a:spLocks/>
           </xdr:cNvSpPr>
@@ -5928,13 +5627,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15549" name="Group 189">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BD3C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15549" name="Group 189"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -5949,13 +5642,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15380" name="Rectangle 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000143C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15380" name="Rectangle 20"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5983,13 +5670,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15381" name="Rectangle 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000153C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15381" name="Rectangle 21"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6066,13 +5747,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15382" name="AutoShape 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000163C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15382" name="AutoShape 22"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6121,13 +5796,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15383" name="AutoShape 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000173C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15383" name="AutoShape 23"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6176,13 +5845,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15384" name="AutoShape 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000183C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15384" name="AutoShape 24"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6291,13 +5954,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15385" name="Line 25">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000193C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15385" name="Line 25"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6323,13 +5980,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15386" name="Text Box 26">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A3C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15386" name="Text Box 26"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6372,13 +6023,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15387" name="Line 27">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B3C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15387" name="Line 27"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6404,13 +6049,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15388" name="Text Box 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C3C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15388" name="Text Box 28"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6453,13 +6092,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15398" name="Text Box 38">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000263C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15398" name="Text Box 38"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6502,13 +6135,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15400" name="Text Box 40">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000283C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15400" name="Text Box 40"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6551,13 +6178,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15402" name="Text Box 42">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A3C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15402" name="Text Box 42"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6600,13 +6221,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15404" name="Text Box 44">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C3C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15404" name="Text Box 44"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6649,13 +6264,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15538" name="AutoShape 178">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B23C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15538" name="AutoShape 178"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6729,13 +6338,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15539" name="Line 179">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B33C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15539" name="Line 179"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6761,13 +6364,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15540" name="Line 180">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B43C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15540" name="Line 180"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6793,13 +6390,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15541" name="Line 181">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B53C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15541" name="Line 181"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6825,13 +6416,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15542" name="Line 182">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B63C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15542" name="Line 182"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6857,13 +6442,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15543" name="Line 183">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B73C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15543" name="Line 183"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6889,13 +6468,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15544" name="Line 184">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B83C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15544" name="Line 184"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6921,13 +6494,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15547" name="Text Box 187">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BB3C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15547" name="Text Box 187"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6970,13 +6537,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15548" name="Text Box 188">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BC3C0000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="15548" name="Text Box 188"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7035,13 +6596,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Rectangle 196">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000046000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="70" name="Rectangle 196"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7244,13 +6799,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Rectangle 198">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000049000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="73" name="Rectangle 198"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7366,13 +6915,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16405" name="Group 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015400000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16405" name="Group 21"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -7387,13 +6930,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16386" name="AutoShape 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002400000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="16386" name="AutoShape 2"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7417,13 +6954,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16387" name="AutoShape 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003400000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="16387" name="AutoShape 3"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7511,13 +7042,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16388" name="AutoShape 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004400000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="16388" name="AutoShape 4"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7605,13 +7130,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16389" name="AutoShape 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005400000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="16389" name="AutoShape 5"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7714,13 +7233,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16390" name="Text Box 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006400000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="16390" name="Text Box 6"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7784,13 +7297,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16391" name="Text Box 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007400000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="16391" name="Text Box 7"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7854,13 +7361,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16392" name="Line 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008400000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="16392" name="Line 8"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -7887,13 +7388,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16396" name="Line 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C400000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="16396" name="Line 12"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -7920,13 +7415,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16397" name="AutoShape 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D400000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="16397" name="AutoShape 13"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -8014,13 +7503,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16398" name="Line 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E400000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="16398" name="Line 14"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -8047,13 +7530,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16399" name="Text Box 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F400000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="16399" name="Text Box 15"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -8117,13 +7594,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16402" name="Line 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012400000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="16402" name="Line 18"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -8150,13 +7621,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16403" name="Text Box 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013400000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="16403" name="Text Box 19"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -8236,13 +7701,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="Rectangle 39"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8775,7 +8234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9384,7 +8843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9400,57 +8859,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101" t="s">
-        <v>412</v>
-      </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="107" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="126" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="116" t="s">
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="141" t="s">
         <v>280</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="98" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="123" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="150" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="92">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="117">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="94"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="119"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -9458,53 +8917,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
-        <v>413</v>
-      </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="98" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126" t="s">
+        <v>414</v>
+      </c>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="104" t="str">
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="129" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="92" t="str">
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="117" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="94"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="119"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -9512,43 +8971,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="94"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="118"/>
+      <c r="AI3" s="119"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -9585,1187 +9044,1031 @@
       <c r="A7" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="95" t="s">
+      <c r="C7" s="121"/>
+      <c r="D7" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="95" t="s">
+      <c r="E7" s="122"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="95" t="s">
+      <c r="H7" s="122"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="120" t="s">
         <v>279</v>
       </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="95" t="s">
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="95" t="s">
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="121"/>
+      <c r="AF7" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="96"/>
+      <c r="AG7" s="122"/>
+      <c r="AH7" s="122"/>
+      <c r="AI7" s="121"/>
     </row>
     <row r="8" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="87">
         <v>1</v>
       </c>
-      <c r="B8" s="141" t="s">
-        <v>414</v>
-      </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="143">
+      <c r="B8" s="104" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106">
         <v>43336</v>
       </c>
-      <c r="E8" s="144"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146" t="s">
-        <v>415</v>
-      </c>
-      <c r="H8" s="147"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="148" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109" t="s">
         <v>416</v>
       </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="151" t="s">
+      <c r="H8" s="110"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="111" t="s">
         <v>417</v>
       </c>
-      <c r="R8" s="152"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="152"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="152"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="152"/>
-      <c r="AE8" s="153"/>
-      <c r="AF8" s="148" t="s">
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="AG8" s="149"/>
-      <c r="AH8" s="149"/>
-      <c r="AI8" s="150"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="115"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="AG8" s="112"/>
+      <c r="AH8" s="112"/>
+      <c r="AI8" s="113"/>
     </row>
     <row r="9" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="72"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="139"/>
-      <c r="S9" s="139"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="139"/>
-      <c r="X9" s="139"/>
-      <c r="Y9" s="139"/>
-      <c r="Z9" s="139"/>
-      <c r="AA9" s="139"/>
-      <c r="AB9" s="139"/>
-      <c r="AC9" s="139"/>
-      <c r="AD9" s="139"/>
-      <c r="AE9" s="140"/>
-      <c r="AF9" s="135"/>
-      <c r="AG9" s="136"/>
-      <c r="AH9" s="136"/>
-      <c r="AI9" s="137"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="100"/>
     </row>
     <row r="10" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="72"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="139"/>
-      <c r="S10" s="139"/>
-      <c r="T10" s="139"/>
-      <c r="U10" s="139"/>
-      <c r="V10" s="139"/>
-      <c r="W10" s="139"/>
-      <c r="X10" s="139"/>
-      <c r="Y10" s="139"/>
-      <c r="Z10" s="139"/>
-      <c r="AA10" s="139"/>
-      <c r="AB10" s="139"/>
-      <c r="AC10" s="139"/>
-      <c r="AD10" s="139"/>
-      <c r="AE10" s="140"/>
-      <c r="AF10" s="135"/>
-      <c r="AG10" s="136"/>
-      <c r="AH10" s="136"/>
-      <c r="AI10" s="137"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="100"/>
     </row>
     <row r="11" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="139"/>
-      <c r="T11" s="139"/>
-      <c r="U11" s="139"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="139"/>
-      <c r="X11" s="139"/>
-      <c r="Y11" s="139"/>
-      <c r="Z11" s="139"/>
-      <c r="AA11" s="139"/>
-      <c r="AB11" s="139"/>
-      <c r="AC11" s="139"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="140"/>
-      <c r="AF11" s="135"/>
-      <c r="AG11" s="136"/>
-      <c r="AH11" s="136"/>
-      <c r="AI11" s="137"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="100"/>
     </row>
     <row r="12" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="137"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="139"/>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
-      <c r="U12" s="139"/>
-      <c r="V12" s="139"/>
-      <c r="W12" s="139"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="139"/>
-      <c r="Z12" s="139"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="140"/>
-      <c r="AF12" s="135"/>
-      <c r="AG12" s="136"/>
-      <c r="AH12" s="136"/>
-      <c r="AI12" s="137"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="100"/>
     </row>
     <row r="13" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="139"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="140"/>
-      <c r="AF13" s="135"/>
-      <c r="AG13" s="136"/>
-      <c r="AH13" s="136"/>
-      <c r="AI13" s="137"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="100"/>
     </row>
     <row r="14" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="72"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="139"/>
-      <c r="S14" s="139"/>
-      <c r="T14" s="139"/>
-      <c r="U14" s="139"/>
-      <c r="V14" s="139"/>
-      <c r="W14" s="139"/>
-      <c r="X14" s="139"/>
-      <c r="Y14" s="139"/>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="139"/>
-      <c r="AB14" s="139"/>
-      <c r="AC14" s="139"/>
-      <c r="AD14" s="139"/>
-      <c r="AE14" s="140"/>
-      <c r="AF14" s="135"/>
-      <c r="AG14" s="136"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="137"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="103"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="100"/>
     </row>
     <row r="15" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="72"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="139"/>
-      <c r="AD15" s="139"/>
-      <c r="AE15" s="140"/>
-      <c r="AF15" s="135"/>
-      <c r="AG15" s="136"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="137"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="99"/>
+      <c r="AI15" s="100"/>
     </row>
     <row r="16" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="72"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="139"/>
-      <c r="T16" s="139"/>
-      <c r="U16" s="139"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="139"/>
-      <c r="Z16" s="139"/>
-      <c r="AA16" s="139"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="139"/>
-      <c r="AD16" s="139"/>
-      <c r="AE16" s="140"/>
-      <c r="AF16" s="135"/>
-      <c r="AG16" s="136"/>
-      <c r="AH16" s="136"/>
-      <c r="AI16" s="137"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="100"/>
     </row>
     <row r="17" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="139"/>
-      <c r="S17" s="139"/>
-      <c r="T17" s="139"/>
-      <c r="U17" s="139"/>
-      <c r="V17" s="139"/>
-      <c r="W17" s="139"/>
-      <c r="X17" s="139"/>
-      <c r="Y17" s="139"/>
-      <c r="Z17" s="139"/>
-      <c r="AA17" s="139"/>
-      <c r="AB17" s="139"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="139"/>
-      <c r="AE17" s="140"/>
-      <c r="AF17" s="135"/>
-      <c r="AG17" s="136"/>
-      <c r="AH17" s="136"/>
-      <c r="AI17" s="137"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="100"/>
     </row>
     <row r="18" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="138"/>
-      <c r="R18" s="139"/>
-      <c r="S18" s="139"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="139"/>
-      <c r="V18" s="139"/>
-      <c r="W18" s="139"/>
-      <c r="X18" s="139"/>
-      <c r="Y18" s="139"/>
-      <c r="Z18" s="139"/>
-      <c r="AA18" s="139"/>
-      <c r="AB18" s="139"/>
-      <c r="AC18" s="139"/>
-      <c r="AD18" s="139"/>
-      <c r="AE18" s="140"/>
-      <c r="AF18" s="135"/>
-      <c r="AG18" s="136"/>
-      <c r="AH18" s="136"/>
-      <c r="AI18" s="137"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="102"/>
+      <c r="AB18" s="102"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="102"/>
+      <c r="AE18" s="103"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="99"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="100"/>
     </row>
     <row r="19" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="137"/>
-      <c r="Q19" s="138"/>
-      <c r="R19" s="139"/>
-      <c r="S19" s="139"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="139"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139"/>
-      <c r="Y19" s="139"/>
-      <c r="Z19" s="139"/>
-      <c r="AA19" s="139"/>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="139"/>
-      <c r="AD19" s="139"/>
-      <c r="AE19" s="140"/>
-      <c r="AF19" s="135"/>
-      <c r="AG19" s="136"/>
-      <c r="AH19" s="136"/>
-      <c r="AI19" s="137"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="100"/>
     </row>
     <row r="20" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="72"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="138"/>
-      <c r="R20" s="139"/>
-      <c r="S20" s="139"/>
-      <c r="T20" s="139"/>
-      <c r="U20" s="139"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="139"/>
-      <c r="X20" s="139"/>
-      <c r="Y20" s="139"/>
-      <c r="Z20" s="139"/>
-      <c r="AA20" s="139"/>
-      <c r="AB20" s="139"/>
-      <c r="AC20" s="139"/>
-      <c r="AD20" s="139"/>
-      <c r="AE20" s="140"/>
-      <c r="AF20" s="135"/>
-      <c r="AG20" s="136"/>
-      <c r="AH20" s="136"/>
-      <c r="AI20" s="137"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="102"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="100"/>
     </row>
     <row r="21" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="72"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="138"/>
-      <c r="R21" s="139"/>
-      <c r="S21" s="139"/>
-      <c r="T21" s="139"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="139"/>
-      <c r="Y21" s="139"/>
-      <c r="Z21" s="139"/>
-      <c r="AA21" s="139"/>
-      <c r="AB21" s="139"/>
-      <c r="AC21" s="139"/>
-      <c r="AD21" s="139"/>
-      <c r="AE21" s="140"/>
-      <c r="AF21" s="135"/>
-      <c r="AG21" s="136"/>
-      <c r="AH21" s="136"/>
-      <c r="AI21" s="137"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="100"/>
     </row>
     <row r="22" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="72"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="137"/>
-      <c r="Q22" s="138"/>
-      <c r="R22" s="139"/>
-      <c r="S22" s="139"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="139"/>
-      <c r="V22" s="139"/>
-      <c r="W22" s="139"/>
-      <c r="X22" s="139"/>
-      <c r="Y22" s="139"/>
-      <c r="Z22" s="139"/>
-      <c r="AA22" s="139"/>
-      <c r="AB22" s="139"/>
-      <c r="AC22" s="139"/>
-      <c r="AD22" s="139"/>
-      <c r="AE22" s="140"/>
-      <c r="AF22" s="135"/>
-      <c r="AG22" s="136"/>
-      <c r="AH22" s="136"/>
-      <c r="AI22" s="137"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="102"/>
+      <c r="AD22" s="102"/>
+      <c r="AE22" s="103"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="100"/>
     </row>
     <row r="23" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="72"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="138"/>
-      <c r="R23" s="139"/>
-      <c r="S23" s="139"/>
-      <c r="T23" s="139"/>
-      <c r="U23" s="139"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="139"/>
-      <c r="X23" s="139"/>
-      <c r="Y23" s="139"/>
-      <c r="Z23" s="139"/>
-      <c r="AA23" s="139"/>
-      <c r="AB23" s="139"/>
-      <c r="AC23" s="139"/>
-      <c r="AD23" s="139"/>
-      <c r="AE23" s="140"/>
-      <c r="AF23" s="135"/>
-      <c r="AG23" s="136"/>
-      <c r="AH23" s="136"/>
-      <c r="AI23" s="137"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="103"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="100"/>
     </row>
     <row r="24" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="72"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="138"/>
-      <c r="R24" s="139"/>
-      <c r="S24" s="139"/>
-      <c r="T24" s="139"/>
-      <c r="U24" s="139"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="139"/>
-      <c r="X24" s="139"/>
-      <c r="Y24" s="139"/>
-      <c r="Z24" s="139"/>
-      <c r="AA24" s="139"/>
-      <c r="AB24" s="139"/>
-      <c r="AC24" s="139"/>
-      <c r="AD24" s="139"/>
-      <c r="AE24" s="140"/>
-      <c r="AF24" s="135"/>
-      <c r="AG24" s="136"/>
-      <c r="AH24" s="136"/>
-      <c r="AI24" s="137"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="102"/>
+      <c r="AA24" s="102"/>
+      <c r="AB24" s="102"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="102"/>
+      <c r="AE24" s="103"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="100"/>
     </row>
     <row r="25" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="72"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="138"/>
-      <c r="R25" s="139"/>
-      <c r="S25" s="139"/>
-      <c r="T25" s="139"/>
-      <c r="U25" s="139"/>
-      <c r="V25" s="139"/>
-      <c r="W25" s="139"/>
-      <c r="X25" s="139"/>
-      <c r="Y25" s="139"/>
-      <c r="Z25" s="139"/>
-      <c r="AA25" s="139"/>
-      <c r="AB25" s="139"/>
-      <c r="AC25" s="139"/>
-      <c r="AD25" s="139"/>
-      <c r="AE25" s="140"/>
-      <c r="AF25" s="135"/>
-      <c r="AG25" s="136"/>
-      <c r="AH25" s="136"/>
-      <c r="AI25" s="137"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="102"/>
+      <c r="Z25" s="102"/>
+      <c r="AA25" s="102"/>
+      <c r="AB25" s="102"/>
+      <c r="AC25" s="102"/>
+      <c r="AD25" s="102"/>
+      <c r="AE25" s="103"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="100"/>
     </row>
     <row r="26" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="72"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="139"/>
-      <c r="S26" s="139"/>
-      <c r="T26" s="139"/>
-      <c r="U26" s="139"/>
-      <c r="V26" s="139"/>
-      <c r="W26" s="139"/>
-      <c r="X26" s="139"/>
-      <c r="Y26" s="139"/>
-      <c r="Z26" s="139"/>
-      <c r="AA26" s="139"/>
-      <c r="AB26" s="139"/>
-      <c r="AC26" s="139"/>
-      <c r="AD26" s="139"/>
-      <c r="AE26" s="140"/>
-      <c r="AF26" s="135"/>
-      <c r="AG26" s="136"/>
-      <c r="AH26" s="136"/>
-      <c r="AI26" s="137"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="102"/>
+      <c r="AC26" s="102"/>
+      <c r="AD26" s="102"/>
+      <c r="AE26" s="103"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="99"/>
+      <c r="AH26" s="99"/>
+      <c r="AI26" s="100"/>
     </row>
     <row r="27" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="72"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="139"/>
-      <c r="S27" s="139"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="139"/>
-      <c r="V27" s="139"/>
-      <c r="W27" s="139"/>
-      <c r="X27" s="139"/>
-      <c r="Y27" s="139"/>
-      <c r="Z27" s="139"/>
-      <c r="AA27" s="139"/>
-      <c r="AB27" s="139"/>
-      <c r="AC27" s="139"/>
-      <c r="AD27" s="139"/>
-      <c r="AE27" s="140"/>
-      <c r="AF27" s="135"/>
-      <c r="AG27" s="136"/>
-      <c r="AH27" s="136"/>
-      <c r="AI27" s="137"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="102"/>
+      <c r="AA27" s="102"/>
+      <c r="AB27" s="102"/>
+      <c r="AC27" s="102"/>
+      <c r="AD27" s="102"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="100"/>
     </row>
     <row r="28" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="72"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="138"/>
-      <c r="R28" s="139"/>
-      <c r="S28" s="139"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="139"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="139"/>
-      <c r="X28" s="139"/>
-      <c r="Y28" s="139"/>
-      <c r="Z28" s="139"/>
-      <c r="AA28" s="139"/>
-      <c r="AB28" s="139"/>
-      <c r="AC28" s="139"/>
-      <c r="AD28" s="139"/>
-      <c r="AE28" s="140"/>
-      <c r="AF28" s="135"/>
-      <c r="AG28" s="136"/>
-      <c r="AH28" s="136"/>
-      <c r="AI28" s="137"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="102"/>
+      <c r="AA28" s="102"/>
+      <c r="AB28" s="102"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="102"/>
+      <c r="AE28" s="103"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="100"/>
     </row>
     <row r="29" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="72"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="138"/>
-      <c r="R29" s="139"/>
-      <c r="S29" s="139"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="139"/>
-      <c r="V29" s="139"/>
-      <c r="W29" s="139"/>
-      <c r="X29" s="139"/>
-      <c r="Y29" s="139"/>
-      <c r="Z29" s="139"/>
-      <c r="AA29" s="139"/>
-      <c r="AB29" s="139"/>
-      <c r="AC29" s="139"/>
-      <c r="AD29" s="139"/>
-      <c r="AE29" s="140"/>
-      <c r="AF29" s="135"/>
-      <c r="AG29" s="136"/>
-      <c r="AH29" s="136"/>
-      <c r="AI29" s="137"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="102"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="102"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="99"/>
+      <c r="AH29" s="99"/>
+      <c r="AI29" s="100"/>
     </row>
     <row r="30" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="72"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="137"/>
-      <c r="Q30" s="138"/>
-      <c r="R30" s="139"/>
-      <c r="S30" s="139"/>
-      <c r="T30" s="139"/>
-      <c r="U30" s="139"/>
-      <c r="V30" s="139"/>
-      <c r="W30" s="139"/>
-      <c r="X30" s="139"/>
-      <c r="Y30" s="139"/>
-      <c r="Z30" s="139"/>
-      <c r="AA30" s="139"/>
-      <c r="AB30" s="139"/>
-      <c r="AC30" s="139"/>
-      <c r="AD30" s="139"/>
-      <c r="AE30" s="140"/>
-      <c r="AF30" s="135"/>
-      <c r="AG30" s="136"/>
-      <c r="AH30" s="136"/>
-      <c r="AI30" s="137"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="102"/>
+      <c r="AC30" s="102"/>
+      <c r="AD30" s="102"/>
+      <c r="AE30" s="103"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="99"/>
+      <c r="AH30" s="99"/>
+      <c r="AI30" s="100"/>
     </row>
     <row r="31" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="72"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="137"/>
-      <c r="Q31" s="138"/>
-      <c r="R31" s="139"/>
-      <c r="S31" s="139"/>
-      <c r="T31" s="139"/>
-      <c r="U31" s="139"/>
-      <c r="V31" s="139"/>
-      <c r="W31" s="139"/>
-      <c r="X31" s="139"/>
-      <c r="Y31" s="139"/>
-      <c r="Z31" s="139"/>
-      <c r="AA31" s="139"/>
-      <c r="AB31" s="139"/>
-      <c r="AC31" s="139"/>
-      <c r="AD31" s="139"/>
-      <c r="AE31" s="140"/>
-      <c r="AF31" s="135"/>
-      <c r="AG31" s="136"/>
-      <c r="AH31" s="136"/>
-      <c r="AI31" s="137"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="103"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="99"/>
+      <c r="AH31" s="99"/>
+      <c r="AI31" s="100"/>
     </row>
     <row r="32" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="72"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="137"/>
-      <c r="Q32" s="138"/>
-      <c r="R32" s="139"/>
-      <c r="S32" s="139"/>
-      <c r="T32" s="139"/>
-      <c r="U32" s="139"/>
-      <c r="V32" s="139"/>
-      <c r="W32" s="139"/>
-      <c r="X32" s="139"/>
-      <c r="Y32" s="139"/>
-      <c r="Z32" s="139"/>
-      <c r="AA32" s="139"/>
-      <c r="AB32" s="139"/>
-      <c r="AC32" s="139"/>
-      <c r="AD32" s="139"/>
-      <c r="AE32" s="140"/>
-      <c r="AF32" s="135"/>
-      <c r="AG32" s="136"/>
-      <c r="AH32" s="136"/>
-      <c r="AI32" s="137"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+      <c r="AA32" s="102"/>
+      <c r="AB32" s="102"/>
+      <c r="AC32" s="102"/>
+      <c r="AD32" s="102"/>
+      <c r="AE32" s="103"/>
+      <c r="AF32" s="98"/>
+      <c r="AG32" s="99"/>
+      <c r="AH32" s="99"/>
+      <c r="AI32" s="100"/>
     </row>
     <row r="33" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="72"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="137"/>
-      <c r="Q33" s="138"/>
-      <c r="R33" s="139"/>
-      <c r="S33" s="139"/>
-      <c r="T33" s="139"/>
-      <c r="U33" s="139"/>
-      <c r="V33" s="139"/>
-      <c r="W33" s="139"/>
-      <c r="X33" s="139"/>
-      <c r="Y33" s="139"/>
-      <c r="Z33" s="139"/>
-      <c r="AA33" s="139"/>
-      <c r="AB33" s="139"/>
-      <c r="AC33" s="139"/>
-      <c r="AD33" s="139"/>
-      <c r="AE33" s="140"/>
-      <c r="AF33" s="135"/>
-      <c r="AG33" s="136"/>
-      <c r="AH33" s="136"/>
-      <c r="AI33" s="137"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="102"/>
+      <c r="AB33" s="102"/>
+      <c r="AC33" s="102"/>
+      <c r="AD33" s="102"/>
+      <c r="AE33" s="103"/>
+      <c r="AF33" s="98"/>
+      <c r="AG33" s="99"/>
+      <c r="AH33" s="99"/>
+      <c r="AI33" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -10789,6 +10092,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10799,7 +10258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10945,53 +10404,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="128" t="str">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="107" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="116" t="str">
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="98" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="123" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
       <c r="AG1" s="154">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
@@ -11003,48 +10462,48 @@
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="128" t="str">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="98" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
       <c r="AG2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -11056,46 +10515,46 @@
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="128" t="str">
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
       <c r="AG3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -11222,7 +10681,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11415,7 +10874,7 @@
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="12"/>
@@ -11530,7 +10989,7 @@
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="63" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -12580,6 +12039,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12589,14 +12056,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12607,7 +12066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12623,175 +12082,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="128" t="str">
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="169" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="163" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="116" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="166" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="157">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="159"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="128" t="str">
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="166" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="157" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="159"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="128" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="157" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="159"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="C6" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12817,7 +12276,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="C15" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.15">
@@ -12847,7 +12306,7 @@
     <row r="21" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="D21" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.15">
@@ -12855,7 +12314,7 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C24" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.15">
@@ -12864,36 +12323,36 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E28" s="160" t="s">
+      <c r="E28" s="174" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="160" t="s">
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="R28" s="161"/>
-      <c r="S28" s="161"/>
-      <c r="T28" s="161"/>
-      <c r="U28" s="161"/>
-      <c r="V28" s="161"/>
-      <c r="W28" s="161"/>
-      <c r="X28" s="161"/>
-      <c r="Y28" s="161"/>
-      <c r="Z28" s="161"/>
-      <c r="AA28" s="161"/>
-      <c r="AB28" s="161"/>
-      <c r="AC28" s="161"/>
-      <c r="AD28" s="162"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="175"/>
+      <c r="W28" s="175"/>
+      <c r="X28" s="175"/>
+      <c r="Y28" s="175"/>
+      <c r="Z28" s="175"/>
+      <c r="AA28" s="175"/>
+      <c r="AB28" s="175"/>
+      <c r="AC28" s="175"/>
+      <c r="AD28" s="176"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
@@ -13204,6 +12663,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="Q28:AD28"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -13211,18 +12682,6 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E28:P28"/>
-    <mergeCell ref="Q28:AD28"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -13235,7 +12694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13253,163 +12712,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="128" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="169" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="163" t="s">
         <v>275</v>
       </c>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="116" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="166" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="157">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="159"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="128" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="166" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="157" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="159"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="128" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="157" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="159"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -13454,7 +12913,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -13531,7 +12990,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -13571,7 +13030,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -13648,7 +13107,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -13763,7 +13222,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -13878,7 +13337,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -14032,7 +13491,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -14072,35 +13531,35 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="85" t="s">
-        <v>390</v>
-      </c>
-      <c r="G21" s="180" t="s">
+        <v>391</v>
+      </c>
+      <c r="G21" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="180"/>
-      <c r="P21" s="180"/>
-      <c r="Q21" s="180"/>
-      <c r="R21" s="180"/>
-      <c r="S21" s="180" t="s">
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="183"/>
+      <c r="Q21" s="183"/>
+      <c r="R21" s="183"/>
+      <c r="S21" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="T21" s="180"/>
-      <c r="U21" s="180"/>
-      <c r="V21" s="180"/>
-      <c r="W21" s="180"/>
-      <c r="X21" s="180"/>
-      <c r="Y21" s="180"/>
-      <c r="Z21" s="180"/>
-      <c r="AA21" s="180"/>
-      <c r="AB21" s="180"/>
-      <c r="AC21" s="180"/>
+      <c r="T21" s="183"/>
+      <c r="U21" s="183"/>
+      <c r="V21" s="183"/>
+      <c r="W21" s="183"/>
+      <c r="X21" s="183"/>
+      <c r="Y21" s="183"/>
+      <c r="Z21" s="183"/>
+      <c r="AA21" s="183"/>
+      <c r="AB21" s="183"/>
+      <c r="AC21" s="183"/>
       <c r="AD21" s="50"/>
       <c r="AE21" s="50"/>
       <c r="AF21" s="50"/>
@@ -14117,33 +13576,33 @@
       <c r="F22" s="72">
         <v>1</v>
       </c>
-      <c r="G22" s="181" t="s">
+      <c r="G22" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="181"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="181"/>
-      <c r="R22" s="181"/>
-      <c r="S22" s="181" t="s">
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="184"/>
+      <c r="K22" s="184"/>
+      <c r="L22" s="184"/>
+      <c r="M22" s="184"/>
+      <c r="N22" s="184"/>
+      <c r="O22" s="184"/>
+      <c r="P22" s="184"/>
+      <c r="Q22" s="184"/>
+      <c r="R22" s="184"/>
+      <c r="S22" s="184" t="s">
         <v>212</v>
       </c>
-      <c r="T22" s="181"/>
-      <c r="U22" s="181"/>
-      <c r="V22" s="181"/>
-      <c r="W22" s="181"/>
-      <c r="X22" s="181"/>
-      <c r="Y22" s="181"/>
-      <c r="Z22" s="181"/>
-      <c r="AA22" s="181"/>
-      <c r="AB22" s="181"/>
-      <c r="AC22" s="181"/>
+      <c r="T22" s="184"/>
+      <c r="U22" s="184"/>
+      <c r="V22" s="184"/>
+      <c r="W22" s="184"/>
+      <c r="X22" s="184"/>
+      <c r="Y22" s="184"/>
+      <c r="Z22" s="184"/>
+      <c r="AA22" s="184"/>
+      <c r="AB22" s="184"/>
+      <c r="AC22" s="184"/>
       <c r="AD22" s="50"/>
       <c r="AE22" s="50"/>
       <c r="AF22" s="50"/>
@@ -14160,33 +13619,33 @@
       <c r="F23" s="72">
         <v>2</v>
       </c>
-      <c r="G23" s="181" t="s">
+      <c r="G23" s="184" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="181"/>
-      <c r="S23" s="181" t="s">
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="184"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="184"/>
+      <c r="O23" s="184"/>
+      <c r="P23" s="184"/>
+      <c r="Q23" s="184"/>
+      <c r="R23" s="184"/>
+      <c r="S23" s="184" t="s">
         <v>213</v>
       </c>
-      <c r="T23" s="181"/>
-      <c r="U23" s="181"/>
-      <c r="V23" s="181"/>
-      <c r="W23" s="181"/>
-      <c r="X23" s="181"/>
-      <c r="Y23" s="181"/>
-      <c r="Z23" s="181"/>
-      <c r="AA23" s="181"/>
-      <c r="AB23" s="181"/>
-      <c r="AC23" s="181"/>
+      <c r="T23" s="184"/>
+      <c r="U23" s="184"/>
+      <c r="V23" s="184"/>
+      <c r="W23" s="184"/>
+      <c r="X23" s="184"/>
+      <c r="Y23" s="184"/>
+      <c r="Z23" s="184"/>
+      <c r="AA23" s="184"/>
+      <c r="AB23" s="184"/>
+      <c r="AC23" s="184"/>
       <c r="AD23" s="50"/>
       <c r="AE23" s="50"/>
       <c r="AF23" s="50"/>
@@ -14315,35 +13774,35 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="85" t="s">
-        <v>391</v>
-      </c>
-      <c r="G27" s="183" t="s">
+        <v>392</v>
+      </c>
+      <c r="G27" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="183"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183" t="s">
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="181"/>
+      <c r="S27" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="183"/>
-      <c r="U27" s="183"/>
-      <c r="V27" s="183"/>
-      <c r="W27" s="183"/>
-      <c r="X27" s="183"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="183"/>
-      <c r="AA27" s="183"/>
-      <c r="AB27" s="183"/>
-      <c r="AC27" s="183"/>
+      <c r="T27" s="181"/>
+      <c r="U27" s="181"/>
+      <c r="V27" s="181"/>
+      <c r="W27" s="181"/>
+      <c r="X27" s="181"/>
+      <c r="Y27" s="181"/>
+      <c r="Z27" s="181"/>
+      <c r="AA27" s="181"/>
+      <c r="AB27" s="181"/>
+      <c r="AC27" s="181"/>
       <c r="AD27" s="50"/>
       <c r="AE27" s="50"/>
       <c r="AF27" s="50"/>
@@ -14360,33 +13819,33 @@
       <c r="F28" s="86">
         <v>1</v>
       </c>
-      <c r="G28" s="182" t="s">
+      <c r="G28" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="182"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="182"/>
-      <c r="P28" s="182"/>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="182"/>
-      <c r="S28" s="182" t="s">
+      <c r="H28" s="180"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="180"/>
+      <c r="K28" s="180"/>
+      <c r="L28" s="180"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="180"/>
+      <c r="O28" s="180"/>
+      <c r="P28" s="180"/>
+      <c r="Q28" s="180"/>
+      <c r="R28" s="180"/>
+      <c r="S28" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="T28" s="182"/>
-      <c r="U28" s="182"/>
-      <c r="V28" s="182"/>
-      <c r="W28" s="182"/>
-      <c r="X28" s="182"/>
-      <c r="Y28" s="182"/>
-      <c r="Z28" s="182"/>
-      <c r="AA28" s="182"/>
-      <c r="AB28" s="182"/>
-      <c r="AC28" s="182"/>
+      <c r="T28" s="180"/>
+      <c r="U28" s="180"/>
+      <c r="V28" s="180"/>
+      <c r="W28" s="180"/>
+      <c r="X28" s="180"/>
+      <c r="Y28" s="180"/>
+      <c r="Z28" s="180"/>
+      <c r="AA28" s="180"/>
+      <c r="AB28" s="180"/>
+      <c r="AC28" s="180"/>
       <c r="AD28" s="50"/>
       <c r="AE28" s="50"/>
       <c r="AF28" s="50"/>
@@ -14403,33 +13862,33 @@
       <c r="F29" s="86">
         <v>2</v>
       </c>
-      <c r="G29" s="182" t="s">
+      <c r="G29" s="180" t="s">
         <v>203</v>
       </c>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="182"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182" t="s">
+      <c r="H29" s="180"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="180"/>
+      <c r="Q29" s="180"/>
+      <c r="R29" s="180"/>
+      <c r="S29" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="T29" s="182"/>
-      <c r="U29" s="182"/>
-      <c r="V29" s="182"/>
-      <c r="W29" s="182"/>
-      <c r="X29" s="182"/>
-      <c r="Y29" s="182"/>
-      <c r="Z29" s="182"/>
-      <c r="AA29" s="182"/>
-      <c r="AB29" s="182"/>
-      <c r="AC29" s="182"/>
+      <c r="T29" s="180"/>
+      <c r="U29" s="180"/>
+      <c r="V29" s="180"/>
+      <c r="W29" s="180"/>
+      <c r="X29" s="180"/>
+      <c r="Y29" s="180"/>
+      <c r="Z29" s="180"/>
+      <c r="AA29" s="180"/>
+      <c r="AB29" s="180"/>
+      <c r="AC29" s="180"/>
       <c r="AD29" s="50"/>
       <c r="AE29" s="50"/>
       <c r="AF29" s="50"/>
@@ -14446,33 +13905,33 @@
       <c r="F30" s="86">
         <v>3</v>
       </c>
-      <c r="G30" s="182" t="s">
+      <c r="G30" s="180" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="182"/>
-      <c r="P30" s="182"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="182"/>
-      <c r="S30" s="182" t="s">
+      <c r="H30" s="180"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="180"/>
+      <c r="K30" s="180"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="180"/>
+      <c r="O30" s="180"/>
+      <c r="P30" s="180"/>
+      <c r="Q30" s="180"/>
+      <c r="R30" s="180"/>
+      <c r="S30" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="T30" s="182"/>
-      <c r="U30" s="182"/>
-      <c r="V30" s="182"/>
-      <c r="W30" s="182"/>
-      <c r="X30" s="182"/>
-      <c r="Y30" s="182"/>
-      <c r="Z30" s="182"/>
-      <c r="AA30" s="182"/>
-      <c r="AB30" s="182"/>
-      <c r="AC30" s="182"/>
+      <c r="T30" s="180"/>
+      <c r="U30" s="180"/>
+      <c r="V30" s="180"/>
+      <c r="W30" s="180"/>
+      <c r="X30" s="180"/>
+      <c r="Y30" s="180"/>
+      <c r="Z30" s="180"/>
+      <c r="AA30" s="180"/>
+      <c r="AB30" s="180"/>
+      <c r="AC30" s="180"/>
       <c r="AD30" s="50"/>
       <c r="AE30" s="50"/>
       <c r="AF30" s="50"/>
@@ -14489,33 +13948,33 @@
       <c r="F31" s="84">
         <v>4</v>
       </c>
-      <c r="G31" s="182" t="s">
+      <c r="G31" s="180" t="s">
         <v>205</v>
       </c>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="182"/>
-      <c r="S31" s="182" t="s">
+      <c r="H31" s="180"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="180"/>
+      <c r="K31" s="180"/>
+      <c r="L31" s="180"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="180"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="180"/>
+      <c r="Q31" s="180"/>
+      <c r="R31" s="180"/>
+      <c r="S31" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="T31" s="182"/>
-      <c r="U31" s="182"/>
-      <c r="V31" s="182"/>
-      <c r="W31" s="182"/>
-      <c r="X31" s="182"/>
-      <c r="Y31" s="182"/>
-      <c r="Z31" s="182"/>
-      <c r="AA31" s="182"/>
-      <c r="AB31" s="182"/>
-      <c r="AC31" s="182"/>
+      <c r="T31" s="180"/>
+      <c r="U31" s="180"/>
+      <c r="V31" s="180"/>
+      <c r="W31" s="180"/>
+      <c r="X31" s="180"/>
+      <c r="Y31" s="180"/>
+      <c r="Z31" s="180"/>
+      <c r="AA31" s="180"/>
+      <c r="AB31" s="180"/>
+      <c r="AC31" s="180"/>
       <c r="AD31" s="50"/>
       <c r="AE31" s="50"/>
       <c r="AF31" s="50"/>
@@ -14532,33 +13991,33 @@
       <c r="F32" s="84">
         <v>5</v>
       </c>
-      <c r="G32" s="182" t="s">
+      <c r="G32" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="182"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="182"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="182"/>
-      <c r="P32" s="182"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="182"/>
-      <c r="S32" s="182" t="s">
+      <c r="H32" s="180"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="180"/>
+      <c r="K32" s="180"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="180"/>
+      <c r="O32" s="180"/>
+      <c r="P32" s="180"/>
+      <c r="Q32" s="180"/>
+      <c r="R32" s="180"/>
+      <c r="S32" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="T32" s="182"/>
-      <c r="U32" s="182"/>
-      <c r="V32" s="182"/>
-      <c r="W32" s="182"/>
-      <c r="X32" s="182"/>
-      <c r="Y32" s="182"/>
-      <c r="Z32" s="182"/>
-      <c r="AA32" s="182"/>
-      <c r="AB32" s="182"/>
-      <c r="AC32" s="182"/>
+      <c r="T32" s="180"/>
+      <c r="U32" s="180"/>
+      <c r="V32" s="180"/>
+      <c r="W32" s="180"/>
+      <c r="X32" s="180"/>
+      <c r="Y32" s="180"/>
+      <c r="Z32" s="180"/>
+      <c r="AA32" s="180"/>
+      <c r="AB32" s="180"/>
+      <c r="AC32" s="180"/>
       <c r="AD32" s="50"/>
       <c r="AE32" s="50"/>
       <c r="AF32" s="50"/>
@@ -14575,33 +14034,33 @@
       <c r="F33" s="84">
         <v>6</v>
       </c>
-      <c r="G33" s="182" t="s">
+      <c r="G33" s="180" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="182"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="182"/>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="182"/>
-      <c r="S33" s="182" t="s">
+      <c r="H33" s="180"/>
+      <c r="I33" s="180"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="180"/>
+      <c r="P33" s="180"/>
+      <c r="Q33" s="180"/>
+      <c r="R33" s="180"/>
+      <c r="S33" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="182"/>
-      <c r="U33" s="182"/>
-      <c r="V33" s="182"/>
-      <c r="W33" s="182"/>
-      <c r="X33" s="182"/>
-      <c r="Y33" s="182"/>
-      <c r="Z33" s="182"/>
-      <c r="AA33" s="182"/>
-      <c r="AB33" s="182"/>
-      <c r="AC33" s="182"/>
+      <c r="T33" s="180"/>
+      <c r="U33" s="180"/>
+      <c r="V33" s="180"/>
+      <c r="W33" s="180"/>
+      <c r="X33" s="180"/>
+      <c r="Y33" s="180"/>
+      <c r="Z33" s="180"/>
+      <c r="AA33" s="180"/>
+      <c r="AB33" s="180"/>
+      <c r="AC33" s="180"/>
       <c r="AD33" s="50"/>
       <c r="AE33" s="50"/>
       <c r="AF33" s="50"/>
@@ -14688,7 +14147,7 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -14804,36 +14263,36 @@
       <c r="C39" s="50"/>
       <c r="D39" s="50"/>
       <c r="E39" s="85" t="s">
-        <v>391</v>
-      </c>
-      <c r="F39" s="183" t="s">
+        <v>392</v>
+      </c>
+      <c r="F39" s="181" t="s">
         <v>207</v>
       </c>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="183"/>
-      <c r="K39" s="183"/>
-      <c r="L39" s="183"/>
-      <c r="M39" s="183"/>
-      <c r="N39" s="183"/>
-      <c r="O39" s="183"/>
-      <c r="P39" s="183"/>
-      <c r="Q39" s="183"/>
-      <c r="R39" s="183" t="s">
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="181"/>
+      <c r="K39" s="181"/>
+      <c r="L39" s="181"/>
+      <c r="M39" s="181"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181" t="s">
         <v>100</v>
       </c>
-      <c r="S39" s="183"/>
-      <c r="T39" s="183"/>
-      <c r="U39" s="183"/>
-      <c r="V39" s="183"/>
-      <c r="W39" s="183"/>
-      <c r="X39" s="183"/>
-      <c r="Y39" s="183"/>
-      <c r="Z39" s="183"/>
-      <c r="AA39" s="183"/>
-      <c r="AB39" s="183"/>
-      <c r="AC39" s="183"/>
+      <c r="S39" s="181"/>
+      <c r="T39" s="181"/>
+      <c r="U39" s="181"/>
+      <c r="V39" s="181"/>
+      <c r="W39" s="181"/>
+      <c r="X39" s="181"/>
+      <c r="Y39" s="181"/>
+      <c r="Z39" s="181"/>
+      <c r="AA39" s="181"/>
+      <c r="AB39" s="181"/>
+      <c r="AC39" s="181"/>
       <c r="AD39" s="50"/>
       <c r="AE39" s="50"/>
       <c r="AF39" s="50"/>
@@ -14849,34 +14308,34 @@
       <c r="E40" s="86">
         <v>1</v>
       </c>
-      <c r="F40" s="182" t="s">
+      <c r="F40" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="182"/>
-      <c r="J40" s="182"/>
-      <c r="K40" s="182"/>
-      <c r="L40" s="182"/>
-      <c r="M40" s="182"/>
-      <c r="N40" s="182"/>
-      <c r="O40" s="182"/>
-      <c r="P40" s="182"/>
-      <c r="Q40" s="182"/>
-      <c r="R40" s="184" t="s">
+      <c r="G40" s="180"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="180"/>
+      <c r="J40" s="180"/>
+      <c r="K40" s="180"/>
+      <c r="L40" s="180"/>
+      <c r="M40" s="180"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="180"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="182" t="s">
         <v>215</v>
       </c>
-      <c r="S40" s="184"/>
-      <c r="T40" s="184"/>
-      <c r="U40" s="184"/>
-      <c r="V40" s="184"/>
-      <c r="W40" s="184"/>
-      <c r="X40" s="184"/>
-      <c r="Y40" s="184"/>
-      <c r="Z40" s="184"/>
-      <c r="AA40" s="184"/>
-      <c r="AB40" s="184"/>
-      <c r="AC40" s="184"/>
+      <c r="S40" s="182"/>
+      <c r="T40" s="182"/>
+      <c r="U40" s="182"/>
+      <c r="V40" s="182"/>
+      <c r="W40" s="182"/>
+      <c r="X40" s="182"/>
+      <c r="Y40" s="182"/>
+      <c r="Z40" s="182"/>
+      <c r="AA40" s="182"/>
+      <c r="AB40" s="182"/>
+      <c r="AC40" s="182"/>
       <c r="AD40" s="50"/>
       <c r="AE40" s="50"/>
       <c r="AF40" s="50"/>
@@ -14892,34 +14351,34 @@
       <c r="E41" s="86">
         <v>2</v>
       </c>
-      <c r="F41" s="182" t="s">
+      <c r="F41" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="G41" s="182"/>
-      <c r="H41" s="182"/>
-      <c r="I41" s="182"/>
-      <c r="J41" s="182"/>
-      <c r="K41" s="182"/>
-      <c r="L41" s="182"/>
-      <c r="M41" s="182"/>
-      <c r="N41" s="182"/>
-      <c r="O41" s="182"/>
-      <c r="P41" s="182"/>
-      <c r="Q41" s="182"/>
-      <c r="R41" s="184" t="s">
+      <c r="G41" s="180"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="180"/>
+      <c r="J41" s="180"/>
+      <c r="K41" s="180"/>
+      <c r="L41" s="180"/>
+      <c r="M41" s="180"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="180"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="S41" s="184"/>
-      <c r="T41" s="184"/>
-      <c r="U41" s="184"/>
-      <c r="V41" s="184"/>
-      <c r="W41" s="184"/>
-      <c r="X41" s="184"/>
-      <c r="Y41" s="184"/>
-      <c r="Z41" s="184"/>
-      <c r="AA41" s="184"/>
-      <c r="AB41" s="184"/>
-      <c r="AC41" s="184"/>
+      <c r="S41" s="182"/>
+      <c r="T41" s="182"/>
+      <c r="U41" s="182"/>
+      <c r="V41" s="182"/>
+      <c r="W41" s="182"/>
+      <c r="X41" s="182"/>
+      <c r="Y41" s="182"/>
+      <c r="Z41" s="182"/>
+      <c r="AA41" s="182"/>
+      <c r="AB41" s="182"/>
+      <c r="AC41" s="182"/>
       <c r="AD41" s="50"/>
       <c r="AE41" s="50"/>
       <c r="AF41" s="50"/>
@@ -14935,34 +14394,34 @@
       <c r="E42" s="86">
         <v>3</v>
       </c>
-      <c r="F42" s="182" t="s">
+      <c r="F42" s="180" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="182"/>
-      <c r="H42" s="182"/>
-      <c r="I42" s="182"/>
-      <c r="J42" s="182"/>
-      <c r="K42" s="182"/>
-      <c r="L42" s="182"/>
-      <c r="M42" s="182"/>
-      <c r="N42" s="182"/>
-      <c r="O42" s="182"/>
-      <c r="P42" s="182"/>
-      <c r="Q42" s="182"/>
-      <c r="R42" s="184" t="s">
+      <c r="G42" s="180"/>
+      <c r="H42" s="180"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="180"/>
+      <c r="K42" s="180"/>
+      <c r="L42" s="180"/>
+      <c r="M42" s="180"/>
+      <c r="N42" s="180"/>
+      <c r="O42" s="180"/>
+      <c r="P42" s="180"/>
+      <c r="Q42" s="180"/>
+      <c r="R42" s="182" t="s">
         <v>217</v>
       </c>
-      <c r="S42" s="184"/>
-      <c r="T42" s="184"/>
-      <c r="U42" s="184"/>
-      <c r="V42" s="184"/>
-      <c r="W42" s="184"/>
-      <c r="X42" s="184"/>
-      <c r="Y42" s="184"/>
-      <c r="Z42" s="184"/>
-      <c r="AA42" s="184"/>
-      <c r="AB42" s="184"/>
-      <c r="AC42" s="184"/>
+      <c r="S42" s="182"/>
+      <c r="T42" s="182"/>
+      <c r="U42" s="182"/>
+      <c r="V42" s="182"/>
+      <c r="W42" s="182"/>
+      <c r="X42" s="182"/>
+      <c r="Y42" s="182"/>
+      <c r="Z42" s="182"/>
+      <c r="AA42" s="182"/>
+      <c r="AB42" s="182"/>
+      <c r="AC42" s="182"/>
       <c r="AD42" s="50"/>
       <c r="AE42" s="50"/>
       <c r="AF42" s="50"/>
@@ -14978,34 +14437,34 @@
       <c r="E43" s="84">
         <v>4</v>
       </c>
-      <c r="F43" s="182" t="s">
+      <c r="F43" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="182"/>
-      <c r="H43" s="182"/>
-      <c r="I43" s="182"/>
-      <c r="J43" s="182"/>
-      <c r="K43" s="182"/>
-      <c r="L43" s="182"/>
-      <c r="M43" s="182"/>
-      <c r="N43" s="182"/>
-      <c r="O43" s="182"/>
-      <c r="P43" s="182"/>
-      <c r="Q43" s="182"/>
-      <c r="R43" s="184" t="s">
+      <c r="G43" s="180"/>
+      <c r="H43" s="180"/>
+      <c r="I43" s="180"/>
+      <c r="J43" s="180"/>
+      <c r="K43" s="180"/>
+      <c r="L43" s="180"/>
+      <c r="M43" s="180"/>
+      <c r="N43" s="180"/>
+      <c r="O43" s="180"/>
+      <c r="P43" s="180"/>
+      <c r="Q43" s="180"/>
+      <c r="R43" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="S43" s="184"/>
-      <c r="T43" s="184"/>
-      <c r="U43" s="184"/>
-      <c r="V43" s="184"/>
-      <c r="W43" s="184"/>
-      <c r="X43" s="184"/>
-      <c r="Y43" s="184"/>
-      <c r="Z43" s="184"/>
-      <c r="AA43" s="184"/>
-      <c r="AB43" s="184"/>
-      <c r="AC43" s="184"/>
+      <c r="S43" s="182"/>
+      <c r="T43" s="182"/>
+      <c r="U43" s="182"/>
+      <c r="V43" s="182"/>
+      <c r="W43" s="182"/>
+      <c r="X43" s="182"/>
+      <c r="Y43" s="182"/>
+      <c r="Z43" s="182"/>
+      <c r="AA43" s="182"/>
+      <c r="AB43" s="182"/>
+      <c r="AC43" s="182"/>
       <c r="AD43" s="50"/>
       <c r="AE43" s="50"/>
       <c r="AF43" s="50"/>
@@ -15021,34 +14480,34 @@
       <c r="E44" s="84">
         <v>5</v>
       </c>
-      <c r="F44" s="182" t="s">
+      <c r="F44" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="182"/>
-      <c r="H44" s="182"/>
-      <c r="I44" s="182"/>
-      <c r="J44" s="182"/>
-      <c r="K44" s="182"/>
-      <c r="L44" s="182"/>
-      <c r="M44" s="182"/>
-      <c r="N44" s="182"/>
-      <c r="O44" s="182"/>
-      <c r="P44" s="182"/>
-      <c r="Q44" s="182"/>
-      <c r="R44" s="184" t="s">
+      <c r="G44" s="180"/>
+      <c r="H44" s="180"/>
+      <c r="I44" s="180"/>
+      <c r="J44" s="180"/>
+      <c r="K44" s="180"/>
+      <c r="L44" s="180"/>
+      <c r="M44" s="180"/>
+      <c r="N44" s="180"/>
+      <c r="O44" s="180"/>
+      <c r="P44" s="180"/>
+      <c r="Q44" s="180"/>
+      <c r="R44" s="182" t="s">
         <v>219</v>
       </c>
-      <c r="S44" s="184"/>
-      <c r="T44" s="184"/>
-      <c r="U44" s="184"/>
-      <c r="V44" s="184"/>
-      <c r="W44" s="184"/>
-      <c r="X44" s="184"/>
-      <c r="Y44" s="184"/>
-      <c r="Z44" s="184"/>
-      <c r="AA44" s="184"/>
-      <c r="AB44" s="184"/>
-      <c r="AC44" s="184"/>
+      <c r="S44" s="182"/>
+      <c r="T44" s="182"/>
+      <c r="U44" s="182"/>
+      <c r="V44" s="182"/>
+      <c r="W44" s="182"/>
+      <c r="X44" s="182"/>
+      <c r="Y44" s="182"/>
+      <c r="Z44" s="182"/>
+      <c r="AA44" s="182"/>
+      <c r="AB44" s="182"/>
+      <c r="AC44" s="182"/>
       <c r="AD44" s="50"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="50"/>
@@ -15064,34 +14523,34 @@
       <c r="E45" s="84">
         <v>6</v>
       </c>
-      <c r="F45" s="182" t="s">
+      <c r="F45" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="182"/>
-      <c r="H45" s="182"/>
-      <c r="I45" s="182"/>
-      <c r="J45" s="182"/>
-      <c r="K45" s="182"/>
-      <c r="L45" s="182"/>
-      <c r="M45" s="182"/>
-      <c r="N45" s="182"/>
-      <c r="O45" s="182"/>
-      <c r="P45" s="182"/>
-      <c r="Q45" s="182"/>
-      <c r="R45" s="184" t="s">
+      <c r="G45" s="180"/>
+      <c r="H45" s="180"/>
+      <c r="I45" s="180"/>
+      <c r="J45" s="180"/>
+      <c r="K45" s="180"/>
+      <c r="L45" s="180"/>
+      <c r="M45" s="180"/>
+      <c r="N45" s="180"/>
+      <c r="O45" s="180"/>
+      <c r="P45" s="180"/>
+      <c r="Q45" s="180"/>
+      <c r="R45" s="182" t="s">
         <v>214</v>
       </c>
-      <c r="S45" s="184"/>
-      <c r="T45" s="184"/>
-      <c r="U45" s="184"/>
-      <c r="V45" s="184"/>
-      <c r="W45" s="184"/>
-      <c r="X45" s="184"/>
-      <c r="Y45" s="184"/>
-      <c r="Z45" s="184"/>
-      <c r="AA45" s="184"/>
-      <c r="AB45" s="184"/>
-      <c r="AC45" s="184"/>
+      <c r="S45" s="182"/>
+      <c r="T45" s="182"/>
+      <c r="U45" s="182"/>
+      <c r="V45" s="182"/>
+      <c r="W45" s="182"/>
+      <c r="X45" s="182"/>
+      <c r="Y45" s="182"/>
+      <c r="Z45" s="182"/>
+      <c r="AA45" s="182"/>
+      <c r="AB45" s="182"/>
+      <c r="AC45" s="182"/>
       <c r="AD45" s="50"/>
       <c r="AE45" s="50"/>
       <c r="AF45" s="50"/>
@@ -15144,7 +14603,7 @@
       <c r="C47" s="50"/>
       <c r="D47" s="50"/>
       <c r="E47" s="12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="50"/>
@@ -15183,7 +14642,7 @@
       <c r="C48" s="50"/>
       <c r="D48" s="50"/>
       <c r="E48" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="50"/>
@@ -15665,7 +15124,7 @@
       <c r="B61" s="50"/>
       <c r="C61" s="50"/>
       <c r="D61" s="50" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
@@ -15932,7 +15391,7 @@
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -16009,7 +15468,7 @@
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
@@ -17430,7 +16889,7 @@
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
@@ -18573,7 +18032,7 @@
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
       <c r="D137" s="12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -18650,7 +18109,7 @@
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
@@ -20207,7 +19666,7 @@
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
       <c r="E180" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -20846,7 +20305,7 @@
       <c r="C197" s="12"/>
       <c r="D197" s="12"/>
       <c r="E197" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
@@ -21407,7 +20866,7 @@
       <c r="C212" s="12"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F212" s="12"/>
       <c r="G212" s="12"/>
@@ -22188,16 +21647,33 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G21:R21"/>
+    <mergeCell ref="G22:R22"/>
+    <mergeCell ref="G23:R23"/>
+    <mergeCell ref="S21:AC21"/>
+    <mergeCell ref="S22:AC22"/>
+    <mergeCell ref="S23:AC23"/>
+    <mergeCell ref="G32:R32"/>
+    <mergeCell ref="G33:R33"/>
+    <mergeCell ref="S27:AC27"/>
+    <mergeCell ref="S28:AC28"/>
+    <mergeCell ref="S29:AC29"/>
+    <mergeCell ref="S30:AC30"/>
+    <mergeCell ref="S31:AC31"/>
+    <mergeCell ref="S32:AC32"/>
+    <mergeCell ref="S33:AC33"/>
+    <mergeCell ref="G27:R27"/>
+    <mergeCell ref="G28:R28"/>
+    <mergeCell ref="G29:R29"/>
+    <mergeCell ref="G30:R30"/>
+    <mergeCell ref="G31:R31"/>
     <mergeCell ref="F44:Q44"/>
     <mergeCell ref="F45:Q45"/>
     <mergeCell ref="R39:AC39"/>
@@ -22212,33 +21688,16 @@
     <mergeCell ref="F41:Q41"/>
     <mergeCell ref="F42:Q42"/>
     <mergeCell ref="F43:Q43"/>
-    <mergeCell ref="G32:R32"/>
-    <mergeCell ref="G33:R33"/>
-    <mergeCell ref="S27:AC27"/>
-    <mergeCell ref="S28:AC28"/>
-    <mergeCell ref="S29:AC29"/>
-    <mergeCell ref="S30:AC30"/>
-    <mergeCell ref="S31:AC31"/>
-    <mergeCell ref="S32:AC32"/>
-    <mergeCell ref="S33:AC33"/>
-    <mergeCell ref="G27:R27"/>
-    <mergeCell ref="G28:R28"/>
-    <mergeCell ref="G29:R29"/>
-    <mergeCell ref="G30:R30"/>
-    <mergeCell ref="G31:R31"/>
-    <mergeCell ref="G21:R21"/>
-    <mergeCell ref="G22:R22"/>
-    <mergeCell ref="G23:R23"/>
-    <mergeCell ref="S21:AC21"/>
-    <mergeCell ref="S22:AC22"/>
-    <mergeCell ref="S23:AC23"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -22260,7 +21719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -22276,163 +21735,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="128" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="169" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="163" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="116" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="166" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="157">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="159"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="128" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="166" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="157" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="159"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="128" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="157" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="159"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -22477,7 +21936,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -22630,7 +22089,7 @@
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -22670,7 +22129,7 @@
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -23525,7 +22984,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -24054,7 +23513,7 @@
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -24999,7 +24458,7 @@
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="74" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
@@ -25040,7 +24499,7 @@
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="74" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -26355,7 +25814,7 @@
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
@@ -26434,36 +25893,36 @@
       <c r="F108" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G108" s="136"/>
-      <c r="H108" s="136"/>
-      <c r="I108" s="136"/>
-      <c r="J108" s="136"/>
-      <c r="K108" s="136"/>
-      <c r="L108" s="136"/>
-      <c r="M108" s="136"/>
-      <c r="N108" s="136"/>
-      <c r="O108" s="136"/>
-      <c r="P108" s="136"/>
-      <c r="Q108" s="136"/>
-      <c r="R108" s="136"/>
-      <c r="S108" s="136"/>
-      <c r="T108" s="136"/>
-      <c r="U108" s="136"/>
-      <c r="V108" s="137"/>
+      <c r="G108" s="99"/>
+      <c r="H108" s="99"/>
+      <c r="I108" s="99"/>
+      <c r="J108" s="99"/>
+      <c r="K108" s="99"/>
+      <c r="L108" s="99"/>
+      <c r="M108" s="99"/>
+      <c r="N108" s="99"/>
+      <c r="O108" s="99"/>
+      <c r="P108" s="99"/>
+      <c r="Q108" s="99"/>
+      <c r="R108" s="99"/>
+      <c r="S108" s="99"/>
+      <c r="T108" s="99"/>
+      <c r="U108" s="99"/>
+      <c r="V108" s="100"/>
       <c r="W108" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X108" s="136"/>
-      <c r="Y108" s="136"/>
-      <c r="Z108" s="136"/>
-      <c r="AA108" s="136"/>
-      <c r="AB108" s="136"/>
-      <c r="AC108" s="136"/>
-      <c r="AD108" s="136"/>
-      <c r="AE108" s="136"/>
-      <c r="AF108" s="136"/>
-      <c r="AG108" s="136"/>
-      <c r="AH108" s="137"/>
+      <c r="X108" s="99"/>
+      <c r="Y108" s="99"/>
+      <c r="Z108" s="99"/>
+      <c r="AA108" s="99"/>
+      <c r="AB108" s="99"/>
+      <c r="AC108" s="99"/>
+      <c r="AD108" s="99"/>
+      <c r="AE108" s="99"/>
+      <c r="AF108" s="99"/>
+      <c r="AG108" s="99"/>
+      <c r="AH108" s="100"/>
       <c r="AI108" s="12"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.15">
@@ -27056,36 +26515,36 @@
       <c r="F124" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G124" s="136"/>
-      <c r="H124" s="136"/>
-      <c r="I124" s="136"/>
-      <c r="J124" s="136"/>
-      <c r="K124" s="136"/>
-      <c r="L124" s="136"/>
-      <c r="M124" s="136"/>
-      <c r="N124" s="136"/>
-      <c r="O124" s="136"/>
-      <c r="P124" s="136"/>
-      <c r="Q124" s="136"/>
-      <c r="R124" s="136"/>
-      <c r="S124" s="136"/>
-      <c r="T124" s="136"/>
-      <c r="U124" s="136"/>
-      <c r="V124" s="137"/>
+      <c r="G124" s="99"/>
+      <c r="H124" s="99"/>
+      <c r="I124" s="99"/>
+      <c r="J124" s="99"/>
+      <c r="K124" s="99"/>
+      <c r="L124" s="99"/>
+      <c r="M124" s="99"/>
+      <c r="N124" s="99"/>
+      <c r="O124" s="99"/>
+      <c r="P124" s="99"/>
+      <c r="Q124" s="99"/>
+      <c r="R124" s="99"/>
+      <c r="S124" s="99"/>
+      <c r="T124" s="99"/>
+      <c r="U124" s="99"/>
+      <c r="V124" s="100"/>
       <c r="W124" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X124" s="136"/>
-      <c r="Y124" s="136"/>
-      <c r="Z124" s="136"/>
-      <c r="AA124" s="136"/>
-      <c r="AB124" s="136"/>
-      <c r="AC124" s="136"/>
-      <c r="AD124" s="136"/>
-      <c r="AE124" s="136"/>
-      <c r="AF124" s="136"/>
-      <c r="AG124" s="136"/>
-      <c r="AH124" s="137"/>
+      <c r="X124" s="99"/>
+      <c r="Y124" s="99"/>
+      <c r="Z124" s="99"/>
+      <c r="AA124" s="99"/>
+      <c r="AB124" s="99"/>
+      <c r="AC124" s="99"/>
+      <c r="AD124" s="99"/>
+      <c r="AE124" s="99"/>
+      <c r="AF124" s="99"/>
+      <c r="AG124" s="99"/>
+      <c r="AH124" s="100"/>
       <c r="AI124" s="12"/>
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.15">
@@ -27471,7 +26930,7 @@
       <c r="U134" s="18"/>
       <c r="V134" s="82"/>
       <c r="W134" s="74" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="X134" s="18"/>
       <c r="Y134" s="18"/>
@@ -27986,7 +27445,7 @@
       <c r="U147" s="18"/>
       <c r="V147" s="82"/>
       <c r="W147" s="74" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="X147" s="18"/>
       <c r="Y147" s="18"/>
@@ -32794,7 +32253,7 @@
       <c r="C271" s="12"/>
       <c r="D271" s="12"/>
       <c r="E271" s="18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F271" s="12"/>
       <c r="G271" s="18"/>
@@ -35282,7 +34741,7 @@
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
       <c r="E335" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F335" s="12"/>
       <c r="G335" s="12"/>
@@ -35810,15 +35269,20 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="W198:AH198"/>
+    <mergeCell ref="F49:V49"/>
+    <mergeCell ref="W49:AH49"/>
+    <mergeCell ref="F79:V79"/>
+    <mergeCell ref="W79:AH79"/>
+    <mergeCell ref="F108:V108"/>
+    <mergeCell ref="W108:AH108"/>
     <mergeCell ref="F295:V295"/>
     <mergeCell ref="W295:AH295"/>
     <mergeCell ref="F337:V337"/>
@@ -35835,20 +35299,15 @@
     <mergeCell ref="F166:V166"/>
     <mergeCell ref="W166:AH166"/>
     <mergeCell ref="F198:V198"/>
-    <mergeCell ref="W198:AH198"/>
-    <mergeCell ref="F49:V49"/>
-    <mergeCell ref="W49:AH49"/>
-    <mergeCell ref="F79:V79"/>
-    <mergeCell ref="W79:AH79"/>
-    <mergeCell ref="F108:V108"/>
-    <mergeCell ref="W108:AH108"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -35873,7 +35332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -35886,163 +35345,163 @@
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="128" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="169" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="163" t="s">
         <v>277</v>
       </c>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="194" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="196"/>
-      <c r="AA1" s="166" t="s">
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="157">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="159"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="128" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="198"/>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="166" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="157" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="159"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="128" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="200"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201"/>
-      <c r="V3" s="201"/>
-      <c r="W3" s="201"/>
-      <c r="X3" s="201"/>
-      <c r="Y3" s="201"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="157" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="159"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -36444,38 +35903,38 @@
       <c r="D11" s="75">
         <v>1</v>
       </c>
-      <c r="E11" s="191" t="s">
+      <c r="E11" s="200" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="192"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="192"/>
-      <c r="N11" s="192"/>
-      <c r="O11" s="192"/>
-      <c r="P11" s="192"/>
-      <c r="Q11" s="192"/>
-      <c r="R11" s="192"/>
-      <c r="S11" s="192"/>
-      <c r="T11" s="192"/>
-      <c r="U11" s="193"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="136"/>
-      <c r="X11" s="136"/>
-      <c r="Y11" s="136"/>
-      <c r="Z11" s="136"/>
-      <c r="AA11" s="136"/>
-      <c r="AB11" s="136"/>
-      <c r="AC11" s="136"/>
-      <c r="AD11" s="136"/>
-      <c r="AE11" s="136"/>
-      <c r="AF11" s="136"/>
-      <c r="AG11" s="136"/>
-      <c r="AH11" s="137"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="201"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="201"/>
+      <c r="Q11" s="201"/>
+      <c r="R11" s="201"/>
+      <c r="S11" s="201"/>
+      <c r="T11" s="201"/>
+      <c r="U11" s="202"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="100"/>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
@@ -36503,39 +35962,39 @@
         <v>2</v>
       </c>
       <c r="E12" s="74"/>
-      <c r="F12" s="188" t="s">
+      <c r="F12" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="189"/>
-      <c r="O12" s="189"/>
-      <c r="P12" s="189"/>
-      <c r="Q12" s="189"/>
-      <c r="R12" s="189"/>
-      <c r="S12" s="189"/>
-      <c r="T12" s="189"/>
-      <c r="U12" s="190"/>
-      <c r="V12" s="188" t="s">
+      <c r="G12" s="198"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="198"/>
+      <c r="P12" s="198"/>
+      <c r="Q12" s="198"/>
+      <c r="R12" s="198"/>
+      <c r="S12" s="198"/>
+      <c r="T12" s="198"/>
+      <c r="U12" s="199"/>
+      <c r="V12" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="W12" s="189"/>
-      <c r="X12" s="189"/>
-      <c r="Y12" s="189"/>
-      <c r="Z12" s="189"/>
-      <c r="AA12" s="189"/>
-      <c r="AB12" s="189"/>
-      <c r="AC12" s="189"/>
-      <c r="AD12" s="189"/>
-      <c r="AE12" s="189"/>
-      <c r="AF12" s="189"/>
-      <c r="AG12" s="189"/>
-      <c r="AH12" s="190"/>
+      <c r="W12" s="198"/>
+      <c r="X12" s="198"/>
+      <c r="Y12" s="198"/>
+      <c r="Z12" s="198"/>
+      <c r="AA12" s="198"/>
+      <c r="AB12" s="198"/>
+      <c r="AC12" s="198"/>
+      <c r="AD12" s="198"/>
+      <c r="AE12" s="198"/>
+      <c r="AF12" s="198"/>
+      <c r="AG12" s="198"/>
+      <c r="AH12" s="199"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
@@ -36563,39 +36022,39 @@
         <v>3</v>
       </c>
       <c r="E13" s="74"/>
-      <c r="F13" s="188" t="s">
+      <c r="F13" s="197" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="189"/>
-      <c r="O13" s="189"/>
-      <c r="P13" s="189"/>
-      <c r="Q13" s="189"/>
-      <c r="R13" s="189"/>
-      <c r="S13" s="189"/>
-      <c r="T13" s="189"/>
-      <c r="U13" s="190"/>
-      <c r="V13" s="188" t="s">
+      <c r="G13" s="198"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="198"/>
+      <c r="N13" s="198"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="198"/>
+      <c r="Q13" s="198"/>
+      <c r="R13" s="198"/>
+      <c r="S13" s="198"/>
+      <c r="T13" s="198"/>
+      <c r="U13" s="199"/>
+      <c r="V13" s="197" t="s">
         <v>109</v>
       </c>
-      <c r="W13" s="189"/>
-      <c r="X13" s="189"/>
-      <c r="Y13" s="189"/>
-      <c r="Z13" s="189"/>
-      <c r="AA13" s="189"/>
-      <c r="AB13" s="189"/>
-      <c r="AC13" s="189"/>
-      <c r="AD13" s="189"/>
-      <c r="AE13" s="189"/>
-      <c r="AF13" s="189"/>
-      <c r="AG13" s="189"/>
-      <c r="AH13" s="190"/>
+      <c r="W13" s="198"/>
+      <c r="X13" s="198"/>
+      <c r="Y13" s="198"/>
+      <c r="Z13" s="198"/>
+      <c r="AA13" s="198"/>
+      <c r="AB13" s="198"/>
+      <c r="AC13" s="198"/>
+      <c r="AD13" s="198"/>
+      <c r="AE13" s="198"/>
+      <c r="AF13" s="198"/>
+      <c r="AG13" s="198"/>
+      <c r="AH13" s="199"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
@@ -36623,39 +36082,39 @@
         <v>4</v>
       </c>
       <c r="E14" s="74"/>
-      <c r="F14" s="188" t="s">
+      <c r="F14" s="197" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="189"/>
-      <c r="M14" s="189"/>
-      <c r="N14" s="189"/>
-      <c r="O14" s="189"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="189"/>
-      <c r="R14" s="189"/>
-      <c r="S14" s="189"/>
-      <c r="T14" s="189"/>
-      <c r="U14" s="190"/>
-      <c r="V14" s="188" t="s">
+      <c r="G14" s="198"/>
+      <c r="H14" s="198"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="198"/>
+      <c r="N14" s="198"/>
+      <c r="O14" s="198"/>
+      <c r="P14" s="198"/>
+      <c r="Q14" s="198"/>
+      <c r="R14" s="198"/>
+      <c r="S14" s="198"/>
+      <c r="T14" s="198"/>
+      <c r="U14" s="199"/>
+      <c r="V14" s="197" t="s">
         <v>110</v>
       </c>
-      <c r="W14" s="189"/>
-      <c r="X14" s="189"/>
-      <c r="Y14" s="189"/>
-      <c r="Z14" s="189"/>
-      <c r="AA14" s="189"/>
-      <c r="AB14" s="189"/>
-      <c r="AC14" s="189"/>
-      <c r="AD14" s="189"/>
-      <c r="AE14" s="189"/>
-      <c r="AF14" s="189"/>
-      <c r="AG14" s="189"/>
-      <c r="AH14" s="190"/>
+      <c r="W14" s="198"/>
+      <c r="X14" s="198"/>
+      <c r="Y14" s="198"/>
+      <c r="Z14" s="198"/>
+      <c r="AA14" s="198"/>
+      <c r="AB14" s="198"/>
+      <c r="AC14" s="198"/>
+      <c r="AD14" s="198"/>
+      <c r="AE14" s="198"/>
+      <c r="AF14" s="198"/>
+      <c r="AG14" s="198"/>
+      <c r="AH14" s="199"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
@@ -36682,40 +36141,40 @@
       <c r="D15" s="75">
         <v>5</v>
       </c>
-      <c r="E15" s="188" t="s">
+      <c r="E15" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="189"/>
-      <c r="M15" s="189"/>
-      <c r="N15" s="189"/>
-      <c r="O15" s="189"/>
-      <c r="P15" s="189"/>
-      <c r="Q15" s="189"/>
-      <c r="R15" s="189"/>
-      <c r="S15" s="189"/>
-      <c r="T15" s="189"/>
-      <c r="U15" s="190"/>
-      <c r="V15" s="188" t="s">
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
+      <c r="P15" s="198"/>
+      <c r="Q15" s="198"/>
+      <c r="R15" s="198"/>
+      <c r="S15" s="198"/>
+      <c r="T15" s="198"/>
+      <c r="U15" s="199"/>
+      <c r="V15" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="W15" s="189"/>
-      <c r="X15" s="189"/>
-      <c r="Y15" s="189"/>
-      <c r="Z15" s="189"/>
-      <c r="AA15" s="189"/>
-      <c r="AB15" s="189"/>
-      <c r="AC15" s="189"/>
-      <c r="AD15" s="189"/>
-      <c r="AE15" s="189"/>
-      <c r="AF15" s="189"/>
-      <c r="AG15" s="189"/>
-      <c r="AH15" s="190"/>
+      <c r="W15" s="198"/>
+      <c r="X15" s="198"/>
+      <c r="Y15" s="198"/>
+      <c r="Z15" s="198"/>
+      <c r="AA15" s="198"/>
+      <c r="AB15" s="198"/>
+      <c r="AC15" s="198"/>
+      <c r="AD15" s="198"/>
+      <c r="AE15" s="198"/>
+      <c r="AF15" s="198"/>
+      <c r="AG15" s="198"/>
+      <c r="AH15" s="199"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
@@ -36795,8 +36254,8 @@
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="203" t="s">
-        <v>419</v>
+      <c r="D17" s="12" t="s">
+        <v>365</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -36852,7 +36311,7 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -36908,7 +36367,7 @@
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -36964,7 +36423,7 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -37020,7 +36479,7 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -37076,7 +36535,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -37132,7 +36591,7 @@
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -39075,14 +38534,15 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="V15:AH15"/>
     <mergeCell ref="E10:U10"/>
     <mergeCell ref="E11:U11"/>
@@ -39095,15 +38555,14 @@
     <mergeCell ref="V12:AH12"/>
     <mergeCell ref="V13:AH13"/>
     <mergeCell ref="V14:AH14"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/shell/シェルスクリプト開発標準.xlsx
+++ b/サンプルプロジェクト/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/shell/シェルスクリプト開発標準.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C75838-A4D4-4E20-A242-B226BE876A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0238636-86B4-459C-9CFC-366648CA73C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="21" r:id="rId1"/>
@@ -17,8 +17,6 @@
     <sheet name="（別紙）Nablarch環境依存項目管理ポリシー" sheetId="20" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc207619135" localSheetId="5">'3. スクリプト規約に則ったサンプルスクリプト'!$E$271</definedName>
-    <definedName name="_Toc207619136" localSheetId="5">'3. スクリプト規約に則ったサンプルスクリプト'!$E$335</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'（別紙）Nablarch環境依存項目管理ポリシー'!$A$1:$AI$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. はじめに'!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. スクリプト規約'!$A$1:$AI$232</definedName>
@@ -33,12 +31,15 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2181,7 +2182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -2791,8 +2792,86 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2905,81 +2984,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2989,18 +2993,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3048,11 +3040,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3063,6 +3061,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3070,24 +3074,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3117,7 +3103,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3130,8 +3131,36 @@
     <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{1F5119C5-E015-4D11-A20F-E49F62891CF0}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8835,12 +8864,12 @@
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="91">
+      <c r="I25" s="92">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43336</v>
       </c>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="26"/>
@@ -9400,57 +9429,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="127" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="107" t="s">
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="116" t="s">
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="142" t="s">
         <v>280</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="98" t="s">
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="124" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="151" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="92">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="118">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="94"/>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="120"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -9458,53 +9487,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127" t="s">
         <v>413</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="98" t="s">
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="104" t="str">
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="130" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="92" t="str">
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="118" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="94"/>
+      <c r="AH2" s="119"/>
+      <c r="AI2" s="120"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -9512,43 +9541,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="94"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="151"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="118"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="120"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -9585,1187 +9614,1031 @@
       <c r="A7" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="95" t="s">
+      <c r="C7" s="122"/>
+      <c r="D7" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="95" t="s">
+      <c r="E7" s="123"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="95" t="s">
+      <c r="H7" s="123"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="121" t="s">
         <v>279</v>
       </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="95" t="s">
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="95" t="s">
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="96"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="122"/>
     </row>
     <row r="8" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="87">
         <v>1</v>
       </c>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="105" t="s">
         <v>414</v>
       </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="143">
+      <c r="C8" s="106"/>
+      <c r="D8" s="107">
         <v>43336</v>
       </c>
-      <c r="E8" s="144"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146" t="s">
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="H8" s="147"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="148" t="s">
+      <c r="H8" s="111"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="112" t="s">
         <v>416</v>
       </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="151" t="s">
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="115" t="s">
         <v>417</v>
       </c>
-      <c r="R8" s="152"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="152"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="152"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="152"/>
-      <c r="AE8" s="153"/>
-      <c r="AF8" s="148" t="s">
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="117"/>
+      <c r="AF8" s="112" t="s">
         <v>418</v>
       </c>
-      <c r="AG8" s="149"/>
-      <c r="AH8" s="149"/>
-      <c r="AI8" s="150"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="114"/>
     </row>
     <row r="9" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="72"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="139"/>
-      <c r="S9" s="139"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="139"/>
-      <c r="X9" s="139"/>
-      <c r="Y9" s="139"/>
-      <c r="Z9" s="139"/>
-      <c r="AA9" s="139"/>
-      <c r="AB9" s="139"/>
-      <c r="AC9" s="139"/>
-      <c r="AD9" s="139"/>
-      <c r="AE9" s="140"/>
-      <c r="AF9" s="135"/>
-      <c r="AG9" s="136"/>
-      <c r="AH9" s="136"/>
-      <c r="AI9" s="137"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="103"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="104"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="101"/>
     </row>
     <row r="10" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="72"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="139"/>
-      <c r="S10" s="139"/>
-      <c r="T10" s="139"/>
-      <c r="U10" s="139"/>
-      <c r="V10" s="139"/>
-      <c r="W10" s="139"/>
-      <c r="X10" s="139"/>
-      <c r="Y10" s="139"/>
-      <c r="Z10" s="139"/>
-      <c r="AA10" s="139"/>
-      <c r="AB10" s="139"/>
-      <c r="AC10" s="139"/>
-      <c r="AD10" s="139"/>
-      <c r="AE10" s="140"/>
-      <c r="AF10" s="135"/>
-      <c r="AG10" s="136"/>
-      <c r="AH10" s="136"/>
-      <c r="AI10" s="137"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="104"/>
+      <c r="AF10" s="99"/>
+      <c r="AG10" s="100"/>
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="101"/>
     </row>
     <row r="11" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="139"/>
-      <c r="T11" s="139"/>
-      <c r="U11" s="139"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="139"/>
-      <c r="X11" s="139"/>
-      <c r="Y11" s="139"/>
-      <c r="Z11" s="139"/>
-      <c r="AA11" s="139"/>
-      <c r="AB11" s="139"/>
-      <c r="AC11" s="139"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="140"/>
-      <c r="AF11" s="135"/>
-      <c r="AG11" s="136"/>
-      <c r="AH11" s="136"/>
-      <c r="AI11" s="137"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="103"/>
+      <c r="Z11" s="103"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="104"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="100"/>
+      <c r="AH11" s="100"/>
+      <c r="AI11" s="101"/>
     </row>
     <row r="12" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="137"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="139"/>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
-      <c r="U12" s="139"/>
-      <c r="V12" s="139"/>
-      <c r="W12" s="139"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="139"/>
-      <c r="Z12" s="139"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="140"/>
-      <c r="AF12" s="135"/>
-      <c r="AG12" s="136"/>
-      <c r="AH12" s="136"/>
-      <c r="AI12" s="137"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="103"/>
+      <c r="AA12" s="103"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="103"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="100"/>
+      <c r="AH12" s="100"/>
+      <c r="AI12" s="101"/>
     </row>
     <row r="13" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="139"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="140"/>
-      <c r="AF13" s="135"/>
-      <c r="AG13" s="136"/>
-      <c r="AH13" s="136"/>
-      <c r="AI13" s="137"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="103"/>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="100"/>
+      <c r="AH13" s="100"/>
+      <c r="AI13" s="101"/>
     </row>
     <row r="14" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="72"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="139"/>
-      <c r="S14" s="139"/>
-      <c r="T14" s="139"/>
-      <c r="U14" s="139"/>
-      <c r="V14" s="139"/>
-      <c r="W14" s="139"/>
-      <c r="X14" s="139"/>
-      <c r="Y14" s="139"/>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="139"/>
-      <c r="AB14" s="139"/>
-      <c r="AC14" s="139"/>
-      <c r="AD14" s="139"/>
-      <c r="AE14" s="140"/>
-      <c r="AF14" s="135"/>
-      <c r="AG14" s="136"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="137"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="103"/>
+      <c r="Z14" s="103"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="103"/>
+      <c r="AD14" s="103"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="100"/>
+      <c r="AI14" s="101"/>
     </row>
     <row r="15" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="72"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="139"/>
-      <c r="AD15" s="139"/>
-      <c r="AE15" s="140"/>
-      <c r="AF15" s="135"/>
-      <c r="AG15" s="136"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="137"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="103"/>
+      <c r="X15" s="103"/>
+      <c r="Y15" s="103"/>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="100"/>
+      <c r="AI15" s="101"/>
     </row>
     <row r="16" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="72"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="139"/>
-      <c r="T16" s="139"/>
-      <c r="U16" s="139"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="139"/>
-      <c r="Z16" s="139"/>
-      <c r="AA16" s="139"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="139"/>
-      <c r="AD16" s="139"/>
-      <c r="AE16" s="140"/>
-      <c r="AF16" s="135"/>
-      <c r="AG16" s="136"/>
-      <c r="AH16" s="136"/>
-      <c r="AI16" s="137"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="103"/>
+      <c r="AA16" s="103"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="103"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="100"/>
+      <c r="AI16" s="101"/>
     </row>
     <row r="17" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="139"/>
-      <c r="S17" s="139"/>
-      <c r="T17" s="139"/>
-      <c r="U17" s="139"/>
-      <c r="V17" s="139"/>
-      <c r="W17" s="139"/>
-      <c r="X17" s="139"/>
-      <c r="Y17" s="139"/>
-      <c r="Z17" s="139"/>
-      <c r="AA17" s="139"/>
-      <c r="AB17" s="139"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="139"/>
-      <c r="AE17" s="140"/>
-      <c r="AF17" s="135"/>
-      <c r="AG17" s="136"/>
-      <c r="AH17" s="136"/>
-      <c r="AI17" s="137"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="99"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="100"/>
+      <c r="AI17" s="101"/>
     </row>
     <row r="18" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="138"/>
-      <c r="R18" s="139"/>
-      <c r="S18" s="139"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="139"/>
-      <c r="V18" s="139"/>
-      <c r="W18" s="139"/>
-      <c r="X18" s="139"/>
-      <c r="Y18" s="139"/>
-      <c r="Z18" s="139"/>
-      <c r="AA18" s="139"/>
-      <c r="AB18" s="139"/>
-      <c r="AC18" s="139"/>
-      <c r="AD18" s="139"/>
-      <c r="AE18" s="140"/>
-      <c r="AF18" s="135"/>
-      <c r="AG18" s="136"/>
-      <c r="AH18" s="136"/>
-      <c r="AI18" s="137"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="103"/>
+      <c r="Y18" s="103"/>
+      <c r="Z18" s="103"/>
+      <c r="AA18" s="103"/>
+      <c r="AB18" s="103"/>
+      <c r="AC18" s="103"/>
+      <c r="AD18" s="103"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="99"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="100"/>
+      <c r="AI18" s="101"/>
     </row>
     <row r="19" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="137"/>
-      <c r="Q19" s="138"/>
-      <c r="R19" s="139"/>
-      <c r="S19" s="139"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="139"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139"/>
-      <c r="Y19" s="139"/>
-      <c r="Z19" s="139"/>
-      <c r="AA19" s="139"/>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="139"/>
-      <c r="AD19" s="139"/>
-      <c r="AE19" s="140"/>
-      <c r="AF19" s="135"/>
-      <c r="AG19" s="136"/>
-      <c r="AH19" s="136"/>
-      <c r="AI19" s="137"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="103"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="103"/>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="103"/>
+      <c r="AB19" s="103"/>
+      <c r="AC19" s="103"/>
+      <c r="AD19" s="103"/>
+      <c r="AE19" s="104"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="100"/>
+      <c r="AH19" s="100"/>
+      <c r="AI19" s="101"/>
     </row>
     <row r="20" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="72"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="138"/>
-      <c r="R20" s="139"/>
-      <c r="S20" s="139"/>
-      <c r="T20" s="139"/>
-      <c r="U20" s="139"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="139"/>
-      <c r="X20" s="139"/>
-      <c r="Y20" s="139"/>
-      <c r="Z20" s="139"/>
-      <c r="AA20" s="139"/>
-      <c r="AB20" s="139"/>
-      <c r="AC20" s="139"/>
-      <c r="AD20" s="139"/>
-      <c r="AE20" s="140"/>
-      <c r="AF20" s="135"/>
-      <c r="AG20" s="136"/>
-      <c r="AH20" s="136"/>
-      <c r="AI20" s="137"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="103"/>
+      <c r="AB20" s="103"/>
+      <c r="AC20" s="103"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="100"/>
+      <c r="AH20" s="100"/>
+      <c r="AI20" s="101"/>
     </row>
     <row r="21" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="72"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="138"/>
-      <c r="R21" s="139"/>
-      <c r="S21" s="139"/>
-      <c r="T21" s="139"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="139"/>
-      <c r="Y21" s="139"/>
-      <c r="Z21" s="139"/>
-      <c r="AA21" s="139"/>
-      <c r="AB21" s="139"/>
-      <c r="AC21" s="139"/>
-      <c r="AD21" s="139"/>
-      <c r="AE21" s="140"/>
-      <c r="AF21" s="135"/>
-      <c r="AG21" s="136"/>
-      <c r="AH21" s="136"/>
-      <c r="AI21" s="137"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
+      <c r="X21" s="103"/>
+      <c r="Y21" s="103"/>
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="103"/>
+      <c r="AB21" s="103"/>
+      <c r="AC21" s="103"/>
+      <c r="AD21" s="103"/>
+      <c r="AE21" s="104"/>
+      <c r="AF21" s="99"/>
+      <c r="AG21" s="100"/>
+      <c r="AH21" s="100"/>
+      <c r="AI21" s="101"/>
     </row>
     <row r="22" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="72"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="137"/>
-      <c r="Q22" s="138"/>
-      <c r="R22" s="139"/>
-      <c r="S22" s="139"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="139"/>
-      <c r="V22" s="139"/>
-      <c r="W22" s="139"/>
-      <c r="X22" s="139"/>
-      <c r="Y22" s="139"/>
-      <c r="Z22" s="139"/>
-      <c r="AA22" s="139"/>
-      <c r="AB22" s="139"/>
-      <c r="AC22" s="139"/>
-      <c r="AD22" s="139"/>
-      <c r="AE22" s="140"/>
-      <c r="AF22" s="135"/>
-      <c r="AG22" s="136"/>
-      <c r="AH22" s="136"/>
-      <c r="AI22" s="137"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="103"/>
+      <c r="U22" s="103"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="103"/>
+      <c r="X22" s="103"/>
+      <c r="Y22" s="103"/>
+      <c r="Z22" s="103"/>
+      <c r="AA22" s="103"/>
+      <c r="AB22" s="103"/>
+      <c r="AC22" s="103"/>
+      <c r="AD22" s="103"/>
+      <c r="AE22" s="104"/>
+      <c r="AF22" s="99"/>
+      <c r="AG22" s="100"/>
+      <c r="AH22" s="100"/>
+      <c r="AI22" s="101"/>
     </row>
     <row r="23" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="72"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="138"/>
-      <c r="R23" s="139"/>
-      <c r="S23" s="139"/>
-      <c r="T23" s="139"/>
-      <c r="U23" s="139"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="139"/>
-      <c r="X23" s="139"/>
-      <c r="Y23" s="139"/>
-      <c r="Z23" s="139"/>
-      <c r="AA23" s="139"/>
-      <c r="AB23" s="139"/>
-      <c r="AC23" s="139"/>
-      <c r="AD23" s="139"/>
-      <c r="AE23" s="140"/>
-      <c r="AF23" s="135"/>
-      <c r="AG23" s="136"/>
-      <c r="AH23" s="136"/>
-      <c r="AI23" s="137"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="103"/>
+      <c r="U23" s="103"/>
+      <c r="V23" s="103"/>
+      <c r="W23" s="103"/>
+      <c r="X23" s="103"/>
+      <c r="Y23" s="103"/>
+      <c r="Z23" s="103"/>
+      <c r="AA23" s="103"/>
+      <c r="AB23" s="103"/>
+      <c r="AC23" s="103"/>
+      <c r="AD23" s="103"/>
+      <c r="AE23" s="104"/>
+      <c r="AF23" s="99"/>
+      <c r="AG23" s="100"/>
+      <c r="AH23" s="100"/>
+      <c r="AI23" s="101"/>
     </row>
     <row r="24" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="72"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="138"/>
-      <c r="R24" s="139"/>
-      <c r="S24" s="139"/>
-      <c r="T24" s="139"/>
-      <c r="U24" s="139"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="139"/>
-      <c r="X24" s="139"/>
-      <c r="Y24" s="139"/>
-      <c r="Z24" s="139"/>
-      <c r="AA24" s="139"/>
-      <c r="AB24" s="139"/>
-      <c r="AC24" s="139"/>
-      <c r="AD24" s="139"/>
-      <c r="AE24" s="140"/>
-      <c r="AF24" s="135"/>
-      <c r="AG24" s="136"/>
-      <c r="AH24" s="136"/>
-      <c r="AI24" s="137"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="103"/>
+      <c r="Z24" s="103"/>
+      <c r="AA24" s="103"/>
+      <c r="AB24" s="103"/>
+      <c r="AC24" s="103"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="104"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="100"/>
+      <c r="AH24" s="100"/>
+      <c r="AI24" s="101"/>
     </row>
     <row r="25" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="72"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="138"/>
-      <c r="R25" s="139"/>
-      <c r="S25" s="139"/>
-      <c r="T25" s="139"/>
-      <c r="U25" s="139"/>
-      <c r="V25" s="139"/>
-      <c r="W25" s="139"/>
-      <c r="X25" s="139"/>
-      <c r="Y25" s="139"/>
-      <c r="Z25" s="139"/>
-      <c r="AA25" s="139"/>
-      <c r="AB25" s="139"/>
-      <c r="AC25" s="139"/>
-      <c r="AD25" s="139"/>
-      <c r="AE25" s="140"/>
-      <c r="AF25" s="135"/>
-      <c r="AG25" s="136"/>
-      <c r="AH25" s="136"/>
-      <c r="AI25" s="137"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="103"/>
+      <c r="V25" s="103"/>
+      <c r="W25" s="103"/>
+      <c r="X25" s="103"/>
+      <c r="Y25" s="103"/>
+      <c r="Z25" s="103"/>
+      <c r="AA25" s="103"/>
+      <c r="AB25" s="103"/>
+      <c r="AC25" s="103"/>
+      <c r="AD25" s="103"/>
+      <c r="AE25" s="104"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="100"/>
+      <c r="AH25" s="100"/>
+      <c r="AI25" s="101"/>
     </row>
     <row r="26" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="72"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="139"/>
-      <c r="S26" s="139"/>
-      <c r="T26" s="139"/>
-      <c r="U26" s="139"/>
-      <c r="V26" s="139"/>
-      <c r="W26" s="139"/>
-      <c r="X26" s="139"/>
-      <c r="Y26" s="139"/>
-      <c r="Z26" s="139"/>
-      <c r="AA26" s="139"/>
-      <c r="AB26" s="139"/>
-      <c r="AC26" s="139"/>
-      <c r="AD26" s="139"/>
-      <c r="AE26" s="140"/>
-      <c r="AF26" s="135"/>
-      <c r="AG26" s="136"/>
-      <c r="AH26" s="136"/>
-      <c r="AI26" s="137"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="103"/>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="103"/>
+      <c r="Z26" s="103"/>
+      <c r="AA26" s="103"/>
+      <c r="AB26" s="103"/>
+      <c r="AC26" s="103"/>
+      <c r="AD26" s="103"/>
+      <c r="AE26" s="104"/>
+      <c r="AF26" s="99"/>
+      <c r="AG26" s="100"/>
+      <c r="AH26" s="100"/>
+      <c r="AI26" s="101"/>
     </row>
     <row r="27" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="72"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="139"/>
-      <c r="S27" s="139"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="139"/>
-      <c r="V27" s="139"/>
-      <c r="W27" s="139"/>
-      <c r="X27" s="139"/>
-      <c r="Y27" s="139"/>
-      <c r="Z27" s="139"/>
-      <c r="AA27" s="139"/>
-      <c r="AB27" s="139"/>
-      <c r="AC27" s="139"/>
-      <c r="AD27" s="139"/>
-      <c r="AE27" s="140"/>
-      <c r="AF27" s="135"/>
-      <c r="AG27" s="136"/>
-      <c r="AH27" s="136"/>
-      <c r="AI27" s="137"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="103"/>
+      <c r="Y27" s="103"/>
+      <c r="Z27" s="103"/>
+      <c r="AA27" s="103"/>
+      <c r="AB27" s="103"/>
+      <c r="AC27" s="103"/>
+      <c r="AD27" s="103"/>
+      <c r="AE27" s="104"/>
+      <c r="AF27" s="99"/>
+      <c r="AG27" s="100"/>
+      <c r="AH27" s="100"/>
+      <c r="AI27" s="101"/>
     </row>
     <row r="28" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="72"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="138"/>
-      <c r="R28" s="139"/>
-      <c r="S28" s="139"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="139"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="139"/>
-      <c r="X28" s="139"/>
-      <c r="Y28" s="139"/>
-      <c r="Z28" s="139"/>
-      <c r="AA28" s="139"/>
-      <c r="AB28" s="139"/>
-      <c r="AC28" s="139"/>
-      <c r="AD28" s="139"/>
-      <c r="AE28" s="140"/>
-      <c r="AF28" s="135"/>
-      <c r="AG28" s="136"/>
-      <c r="AH28" s="136"/>
-      <c r="AI28" s="137"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="103"/>
+      <c r="Z28" s="103"/>
+      <c r="AA28" s="103"/>
+      <c r="AB28" s="103"/>
+      <c r="AC28" s="103"/>
+      <c r="AD28" s="103"/>
+      <c r="AE28" s="104"/>
+      <c r="AF28" s="99"/>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="100"/>
+      <c r="AI28" s="101"/>
     </row>
     <row r="29" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="72"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="138"/>
-      <c r="R29" s="139"/>
-      <c r="S29" s="139"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="139"/>
-      <c r="V29" s="139"/>
-      <c r="W29" s="139"/>
-      <c r="X29" s="139"/>
-      <c r="Y29" s="139"/>
-      <c r="Z29" s="139"/>
-      <c r="AA29" s="139"/>
-      <c r="AB29" s="139"/>
-      <c r="AC29" s="139"/>
-      <c r="AD29" s="139"/>
-      <c r="AE29" s="140"/>
-      <c r="AF29" s="135"/>
-      <c r="AG29" s="136"/>
-      <c r="AH29" s="136"/>
-      <c r="AI29" s="137"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="103"/>
+      <c r="AD29" s="103"/>
+      <c r="AE29" s="104"/>
+      <c r="AF29" s="99"/>
+      <c r="AG29" s="100"/>
+      <c r="AH29" s="100"/>
+      <c r="AI29" s="101"/>
     </row>
     <row r="30" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="72"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="137"/>
-      <c r="Q30" s="138"/>
-      <c r="R30" s="139"/>
-      <c r="S30" s="139"/>
-      <c r="T30" s="139"/>
-      <c r="U30" s="139"/>
-      <c r="V30" s="139"/>
-      <c r="W30" s="139"/>
-      <c r="X30" s="139"/>
-      <c r="Y30" s="139"/>
-      <c r="Z30" s="139"/>
-      <c r="AA30" s="139"/>
-      <c r="AB30" s="139"/>
-      <c r="AC30" s="139"/>
-      <c r="AD30" s="139"/>
-      <c r="AE30" s="140"/>
-      <c r="AF30" s="135"/>
-      <c r="AG30" s="136"/>
-      <c r="AH30" s="136"/>
-      <c r="AI30" s="137"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="103"/>
+      <c r="AB30" s="103"/>
+      <c r="AC30" s="103"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="104"/>
+      <c r="AF30" s="99"/>
+      <c r="AG30" s="100"/>
+      <c r="AH30" s="100"/>
+      <c r="AI30" s="101"/>
     </row>
     <row r="31" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="72"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="137"/>
-      <c r="Q31" s="138"/>
-      <c r="R31" s="139"/>
-      <c r="S31" s="139"/>
-      <c r="T31" s="139"/>
-      <c r="U31" s="139"/>
-      <c r="V31" s="139"/>
-      <c r="W31" s="139"/>
-      <c r="X31" s="139"/>
-      <c r="Y31" s="139"/>
-      <c r="Z31" s="139"/>
-      <c r="AA31" s="139"/>
-      <c r="AB31" s="139"/>
-      <c r="AC31" s="139"/>
-      <c r="AD31" s="139"/>
-      <c r="AE31" s="140"/>
-      <c r="AF31" s="135"/>
-      <c r="AG31" s="136"/>
-      <c r="AH31" s="136"/>
-      <c r="AI31" s="137"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="103"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="103"/>
+      <c r="Y31" s="103"/>
+      <c r="Z31" s="103"/>
+      <c r="AA31" s="103"/>
+      <c r="AB31" s="103"/>
+      <c r="AC31" s="103"/>
+      <c r="AD31" s="103"/>
+      <c r="AE31" s="104"/>
+      <c r="AF31" s="99"/>
+      <c r="AG31" s="100"/>
+      <c r="AH31" s="100"/>
+      <c r="AI31" s="101"/>
     </row>
     <row r="32" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="72"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="137"/>
-      <c r="Q32" s="138"/>
-      <c r="R32" s="139"/>
-      <c r="S32" s="139"/>
-      <c r="T32" s="139"/>
-      <c r="U32" s="139"/>
-      <c r="V32" s="139"/>
-      <c r="W32" s="139"/>
-      <c r="X32" s="139"/>
-      <c r="Y32" s="139"/>
-      <c r="Z32" s="139"/>
-      <c r="AA32" s="139"/>
-      <c r="AB32" s="139"/>
-      <c r="AC32" s="139"/>
-      <c r="AD32" s="139"/>
-      <c r="AE32" s="140"/>
-      <c r="AF32" s="135"/>
-      <c r="AG32" s="136"/>
-      <c r="AH32" s="136"/>
-      <c r="AI32" s="137"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="103"/>
+      <c r="W32" s="103"/>
+      <c r="X32" s="103"/>
+      <c r="Y32" s="103"/>
+      <c r="Z32" s="103"/>
+      <c r="AA32" s="103"/>
+      <c r="AB32" s="103"/>
+      <c r="AC32" s="103"/>
+      <c r="AD32" s="103"/>
+      <c r="AE32" s="104"/>
+      <c r="AF32" s="99"/>
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="100"/>
+      <c r="AI32" s="101"/>
     </row>
     <row r="33" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="72"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="137"/>
-      <c r="Q33" s="138"/>
-      <c r="R33" s="139"/>
-      <c r="S33" s="139"/>
-      <c r="T33" s="139"/>
-      <c r="U33" s="139"/>
-      <c r="V33" s="139"/>
-      <c r="W33" s="139"/>
-      <c r="X33" s="139"/>
-      <c r="Y33" s="139"/>
-      <c r="Z33" s="139"/>
-      <c r="AA33" s="139"/>
-      <c r="AB33" s="139"/>
-      <c r="AC33" s="139"/>
-      <c r="AD33" s="139"/>
-      <c r="AE33" s="140"/>
-      <c r="AF33" s="135"/>
-      <c r="AG33" s="136"/>
-      <c r="AH33" s="136"/>
-      <c r="AI33" s="137"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="103"/>
+      <c r="Y33" s="103"/>
+      <c r="Z33" s="103"/>
+      <c r="AA33" s="103"/>
+      <c r="AB33" s="103"/>
+      <c r="AC33" s="103"/>
+      <c r="AD33" s="103"/>
+      <c r="AE33" s="104"/>
+      <c r="AF33" s="99"/>
+      <c r="AG33" s="100"/>
+      <c r="AH33" s="100"/>
+      <c r="AI33" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -10789,6 +10662,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10945,163 +10974,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="128" t="str">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="107" t="s">
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="116" t="str">
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="98" t="s">
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="124" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="154">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="155"/>
-      <c r="AI1" s="156"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="157"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="128" t="str">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="98" t="s">
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="154" t="str">
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="156"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="157"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="128" t="str">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="154" t="str">
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="156"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="157"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12580,6 +12609,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12589,14 +12626,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12623,163 +12652,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="128" t="str">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="169" t="s">
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="164" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="116" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="166" t="s">
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="157">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="178">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="159"/>
+      <c r="AH1" s="179"/>
+      <c r="AI1" s="180"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="128" t="str">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="166" t="s">
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="157" t="str">
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="159"/>
+      <c r="AH2" s="179"/>
+      <c r="AI2" s="180"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="128" t="str">
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="157" t="str">
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="159"/>
+      <c r="AH3" s="179"/>
+      <c r="AI3" s="180"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12864,36 +12893,36 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E28" s="160" t="s">
+      <c r="E28" s="175" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="160" t="s">
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="176"/>
+      <c r="N28" s="176"/>
+      <c r="O28" s="176"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="175" t="s">
         <v>187</v>
       </c>
-      <c r="R28" s="161"/>
-      <c r="S28" s="161"/>
-      <c r="T28" s="161"/>
-      <c r="U28" s="161"/>
-      <c r="V28" s="161"/>
-      <c r="W28" s="161"/>
-      <c r="X28" s="161"/>
-      <c r="Y28" s="161"/>
-      <c r="Z28" s="161"/>
-      <c r="AA28" s="161"/>
-      <c r="AB28" s="161"/>
-      <c r="AC28" s="161"/>
-      <c r="AD28" s="162"/>
+      <c r="R28" s="176"/>
+      <c r="S28" s="176"/>
+      <c r="T28" s="176"/>
+      <c r="U28" s="176"/>
+      <c r="V28" s="176"/>
+      <c r="W28" s="176"/>
+      <c r="X28" s="176"/>
+      <c r="Y28" s="176"/>
+      <c r="Z28" s="176"/>
+      <c r="AA28" s="176"/>
+      <c r="AB28" s="176"/>
+      <c r="AC28" s="176"/>
+      <c r="AD28" s="177"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
@@ -13204,6 +13233,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="Q28:AD28"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -13211,18 +13252,6 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E28:P28"/>
-    <mergeCell ref="Q28:AD28"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -13253,163 +13282,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="128" t="str">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="169" t="s">
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="164" t="s">
         <v>275</v>
       </c>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="116" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="166" t="s">
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="157">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="178">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="159"/>
+      <c r="AH1" s="179"/>
+      <c r="AI1" s="180"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="128" t="str">
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="166" t="s">
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="157" t="str">
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="159"/>
+      <c r="AH2" s="179"/>
+      <c r="AI2" s="180"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="128" t="str">
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="157" t="str">
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="159"/>
+      <c r="AH3" s="179"/>
+      <c r="AI3" s="180"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -14074,33 +14103,33 @@
       <c r="F21" s="85" t="s">
         <v>390</v>
       </c>
-      <c r="G21" s="180" t="s">
+      <c r="G21" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="180"/>
-      <c r="P21" s="180"/>
-      <c r="Q21" s="180"/>
-      <c r="R21" s="180"/>
-      <c r="S21" s="180" t="s">
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="184"/>
+      <c r="K21" s="184"/>
+      <c r="L21" s="184"/>
+      <c r="M21" s="184"/>
+      <c r="N21" s="184"/>
+      <c r="O21" s="184"/>
+      <c r="P21" s="184"/>
+      <c r="Q21" s="184"/>
+      <c r="R21" s="184"/>
+      <c r="S21" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="T21" s="180"/>
-      <c r="U21" s="180"/>
-      <c r="V21" s="180"/>
-      <c r="W21" s="180"/>
-      <c r="X21" s="180"/>
-      <c r="Y21" s="180"/>
-      <c r="Z21" s="180"/>
-      <c r="AA21" s="180"/>
-      <c r="AB21" s="180"/>
-      <c r="AC21" s="180"/>
+      <c r="T21" s="184"/>
+      <c r="U21" s="184"/>
+      <c r="V21" s="184"/>
+      <c r="W21" s="184"/>
+      <c r="X21" s="184"/>
+      <c r="Y21" s="184"/>
+      <c r="Z21" s="184"/>
+      <c r="AA21" s="184"/>
+      <c r="AB21" s="184"/>
+      <c r="AC21" s="184"/>
       <c r="AD21" s="50"/>
       <c r="AE21" s="50"/>
       <c r="AF21" s="50"/>
@@ -14117,33 +14146,33 @@
       <c r="F22" s="72">
         <v>1</v>
       </c>
-      <c r="G22" s="181" t="s">
+      <c r="G22" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="181"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="181"/>
-      <c r="R22" s="181"/>
-      <c r="S22" s="181" t="s">
+      <c r="H22" s="185"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="185"/>
+      <c r="L22" s="185"/>
+      <c r="M22" s="185"/>
+      <c r="N22" s="185"/>
+      <c r="O22" s="185"/>
+      <c r="P22" s="185"/>
+      <c r="Q22" s="185"/>
+      <c r="R22" s="185"/>
+      <c r="S22" s="185" t="s">
         <v>212</v>
       </c>
-      <c r="T22" s="181"/>
-      <c r="U22" s="181"/>
-      <c r="V22" s="181"/>
-      <c r="W22" s="181"/>
-      <c r="X22" s="181"/>
-      <c r="Y22" s="181"/>
-      <c r="Z22" s="181"/>
-      <c r="AA22" s="181"/>
-      <c r="AB22" s="181"/>
-      <c r="AC22" s="181"/>
+      <c r="T22" s="185"/>
+      <c r="U22" s="185"/>
+      <c r="V22" s="185"/>
+      <c r="W22" s="185"/>
+      <c r="X22" s="185"/>
+      <c r="Y22" s="185"/>
+      <c r="Z22" s="185"/>
+      <c r="AA22" s="185"/>
+      <c r="AB22" s="185"/>
+      <c r="AC22" s="185"/>
       <c r="AD22" s="50"/>
       <c r="AE22" s="50"/>
       <c r="AF22" s="50"/>
@@ -14160,33 +14189,33 @@
       <c r="F23" s="72">
         <v>2</v>
       </c>
-      <c r="G23" s="181" t="s">
+      <c r="G23" s="185" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="181"/>
-      <c r="S23" s="181" t="s">
+      <c r="H23" s="185"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="185"/>
+      <c r="M23" s="185"/>
+      <c r="N23" s="185"/>
+      <c r="O23" s="185"/>
+      <c r="P23" s="185"/>
+      <c r="Q23" s="185"/>
+      <c r="R23" s="185"/>
+      <c r="S23" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="T23" s="181"/>
-      <c r="U23" s="181"/>
-      <c r="V23" s="181"/>
-      <c r="W23" s="181"/>
-      <c r="X23" s="181"/>
-      <c r="Y23" s="181"/>
-      <c r="Z23" s="181"/>
-      <c r="AA23" s="181"/>
-      <c r="AB23" s="181"/>
-      <c r="AC23" s="181"/>
+      <c r="T23" s="185"/>
+      <c r="U23" s="185"/>
+      <c r="V23" s="185"/>
+      <c r="W23" s="185"/>
+      <c r="X23" s="185"/>
+      <c r="Y23" s="185"/>
+      <c r="Z23" s="185"/>
+      <c r="AA23" s="185"/>
+      <c r="AB23" s="185"/>
+      <c r="AC23" s="185"/>
       <c r="AD23" s="50"/>
       <c r="AE23" s="50"/>
       <c r="AF23" s="50"/>
@@ -14317,33 +14346,33 @@
       <c r="F27" s="85" t="s">
         <v>391</v>
       </c>
-      <c r="G27" s="183" t="s">
+      <c r="G27" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="183"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183" t="s">
+      <c r="H27" s="182"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="182"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="182"/>
+      <c r="O27" s="182"/>
+      <c r="P27" s="182"/>
+      <c r="Q27" s="182"/>
+      <c r="R27" s="182"/>
+      <c r="S27" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="183"/>
-      <c r="U27" s="183"/>
-      <c r="V27" s="183"/>
-      <c r="W27" s="183"/>
-      <c r="X27" s="183"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="183"/>
-      <c r="AA27" s="183"/>
-      <c r="AB27" s="183"/>
-      <c r="AC27" s="183"/>
+      <c r="T27" s="182"/>
+      <c r="U27" s="182"/>
+      <c r="V27" s="182"/>
+      <c r="W27" s="182"/>
+      <c r="X27" s="182"/>
+      <c r="Y27" s="182"/>
+      <c r="Z27" s="182"/>
+      <c r="AA27" s="182"/>
+      <c r="AB27" s="182"/>
+      <c r="AC27" s="182"/>
       <c r="AD27" s="50"/>
       <c r="AE27" s="50"/>
       <c r="AF27" s="50"/>
@@ -14360,33 +14389,33 @@
       <c r="F28" s="86">
         <v>1</v>
       </c>
-      <c r="G28" s="182" t="s">
+      <c r="G28" s="181" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="182"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="182"/>
-      <c r="P28" s="182"/>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="182"/>
-      <c r="S28" s="182" t="s">
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="181"/>
+      <c r="S28" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="T28" s="182"/>
-      <c r="U28" s="182"/>
-      <c r="V28" s="182"/>
-      <c r="W28" s="182"/>
-      <c r="X28" s="182"/>
-      <c r="Y28" s="182"/>
-      <c r="Z28" s="182"/>
-      <c r="AA28" s="182"/>
-      <c r="AB28" s="182"/>
-      <c r="AC28" s="182"/>
+      <c r="T28" s="181"/>
+      <c r="U28" s="181"/>
+      <c r="V28" s="181"/>
+      <c r="W28" s="181"/>
+      <c r="X28" s="181"/>
+      <c r="Y28" s="181"/>
+      <c r="Z28" s="181"/>
+      <c r="AA28" s="181"/>
+      <c r="AB28" s="181"/>
+      <c r="AC28" s="181"/>
       <c r="AD28" s="50"/>
       <c r="AE28" s="50"/>
       <c r="AF28" s="50"/>
@@ -14403,33 +14432,33 @@
       <c r="F29" s="86">
         <v>2</v>
       </c>
-      <c r="G29" s="182" t="s">
+      <c r="G29" s="181" t="s">
         <v>203</v>
       </c>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="182"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182" t="s">
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="181"/>
+      <c r="S29" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="T29" s="182"/>
-      <c r="U29" s="182"/>
-      <c r="V29" s="182"/>
-      <c r="W29" s="182"/>
-      <c r="X29" s="182"/>
-      <c r="Y29" s="182"/>
-      <c r="Z29" s="182"/>
-      <c r="AA29" s="182"/>
-      <c r="AB29" s="182"/>
-      <c r="AC29" s="182"/>
+      <c r="T29" s="181"/>
+      <c r="U29" s="181"/>
+      <c r="V29" s="181"/>
+      <c r="W29" s="181"/>
+      <c r="X29" s="181"/>
+      <c r="Y29" s="181"/>
+      <c r="Z29" s="181"/>
+      <c r="AA29" s="181"/>
+      <c r="AB29" s="181"/>
+      <c r="AC29" s="181"/>
       <c r="AD29" s="50"/>
       <c r="AE29" s="50"/>
       <c r="AF29" s="50"/>
@@ -14446,33 +14475,33 @@
       <c r="F30" s="86">
         <v>3</v>
       </c>
-      <c r="G30" s="182" t="s">
+      <c r="G30" s="181" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="182"/>
-      <c r="P30" s="182"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="182"/>
-      <c r="S30" s="182" t="s">
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="181"/>
+      <c r="R30" s="181"/>
+      <c r="S30" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="T30" s="182"/>
-      <c r="U30" s="182"/>
-      <c r="V30" s="182"/>
-      <c r="W30" s="182"/>
-      <c r="X30" s="182"/>
-      <c r="Y30" s="182"/>
-      <c r="Z30" s="182"/>
-      <c r="AA30" s="182"/>
-      <c r="AB30" s="182"/>
-      <c r="AC30" s="182"/>
+      <c r="T30" s="181"/>
+      <c r="U30" s="181"/>
+      <c r="V30" s="181"/>
+      <c r="W30" s="181"/>
+      <c r="X30" s="181"/>
+      <c r="Y30" s="181"/>
+      <c r="Z30" s="181"/>
+      <c r="AA30" s="181"/>
+      <c r="AB30" s="181"/>
+      <c r="AC30" s="181"/>
       <c r="AD30" s="50"/>
       <c r="AE30" s="50"/>
       <c r="AF30" s="50"/>
@@ -14489,33 +14518,33 @@
       <c r="F31" s="84">
         <v>4</v>
       </c>
-      <c r="G31" s="182" t="s">
+      <c r="G31" s="181" t="s">
         <v>205</v>
       </c>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="182"/>
-      <c r="S31" s="182" t="s">
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="181"/>
+      <c r="S31" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="T31" s="182"/>
-      <c r="U31" s="182"/>
-      <c r="V31" s="182"/>
-      <c r="W31" s="182"/>
-      <c r="X31" s="182"/>
-      <c r="Y31" s="182"/>
-      <c r="Z31" s="182"/>
-      <c r="AA31" s="182"/>
-      <c r="AB31" s="182"/>
-      <c r="AC31" s="182"/>
+      <c r="T31" s="181"/>
+      <c r="U31" s="181"/>
+      <c r="V31" s="181"/>
+      <c r="W31" s="181"/>
+      <c r="X31" s="181"/>
+      <c r="Y31" s="181"/>
+      <c r="Z31" s="181"/>
+      <c r="AA31" s="181"/>
+      <c r="AB31" s="181"/>
+      <c r="AC31" s="181"/>
       <c r="AD31" s="50"/>
       <c r="AE31" s="50"/>
       <c r="AF31" s="50"/>
@@ -14532,33 +14561,33 @@
       <c r="F32" s="84">
         <v>5</v>
       </c>
-      <c r="G32" s="182" t="s">
+      <c r="G32" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="182"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="182"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="182"/>
-      <c r="P32" s="182"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="182"/>
-      <c r="S32" s="182" t="s">
+      <c r="H32" s="181"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="181"/>
+      <c r="Q32" s="181"/>
+      <c r="R32" s="181"/>
+      <c r="S32" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="T32" s="182"/>
-      <c r="U32" s="182"/>
-      <c r="V32" s="182"/>
-      <c r="W32" s="182"/>
-      <c r="X32" s="182"/>
-      <c r="Y32" s="182"/>
-      <c r="Z32" s="182"/>
-      <c r="AA32" s="182"/>
-      <c r="AB32" s="182"/>
-      <c r="AC32" s="182"/>
+      <c r="T32" s="181"/>
+      <c r="U32" s="181"/>
+      <c r="V32" s="181"/>
+      <c r="W32" s="181"/>
+      <c r="X32" s="181"/>
+      <c r="Y32" s="181"/>
+      <c r="Z32" s="181"/>
+      <c r="AA32" s="181"/>
+      <c r="AB32" s="181"/>
+      <c r="AC32" s="181"/>
       <c r="AD32" s="50"/>
       <c r="AE32" s="50"/>
       <c r="AF32" s="50"/>
@@ -14575,33 +14604,33 @@
       <c r="F33" s="84">
         <v>6</v>
       </c>
-      <c r="G33" s="182" t="s">
+      <c r="G33" s="181" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="182"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="182"/>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="182"/>
-      <c r="S33" s="182" t="s">
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="181"/>
+      <c r="S33" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="182"/>
-      <c r="U33" s="182"/>
-      <c r="V33" s="182"/>
-      <c r="W33" s="182"/>
-      <c r="X33" s="182"/>
-      <c r="Y33" s="182"/>
-      <c r="Z33" s="182"/>
-      <c r="AA33" s="182"/>
-      <c r="AB33" s="182"/>
-      <c r="AC33" s="182"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="181"/>
+      <c r="V33" s="181"/>
+      <c r="W33" s="181"/>
+      <c r="X33" s="181"/>
+      <c r="Y33" s="181"/>
+      <c r="Z33" s="181"/>
+      <c r="AA33" s="181"/>
+      <c r="AB33" s="181"/>
+      <c r="AC33" s="181"/>
       <c r="AD33" s="50"/>
       <c r="AE33" s="50"/>
       <c r="AF33" s="50"/>
@@ -14806,34 +14835,34 @@
       <c r="E39" s="85" t="s">
         <v>391</v>
       </c>
-      <c r="F39" s="183" t="s">
+      <c r="F39" s="182" t="s">
         <v>207</v>
       </c>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="183"/>
-      <c r="K39" s="183"/>
-      <c r="L39" s="183"/>
-      <c r="M39" s="183"/>
-      <c r="N39" s="183"/>
-      <c r="O39" s="183"/>
-      <c r="P39" s="183"/>
-      <c r="Q39" s="183"/>
-      <c r="R39" s="183" t="s">
+      <c r="G39" s="182"/>
+      <c r="H39" s="182"/>
+      <c r="I39" s="182"/>
+      <c r="J39" s="182"/>
+      <c r="K39" s="182"/>
+      <c r="L39" s="182"/>
+      <c r="M39" s="182"/>
+      <c r="N39" s="182"/>
+      <c r="O39" s="182"/>
+      <c r="P39" s="182"/>
+      <c r="Q39" s="182"/>
+      <c r="R39" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="S39" s="183"/>
-      <c r="T39" s="183"/>
-      <c r="U39" s="183"/>
-      <c r="V39" s="183"/>
-      <c r="W39" s="183"/>
-      <c r="X39" s="183"/>
-      <c r="Y39" s="183"/>
-      <c r="Z39" s="183"/>
-      <c r="AA39" s="183"/>
-      <c r="AB39" s="183"/>
-      <c r="AC39" s="183"/>
+      <c r="S39" s="182"/>
+      <c r="T39" s="182"/>
+      <c r="U39" s="182"/>
+      <c r="V39" s="182"/>
+      <c r="W39" s="182"/>
+      <c r="X39" s="182"/>
+      <c r="Y39" s="182"/>
+      <c r="Z39" s="182"/>
+      <c r="AA39" s="182"/>
+      <c r="AB39" s="182"/>
+      <c r="AC39" s="182"/>
       <c r="AD39" s="50"/>
       <c r="AE39" s="50"/>
       <c r="AF39" s="50"/>
@@ -14849,34 +14878,34 @@
       <c r="E40" s="86">
         <v>1</v>
       </c>
-      <c r="F40" s="182" t="s">
+      <c r="F40" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="182"/>
-      <c r="J40" s="182"/>
-      <c r="K40" s="182"/>
-      <c r="L40" s="182"/>
-      <c r="M40" s="182"/>
-      <c r="N40" s="182"/>
-      <c r="O40" s="182"/>
-      <c r="P40" s="182"/>
-      <c r="Q40" s="182"/>
-      <c r="R40" s="184" t="s">
+      <c r="G40" s="181"/>
+      <c r="H40" s="181"/>
+      <c r="I40" s="181"/>
+      <c r="J40" s="181"/>
+      <c r="K40" s="181"/>
+      <c r="L40" s="181"/>
+      <c r="M40" s="181"/>
+      <c r="N40" s="181"/>
+      <c r="O40" s="181"/>
+      <c r="P40" s="181"/>
+      <c r="Q40" s="181"/>
+      <c r="R40" s="183" t="s">
         <v>215</v>
       </c>
-      <c r="S40" s="184"/>
-      <c r="T40" s="184"/>
-      <c r="U40" s="184"/>
-      <c r="V40" s="184"/>
-      <c r="W40" s="184"/>
-      <c r="X40" s="184"/>
-      <c r="Y40" s="184"/>
-      <c r="Z40" s="184"/>
-      <c r="AA40" s="184"/>
-      <c r="AB40" s="184"/>
-      <c r="AC40" s="184"/>
+      <c r="S40" s="183"/>
+      <c r="T40" s="183"/>
+      <c r="U40" s="183"/>
+      <c r="V40" s="183"/>
+      <c r="W40" s="183"/>
+      <c r="X40" s="183"/>
+      <c r="Y40" s="183"/>
+      <c r="Z40" s="183"/>
+      <c r="AA40" s="183"/>
+      <c r="AB40" s="183"/>
+      <c r="AC40" s="183"/>
       <c r="AD40" s="50"/>
       <c r="AE40" s="50"/>
       <c r="AF40" s="50"/>
@@ -14892,34 +14921,34 @@
       <c r="E41" s="86">
         <v>2</v>
       </c>
-      <c r="F41" s="182" t="s">
+      <c r="F41" s="181" t="s">
         <v>208</v>
       </c>
-      <c r="G41" s="182"/>
-      <c r="H41" s="182"/>
-      <c r="I41" s="182"/>
-      <c r="J41" s="182"/>
-      <c r="K41" s="182"/>
-      <c r="L41" s="182"/>
-      <c r="M41" s="182"/>
-      <c r="N41" s="182"/>
-      <c r="O41" s="182"/>
-      <c r="P41" s="182"/>
-      <c r="Q41" s="182"/>
-      <c r="R41" s="184" t="s">
+      <c r="G41" s="181"/>
+      <c r="H41" s="181"/>
+      <c r="I41" s="181"/>
+      <c r="J41" s="181"/>
+      <c r="K41" s="181"/>
+      <c r="L41" s="181"/>
+      <c r="M41" s="181"/>
+      <c r="N41" s="181"/>
+      <c r="O41" s="181"/>
+      <c r="P41" s="181"/>
+      <c r="Q41" s="181"/>
+      <c r="R41" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="S41" s="184"/>
-      <c r="T41" s="184"/>
-      <c r="U41" s="184"/>
-      <c r="V41" s="184"/>
-      <c r="W41" s="184"/>
-      <c r="X41" s="184"/>
-      <c r="Y41" s="184"/>
-      <c r="Z41" s="184"/>
-      <c r="AA41" s="184"/>
-      <c r="AB41" s="184"/>
-      <c r="AC41" s="184"/>
+      <c r="S41" s="183"/>
+      <c r="T41" s="183"/>
+      <c r="U41" s="183"/>
+      <c r="V41" s="183"/>
+      <c r="W41" s="183"/>
+      <c r="X41" s="183"/>
+      <c r="Y41" s="183"/>
+      <c r="Z41" s="183"/>
+      <c r="AA41" s="183"/>
+      <c r="AB41" s="183"/>
+      <c r="AC41" s="183"/>
       <c r="AD41" s="50"/>
       <c r="AE41" s="50"/>
       <c r="AF41" s="50"/>
@@ -14935,34 +14964,34 @@
       <c r="E42" s="86">
         <v>3</v>
       </c>
-      <c r="F42" s="182" t="s">
+      <c r="F42" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="182"/>
-      <c r="H42" s="182"/>
-      <c r="I42" s="182"/>
-      <c r="J42" s="182"/>
-      <c r="K42" s="182"/>
-      <c r="L42" s="182"/>
-      <c r="M42" s="182"/>
-      <c r="N42" s="182"/>
-      <c r="O42" s="182"/>
-      <c r="P42" s="182"/>
-      <c r="Q42" s="182"/>
-      <c r="R42" s="184" t="s">
+      <c r="G42" s="181"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="181"/>
+      <c r="K42" s="181"/>
+      <c r="L42" s="181"/>
+      <c r="M42" s="181"/>
+      <c r="N42" s="181"/>
+      <c r="O42" s="181"/>
+      <c r="P42" s="181"/>
+      <c r="Q42" s="181"/>
+      <c r="R42" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="S42" s="184"/>
-      <c r="T42" s="184"/>
-      <c r="U42" s="184"/>
-      <c r="V42" s="184"/>
-      <c r="W42" s="184"/>
-      <c r="X42" s="184"/>
-      <c r="Y42" s="184"/>
-      <c r="Z42" s="184"/>
-      <c r="AA42" s="184"/>
-      <c r="AB42" s="184"/>
-      <c r="AC42" s="184"/>
+      <c r="S42" s="183"/>
+      <c r="T42" s="183"/>
+      <c r="U42" s="183"/>
+      <c r="V42" s="183"/>
+      <c r="W42" s="183"/>
+      <c r="X42" s="183"/>
+      <c r="Y42" s="183"/>
+      <c r="Z42" s="183"/>
+      <c r="AA42" s="183"/>
+      <c r="AB42" s="183"/>
+      <c r="AC42" s="183"/>
       <c r="AD42" s="50"/>
       <c r="AE42" s="50"/>
       <c r="AF42" s="50"/>
@@ -14978,34 +15007,34 @@
       <c r="E43" s="84">
         <v>4</v>
       </c>
-      <c r="F43" s="182" t="s">
+      <c r="F43" s="181" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="182"/>
-      <c r="H43" s="182"/>
-      <c r="I43" s="182"/>
-      <c r="J43" s="182"/>
-      <c r="K43" s="182"/>
-      <c r="L43" s="182"/>
-      <c r="M43" s="182"/>
-      <c r="N43" s="182"/>
-      <c r="O43" s="182"/>
-      <c r="P43" s="182"/>
-      <c r="Q43" s="182"/>
-      <c r="R43" s="184" t="s">
+      <c r="G43" s="181"/>
+      <c r="H43" s="181"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="181"/>
+      <c r="K43" s="181"/>
+      <c r="L43" s="181"/>
+      <c r="M43" s="181"/>
+      <c r="N43" s="181"/>
+      <c r="O43" s="181"/>
+      <c r="P43" s="181"/>
+      <c r="Q43" s="181"/>
+      <c r="R43" s="183" t="s">
         <v>218</v>
       </c>
-      <c r="S43" s="184"/>
-      <c r="T43" s="184"/>
-      <c r="U43" s="184"/>
-      <c r="V43" s="184"/>
-      <c r="W43" s="184"/>
-      <c r="X43" s="184"/>
-      <c r="Y43" s="184"/>
-      <c r="Z43" s="184"/>
-      <c r="AA43" s="184"/>
-      <c r="AB43" s="184"/>
-      <c r="AC43" s="184"/>
+      <c r="S43" s="183"/>
+      <c r="T43" s="183"/>
+      <c r="U43" s="183"/>
+      <c r="V43" s="183"/>
+      <c r="W43" s="183"/>
+      <c r="X43" s="183"/>
+      <c r="Y43" s="183"/>
+      <c r="Z43" s="183"/>
+      <c r="AA43" s="183"/>
+      <c r="AB43" s="183"/>
+      <c r="AC43" s="183"/>
       <c r="AD43" s="50"/>
       <c r="AE43" s="50"/>
       <c r="AF43" s="50"/>
@@ -15021,34 +15050,34 @@
       <c r="E44" s="84">
         <v>5</v>
       </c>
-      <c r="F44" s="182" t="s">
+      <c r="F44" s="181" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="182"/>
-      <c r="H44" s="182"/>
-      <c r="I44" s="182"/>
-      <c r="J44" s="182"/>
-      <c r="K44" s="182"/>
-      <c r="L44" s="182"/>
-      <c r="M44" s="182"/>
-      <c r="N44" s="182"/>
-      <c r="O44" s="182"/>
-      <c r="P44" s="182"/>
-      <c r="Q44" s="182"/>
-      <c r="R44" s="184" t="s">
+      <c r="G44" s="181"/>
+      <c r="H44" s="181"/>
+      <c r="I44" s="181"/>
+      <c r="J44" s="181"/>
+      <c r="K44" s="181"/>
+      <c r="L44" s="181"/>
+      <c r="M44" s="181"/>
+      <c r="N44" s="181"/>
+      <c r="O44" s="181"/>
+      <c r="P44" s="181"/>
+      <c r="Q44" s="181"/>
+      <c r="R44" s="183" t="s">
         <v>219</v>
       </c>
-      <c r="S44" s="184"/>
-      <c r="T44" s="184"/>
-      <c r="U44" s="184"/>
-      <c r="V44" s="184"/>
-      <c r="W44" s="184"/>
-      <c r="X44" s="184"/>
-      <c r="Y44" s="184"/>
-      <c r="Z44" s="184"/>
-      <c r="AA44" s="184"/>
-      <c r="AB44" s="184"/>
-      <c r="AC44" s="184"/>
+      <c r="S44" s="183"/>
+      <c r="T44" s="183"/>
+      <c r="U44" s="183"/>
+      <c r="V44" s="183"/>
+      <c r="W44" s="183"/>
+      <c r="X44" s="183"/>
+      <c r="Y44" s="183"/>
+      <c r="Z44" s="183"/>
+      <c r="AA44" s="183"/>
+      <c r="AB44" s="183"/>
+      <c r="AC44" s="183"/>
       <c r="AD44" s="50"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="50"/>
@@ -15064,34 +15093,34 @@
       <c r="E45" s="84">
         <v>6</v>
       </c>
-      <c r="F45" s="182" t="s">
+      <c r="F45" s="181" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="182"/>
-      <c r="H45" s="182"/>
-      <c r="I45" s="182"/>
-      <c r="J45" s="182"/>
-      <c r="K45" s="182"/>
-      <c r="L45" s="182"/>
-      <c r="M45" s="182"/>
-      <c r="N45" s="182"/>
-      <c r="O45" s="182"/>
-      <c r="P45" s="182"/>
-      <c r="Q45" s="182"/>
-      <c r="R45" s="184" t="s">
+      <c r="G45" s="181"/>
+      <c r="H45" s="181"/>
+      <c r="I45" s="181"/>
+      <c r="J45" s="181"/>
+      <c r="K45" s="181"/>
+      <c r="L45" s="181"/>
+      <c r="M45" s="181"/>
+      <c r="N45" s="181"/>
+      <c r="O45" s="181"/>
+      <c r="P45" s="181"/>
+      <c r="Q45" s="181"/>
+      <c r="R45" s="183" t="s">
         <v>214</v>
       </c>
-      <c r="S45" s="184"/>
-      <c r="T45" s="184"/>
-      <c r="U45" s="184"/>
-      <c r="V45" s="184"/>
-      <c r="W45" s="184"/>
-      <c r="X45" s="184"/>
-      <c r="Y45" s="184"/>
-      <c r="Z45" s="184"/>
-      <c r="AA45" s="184"/>
-      <c r="AB45" s="184"/>
-      <c r="AC45" s="184"/>
+      <c r="S45" s="183"/>
+      <c r="T45" s="183"/>
+      <c r="U45" s="183"/>
+      <c r="V45" s="183"/>
+      <c r="W45" s="183"/>
+      <c r="X45" s="183"/>
+      <c r="Y45" s="183"/>
+      <c r="Z45" s="183"/>
+      <c r="AA45" s="183"/>
+      <c r="AB45" s="183"/>
+      <c r="AC45" s="183"/>
       <c r="AD45" s="50"/>
       <c r="AE45" s="50"/>
       <c r="AF45" s="50"/>
@@ -22188,16 +22217,33 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G21:R21"/>
+    <mergeCell ref="G22:R22"/>
+    <mergeCell ref="G23:R23"/>
+    <mergeCell ref="S21:AC21"/>
+    <mergeCell ref="S22:AC22"/>
+    <mergeCell ref="S23:AC23"/>
+    <mergeCell ref="G32:R32"/>
+    <mergeCell ref="G33:R33"/>
+    <mergeCell ref="S27:AC27"/>
+    <mergeCell ref="S28:AC28"/>
+    <mergeCell ref="S29:AC29"/>
+    <mergeCell ref="S30:AC30"/>
+    <mergeCell ref="S31:AC31"/>
+    <mergeCell ref="S32:AC32"/>
+    <mergeCell ref="S33:AC33"/>
+    <mergeCell ref="G27:R27"/>
+    <mergeCell ref="G28:R28"/>
+    <mergeCell ref="G29:R29"/>
+    <mergeCell ref="G30:R30"/>
+    <mergeCell ref="G31:R31"/>
     <mergeCell ref="F44:Q44"/>
     <mergeCell ref="F45:Q45"/>
     <mergeCell ref="R39:AC39"/>
@@ -22212,33 +22258,16 @@
     <mergeCell ref="F41:Q41"/>
     <mergeCell ref="F42:Q42"/>
     <mergeCell ref="F43:Q43"/>
-    <mergeCell ref="G32:R32"/>
-    <mergeCell ref="G33:R33"/>
-    <mergeCell ref="S27:AC27"/>
-    <mergeCell ref="S28:AC28"/>
-    <mergeCell ref="S29:AC29"/>
-    <mergeCell ref="S30:AC30"/>
-    <mergeCell ref="S31:AC31"/>
-    <mergeCell ref="S32:AC32"/>
-    <mergeCell ref="S33:AC33"/>
-    <mergeCell ref="G27:R27"/>
-    <mergeCell ref="G28:R28"/>
-    <mergeCell ref="G29:R29"/>
-    <mergeCell ref="G30:R30"/>
-    <mergeCell ref="G31:R31"/>
-    <mergeCell ref="G21:R21"/>
-    <mergeCell ref="G22:R22"/>
-    <mergeCell ref="G23:R23"/>
-    <mergeCell ref="S21:AC21"/>
-    <mergeCell ref="S22:AC22"/>
-    <mergeCell ref="S23:AC23"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -22276,163 +22305,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="128" t="str">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="169" t="s">
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="164" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="116" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="166" t="s">
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="157">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="178">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="159"/>
+      <c r="AH1" s="179"/>
+      <c r="AI1" s="180"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="128" t="str">
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="166" t="s">
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="157" t="str">
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="159"/>
+      <c r="AH2" s="179"/>
+      <c r="AI2" s="180"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="128" t="str">
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="157" t="str">
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="159"/>
+      <c r="AH3" s="179"/>
+      <c r="AI3" s="180"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -24130,39 +24159,39 @@
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="185" t="s">
+      <c r="F49" s="186" t="s">
         <v>220</v>
       </c>
-      <c r="G49" s="186"/>
-      <c r="H49" s="186"/>
-      <c r="I49" s="186"/>
-      <c r="J49" s="186"/>
-      <c r="K49" s="186"/>
-      <c r="L49" s="186"/>
-      <c r="M49" s="186"/>
-      <c r="N49" s="186"/>
-      <c r="O49" s="186"/>
-      <c r="P49" s="186"/>
-      <c r="Q49" s="186"/>
-      <c r="R49" s="186"/>
-      <c r="S49" s="186"/>
-      <c r="T49" s="186"/>
-      <c r="U49" s="186"/>
-      <c r="V49" s="187"/>
-      <c r="W49" s="185" t="s">
+      <c r="G49" s="187"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="187"/>
+      <c r="J49" s="187"/>
+      <c r="K49" s="187"/>
+      <c r="L49" s="187"/>
+      <c r="M49" s="187"/>
+      <c r="N49" s="187"/>
+      <c r="O49" s="187"/>
+      <c r="P49" s="187"/>
+      <c r="Q49" s="187"/>
+      <c r="R49" s="187"/>
+      <c r="S49" s="187"/>
+      <c r="T49" s="187"/>
+      <c r="U49" s="187"/>
+      <c r="V49" s="188"/>
+      <c r="W49" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="X49" s="186"/>
-      <c r="Y49" s="186"/>
-      <c r="Z49" s="186"/>
-      <c r="AA49" s="186"/>
-      <c r="AB49" s="186"/>
-      <c r="AC49" s="186"/>
-      <c r="AD49" s="186"/>
-      <c r="AE49" s="186"/>
-      <c r="AF49" s="186"/>
-      <c r="AG49" s="186"/>
-      <c r="AH49" s="187"/>
+      <c r="X49" s="187"/>
+      <c r="Y49" s="187"/>
+      <c r="Z49" s="187"/>
+      <c r="AA49" s="187"/>
+      <c r="AB49" s="187"/>
+      <c r="AC49" s="187"/>
+      <c r="AD49" s="187"/>
+      <c r="AE49" s="187"/>
+      <c r="AF49" s="187"/>
+      <c r="AG49" s="187"/>
+      <c r="AH49" s="188"/>
       <c r="AI49" s="12"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.15">
@@ -25304,39 +25333,39 @@
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
-      <c r="F79" s="185" t="s">
+      <c r="F79" s="186" t="s">
         <v>227</v>
       </c>
-      <c r="G79" s="186"/>
-      <c r="H79" s="186"/>
-      <c r="I79" s="186"/>
-      <c r="J79" s="186"/>
-      <c r="K79" s="186"/>
-      <c r="L79" s="186"/>
-      <c r="M79" s="186"/>
-      <c r="N79" s="186"/>
-      <c r="O79" s="186"/>
-      <c r="P79" s="186"/>
-      <c r="Q79" s="186"/>
-      <c r="R79" s="186"/>
-      <c r="S79" s="186"/>
-      <c r="T79" s="186"/>
-      <c r="U79" s="186"/>
-      <c r="V79" s="187"/>
-      <c r="W79" s="185" t="s">
+      <c r="G79" s="187"/>
+      <c r="H79" s="187"/>
+      <c r="I79" s="187"/>
+      <c r="J79" s="187"/>
+      <c r="K79" s="187"/>
+      <c r="L79" s="187"/>
+      <c r="M79" s="187"/>
+      <c r="N79" s="187"/>
+      <c r="O79" s="187"/>
+      <c r="P79" s="187"/>
+      <c r="Q79" s="187"/>
+      <c r="R79" s="187"/>
+      <c r="S79" s="187"/>
+      <c r="T79" s="187"/>
+      <c r="U79" s="187"/>
+      <c r="V79" s="188"/>
+      <c r="W79" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="X79" s="186"/>
-      <c r="Y79" s="186"/>
-      <c r="Z79" s="186"/>
-      <c r="AA79" s="186"/>
-      <c r="AB79" s="186"/>
-      <c r="AC79" s="186"/>
-      <c r="AD79" s="186"/>
-      <c r="AE79" s="186"/>
-      <c r="AF79" s="186"/>
-      <c r="AG79" s="186"/>
-      <c r="AH79" s="187"/>
+      <c r="X79" s="187"/>
+      <c r="Y79" s="187"/>
+      <c r="Z79" s="187"/>
+      <c r="AA79" s="187"/>
+      <c r="AB79" s="187"/>
+      <c r="AC79" s="187"/>
+      <c r="AD79" s="187"/>
+      <c r="AE79" s="187"/>
+      <c r="AF79" s="187"/>
+      <c r="AG79" s="187"/>
+      <c r="AH79" s="188"/>
       <c r="AI79" s="18"/>
     </row>
     <row r="80" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -26431,39 +26460,39 @@
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
-      <c r="F108" s="185" t="s">
+      <c r="F108" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="G108" s="136"/>
-      <c r="H108" s="136"/>
-      <c r="I108" s="136"/>
-      <c r="J108" s="136"/>
-      <c r="K108" s="136"/>
-      <c r="L108" s="136"/>
-      <c r="M108" s="136"/>
-      <c r="N108" s="136"/>
-      <c r="O108" s="136"/>
-      <c r="P108" s="136"/>
-      <c r="Q108" s="136"/>
-      <c r="R108" s="136"/>
-      <c r="S108" s="136"/>
-      <c r="T108" s="136"/>
-      <c r="U108" s="136"/>
-      <c r="V108" s="137"/>
-      <c r="W108" s="185" t="s">
+      <c r="G108" s="100"/>
+      <c r="H108" s="100"/>
+      <c r="I108" s="100"/>
+      <c r="J108" s="100"/>
+      <c r="K108" s="100"/>
+      <c r="L108" s="100"/>
+      <c r="M108" s="100"/>
+      <c r="N108" s="100"/>
+      <c r="O108" s="100"/>
+      <c r="P108" s="100"/>
+      <c r="Q108" s="100"/>
+      <c r="R108" s="100"/>
+      <c r="S108" s="100"/>
+      <c r="T108" s="100"/>
+      <c r="U108" s="100"/>
+      <c r="V108" s="101"/>
+      <c r="W108" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="X108" s="136"/>
-      <c r="Y108" s="136"/>
-      <c r="Z108" s="136"/>
-      <c r="AA108" s="136"/>
-      <c r="AB108" s="136"/>
-      <c r="AC108" s="136"/>
-      <c r="AD108" s="136"/>
-      <c r="AE108" s="136"/>
-      <c r="AF108" s="136"/>
-      <c r="AG108" s="136"/>
-      <c r="AH108" s="137"/>
+      <c r="X108" s="100"/>
+      <c r="Y108" s="100"/>
+      <c r="Z108" s="100"/>
+      <c r="AA108" s="100"/>
+      <c r="AB108" s="100"/>
+      <c r="AC108" s="100"/>
+      <c r="AD108" s="100"/>
+      <c r="AE108" s="100"/>
+      <c r="AF108" s="100"/>
+      <c r="AG108" s="100"/>
+      <c r="AH108" s="101"/>
       <c r="AI108" s="12"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.15">
@@ -27053,39 +27082,39 @@
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
-      <c r="F124" s="185" t="s">
+      <c r="F124" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="G124" s="136"/>
-      <c r="H124" s="136"/>
-      <c r="I124" s="136"/>
-      <c r="J124" s="136"/>
-      <c r="K124" s="136"/>
-      <c r="L124" s="136"/>
-      <c r="M124" s="136"/>
-      <c r="N124" s="136"/>
-      <c r="O124" s="136"/>
-      <c r="P124" s="136"/>
-      <c r="Q124" s="136"/>
-      <c r="R124" s="136"/>
-      <c r="S124" s="136"/>
-      <c r="T124" s="136"/>
-      <c r="U124" s="136"/>
-      <c r="V124" s="137"/>
-      <c r="W124" s="185" t="s">
+      <c r="G124" s="100"/>
+      <c r="H124" s="100"/>
+      <c r="I124" s="100"/>
+      <c r="J124" s="100"/>
+      <c r="K124" s="100"/>
+      <c r="L124" s="100"/>
+      <c r="M124" s="100"/>
+      <c r="N124" s="100"/>
+      <c r="O124" s="100"/>
+      <c r="P124" s="100"/>
+      <c r="Q124" s="100"/>
+      <c r="R124" s="100"/>
+      <c r="S124" s="100"/>
+      <c r="T124" s="100"/>
+      <c r="U124" s="100"/>
+      <c r="V124" s="101"/>
+      <c r="W124" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="X124" s="136"/>
-      <c r="Y124" s="136"/>
-      <c r="Z124" s="136"/>
-      <c r="AA124" s="136"/>
-      <c r="AB124" s="136"/>
-      <c r="AC124" s="136"/>
-      <c r="AD124" s="136"/>
-      <c r="AE124" s="136"/>
-      <c r="AF124" s="136"/>
-      <c r="AG124" s="136"/>
-      <c r="AH124" s="137"/>
+      <c r="X124" s="100"/>
+      <c r="Y124" s="100"/>
+      <c r="Z124" s="100"/>
+      <c r="AA124" s="100"/>
+      <c r="AB124" s="100"/>
+      <c r="AC124" s="100"/>
+      <c r="AD124" s="100"/>
+      <c r="AE124" s="100"/>
+      <c r="AF124" s="100"/>
+      <c r="AG124" s="100"/>
+      <c r="AH124" s="101"/>
       <c r="AI124" s="12"/>
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.15">
@@ -28707,39 +28736,39 @@
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
-      <c r="F166" s="185" t="s">
+      <c r="F166" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="G166" s="186"/>
-      <c r="H166" s="186"/>
-      <c r="I166" s="186"/>
-      <c r="J166" s="186"/>
-      <c r="K166" s="186"/>
-      <c r="L166" s="186"/>
-      <c r="M166" s="186"/>
-      <c r="N166" s="186"/>
-      <c r="O166" s="186"/>
-      <c r="P166" s="186"/>
-      <c r="Q166" s="186"/>
-      <c r="R166" s="186"/>
-      <c r="S166" s="186"/>
-      <c r="T166" s="186"/>
-      <c r="U166" s="186"/>
-      <c r="V166" s="187"/>
-      <c r="W166" s="185" t="s">
+      <c r="G166" s="187"/>
+      <c r="H166" s="187"/>
+      <c r="I166" s="187"/>
+      <c r="J166" s="187"/>
+      <c r="K166" s="187"/>
+      <c r="L166" s="187"/>
+      <c r="M166" s="187"/>
+      <c r="N166" s="187"/>
+      <c r="O166" s="187"/>
+      <c r="P166" s="187"/>
+      <c r="Q166" s="187"/>
+      <c r="R166" s="187"/>
+      <c r="S166" s="187"/>
+      <c r="T166" s="187"/>
+      <c r="U166" s="187"/>
+      <c r="V166" s="188"/>
+      <c r="W166" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="X166" s="186"/>
-      <c r="Y166" s="186"/>
-      <c r="Z166" s="186"/>
-      <c r="AA166" s="186"/>
-      <c r="AB166" s="186"/>
-      <c r="AC166" s="186"/>
-      <c r="AD166" s="186"/>
-      <c r="AE166" s="186"/>
-      <c r="AF166" s="186"/>
-      <c r="AG166" s="186"/>
-      <c r="AH166" s="187"/>
+      <c r="X166" s="187"/>
+      <c r="Y166" s="187"/>
+      <c r="Z166" s="187"/>
+      <c r="AA166" s="187"/>
+      <c r="AB166" s="187"/>
+      <c r="AC166" s="187"/>
+      <c r="AD166" s="187"/>
+      <c r="AE166" s="187"/>
+      <c r="AF166" s="187"/>
+      <c r="AG166" s="187"/>
+      <c r="AH166" s="188"/>
       <c r="AI166" s="18"/>
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.15">
@@ -29961,39 +29990,39 @@
       <c r="C198" s="12"/>
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
-      <c r="F198" s="185" t="s">
+      <c r="F198" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="G198" s="186"/>
-      <c r="H198" s="186"/>
-      <c r="I198" s="186"/>
-      <c r="J198" s="186"/>
-      <c r="K198" s="186"/>
-      <c r="L198" s="186"/>
-      <c r="M198" s="186"/>
-      <c r="N198" s="186"/>
-      <c r="O198" s="186"/>
-      <c r="P198" s="186"/>
-      <c r="Q198" s="186"/>
-      <c r="R198" s="186"/>
-      <c r="S198" s="186"/>
-      <c r="T198" s="186"/>
-      <c r="U198" s="186"/>
-      <c r="V198" s="187"/>
-      <c r="W198" s="185" t="s">
+      <c r="G198" s="187"/>
+      <c r="H198" s="187"/>
+      <c r="I198" s="187"/>
+      <c r="J198" s="187"/>
+      <c r="K198" s="187"/>
+      <c r="L198" s="187"/>
+      <c r="M198" s="187"/>
+      <c r="N198" s="187"/>
+      <c r="O198" s="187"/>
+      <c r="P198" s="187"/>
+      <c r="Q198" s="187"/>
+      <c r="R198" s="187"/>
+      <c r="S198" s="187"/>
+      <c r="T198" s="187"/>
+      <c r="U198" s="187"/>
+      <c r="V198" s="188"/>
+      <c r="W198" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="X198" s="186"/>
-      <c r="Y198" s="186"/>
-      <c r="Z198" s="186"/>
-      <c r="AA198" s="186"/>
-      <c r="AB198" s="186"/>
-      <c r="AC198" s="186"/>
-      <c r="AD198" s="186"/>
-      <c r="AE198" s="186"/>
-      <c r="AF198" s="186"/>
-      <c r="AG198" s="186"/>
-      <c r="AH198" s="187"/>
+      <c r="X198" s="187"/>
+      <c r="Y198" s="187"/>
+      <c r="Z198" s="187"/>
+      <c r="AA198" s="187"/>
+      <c r="AB198" s="187"/>
+      <c r="AC198" s="187"/>
+      <c r="AD198" s="187"/>
+      <c r="AE198" s="187"/>
+      <c r="AF198" s="187"/>
+      <c r="AG198" s="187"/>
+      <c r="AH198" s="188"/>
       <c r="AI198" s="18"/>
     </row>
     <row r="199" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -31476,39 +31505,39 @@
       <c r="C237" s="12"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
-      <c r="F237" s="185" t="s">
+      <c r="F237" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="G237" s="186"/>
-      <c r="H237" s="186"/>
-      <c r="I237" s="186"/>
-      <c r="J237" s="186"/>
-      <c r="K237" s="186"/>
-      <c r="L237" s="186"/>
-      <c r="M237" s="186"/>
-      <c r="N237" s="186"/>
-      <c r="O237" s="186"/>
-      <c r="P237" s="186"/>
-      <c r="Q237" s="186"/>
-      <c r="R237" s="186"/>
-      <c r="S237" s="186"/>
-      <c r="T237" s="186"/>
-      <c r="U237" s="186"/>
-      <c r="V237" s="187"/>
-      <c r="W237" s="185" t="s">
+      <c r="G237" s="187"/>
+      <c r="H237" s="187"/>
+      <c r="I237" s="187"/>
+      <c r="J237" s="187"/>
+      <c r="K237" s="187"/>
+      <c r="L237" s="187"/>
+      <c r="M237" s="187"/>
+      <c r="N237" s="187"/>
+      <c r="O237" s="187"/>
+      <c r="P237" s="187"/>
+      <c r="Q237" s="187"/>
+      <c r="R237" s="187"/>
+      <c r="S237" s="187"/>
+      <c r="T237" s="187"/>
+      <c r="U237" s="187"/>
+      <c r="V237" s="188"/>
+      <c r="W237" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="X237" s="186"/>
-      <c r="Y237" s="186"/>
-      <c r="Z237" s="186"/>
-      <c r="AA237" s="186"/>
-      <c r="AB237" s="186"/>
-      <c r="AC237" s="186"/>
-      <c r="AD237" s="186"/>
-      <c r="AE237" s="186"/>
-      <c r="AF237" s="186"/>
-      <c r="AG237" s="186"/>
-      <c r="AH237" s="187"/>
+      <c r="X237" s="187"/>
+      <c r="Y237" s="187"/>
+      <c r="Z237" s="187"/>
+      <c r="AA237" s="187"/>
+      <c r="AB237" s="187"/>
+      <c r="AC237" s="187"/>
+      <c r="AD237" s="187"/>
+      <c r="AE237" s="187"/>
+      <c r="AF237" s="187"/>
+      <c r="AG237" s="187"/>
+      <c r="AH237" s="188"/>
       <c r="AI237" s="18"/>
     </row>
     <row r="238" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -32330,39 +32359,39 @@
       <c r="C259" s="12"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
-      <c r="F259" s="185" t="s">
+      <c r="F259" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="G259" s="186"/>
-      <c r="H259" s="186"/>
-      <c r="I259" s="186"/>
-      <c r="J259" s="186"/>
-      <c r="K259" s="186"/>
-      <c r="L259" s="186"/>
-      <c r="M259" s="186"/>
-      <c r="N259" s="186"/>
-      <c r="O259" s="186"/>
-      <c r="P259" s="186"/>
-      <c r="Q259" s="186"/>
-      <c r="R259" s="186"/>
-      <c r="S259" s="186"/>
-      <c r="T259" s="186"/>
-      <c r="U259" s="186"/>
-      <c r="V259" s="187"/>
-      <c r="W259" s="185" t="s">
+      <c r="G259" s="187"/>
+      <c r="H259" s="187"/>
+      <c r="I259" s="187"/>
+      <c r="J259" s="187"/>
+      <c r="K259" s="187"/>
+      <c r="L259" s="187"/>
+      <c r="M259" s="187"/>
+      <c r="N259" s="187"/>
+      <c r="O259" s="187"/>
+      <c r="P259" s="187"/>
+      <c r="Q259" s="187"/>
+      <c r="R259" s="187"/>
+      <c r="S259" s="187"/>
+      <c r="T259" s="187"/>
+      <c r="U259" s="187"/>
+      <c r="V259" s="188"/>
+      <c r="W259" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="X259" s="186"/>
-      <c r="Y259" s="186"/>
-      <c r="Z259" s="186"/>
-      <c r="AA259" s="186"/>
-      <c r="AB259" s="186"/>
-      <c r="AC259" s="186"/>
-      <c r="AD259" s="186"/>
-      <c r="AE259" s="186"/>
-      <c r="AF259" s="186"/>
-      <c r="AG259" s="186"/>
-      <c r="AH259" s="187"/>
+      <c r="X259" s="187"/>
+      <c r="Y259" s="187"/>
+      <c r="Z259" s="187"/>
+      <c r="AA259" s="187"/>
+      <c r="AB259" s="187"/>
+      <c r="AC259" s="187"/>
+      <c r="AD259" s="187"/>
+      <c r="AE259" s="187"/>
+      <c r="AF259" s="187"/>
+      <c r="AG259" s="187"/>
+      <c r="AH259" s="188"/>
       <c r="AI259" s="18"/>
     </row>
     <row r="260" spans="1:35" x14ac:dyDescent="0.15">
@@ -32870,39 +32899,39 @@
       <c r="C273" s="12"/>
       <c r="D273" s="12"/>
       <c r="E273" s="12"/>
-      <c r="F273" s="185" t="s">
+      <c r="F273" s="186" t="s">
         <v>182</v>
       </c>
-      <c r="G273" s="186"/>
-      <c r="H273" s="186"/>
-      <c r="I273" s="186"/>
-      <c r="J273" s="186"/>
-      <c r="K273" s="186"/>
-      <c r="L273" s="186"/>
-      <c r="M273" s="186"/>
-      <c r="N273" s="186"/>
-      <c r="O273" s="186"/>
-      <c r="P273" s="186"/>
-      <c r="Q273" s="186"/>
-      <c r="R273" s="186"/>
-      <c r="S273" s="186"/>
-      <c r="T273" s="186"/>
-      <c r="U273" s="186"/>
-      <c r="V273" s="187"/>
-      <c r="W273" s="185" t="s">
+      <c r="G273" s="187"/>
+      <c r="H273" s="187"/>
+      <c r="I273" s="187"/>
+      <c r="J273" s="187"/>
+      <c r="K273" s="187"/>
+      <c r="L273" s="187"/>
+      <c r="M273" s="187"/>
+      <c r="N273" s="187"/>
+      <c r="O273" s="187"/>
+      <c r="P273" s="187"/>
+      <c r="Q273" s="187"/>
+      <c r="R273" s="187"/>
+      <c r="S273" s="187"/>
+      <c r="T273" s="187"/>
+      <c r="U273" s="187"/>
+      <c r="V273" s="188"/>
+      <c r="W273" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="X273" s="186"/>
-      <c r="Y273" s="186"/>
-      <c r="Z273" s="186"/>
-      <c r="AA273" s="186"/>
-      <c r="AB273" s="186"/>
-      <c r="AC273" s="186"/>
-      <c r="AD273" s="186"/>
-      <c r="AE273" s="186"/>
-      <c r="AF273" s="186"/>
-      <c r="AG273" s="186"/>
-      <c r="AH273" s="187"/>
+      <c r="X273" s="187"/>
+      <c r="Y273" s="187"/>
+      <c r="Z273" s="187"/>
+      <c r="AA273" s="187"/>
+      <c r="AB273" s="187"/>
+      <c r="AC273" s="187"/>
+      <c r="AD273" s="187"/>
+      <c r="AE273" s="187"/>
+      <c r="AF273" s="187"/>
+      <c r="AG273" s="187"/>
+      <c r="AH273" s="188"/>
       <c r="AI273" s="12"/>
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.15">
@@ -33732,39 +33761,39 @@
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
-      <c r="F295" s="185" t="s">
+      <c r="F295" s="186" t="s">
         <v>182</v>
       </c>
-      <c r="G295" s="186"/>
-      <c r="H295" s="186"/>
-      <c r="I295" s="186"/>
-      <c r="J295" s="186"/>
-      <c r="K295" s="186"/>
-      <c r="L295" s="186"/>
-      <c r="M295" s="186"/>
-      <c r="N295" s="186"/>
-      <c r="O295" s="186"/>
-      <c r="P295" s="186"/>
-      <c r="Q295" s="186"/>
-      <c r="R295" s="186"/>
-      <c r="S295" s="186"/>
-      <c r="T295" s="186"/>
-      <c r="U295" s="186"/>
-      <c r="V295" s="187"/>
-      <c r="W295" s="185" t="s">
+      <c r="G295" s="187"/>
+      <c r="H295" s="187"/>
+      <c r="I295" s="187"/>
+      <c r="J295" s="187"/>
+      <c r="K295" s="187"/>
+      <c r="L295" s="187"/>
+      <c r="M295" s="187"/>
+      <c r="N295" s="187"/>
+      <c r="O295" s="187"/>
+      <c r="P295" s="187"/>
+      <c r="Q295" s="187"/>
+      <c r="R295" s="187"/>
+      <c r="S295" s="187"/>
+      <c r="T295" s="187"/>
+      <c r="U295" s="187"/>
+      <c r="V295" s="188"/>
+      <c r="W295" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="X295" s="186"/>
-      <c r="Y295" s="186"/>
-      <c r="Z295" s="186"/>
-      <c r="AA295" s="186"/>
-      <c r="AB295" s="186"/>
-      <c r="AC295" s="186"/>
-      <c r="AD295" s="186"/>
-      <c r="AE295" s="186"/>
-      <c r="AF295" s="186"/>
-      <c r="AG295" s="186"/>
-      <c r="AH295" s="187"/>
+      <c r="X295" s="187"/>
+      <c r="Y295" s="187"/>
+      <c r="Z295" s="187"/>
+      <c r="AA295" s="187"/>
+      <c r="AB295" s="187"/>
+      <c r="AC295" s="187"/>
+      <c r="AD295" s="187"/>
+      <c r="AE295" s="187"/>
+      <c r="AF295" s="187"/>
+      <c r="AG295" s="187"/>
+      <c r="AH295" s="188"/>
       <c r="AI295" s="18"/>
     </row>
     <row r="296" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -35358,39 +35387,39 @@
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
       <c r="E337" s="12"/>
-      <c r="F337" s="185" t="s">
+      <c r="F337" s="186" t="s">
         <v>180</v>
       </c>
-      <c r="G337" s="186"/>
-      <c r="H337" s="186"/>
-      <c r="I337" s="186"/>
-      <c r="J337" s="186"/>
-      <c r="K337" s="186"/>
-      <c r="L337" s="186"/>
-      <c r="M337" s="186"/>
-      <c r="N337" s="186"/>
-      <c r="O337" s="186"/>
-      <c r="P337" s="186"/>
-      <c r="Q337" s="186"/>
-      <c r="R337" s="186"/>
-      <c r="S337" s="186"/>
-      <c r="T337" s="186"/>
-      <c r="U337" s="186"/>
-      <c r="V337" s="187"/>
-      <c r="W337" s="185" t="s">
+      <c r="G337" s="187"/>
+      <c r="H337" s="187"/>
+      <c r="I337" s="187"/>
+      <c r="J337" s="187"/>
+      <c r="K337" s="187"/>
+      <c r="L337" s="187"/>
+      <c r="M337" s="187"/>
+      <c r="N337" s="187"/>
+      <c r="O337" s="187"/>
+      <c r="P337" s="187"/>
+      <c r="Q337" s="187"/>
+      <c r="R337" s="187"/>
+      <c r="S337" s="187"/>
+      <c r="T337" s="187"/>
+      <c r="U337" s="187"/>
+      <c r="V337" s="188"/>
+      <c r="W337" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="X337" s="186"/>
-      <c r="Y337" s="186"/>
-      <c r="Z337" s="186"/>
-      <c r="AA337" s="186"/>
-      <c r="AB337" s="186"/>
-      <c r="AC337" s="186"/>
-      <c r="AD337" s="186"/>
-      <c r="AE337" s="186"/>
-      <c r="AF337" s="186"/>
-      <c r="AG337" s="186"/>
-      <c r="AH337" s="187"/>
+      <c r="X337" s="187"/>
+      <c r="Y337" s="187"/>
+      <c r="Z337" s="187"/>
+      <c r="AA337" s="187"/>
+      <c r="AB337" s="187"/>
+      <c r="AC337" s="187"/>
+      <c r="AD337" s="187"/>
+      <c r="AE337" s="187"/>
+      <c r="AF337" s="187"/>
+      <c r="AG337" s="187"/>
+      <c r="AH337" s="188"/>
       <c r="AI337" s="12"/>
     </row>
     <row r="338" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -35810,15 +35839,20 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="W198:AH198"/>
+    <mergeCell ref="F49:V49"/>
+    <mergeCell ref="W49:AH49"/>
+    <mergeCell ref="F79:V79"/>
+    <mergeCell ref="W79:AH79"/>
+    <mergeCell ref="F108:V108"/>
+    <mergeCell ref="W108:AH108"/>
     <mergeCell ref="F295:V295"/>
     <mergeCell ref="W295:AH295"/>
     <mergeCell ref="F337:V337"/>
@@ -35835,20 +35869,15 @@
     <mergeCell ref="F166:V166"/>
     <mergeCell ref="W166:AH166"/>
     <mergeCell ref="F198:V198"/>
-    <mergeCell ref="W198:AH198"/>
-    <mergeCell ref="F49:V49"/>
-    <mergeCell ref="W49:AH49"/>
-    <mergeCell ref="F79:V79"/>
-    <mergeCell ref="W79:AH79"/>
-    <mergeCell ref="F108:V108"/>
-    <mergeCell ref="W108:AH108"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -35886,163 +35915,163 @@
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="128" t="str">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="169" t="s">
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="164" t="s">
         <v>277</v>
       </c>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="194" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="196"/>
-      <c r="AA1" s="166" t="s">
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="157">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="178">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="159"/>
+      <c r="AH1" s="179"/>
+      <c r="AI1" s="180"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="128" t="str">
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="198"/>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="166" t="s">
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="157" t="str">
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="159"/>
+      <c r="AH2" s="179"/>
+      <c r="AI2" s="180"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="128" t="str">
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="200"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201"/>
-      <c r="V3" s="201"/>
-      <c r="W3" s="201"/>
-      <c r="X3" s="201"/>
-      <c r="Y3" s="201"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="157" t="str">
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="159"/>
+      <c r="AH3" s="179"/>
+      <c r="AI3" s="180"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -36384,40 +36413,40 @@
       <c r="D10" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="E10" s="185" t="s">
+      <c r="E10" s="186" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="186"/>
-      <c r="M10" s="186"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="186"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="186"/>
-      <c r="U10" s="187"/>
-      <c r="V10" s="185" t="s">
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="187"/>
+      <c r="P10" s="187"/>
+      <c r="Q10" s="187"/>
+      <c r="R10" s="187"/>
+      <c r="S10" s="187"/>
+      <c r="T10" s="187"/>
+      <c r="U10" s="188"/>
+      <c r="V10" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="W10" s="186"/>
-      <c r="X10" s="186"/>
-      <c r="Y10" s="186"/>
-      <c r="Z10" s="186"/>
-      <c r="AA10" s="186"/>
-      <c r="AB10" s="186"/>
-      <c r="AC10" s="186"/>
-      <c r="AD10" s="186"/>
-      <c r="AE10" s="186"/>
-      <c r="AF10" s="186"/>
-      <c r="AG10" s="186"/>
-      <c r="AH10" s="187"/>
+      <c r="W10" s="187"/>
+      <c r="X10" s="187"/>
+      <c r="Y10" s="187"/>
+      <c r="Z10" s="187"/>
+      <c r="AA10" s="187"/>
+      <c r="AB10" s="187"/>
+      <c r="AC10" s="187"/>
+      <c r="AD10" s="187"/>
+      <c r="AE10" s="187"/>
+      <c r="AF10" s="187"/>
+      <c r="AG10" s="187"/>
+      <c r="AH10" s="188"/>
       <c r="AI10" s="12"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
@@ -36444,38 +36473,38 @@
       <c r="D11" s="75">
         <v>1</v>
       </c>
-      <c r="E11" s="191" t="s">
+      <c r="E11" s="201" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="192"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="192"/>
-      <c r="N11" s="192"/>
-      <c r="O11" s="192"/>
-      <c r="P11" s="192"/>
-      <c r="Q11" s="192"/>
-      <c r="R11" s="192"/>
-      <c r="S11" s="192"/>
-      <c r="T11" s="192"/>
-      <c r="U11" s="193"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="136"/>
-      <c r="X11" s="136"/>
-      <c r="Y11" s="136"/>
-      <c r="Z11" s="136"/>
-      <c r="AA11" s="136"/>
-      <c r="AB11" s="136"/>
-      <c r="AC11" s="136"/>
-      <c r="AD11" s="136"/>
-      <c r="AE11" s="136"/>
-      <c r="AF11" s="136"/>
-      <c r="AG11" s="136"/>
-      <c r="AH11" s="137"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="202"/>
+      <c r="Q11" s="202"/>
+      <c r="R11" s="202"/>
+      <c r="S11" s="202"/>
+      <c r="T11" s="202"/>
+      <c r="U11" s="203"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="100"/>
+      <c r="AA11" s="100"/>
+      <c r="AB11" s="100"/>
+      <c r="AC11" s="100"/>
+      <c r="AD11" s="100"/>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="100"/>
+      <c r="AH11" s="101"/>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
@@ -36503,39 +36532,39 @@
         <v>2</v>
       </c>
       <c r="E12" s="74"/>
-      <c r="F12" s="188" t="s">
+      <c r="F12" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="189"/>
-      <c r="O12" s="189"/>
-      <c r="P12" s="189"/>
-      <c r="Q12" s="189"/>
-      <c r="R12" s="189"/>
-      <c r="S12" s="189"/>
-      <c r="T12" s="189"/>
-      <c r="U12" s="190"/>
-      <c r="V12" s="188" t="s">
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="199"/>
+      <c r="O12" s="199"/>
+      <c r="P12" s="199"/>
+      <c r="Q12" s="199"/>
+      <c r="R12" s="199"/>
+      <c r="S12" s="199"/>
+      <c r="T12" s="199"/>
+      <c r="U12" s="200"/>
+      <c r="V12" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="W12" s="189"/>
-      <c r="X12" s="189"/>
-      <c r="Y12" s="189"/>
-      <c r="Z12" s="189"/>
-      <c r="AA12" s="189"/>
-      <c r="AB12" s="189"/>
-      <c r="AC12" s="189"/>
-      <c r="AD12" s="189"/>
-      <c r="AE12" s="189"/>
-      <c r="AF12" s="189"/>
-      <c r="AG12" s="189"/>
-      <c r="AH12" s="190"/>
+      <c r="W12" s="199"/>
+      <c r="X12" s="199"/>
+      <c r="Y12" s="199"/>
+      <c r="Z12" s="199"/>
+      <c r="AA12" s="199"/>
+      <c r="AB12" s="199"/>
+      <c r="AC12" s="199"/>
+      <c r="AD12" s="199"/>
+      <c r="AE12" s="199"/>
+      <c r="AF12" s="199"/>
+      <c r="AG12" s="199"/>
+      <c r="AH12" s="200"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
@@ -36563,39 +36592,39 @@
         <v>3</v>
       </c>
       <c r="E13" s="74"/>
-      <c r="F13" s="188" t="s">
+      <c r="F13" s="198" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="189"/>
-      <c r="O13" s="189"/>
-      <c r="P13" s="189"/>
-      <c r="Q13" s="189"/>
-      <c r="R13" s="189"/>
-      <c r="S13" s="189"/>
-      <c r="T13" s="189"/>
-      <c r="U13" s="190"/>
-      <c r="V13" s="188" t="s">
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="199"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="199"/>
+      <c r="O13" s="199"/>
+      <c r="P13" s="199"/>
+      <c r="Q13" s="199"/>
+      <c r="R13" s="199"/>
+      <c r="S13" s="199"/>
+      <c r="T13" s="199"/>
+      <c r="U13" s="200"/>
+      <c r="V13" s="198" t="s">
         <v>109</v>
       </c>
-      <c r="W13" s="189"/>
-      <c r="X13" s="189"/>
-      <c r="Y13" s="189"/>
-      <c r="Z13" s="189"/>
-      <c r="AA13" s="189"/>
-      <c r="AB13" s="189"/>
-      <c r="AC13" s="189"/>
-      <c r="AD13" s="189"/>
-      <c r="AE13" s="189"/>
-      <c r="AF13" s="189"/>
-      <c r="AG13" s="189"/>
-      <c r="AH13" s="190"/>
+      <c r="W13" s="199"/>
+      <c r="X13" s="199"/>
+      <c r="Y13" s="199"/>
+      <c r="Z13" s="199"/>
+      <c r="AA13" s="199"/>
+      <c r="AB13" s="199"/>
+      <c r="AC13" s="199"/>
+      <c r="AD13" s="199"/>
+      <c r="AE13" s="199"/>
+      <c r="AF13" s="199"/>
+      <c r="AG13" s="199"/>
+      <c r="AH13" s="200"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
@@ -36623,39 +36652,39 @@
         <v>4</v>
       </c>
       <c r="E14" s="74"/>
-      <c r="F14" s="188" t="s">
+      <c r="F14" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="189"/>
-      <c r="M14" s="189"/>
-      <c r="N14" s="189"/>
-      <c r="O14" s="189"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="189"/>
-      <c r="R14" s="189"/>
-      <c r="S14" s="189"/>
-      <c r="T14" s="189"/>
-      <c r="U14" s="190"/>
-      <c r="V14" s="188" t="s">
+      <c r="G14" s="199"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="199"/>
+      <c r="K14" s="199"/>
+      <c r="L14" s="199"/>
+      <c r="M14" s="199"/>
+      <c r="N14" s="199"/>
+      <c r="O14" s="199"/>
+      <c r="P14" s="199"/>
+      <c r="Q14" s="199"/>
+      <c r="R14" s="199"/>
+      <c r="S14" s="199"/>
+      <c r="T14" s="199"/>
+      <c r="U14" s="200"/>
+      <c r="V14" s="198" t="s">
         <v>110</v>
       </c>
-      <c r="W14" s="189"/>
-      <c r="X14" s="189"/>
-      <c r="Y14" s="189"/>
-      <c r="Z14" s="189"/>
-      <c r="AA14" s="189"/>
-      <c r="AB14" s="189"/>
-      <c r="AC14" s="189"/>
-      <c r="AD14" s="189"/>
-      <c r="AE14" s="189"/>
-      <c r="AF14" s="189"/>
-      <c r="AG14" s="189"/>
-      <c r="AH14" s="190"/>
+      <c r="W14" s="199"/>
+      <c r="X14" s="199"/>
+      <c r="Y14" s="199"/>
+      <c r="Z14" s="199"/>
+      <c r="AA14" s="199"/>
+      <c r="AB14" s="199"/>
+      <c r="AC14" s="199"/>
+      <c r="AD14" s="199"/>
+      <c r="AE14" s="199"/>
+      <c r="AF14" s="199"/>
+      <c r="AG14" s="199"/>
+      <c r="AH14" s="200"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
@@ -36682,40 +36711,40 @@
       <c r="D15" s="75">
         <v>5</v>
       </c>
-      <c r="E15" s="188" t="s">
+      <c r="E15" s="198" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="189"/>
-      <c r="M15" s="189"/>
-      <c r="N15" s="189"/>
-      <c r="O15" s="189"/>
-      <c r="P15" s="189"/>
-      <c r="Q15" s="189"/>
-      <c r="R15" s="189"/>
-      <c r="S15" s="189"/>
-      <c r="T15" s="189"/>
-      <c r="U15" s="190"/>
-      <c r="V15" s="188" t="s">
+      <c r="F15" s="199"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="199"/>
+      <c r="K15" s="199"/>
+      <c r="L15" s="199"/>
+      <c r="M15" s="199"/>
+      <c r="N15" s="199"/>
+      <c r="O15" s="199"/>
+      <c r="P15" s="199"/>
+      <c r="Q15" s="199"/>
+      <c r="R15" s="199"/>
+      <c r="S15" s="199"/>
+      <c r="T15" s="199"/>
+      <c r="U15" s="200"/>
+      <c r="V15" s="198" t="s">
         <v>108</v>
       </c>
-      <c r="W15" s="189"/>
-      <c r="X15" s="189"/>
-      <c r="Y15" s="189"/>
-      <c r="Z15" s="189"/>
-      <c r="AA15" s="189"/>
-      <c r="AB15" s="189"/>
-      <c r="AC15" s="189"/>
-      <c r="AD15" s="189"/>
-      <c r="AE15" s="189"/>
-      <c r="AF15" s="189"/>
-      <c r="AG15" s="189"/>
-      <c r="AH15" s="190"/>
+      <c r="W15" s="199"/>
+      <c r="X15" s="199"/>
+      <c r="Y15" s="199"/>
+      <c r="Z15" s="199"/>
+      <c r="AA15" s="199"/>
+      <c r="AB15" s="199"/>
+      <c r="AC15" s="199"/>
+      <c r="AD15" s="199"/>
+      <c r="AE15" s="199"/>
+      <c r="AF15" s="199"/>
+      <c r="AG15" s="199"/>
+      <c r="AH15" s="200"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
@@ -36795,7 +36824,7 @@
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="203" t="s">
+      <c r="D17" s="91" t="s">
         <v>419</v>
       </c>
       <c r="E17" s="12"/>
@@ -39075,14 +39104,15 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="V15:AH15"/>
     <mergeCell ref="E10:U10"/>
     <mergeCell ref="E11:U11"/>
@@ -39095,15 +39125,14 @@
     <mergeCell ref="V12:AH12"/>
     <mergeCell ref="V13:AH13"/>
     <mergeCell ref="V14:AH14"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/shell/シェルスクリプト開発標準.xlsx
+++ b/サンプルプロジェクト/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/shell/シェルスクリプト開発標準.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0238636-86B4-459C-9CFC-366648CA73C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0044B8E5-2660-4DEA-828D-069B009BC529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="21" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="（別紙）Nablarch環境依存項目管理ポリシー" sheetId="20" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_Toc207619135" localSheetId="5">'3. スクリプト規約に則ったサンプルスクリプト'!$E$271</definedName>
+    <definedName name="_Toc207619136" localSheetId="5">'3. スクリプト規約に則ったサンプルスクリプト'!$E$335</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'（別紙）Nablarch環境依存項目管理ポリシー'!$A$1:$AI$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. はじめに'!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. スクリプト規約'!$A$1:$AI$232</definedName>
@@ -31,15 +33,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2182,7 +2181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -2792,86 +2791,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2984,6 +2905,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2993,6 +2989,18 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3040,17 +3048,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3061,12 +3063,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3074,6 +3070,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3103,22 +3117,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3131,36 +3130,8 @@
     <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{1F5119C5-E015-4D11-A20F-E49F62891CF0}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8864,12 +8835,12 @@
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="92">
+      <c r="I25" s="91">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43336</v>
       </c>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="26"/>
@@ -9429,57 +9400,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="127" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="133" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="142" t="s">
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="116" t="s">
         <v>280</v>
       </c>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="124" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="151" t="str">
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="125" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="118">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="92">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="119"/>
-      <c r="AI1" s="120"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="94"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -9487,53 +9458,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="127" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>413</v>
       </c>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="124" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="130" t="str">
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="104" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="132"/>
-      <c r="AG2" s="118" t="str">
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="92" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="119"/>
-      <c r="AI2" s="120"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="94"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -9541,43 +9512,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="151"/>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="118"/>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="120"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="94"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -9614,1031 +9585,1187 @@
       <c r="A7" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="121" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="121" t="s">
+      <c r="E7" s="97"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="121" t="s">
+      <c r="H7" s="97"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="121" t="s">
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="123"/>
-      <c r="AD7" s="123"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="121" t="s">
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="123"/>
-      <c r="AI7" s="122"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="96"/>
     </row>
     <row r="8" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="87">
         <v>1</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="141" t="s">
         <v>414</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107">
+      <c r="C8" s="142"/>
+      <c r="D8" s="143">
         <v>43336</v>
       </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110" t="s">
+      <c r="E8" s="144"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="146" t="s">
         <v>415</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="112" t="s">
+      <c r="H8" s="147"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="148" t="s">
         <v>416</v>
       </c>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="115" t="s">
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151" t="s">
         <v>417</v>
       </c>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="116"/>
-      <c r="AE8" s="117"/>
-      <c r="AF8" s="112" t="s">
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="153"/>
+      <c r="AF8" s="148" t="s">
         <v>418</v>
       </c>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="113"/>
-      <c r="AI8" s="114"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="150"/>
     </row>
     <row r="9" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="72"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="101"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="139"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="139"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="139"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="135"/>
+      <c r="AG9" s="136"/>
+      <c r="AH9" s="136"/>
+      <c r="AI9" s="137"/>
     </row>
     <row r="10" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="72"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="103"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="104"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="100"/>
-      <c r="AH10" s="100"/>
-      <c r="AI10" s="101"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="135"/>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="136"/>
+      <c r="AI10" s="137"/>
     </row>
     <row r="11" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="103"/>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="104"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="100"/>
-      <c r="AI11" s="101"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="139"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="137"/>
     </row>
     <row r="12" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="103"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="103"/>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="100"/>
-      <c r="AH12" s="100"/>
-      <c r="AI12" s="101"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="139"/>
+      <c r="S12" s="139"/>
+      <c r="T12" s="139"/>
+      <c r="U12" s="139"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="140"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="137"/>
     </row>
     <row r="13" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="104"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="100"/>
-      <c r="AH13" s="100"/>
-      <c r="AI13" s="101"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="140"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="137"/>
     </row>
     <row r="14" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="72"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="103"/>
-      <c r="T14" s="103"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="103"/>
-      <c r="X14" s="103"/>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="104"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="101"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="139"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="139"/>
+      <c r="W14" s="139"/>
+      <c r="X14" s="139"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="139"/>
+      <c r="AB14" s="139"/>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="140"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="137"/>
     </row>
     <row r="15" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="72"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="103"/>
-      <c r="X15" s="103"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="100"/>
-      <c r="AH15" s="100"/>
-      <c r="AI15" s="101"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="139"/>
+      <c r="X15" s="139"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="140"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="137"/>
     </row>
     <row r="16" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="72"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="100"/>
-      <c r="AH16" s="100"/>
-      <c r="AI16" s="101"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="135"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="137"/>
     </row>
     <row r="17" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="104"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="100"/>
-      <c r="AH17" s="100"/>
-      <c r="AI17" s="101"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="139"/>
+      <c r="U17" s="139"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="139"/>
+      <c r="AB17" s="139"/>
+      <c r="AC17" s="139"/>
+      <c r="AD17" s="139"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="136"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="137"/>
     </row>
     <row r="18" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="103"/>
-      <c r="X18" s="103"/>
-      <c r="Y18" s="103"/>
-      <c r="Z18" s="103"/>
-      <c r="AA18" s="103"/>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="103"/>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="104"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="100"/>
-      <c r="AH18" s="100"/>
-      <c r="AI18" s="101"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="139"/>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="135"/>
+      <c r="AG18" s="136"/>
+      <c r="AH18" s="136"/>
+      <c r="AI18" s="137"/>
     </row>
     <row r="19" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="103"/>
-      <c r="T19" s="103"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="104"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="100"/>
-      <c r="AH19" s="100"/>
-      <c r="AI19" s="101"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="140"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="136"/>
+      <c r="AI19" s="137"/>
     </row>
     <row r="20" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="72"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="104"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="100"/>
-      <c r="AH20" s="100"/>
-      <c r="AI20" s="101"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="139"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="139"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="140"/>
+      <c r="AF20" s="135"/>
+      <c r="AG20" s="136"/>
+      <c r="AH20" s="136"/>
+      <c r="AI20" s="137"/>
     </row>
     <row r="21" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="72"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="103"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="104"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="100"/>
-      <c r="AI21" s="101"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="140"/>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="136"/>
+      <c r="AI21" s="137"/>
     </row>
     <row r="22" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="72"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="103"/>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="103"/>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="104"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="100"/>
-      <c r="AH22" s="100"/>
-      <c r="AI22" s="101"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="138"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="139"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="140"/>
+      <c r="AF22" s="135"/>
+      <c r="AG22" s="136"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="137"/>
     </row>
     <row r="23" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="72"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="103"/>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="103"/>
-      <c r="X23" s="103"/>
-      <c r="Y23" s="103"/>
-      <c r="Z23" s="103"/>
-      <c r="AA23" s="103"/>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="103"/>
-      <c r="AD23" s="103"/>
-      <c r="AE23" s="104"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="100"/>
-      <c r="AH23" s="100"/>
-      <c r="AI23" s="101"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="140"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="137"/>
     </row>
     <row r="24" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="72"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="103"/>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="103"/>
-      <c r="AD24" s="103"/>
-      <c r="AE24" s="104"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="100"/>
-      <c r="AI24" s="101"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="139"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="139"/>
+      <c r="Y24" s="139"/>
+      <c r="Z24" s="139"/>
+      <c r="AA24" s="139"/>
+      <c r="AB24" s="139"/>
+      <c r="AC24" s="139"/>
+      <c r="AD24" s="139"/>
+      <c r="AE24" s="140"/>
+      <c r="AF24" s="135"/>
+      <c r="AG24" s="136"/>
+      <c r="AH24" s="136"/>
+      <c r="AI24" s="137"/>
     </row>
     <row r="25" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="72"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="103"/>
-      <c r="Z25" s="103"/>
-      <c r="AA25" s="103"/>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="103"/>
-      <c r="AD25" s="103"/>
-      <c r="AE25" s="104"/>
-      <c r="AF25" s="99"/>
-      <c r="AG25" s="100"/>
-      <c r="AH25" s="100"/>
-      <c r="AI25" s="101"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="138"/>
+      <c r="R25" s="139"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="139"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="139"/>
+      <c r="X25" s="139"/>
+      <c r="Y25" s="139"/>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="139"/>
+      <c r="AB25" s="139"/>
+      <c r="AC25" s="139"/>
+      <c r="AD25" s="139"/>
+      <c r="AE25" s="140"/>
+      <c r="AF25" s="135"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="136"/>
+      <c r="AI25" s="137"/>
     </row>
     <row r="26" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="72"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="103"/>
-      <c r="X26" s="103"/>
-      <c r="Y26" s="103"/>
-      <c r="Z26" s="103"/>
-      <c r="AA26" s="103"/>
-      <c r="AB26" s="103"/>
-      <c r="AC26" s="103"/>
-      <c r="AD26" s="103"/>
-      <c r="AE26" s="104"/>
-      <c r="AF26" s="99"/>
-      <c r="AG26" s="100"/>
-      <c r="AH26" s="100"/>
-      <c r="AI26" s="101"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="139"/>
+      <c r="S26" s="139"/>
+      <c r="T26" s="139"/>
+      <c r="U26" s="139"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="139"/>
+      <c r="AA26" s="139"/>
+      <c r="AB26" s="139"/>
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="140"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="137"/>
     </row>
     <row r="27" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="72"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="103"/>
-      <c r="AA27" s="103"/>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="103"/>
-      <c r="AD27" s="103"/>
-      <c r="AE27" s="104"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="100"/>
-      <c r="AH27" s="100"/>
-      <c r="AI27" s="101"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="139"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="139"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="139"/>
+      <c r="X27" s="139"/>
+      <c r="Y27" s="139"/>
+      <c r="Z27" s="139"/>
+      <c r="AA27" s="139"/>
+      <c r="AB27" s="139"/>
+      <c r="AC27" s="139"/>
+      <c r="AD27" s="139"/>
+      <c r="AE27" s="140"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="137"/>
     </row>
     <row r="28" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="72"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="103"/>
-      <c r="AA28" s="103"/>
-      <c r="AB28" s="103"/>
-      <c r="AC28" s="103"/>
-      <c r="AD28" s="103"/>
-      <c r="AE28" s="104"/>
-      <c r="AF28" s="99"/>
-      <c r="AG28" s="100"/>
-      <c r="AH28" s="100"/>
-      <c r="AI28" s="101"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="140"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="137"/>
     </row>
     <row r="29" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="72"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="103"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="103"/>
-      <c r="AA29" s="103"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="103"/>
-      <c r="AD29" s="103"/>
-      <c r="AE29" s="104"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="100"/>
-      <c r="AH29" s="100"/>
-      <c r="AI29" s="101"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="139"/>
+      <c r="S29" s="139"/>
+      <c r="T29" s="139"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="139"/>
+      <c r="W29" s="139"/>
+      <c r="X29" s="139"/>
+      <c r="Y29" s="139"/>
+      <c r="Z29" s="139"/>
+      <c r="AA29" s="139"/>
+      <c r="AB29" s="139"/>
+      <c r="AC29" s="139"/>
+      <c r="AD29" s="139"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="135"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="137"/>
     </row>
     <row r="30" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="72"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="103"/>
-      <c r="AB30" s="103"/>
-      <c r="AC30" s="103"/>
-      <c r="AD30" s="103"/>
-      <c r="AE30" s="104"/>
-      <c r="AF30" s="99"/>
-      <c r="AG30" s="100"/>
-      <c r="AH30" s="100"/>
-      <c r="AI30" s="101"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="138"/>
+      <c r="R30" s="139"/>
+      <c r="S30" s="139"/>
+      <c r="T30" s="139"/>
+      <c r="U30" s="139"/>
+      <c r="V30" s="139"/>
+      <c r="W30" s="139"/>
+      <c r="X30" s="139"/>
+      <c r="Y30" s="139"/>
+      <c r="Z30" s="139"/>
+      <c r="AA30" s="139"/>
+      <c r="AB30" s="139"/>
+      <c r="AC30" s="139"/>
+      <c r="AD30" s="139"/>
+      <c r="AE30" s="140"/>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="137"/>
     </row>
     <row r="31" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="72"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="103"/>
-      <c r="Z31" s="103"/>
-      <c r="AA31" s="103"/>
-      <c r="AB31" s="103"/>
-      <c r="AC31" s="103"/>
-      <c r="AD31" s="103"/>
-      <c r="AE31" s="104"/>
-      <c r="AF31" s="99"/>
-      <c r="AG31" s="100"/>
-      <c r="AH31" s="100"/>
-      <c r="AI31" s="101"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="138"/>
+      <c r="R31" s="139"/>
+      <c r="S31" s="139"/>
+      <c r="T31" s="139"/>
+      <c r="U31" s="139"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
+      <c r="AB31" s="139"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="139"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="137"/>
     </row>
     <row r="32" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="72"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="103"/>
-      <c r="Y32" s="103"/>
-      <c r="Z32" s="103"/>
-      <c r="AA32" s="103"/>
-      <c r="AB32" s="103"/>
-      <c r="AC32" s="103"/>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="104"/>
-      <c r="AF32" s="99"/>
-      <c r="AG32" s="100"/>
-      <c r="AH32" s="100"/>
-      <c r="AI32" s="101"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="138"/>
+      <c r="R32" s="139"/>
+      <c r="S32" s="139"/>
+      <c r="T32" s="139"/>
+      <c r="U32" s="139"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="139"/>
+      <c r="X32" s="139"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="139"/>
+      <c r="AB32" s="139"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="139"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="135"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="137"/>
     </row>
     <row r="33" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="72"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="103"/>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="104"/>
-      <c r="AF33" s="99"/>
-      <c r="AG33" s="100"/>
-      <c r="AH33" s="100"/>
-      <c r="AI33" s="101"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="138"/>
+      <c r="R33" s="139"/>
+      <c r="S33" s="139"/>
+      <c r="T33" s="139"/>
+      <c r="U33" s="139"/>
+      <c r="V33" s="139"/>
+      <c r="W33" s="139"/>
+      <c r="X33" s="139"/>
+      <c r="Y33" s="139"/>
+      <c r="Z33" s="139"/>
+      <c r="AA33" s="139"/>
+      <c r="AB33" s="139"/>
+      <c r="AC33" s="139"/>
+      <c r="AD33" s="139"/>
+      <c r="AE33" s="140"/>
+      <c r="AF33" s="135"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="136"/>
+      <c r="AI33" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -10662,162 +10789,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10974,163 +10945,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="154" t="str">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="133" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="142" t="str">
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="124" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="151" t="str">
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="155">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="154">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="156"/>
-      <c r="AI1" s="157"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="156"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="154" t="str">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="124" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="151" t="str">
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="155" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="157"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="156"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="154" t="str">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="151" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="155" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="157"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="156"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12609,14 +12580,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12626,6 +12589,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12652,163 +12623,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="154" t="str">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="164" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="142" t="str">
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="151" t="str">
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="178">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="179"/>
-      <c r="AI1" s="180"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="154" t="str">
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="151" t="str">
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="178" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="180"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="154" t="str">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="151" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="178" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="179"/>
-      <c r="AI3" s="180"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12893,36 +12864,36 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E28" s="175" t="s">
+      <c r="E28" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="176"/>
-      <c r="N28" s="176"/>
-      <c r="O28" s="176"/>
-      <c r="P28" s="177"/>
-      <c r="Q28" s="175" t="s">
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="161"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="R28" s="176"/>
-      <c r="S28" s="176"/>
-      <c r="T28" s="176"/>
-      <c r="U28" s="176"/>
-      <c r="V28" s="176"/>
-      <c r="W28" s="176"/>
-      <c r="X28" s="176"/>
-      <c r="Y28" s="176"/>
-      <c r="Z28" s="176"/>
-      <c r="AA28" s="176"/>
-      <c r="AB28" s="176"/>
-      <c r="AC28" s="176"/>
-      <c r="AD28" s="177"/>
+      <c r="R28" s="161"/>
+      <c r="S28" s="161"/>
+      <c r="T28" s="161"/>
+      <c r="U28" s="161"/>
+      <c r="V28" s="161"/>
+      <c r="W28" s="161"/>
+      <c r="X28" s="161"/>
+      <c r="Y28" s="161"/>
+      <c r="Z28" s="161"/>
+      <c r="AA28" s="161"/>
+      <c r="AB28" s="161"/>
+      <c r="AC28" s="161"/>
+      <c r="AD28" s="162"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
@@ -13233,6 +13204,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="Q28:AD28"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
@@ -13240,18 +13223,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E28:P28"/>
-    <mergeCell ref="Q28:AD28"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -13282,163 +13253,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="154" t="str">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="164" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="169" t="s">
         <v>275</v>
       </c>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="142" t="str">
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="151" t="str">
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="178">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="179"/>
-      <c r="AI1" s="180"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="154" t="str">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="151" t="str">
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="178" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="180"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="154" t="str">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="151" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="178" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="179"/>
-      <c r="AI3" s="180"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -14103,33 +14074,33 @@
       <c r="F21" s="85" t="s">
         <v>390</v>
       </c>
-      <c r="G21" s="184" t="s">
+      <c r="G21" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="184"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="184"/>
-      <c r="L21" s="184"/>
-      <c r="M21" s="184"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="184"/>
-      <c r="P21" s="184"/>
-      <c r="Q21" s="184"/>
-      <c r="R21" s="184"/>
-      <c r="S21" s="184" t="s">
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="180"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="180"/>
+      <c r="Q21" s="180"/>
+      <c r="R21" s="180"/>
+      <c r="S21" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="T21" s="184"/>
-      <c r="U21" s="184"/>
-      <c r="V21" s="184"/>
-      <c r="W21" s="184"/>
-      <c r="X21" s="184"/>
-      <c r="Y21" s="184"/>
-      <c r="Z21" s="184"/>
-      <c r="AA21" s="184"/>
-      <c r="AB21" s="184"/>
-      <c r="AC21" s="184"/>
+      <c r="T21" s="180"/>
+      <c r="U21" s="180"/>
+      <c r="V21" s="180"/>
+      <c r="W21" s="180"/>
+      <c r="X21" s="180"/>
+      <c r="Y21" s="180"/>
+      <c r="Z21" s="180"/>
+      <c r="AA21" s="180"/>
+      <c r="AB21" s="180"/>
+      <c r="AC21" s="180"/>
       <c r="AD21" s="50"/>
       <c r="AE21" s="50"/>
       <c r="AF21" s="50"/>
@@ -14146,33 +14117,33 @@
       <c r="F22" s="72">
         <v>1</v>
       </c>
-      <c r="G22" s="185" t="s">
+      <c r="G22" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="185"/>
-      <c r="K22" s="185"/>
-      <c r="L22" s="185"/>
-      <c r="M22" s="185"/>
-      <c r="N22" s="185"/>
-      <c r="O22" s="185"/>
-      <c r="P22" s="185"/>
-      <c r="Q22" s="185"/>
-      <c r="R22" s="185"/>
-      <c r="S22" s="185" t="s">
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="181"/>
+      <c r="S22" s="181" t="s">
         <v>212</v>
       </c>
-      <c r="T22" s="185"/>
-      <c r="U22" s="185"/>
-      <c r="V22" s="185"/>
-      <c r="W22" s="185"/>
-      <c r="X22" s="185"/>
-      <c r="Y22" s="185"/>
-      <c r="Z22" s="185"/>
-      <c r="AA22" s="185"/>
-      <c r="AB22" s="185"/>
-      <c r="AC22" s="185"/>
+      <c r="T22" s="181"/>
+      <c r="U22" s="181"/>
+      <c r="V22" s="181"/>
+      <c r="W22" s="181"/>
+      <c r="X22" s="181"/>
+      <c r="Y22" s="181"/>
+      <c r="Z22" s="181"/>
+      <c r="AA22" s="181"/>
+      <c r="AB22" s="181"/>
+      <c r="AC22" s="181"/>
       <c r="AD22" s="50"/>
       <c r="AE22" s="50"/>
       <c r="AF22" s="50"/>
@@ -14189,33 +14160,33 @@
       <c r="F23" s="72">
         <v>2</v>
       </c>
-      <c r="G23" s="185" t="s">
+      <c r="G23" s="181" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="185"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="185"/>
-      <c r="K23" s="185"/>
-      <c r="L23" s="185"/>
-      <c r="M23" s="185"/>
-      <c r="N23" s="185"/>
-      <c r="O23" s="185"/>
-      <c r="P23" s="185"/>
-      <c r="Q23" s="185"/>
-      <c r="R23" s="185"/>
-      <c r="S23" s="185" t="s">
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="181"/>
+      <c r="S23" s="181" t="s">
         <v>213</v>
       </c>
-      <c r="T23" s="185"/>
-      <c r="U23" s="185"/>
-      <c r="V23" s="185"/>
-      <c r="W23" s="185"/>
-      <c r="X23" s="185"/>
-      <c r="Y23" s="185"/>
-      <c r="Z23" s="185"/>
-      <c r="AA23" s="185"/>
-      <c r="AB23" s="185"/>
-      <c r="AC23" s="185"/>
+      <c r="T23" s="181"/>
+      <c r="U23" s="181"/>
+      <c r="V23" s="181"/>
+      <c r="W23" s="181"/>
+      <c r="X23" s="181"/>
+      <c r="Y23" s="181"/>
+      <c r="Z23" s="181"/>
+      <c r="AA23" s="181"/>
+      <c r="AB23" s="181"/>
+      <c r="AC23" s="181"/>
       <c r="AD23" s="50"/>
       <c r="AE23" s="50"/>
       <c r="AF23" s="50"/>
@@ -14346,33 +14317,33 @@
       <c r="F27" s="85" t="s">
         <v>391</v>
       </c>
-      <c r="G27" s="182" t="s">
+      <c r="G27" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="182"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="182"/>
-      <c r="P27" s="182"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="182"/>
-      <c r="S27" s="182" t="s">
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="183"/>
+      <c r="Q27" s="183"/>
+      <c r="R27" s="183"/>
+      <c r="S27" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="182"/>
-      <c r="U27" s="182"/>
-      <c r="V27" s="182"/>
-      <c r="W27" s="182"/>
-      <c r="X27" s="182"/>
-      <c r="Y27" s="182"/>
-      <c r="Z27" s="182"/>
-      <c r="AA27" s="182"/>
-      <c r="AB27" s="182"/>
-      <c r="AC27" s="182"/>
+      <c r="T27" s="183"/>
+      <c r="U27" s="183"/>
+      <c r="V27" s="183"/>
+      <c r="W27" s="183"/>
+      <c r="X27" s="183"/>
+      <c r="Y27" s="183"/>
+      <c r="Z27" s="183"/>
+      <c r="AA27" s="183"/>
+      <c r="AB27" s="183"/>
+      <c r="AC27" s="183"/>
       <c r="AD27" s="50"/>
       <c r="AE27" s="50"/>
       <c r="AF27" s="50"/>
@@ -14389,33 +14360,33 @@
       <c r="F28" s="86">
         <v>1</v>
       </c>
-      <c r="G28" s="181" t="s">
+      <c r="G28" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="181"/>
-      <c r="L28" s="181"/>
-      <c r="M28" s="181"/>
-      <c r="N28" s="181"/>
-      <c r="O28" s="181"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="181"/>
-      <c r="R28" s="181"/>
-      <c r="S28" s="181" t="s">
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="182"/>
+      <c r="O28" s="182"/>
+      <c r="P28" s="182"/>
+      <c r="Q28" s="182"/>
+      <c r="R28" s="182"/>
+      <c r="S28" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="T28" s="181"/>
-      <c r="U28" s="181"/>
-      <c r="V28" s="181"/>
-      <c r="W28" s="181"/>
-      <c r="X28" s="181"/>
-      <c r="Y28" s="181"/>
-      <c r="Z28" s="181"/>
-      <c r="AA28" s="181"/>
-      <c r="AB28" s="181"/>
-      <c r="AC28" s="181"/>
+      <c r="T28" s="182"/>
+      <c r="U28" s="182"/>
+      <c r="V28" s="182"/>
+      <c r="W28" s="182"/>
+      <c r="X28" s="182"/>
+      <c r="Y28" s="182"/>
+      <c r="Z28" s="182"/>
+      <c r="AA28" s="182"/>
+      <c r="AB28" s="182"/>
+      <c r="AC28" s="182"/>
       <c r="AD28" s="50"/>
       <c r="AE28" s="50"/>
       <c r="AF28" s="50"/>
@@ -14432,33 +14403,33 @@
       <c r="F29" s="86">
         <v>2</v>
       </c>
-      <c r="G29" s="181" t="s">
+      <c r="G29" s="182" t="s">
         <v>203</v>
       </c>
-      <c r="H29" s="181"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="181"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="181"/>
-      <c r="R29" s="181"/>
-      <c r="S29" s="181" t="s">
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="182"/>
+      <c r="P29" s="182"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="T29" s="181"/>
-      <c r="U29" s="181"/>
-      <c r="V29" s="181"/>
-      <c r="W29" s="181"/>
-      <c r="X29" s="181"/>
-      <c r="Y29" s="181"/>
-      <c r="Z29" s="181"/>
-      <c r="AA29" s="181"/>
-      <c r="AB29" s="181"/>
-      <c r="AC29" s="181"/>
+      <c r="T29" s="182"/>
+      <c r="U29" s="182"/>
+      <c r="V29" s="182"/>
+      <c r="W29" s="182"/>
+      <c r="X29" s="182"/>
+      <c r="Y29" s="182"/>
+      <c r="Z29" s="182"/>
+      <c r="AA29" s="182"/>
+      <c r="AB29" s="182"/>
+      <c r="AC29" s="182"/>
       <c r="AD29" s="50"/>
       <c r="AE29" s="50"/>
       <c r="AF29" s="50"/>
@@ -14475,33 +14446,33 @@
       <c r="F30" s="86">
         <v>3</v>
       </c>
-      <c r="G30" s="181" t="s">
+      <c r="G30" s="182" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="181"/>
-      <c r="L30" s="181"/>
-      <c r="M30" s="181"/>
-      <c r="N30" s="181"/>
-      <c r="O30" s="181"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="181"/>
-      <c r="R30" s="181"/>
-      <c r="S30" s="181" t="s">
+      <c r="H30" s="182"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="182"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182"/>
+      <c r="O30" s="182"/>
+      <c r="P30" s="182"/>
+      <c r="Q30" s="182"/>
+      <c r="R30" s="182"/>
+      <c r="S30" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="T30" s="181"/>
-      <c r="U30" s="181"/>
-      <c r="V30" s="181"/>
-      <c r="W30" s="181"/>
-      <c r="X30" s="181"/>
-      <c r="Y30" s="181"/>
-      <c r="Z30" s="181"/>
-      <c r="AA30" s="181"/>
-      <c r="AB30" s="181"/>
-      <c r="AC30" s="181"/>
+      <c r="T30" s="182"/>
+      <c r="U30" s="182"/>
+      <c r="V30" s="182"/>
+      <c r="W30" s="182"/>
+      <c r="X30" s="182"/>
+      <c r="Y30" s="182"/>
+      <c r="Z30" s="182"/>
+      <c r="AA30" s="182"/>
+      <c r="AB30" s="182"/>
+      <c r="AC30" s="182"/>
       <c r="AD30" s="50"/>
       <c r="AE30" s="50"/>
       <c r="AF30" s="50"/>
@@ -14518,33 +14489,33 @@
       <c r="F31" s="84">
         <v>4</v>
       </c>
-      <c r="G31" s="181" t="s">
+      <c r="G31" s="182" t="s">
         <v>205</v>
       </c>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="181"/>
-      <c r="M31" s="181"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="181"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="181"/>
-      <c r="S31" s="181" t="s">
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="182"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="T31" s="181"/>
-      <c r="U31" s="181"/>
-      <c r="V31" s="181"/>
-      <c r="W31" s="181"/>
-      <c r="X31" s="181"/>
-      <c r="Y31" s="181"/>
-      <c r="Z31" s="181"/>
-      <c r="AA31" s="181"/>
-      <c r="AB31" s="181"/>
-      <c r="AC31" s="181"/>
+      <c r="T31" s="182"/>
+      <c r="U31" s="182"/>
+      <c r="V31" s="182"/>
+      <c r="W31" s="182"/>
+      <c r="X31" s="182"/>
+      <c r="Y31" s="182"/>
+      <c r="Z31" s="182"/>
+      <c r="AA31" s="182"/>
+      <c r="AB31" s="182"/>
+      <c r="AC31" s="182"/>
       <c r="AD31" s="50"/>
       <c r="AE31" s="50"/>
       <c r="AF31" s="50"/>
@@ -14561,33 +14532,33 @@
       <c r="F32" s="84">
         <v>5</v>
       </c>
-      <c r="G32" s="181" t="s">
+      <c r="G32" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="181"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="181"/>
-      <c r="M32" s="181"/>
-      <c r="N32" s="181"/>
-      <c r="O32" s="181"/>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="181"/>
-      <c r="R32" s="181"/>
-      <c r="S32" s="181" t="s">
+      <c r="H32" s="182"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="182"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="182"/>
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="182"/>
+      <c r="S32" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="T32" s="181"/>
-      <c r="U32" s="181"/>
-      <c r="V32" s="181"/>
-      <c r="W32" s="181"/>
-      <c r="X32" s="181"/>
-      <c r="Y32" s="181"/>
-      <c r="Z32" s="181"/>
-      <c r="AA32" s="181"/>
-      <c r="AB32" s="181"/>
-      <c r="AC32" s="181"/>
+      <c r="T32" s="182"/>
+      <c r="U32" s="182"/>
+      <c r="V32" s="182"/>
+      <c r="W32" s="182"/>
+      <c r="X32" s="182"/>
+      <c r="Y32" s="182"/>
+      <c r="Z32" s="182"/>
+      <c r="AA32" s="182"/>
+      <c r="AB32" s="182"/>
+      <c r="AC32" s="182"/>
       <c r="AD32" s="50"/>
       <c r="AE32" s="50"/>
       <c r="AF32" s="50"/>
@@ -14604,33 +14575,33 @@
       <c r="F33" s="84">
         <v>6</v>
       </c>
-      <c r="G33" s="181" t="s">
+      <c r="G33" s="182" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="181"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="181"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="181"/>
-      <c r="P33" s="181"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="181"/>
-      <c r="S33" s="181" t="s">
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="182"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="182"/>
+      <c r="Q33" s="182"/>
+      <c r="R33" s="182"/>
+      <c r="S33" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="181"/>
-      <c r="U33" s="181"/>
-      <c r="V33" s="181"/>
-      <c r="W33" s="181"/>
-      <c r="X33" s="181"/>
-      <c r="Y33" s="181"/>
-      <c r="Z33" s="181"/>
-      <c r="AA33" s="181"/>
-      <c r="AB33" s="181"/>
-      <c r="AC33" s="181"/>
+      <c r="T33" s="182"/>
+      <c r="U33" s="182"/>
+      <c r="V33" s="182"/>
+      <c r="W33" s="182"/>
+      <c r="X33" s="182"/>
+      <c r="Y33" s="182"/>
+      <c r="Z33" s="182"/>
+      <c r="AA33" s="182"/>
+      <c r="AB33" s="182"/>
+      <c r="AC33" s="182"/>
       <c r="AD33" s="50"/>
       <c r="AE33" s="50"/>
       <c r="AF33" s="50"/>
@@ -14835,34 +14806,34 @@
       <c r="E39" s="85" t="s">
         <v>391</v>
       </c>
-      <c r="F39" s="182" t="s">
+      <c r="F39" s="183" t="s">
         <v>207</v>
       </c>
-      <c r="G39" s="182"/>
-      <c r="H39" s="182"/>
-      <c r="I39" s="182"/>
-      <c r="J39" s="182"/>
-      <c r="K39" s="182"/>
-      <c r="L39" s="182"/>
-      <c r="M39" s="182"/>
-      <c r="N39" s="182"/>
-      <c r="O39" s="182"/>
-      <c r="P39" s="182"/>
-      <c r="Q39" s="182"/>
-      <c r="R39" s="182" t="s">
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="183"/>
+      <c r="M39" s="183"/>
+      <c r="N39" s="183"/>
+      <c r="O39" s="183"/>
+      <c r="P39" s="183"/>
+      <c r="Q39" s="183"/>
+      <c r="R39" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="S39" s="182"/>
-      <c r="T39" s="182"/>
-      <c r="U39" s="182"/>
-      <c r="V39" s="182"/>
-      <c r="W39" s="182"/>
-      <c r="X39" s="182"/>
-      <c r="Y39" s="182"/>
-      <c r="Z39" s="182"/>
-      <c r="AA39" s="182"/>
-      <c r="AB39" s="182"/>
-      <c r="AC39" s="182"/>
+      <c r="S39" s="183"/>
+      <c r="T39" s="183"/>
+      <c r="U39" s="183"/>
+      <c r="V39" s="183"/>
+      <c r="W39" s="183"/>
+      <c r="X39" s="183"/>
+      <c r="Y39" s="183"/>
+      <c r="Z39" s="183"/>
+      <c r="AA39" s="183"/>
+      <c r="AB39" s="183"/>
+      <c r="AC39" s="183"/>
       <c r="AD39" s="50"/>
       <c r="AE39" s="50"/>
       <c r="AF39" s="50"/>
@@ -14878,34 +14849,34 @@
       <c r="E40" s="86">
         <v>1</v>
       </c>
-      <c r="F40" s="181" t="s">
+      <c r="F40" s="182" t="s">
         <v>176</v>
       </c>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="181"/>
-      <c r="J40" s="181"/>
-      <c r="K40" s="181"/>
-      <c r="L40" s="181"/>
-      <c r="M40" s="181"/>
-      <c r="N40" s="181"/>
-      <c r="O40" s="181"/>
-      <c r="P40" s="181"/>
-      <c r="Q40" s="181"/>
-      <c r="R40" s="183" t="s">
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="182"/>
+      <c r="K40" s="182"/>
+      <c r="L40" s="182"/>
+      <c r="M40" s="182"/>
+      <c r="N40" s="182"/>
+      <c r="O40" s="182"/>
+      <c r="P40" s="182"/>
+      <c r="Q40" s="182"/>
+      <c r="R40" s="184" t="s">
         <v>215</v>
       </c>
-      <c r="S40" s="183"/>
-      <c r="T40" s="183"/>
-      <c r="U40" s="183"/>
-      <c r="V40" s="183"/>
-      <c r="W40" s="183"/>
-      <c r="X40" s="183"/>
-      <c r="Y40" s="183"/>
-      <c r="Z40" s="183"/>
-      <c r="AA40" s="183"/>
-      <c r="AB40" s="183"/>
-      <c r="AC40" s="183"/>
+      <c r="S40" s="184"/>
+      <c r="T40" s="184"/>
+      <c r="U40" s="184"/>
+      <c r="V40" s="184"/>
+      <c r="W40" s="184"/>
+      <c r="X40" s="184"/>
+      <c r="Y40" s="184"/>
+      <c r="Z40" s="184"/>
+      <c r="AA40" s="184"/>
+      <c r="AB40" s="184"/>
+      <c r="AC40" s="184"/>
       <c r="AD40" s="50"/>
       <c r="AE40" s="50"/>
       <c r="AF40" s="50"/>
@@ -14921,34 +14892,34 @@
       <c r="E41" s="86">
         <v>2</v>
       </c>
-      <c r="F41" s="181" t="s">
+      <c r="F41" s="182" t="s">
         <v>208</v>
       </c>
-      <c r="G41" s="181"/>
-      <c r="H41" s="181"/>
-      <c r="I41" s="181"/>
-      <c r="J41" s="181"/>
-      <c r="K41" s="181"/>
-      <c r="L41" s="181"/>
-      <c r="M41" s="181"/>
-      <c r="N41" s="181"/>
-      <c r="O41" s="181"/>
-      <c r="P41" s="181"/>
-      <c r="Q41" s="181"/>
-      <c r="R41" s="183" t="s">
+      <c r="G41" s="182"/>
+      <c r="H41" s="182"/>
+      <c r="I41" s="182"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="182"/>
+      <c r="L41" s="182"/>
+      <c r="M41" s="182"/>
+      <c r="N41" s="182"/>
+      <c r="O41" s="182"/>
+      <c r="P41" s="182"/>
+      <c r="Q41" s="182"/>
+      <c r="R41" s="184" t="s">
         <v>216</v>
       </c>
-      <c r="S41" s="183"/>
-      <c r="T41" s="183"/>
-      <c r="U41" s="183"/>
-      <c r="V41" s="183"/>
-      <c r="W41" s="183"/>
-      <c r="X41" s="183"/>
-      <c r="Y41" s="183"/>
-      <c r="Z41" s="183"/>
-      <c r="AA41" s="183"/>
-      <c r="AB41" s="183"/>
-      <c r="AC41" s="183"/>
+      <c r="S41" s="184"/>
+      <c r="T41" s="184"/>
+      <c r="U41" s="184"/>
+      <c r="V41" s="184"/>
+      <c r="W41" s="184"/>
+      <c r="X41" s="184"/>
+      <c r="Y41" s="184"/>
+      <c r="Z41" s="184"/>
+      <c r="AA41" s="184"/>
+      <c r="AB41" s="184"/>
+      <c r="AC41" s="184"/>
       <c r="AD41" s="50"/>
       <c r="AE41" s="50"/>
       <c r="AF41" s="50"/>
@@ -14964,34 +14935,34 @@
       <c r="E42" s="86">
         <v>3</v>
       </c>
-      <c r="F42" s="181" t="s">
+      <c r="F42" s="182" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="181"/>
-      <c r="K42" s="181"/>
-      <c r="L42" s="181"/>
-      <c r="M42" s="181"/>
-      <c r="N42" s="181"/>
-      <c r="O42" s="181"/>
-      <c r="P42" s="181"/>
-      <c r="Q42" s="181"/>
-      <c r="R42" s="183" t="s">
+      <c r="G42" s="182"/>
+      <c r="H42" s="182"/>
+      <c r="I42" s="182"/>
+      <c r="J42" s="182"/>
+      <c r="K42" s="182"/>
+      <c r="L42" s="182"/>
+      <c r="M42" s="182"/>
+      <c r="N42" s="182"/>
+      <c r="O42" s="182"/>
+      <c r="P42" s="182"/>
+      <c r="Q42" s="182"/>
+      <c r="R42" s="184" t="s">
         <v>217</v>
       </c>
-      <c r="S42" s="183"/>
-      <c r="T42" s="183"/>
-      <c r="U42" s="183"/>
-      <c r="V42" s="183"/>
-      <c r="W42" s="183"/>
-      <c r="X42" s="183"/>
-      <c r="Y42" s="183"/>
-      <c r="Z42" s="183"/>
-      <c r="AA42" s="183"/>
-      <c r="AB42" s="183"/>
-      <c r="AC42" s="183"/>
+      <c r="S42" s="184"/>
+      <c r="T42" s="184"/>
+      <c r="U42" s="184"/>
+      <c r="V42" s="184"/>
+      <c r="W42" s="184"/>
+      <c r="X42" s="184"/>
+      <c r="Y42" s="184"/>
+      <c r="Z42" s="184"/>
+      <c r="AA42" s="184"/>
+      <c r="AB42" s="184"/>
+      <c r="AC42" s="184"/>
       <c r="AD42" s="50"/>
       <c r="AE42" s="50"/>
       <c r="AF42" s="50"/>
@@ -15007,34 +14978,34 @@
       <c r="E43" s="84">
         <v>4</v>
       </c>
-      <c r="F43" s="181" t="s">
+      <c r="F43" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="181"/>
-      <c r="H43" s="181"/>
-      <c r="I43" s="181"/>
-      <c r="J43" s="181"/>
-      <c r="K43" s="181"/>
-      <c r="L43" s="181"/>
-      <c r="M43" s="181"/>
-      <c r="N43" s="181"/>
-      <c r="O43" s="181"/>
-      <c r="P43" s="181"/>
-      <c r="Q43" s="181"/>
-      <c r="R43" s="183" t="s">
+      <c r="G43" s="182"/>
+      <c r="H43" s="182"/>
+      <c r="I43" s="182"/>
+      <c r="J43" s="182"/>
+      <c r="K43" s="182"/>
+      <c r="L43" s="182"/>
+      <c r="M43" s="182"/>
+      <c r="N43" s="182"/>
+      <c r="O43" s="182"/>
+      <c r="P43" s="182"/>
+      <c r="Q43" s="182"/>
+      <c r="R43" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="S43" s="183"/>
-      <c r="T43" s="183"/>
-      <c r="U43" s="183"/>
-      <c r="V43" s="183"/>
-      <c r="W43" s="183"/>
-      <c r="X43" s="183"/>
-      <c r="Y43" s="183"/>
-      <c r="Z43" s="183"/>
-      <c r="AA43" s="183"/>
-      <c r="AB43" s="183"/>
-      <c r="AC43" s="183"/>
+      <c r="S43" s="184"/>
+      <c r="T43" s="184"/>
+      <c r="U43" s="184"/>
+      <c r="V43" s="184"/>
+      <c r="W43" s="184"/>
+      <c r="X43" s="184"/>
+      <c r="Y43" s="184"/>
+      <c r="Z43" s="184"/>
+      <c r="AA43" s="184"/>
+      <c r="AB43" s="184"/>
+      <c r="AC43" s="184"/>
       <c r="AD43" s="50"/>
       <c r="AE43" s="50"/>
       <c r="AF43" s="50"/>
@@ -15050,34 +15021,34 @@
       <c r="E44" s="84">
         <v>5</v>
       </c>
-      <c r="F44" s="181" t="s">
+      <c r="F44" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="181"/>
-      <c r="H44" s="181"/>
-      <c r="I44" s="181"/>
-      <c r="J44" s="181"/>
-      <c r="K44" s="181"/>
-      <c r="L44" s="181"/>
-      <c r="M44" s="181"/>
-      <c r="N44" s="181"/>
-      <c r="O44" s="181"/>
-      <c r="P44" s="181"/>
-      <c r="Q44" s="181"/>
-      <c r="R44" s="183" t="s">
+      <c r="G44" s="182"/>
+      <c r="H44" s="182"/>
+      <c r="I44" s="182"/>
+      <c r="J44" s="182"/>
+      <c r="K44" s="182"/>
+      <c r="L44" s="182"/>
+      <c r="M44" s="182"/>
+      <c r="N44" s="182"/>
+      <c r="O44" s="182"/>
+      <c r="P44" s="182"/>
+      <c r="Q44" s="182"/>
+      <c r="R44" s="184" t="s">
         <v>219</v>
       </c>
-      <c r="S44" s="183"/>
-      <c r="T44" s="183"/>
-      <c r="U44" s="183"/>
-      <c r="V44" s="183"/>
-      <c r="W44" s="183"/>
-      <c r="X44" s="183"/>
-      <c r="Y44" s="183"/>
-      <c r="Z44" s="183"/>
-      <c r="AA44" s="183"/>
-      <c r="AB44" s="183"/>
-      <c r="AC44" s="183"/>
+      <c r="S44" s="184"/>
+      <c r="T44" s="184"/>
+      <c r="U44" s="184"/>
+      <c r="V44" s="184"/>
+      <c r="W44" s="184"/>
+      <c r="X44" s="184"/>
+      <c r="Y44" s="184"/>
+      <c r="Z44" s="184"/>
+      <c r="AA44" s="184"/>
+      <c r="AB44" s="184"/>
+      <c r="AC44" s="184"/>
       <c r="AD44" s="50"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="50"/>
@@ -15093,34 +15064,34 @@
       <c r="E45" s="84">
         <v>6</v>
       </c>
-      <c r="F45" s="181" t="s">
+      <c r="F45" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="181"/>
-      <c r="H45" s="181"/>
-      <c r="I45" s="181"/>
-      <c r="J45" s="181"/>
-      <c r="K45" s="181"/>
-      <c r="L45" s="181"/>
-      <c r="M45" s="181"/>
-      <c r="N45" s="181"/>
-      <c r="O45" s="181"/>
-      <c r="P45" s="181"/>
-      <c r="Q45" s="181"/>
-      <c r="R45" s="183" t="s">
+      <c r="G45" s="182"/>
+      <c r="H45" s="182"/>
+      <c r="I45" s="182"/>
+      <c r="J45" s="182"/>
+      <c r="K45" s="182"/>
+      <c r="L45" s="182"/>
+      <c r="M45" s="182"/>
+      <c r="N45" s="182"/>
+      <c r="O45" s="182"/>
+      <c r="P45" s="182"/>
+      <c r="Q45" s="182"/>
+      <c r="R45" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="S45" s="183"/>
-      <c r="T45" s="183"/>
-      <c r="U45" s="183"/>
-      <c r="V45" s="183"/>
-      <c r="W45" s="183"/>
-      <c r="X45" s="183"/>
-      <c r="Y45" s="183"/>
-      <c r="Z45" s="183"/>
-      <c r="AA45" s="183"/>
-      <c r="AB45" s="183"/>
-      <c r="AC45" s="183"/>
+      <c r="S45" s="184"/>
+      <c r="T45" s="184"/>
+      <c r="U45" s="184"/>
+      <c r="V45" s="184"/>
+      <c r="W45" s="184"/>
+      <c r="X45" s="184"/>
+      <c r="Y45" s="184"/>
+      <c r="Z45" s="184"/>
+      <c r="AA45" s="184"/>
+      <c r="AB45" s="184"/>
+      <c r="AC45" s="184"/>
       <c r="AD45" s="50"/>
       <c r="AE45" s="50"/>
       <c r="AF45" s="50"/>
@@ -22217,19 +22188,30 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G21:R21"/>
-    <mergeCell ref="G22:R22"/>
-    <mergeCell ref="G23:R23"/>
-    <mergeCell ref="S21:AC21"/>
-    <mergeCell ref="S22:AC22"/>
-    <mergeCell ref="S23:AC23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="F44:Q44"/>
+    <mergeCell ref="F45:Q45"/>
+    <mergeCell ref="R39:AC39"/>
+    <mergeCell ref="R40:AC40"/>
+    <mergeCell ref="R41:AC41"/>
+    <mergeCell ref="R42:AC42"/>
+    <mergeCell ref="R43:AC43"/>
+    <mergeCell ref="R44:AC44"/>
+    <mergeCell ref="R45:AC45"/>
+    <mergeCell ref="F39:Q39"/>
+    <mergeCell ref="F40:Q40"/>
+    <mergeCell ref="F41:Q41"/>
+    <mergeCell ref="F42:Q42"/>
+    <mergeCell ref="F43:Q43"/>
     <mergeCell ref="G32:R32"/>
     <mergeCell ref="G33:R33"/>
     <mergeCell ref="S27:AC27"/>
@@ -22244,30 +22226,19 @@
     <mergeCell ref="G29:R29"/>
     <mergeCell ref="G30:R30"/>
     <mergeCell ref="G31:R31"/>
-    <mergeCell ref="F44:Q44"/>
-    <mergeCell ref="F45:Q45"/>
-    <mergeCell ref="R39:AC39"/>
-    <mergeCell ref="R40:AC40"/>
-    <mergeCell ref="R41:AC41"/>
-    <mergeCell ref="R42:AC42"/>
-    <mergeCell ref="R43:AC43"/>
-    <mergeCell ref="R44:AC44"/>
-    <mergeCell ref="R45:AC45"/>
-    <mergeCell ref="F39:Q39"/>
-    <mergeCell ref="F40:Q40"/>
-    <mergeCell ref="F41:Q41"/>
-    <mergeCell ref="F42:Q42"/>
-    <mergeCell ref="F43:Q43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="G21:R21"/>
+    <mergeCell ref="G22:R22"/>
+    <mergeCell ref="G23:R23"/>
+    <mergeCell ref="S21:AC21"/>
+    <mergeCell ref="S22:AC22"/>
+    <mergeCell ref="S23:AC23"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -22305,163 +22276,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="154" t="str">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="164" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="142" t="str">
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="151" t="str">
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="178">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="179"/>
-      <c r="AI1" s="180"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="154" t="str">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="151" t="str">
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="178" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="180"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="154" t="str">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="151" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="178" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="179"/>
-      <c r="AI3" s="180"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -24159,39 +24130,39 @@
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="186" t="s">
+      <c r="F49" s="185" t="s">
         <v>220</v>
       </c>
-      <c r="G49" s="187"/>
-      <c r="H49" s="187"/>
-      <c r="I49" s="187"/>
-      <c r="J49" s="187"/>
-      <c r="K49" s="187"/>
-      <c r="L49" s="187"/>
-      <c r="M49" s="187"/>
-      <c r="N49" s="187"/>
-      <c r="O49" s="187"/>
-      <c r="P49" s="187"/>
-      <c r="Q49" s="187"/>
-      <c r="R49" s="187"/>
-      <c r="S49" s="187"/>
-      <c r="T49" s="187"/>
-      <c r="U49" s="187"/>
-      <c r="V49" s="188"/>
-      <c r="W49" s="186" t="s">
+      <c r="G49" s="186"/>
+      <c r="H49" s="186"/>
+      <c r="I49" s="186"/>
+      <c r="J49" s="186"/>
+      <c r="K49" s="186"/>
+      <c r="L49" s="186"/>
+      <c r="M49" s="186"/>
+      <c r="N49" s="186"/>
+      <c r="O49" s="186"/>
+      <c r="P49" s="186"/>
+      <c r="Q49" s="186"/>
+      <c r="R49" s="186"/>
+      <c r="S49" s="186"/>
+      <c r="T49" s="186"/>
+      <c r="U49" s="186"/>
+      <c r="V49" s="187"/>
+      <c r="W49" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X49" s="187"/>
-      <c r="Y49" s="187"/>
-      <c r="Z49" s="187"/>
-      <c r="AA49" s="187"/>
-      <c r="AB49" s="187"/>
-      <c r="AC49" s="187"/>
-      <c r="AD49" s="187"/>
-      <c r="AE49" s="187"/>
-      <c r="AF49" s="187"/>
-      <c r="AG49" s="187"/>
-      <c r="AH49" s="188"/>
+      <c r="X49" s="186"/>
+      <c r="Y49" s="186"/>
+      <c r="Z49" s="186"/>
+      <c r="AA49" s="186"/>
+      <c r="AB49" s="186"/>
+      <c r="AC49" s="186"/>
+      <c r="AD49" s="186"/>
+      <c r="AE49" s="186"/>
+      <c r="AF49" s="186"/>
+      <c r="AG49" s="186"/>
+      <c r="AH49" s="187"/>
       <c r="AI49" s="12"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.15">
@@ -25333,39 +25304,39 @@
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
-      <c r="F79" s="186" t="s">
+      <c r="F79" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="G79" s="187"/>
-      <c r="H79" s="187"/>
-      <c r="I79" s="187"/>
-      <c r="J79" s="187"/>
-      <c r="K79" s="187"/>
-      <c r="L79" s="187"/>
-      <c r="M79" s="187"/>
-      <c r="N79" s="187"/>
-      <c r="O79" s="187"/>
-      <c r="P79" s="187"/>
-      <c r="Q79" s="187"/>
-      <c r="R79" s="187"/>
-      <c r="S79" s="187"/>
-      <c r="T79" s="187"/>
-      <c r="U79" s="187"/>
-      <c r="V79" s="188"/>
-      <c r="W79" s="186" t="s">
+      <c r="G79" s="186"/>
+      <c r="H79" s="186"/>
+      <c r="I79" s="186"/>
+      <c r="J79" s="186"/>
+      <c r="K79" s="186"/>
+      <c r="L79" s="186"/>
+      <c r="M79" s="186"/>
+      <c r="N79" s="186"/>
+      <c r="O79" s="186"/>
+      <c r="P79" s="186"/>
+      <c r="Q79" s="186"/>
+      <c r="R79" s="186"/>
+      <c r="S79" s="186"/>
+      <c r="T79" s="186"/>
+      <c r="U79" s="186"/>
+      <c r="V79" s="187"/>
+      <c r="W79" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X79" s="187"/>
-      <c r="Y79" s="187"/>
-      <c r="Z79" s="187"/>
-      <c r="AA79" s="187"/>
-      <c r="AB79" s="187"/>
-      <c r="AC79" s="187"/>
-      <c r="AD79" s="187"/>
-      <c r="AE79" s="187"/>
-      <c r="AF79" s="187"/>
-      <c r="AG79" s="187"/>
-      <c r="AH79" s="188"/>
+      <c r="X79" s="186"/>
+      <c r="Y79" s="186"/>
+      <c r="Z79" s="186"/>
+      <c r="AA79" s="186"/>
+      <c r="AB79" s="186"/>
+      <c r="AC79" s="186"/>
+      <c r="AD79" s="186"/>
+      <c r="AE79" s="186"/>
+      <c r="AF79" s="186"/>
+      <c r="AG79" s="186"/>
+      <c r="AH79" s="187"/>
       <c r="AI79" s="18"/>
     </row>
     <row r="80" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -26460,39 +26431,39 @@
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
-      <c r="F108" s="186" t="s">
+      <c r="F108" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G108" s="100"/>
-      <c r="H108" s="100"/>
-      <c r="I108" s="100"/>
-      <c r="J108" s="100"/>
-      <c r="K108" s="100"/>
-      <c r="L108" s="100"/>
-      <c r="M108" s="100"/>
-      <c r="N108" s="100"/>
-      <c r="O108" s="100"/>
-      <c r="P108" s="100"/>
-      <c r="Q108" s="100"/>
-      <c r="R108" s="100"/>
-      <c r="S108" s="100"/>
-      <c r="T108" s="100"/>
-      <c r="U108" s="100"/>
-      <c r="V108" s="101"/>
-      <c r="W108" s="186" t="s">
+      <c r="G108" s="136"/>
+      <c r="H108" s="136"/>
+      <c r="I108" s="136"/>
+      <c r="J108" s="136"/>
+      <c r="K108" s="136"/>
+      <c r="L108" s="136"/>
+      <c r="M108" s="136"/>
+      <c r="N108" s="136"/>
+      <c r="O108" s="136"/>
+      <c r="P108" s="136"/>
+      <c r="Q108" s="136"/>
+      <c r="R108" s="136"/>
+      <c r="S108" s="136"/>
+      <c r="T108" s="136"/>
+      <c r="U108" s="136"/>
+      <c r="V108" s="137"/>
+      <c r="W108" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X108" s="100"/>
-      <c r="Y108" s="100"/>
-      <c r="Z108" s="100"/>
-      <c r="AA108" s="100"/>
-      <c r="AB108" s="100"/>
-      <c r="AC108" s="100"/>
-      <c r="AD108" s="100"/>
-      <c r="AE108" s="100"/>
-      <c r="AF108" s="100"/>
-      <c r="AG108" s="100"/>
-      <c r="AH108" s="101"/>
+      <c r="X108" s="136"/>
+      <c r="Y108" s="136"/>
+      <c r="Z108" s="136"/>
+      <c r="AA108" s="136"/>
+      <c r="AB108" s="136"/>
+      <c r="AC108" s="136"/>
+      <c r="AD108" s="136"/>
+      <c r="AE108" s="136"/>
+      <c r="AF108" s="136"/>
+      <c r="AG108" s="136"/>
+      <c r="AH108" s="137"/>
       <c r="AI108" s="12"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.15">
@@ -27082,39 +27053,39 @@
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
-      <c r="F124" s="186" t="s">
+      <c r="F124" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G124" s="100"/>
-      <c r="H124" s="100"/>
-      <c r="I124" s="100"/>
-      <c r="J124" s="100"/>
-      <c r="K124" s="100"/>
-      <c r="L124" s="100"/>
-      <c r="M124" s="100"/>
-      <c r="N124" s="100"/>
-      <c r="O124" s="100"/>
-      <c r="P124" s="100"/>
-      <c r="Q124" s="100"/>
-      <c r="R124" s="100"/>
-      <c r="S124" s="100"/>
-      <c r="T124" s="100"/>
-      <c r="U124" s="100"/>
-      <c r="V124" s="101"/>
-      <c r="W124" s="186" t="s">
+      <c r="G124" s="136"/>
+      <c r="H124" s="136"/>
+      <c r="I124" s="136"/>
+      <c r="J124" s="136"/>
+      <c r="K124" s="136"/>
+      <c r="L124" s="136"/>
+      <c r="M124" s="136"/>
+      <c r="N124" s="136"/>
+      <c r="O124" s="136"/>
+      <c r="P124" s="136"/>
+      <c r="Q124" s="136"/>
+      <c r="R124" s="136"/>
+      <c r="S124" s="136"/>
+      <c r="T124" s="136"/>
+      <c r="U124" s="136"/>
+      <c r="V124" s="137"/>
+      <c r="W124" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X124" s="100"/>
-      <c r="Y124" s="100"/>
-      <c r="Z124" s="100"/>
-      <c r="AA124" s="100"/>
-      <c r="AB124" s="100"/>
-      <c r="AC124" s="100"/>
-      <c r="AD124" s="100"/>
-      <c r="AE124" s="100"/>
-      <c r="AF124" s="100"/>
-      <c r="AG124" s="100"/>
-      <c r="AH124" s="101"/>
+      <c r="X124" s="136"/>
+      <c r="Y124" s="136"/>
+      <c r="Z124" s="136"/>
+      <c r="AA124" s="136"/>
+      <c r="AB124" s="136"/>
+      <c r="AC124" s="136"/>
+      <c r="AD124" s="136"/>
+      <c r="AE124" s="136"/>
+      <c r="AF124" s="136"/>
+      <c r="AG124" s="136"/>
+      <c r="AH124" s="137"/>
       <c r="AI124" s="12"/>
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.15">
@@ -28736,39 +28707,39 @@
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
-      <c r="F166" s="186" t="s">
+      <c r="F166" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G166" s="187"/>
-      <c r="H166" s="187"/>
-      <c r="I166" s="187"/>
-      <c r="J166" s="187"/>
-      <c r="K166" s="187"/>
-      <c r="L166" s="187"/>
-      <c r="M166" s="187"/>
-      <c r="N166" s="187"/>
-      <c r="O166" s="187"/>
-      <c r="P166" s="187"/>
-      <c r="Q166" s="187"/>
-      <c r="R166" s="187"/>
-      <c r="S166" s="187"/>
-      <c r="T166" s="187"/>
-      <c r="U166" s="187"/>
-      <c r="V166" s="188"/>
-      <c r="W166" s="186" t="s">
+      <c r="G166" s="186"/>
+      <c r="H166" s="186"/>
+      <c r="I166" s="186"/>
+      <c r="J166" s="186"/>
+      <c r="K166" s="186"/>
+      <c r="L166" s="186"/>
+      <c r="M166" s="186"/>
+      <c r="N166" s="186"/>
+      <c r="O166" s="186"/>
+      <c r="P166" s="186"/>
+      <c r="Q166" s="186"/>
+      <c r="R166" s="186"/>
+      <c r="S166" s="186"/>
+      <c r="T166" s="186"/>
+      <c r="U166" s="186"/>
+      <c r="V166" s="187"/>
+      <c r="W166" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X166" s="187"/>
-      <c r="Y166" s="187"/>
-      <c r="Z166" s="187"/>
-      <c r="AA166" s="187"/>
-      <c r="AB166" s="187"/>
-      <c r="AC166" s="187"/>
-      <c r="AD166" s="187"/>
-      <c r="AE166" s="187"/>
-      <c r="AF166" s="187"/>
-      <c r="AG166" s="187"/>
-      <c r="AH166" s="188"/>
+      <c r="X166" s="186"/>
+      <c r="Y166" s="186"/>
+      <c r="Z166" s="186"/>
+      <c r="AA166" s="186"/>
+      <c r="AB166" s="186"/>
+      <c r="AC166" s="186"/>
+      <c r="AD166" s="186"/>
+      <c r="AE166" s="186"/>
+      <c r="AF166" s="186"/>
+      <c r="AG166" s="186"/>
+      <c r="AH166" s="187"/>
       <c r="AI166" s="18"/>
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.15">
@@ -29990,39 +29961,39 @@
       <c r="C198" s="12"/>
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
-      <c r="F198" s="186" t="s">
+      <c r="F198" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G198" s="187"/>
-      <c r="H198" s="187"/>
-      <c r="I198" s="187"/>
-      <c r="J198" s="187"/>
-      <c r="K198" s="187"/>
-      <c r="L198" s="187"/>
-      <c r="M198" s="187"/>
-      <c r="N198" s="187"/>
-      <c r="O198" s="187"/>
-      <c r="P198" s="187"/>
-      <c r="Q198" s="187"/>
-      <c r="R198" s="187"/>
-      <c r="S198" s="187"/>
-      <c r="T198" s="187"/>
-      <c r="U198" s="187"/>
-      <c r="V198" s="188"/>
-      <c r="W198" s="186" t="s">
+      <c r="G198" s="186"/>
+      <c r="H198" s="186"/>
+      <c r="I198" s="186"/>
+      <c r="J198" s="186"/>
+      <c r="K198" s="186"/>
+      <c r="L198" s="186"/>
+      <c r="M198" s="186"/>
+      <c r="N198" s="186"/>
+      <c r="O198" s="186"/>
+      <c r="P198" s="186"/>
+      <c r="Q198" s="186"/>
+      <c r="R198" s="186"/>
+      <c r="S198" s="186"/>
+      <c r="T198" s="186"/>
+      <c r="U198" s="186"/>
+      <c r="V198" s="187"/>
+      <c r="W198" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X198" s="187"/>
-      <c r="Y198" s="187"/>
-      <c r="Z198" s="187"/>
-      <c r="AA198" s="187"/>
-      <c r="AB198" s="187"/>
-      <c r="AC198" s="187"/>
-      <c r="AD198" s="187"/>
-      <c r="AE198" s="187"/>
-      <c r="AF198" s="187"/>
-      <c r="AG198" s="187"/>
-      <c r="AH198" s="188"/>
+      <c r="X198" s="186"/>
+      <c r="Y198" s="186"/>
+      <c r="Z198" s="186"/>
+      <c r="AA198" s="186"/>
+      <c r="AB198" s="186"/>
+      <c r="AC198" s="186"/>
+      <c r="AD198" s="186"/>
+      <c r="AE198" s="186"/>
+      <c r="AF198" s="186"/>
+      <c r="AG198" s="186"/>
+      <c r="AH198" s="187"/>
       <c r="AI198" s="18"/>
     </row>
     <row r="199" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -31505,39 +31476,39 @@
       <c r="C237" s="12"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
-      <c r="F237" s="186" t="s">
+      <c r="F237" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G237" s="187"/>
-      <c r="H237" s="187"/>
-      <c r="I237" s="187"/>
-      <c r="J237" s="187"/>
-      <c r="K237" s="187"/>
-      <c r="L237" s="187"/>
-      <c r="M237" s="187"/>
-      <c r="N237" s="187"/>
-      <c r="O237" s="187"/>
-      <c r="P237" s="187"/>
-      <c r="Q237" s="187"/>
-      <c r="R237" s="187"/>
-      <c r="S237" s="187"/>
-      <c r="T237" s="187"/>
-      <c r="U237" s="187"/>
-      <c r="V237" s="188"/>
-      <c r="W237" s="186" t="s">
+      <c r="G237" s="186"/>
+      <c r="H237" s="186"/>
+      <c r="I237" s="186"/>
+      <c r="J237" s="186"/>
+      <c r="K237" s="186"/>
+      <c r="L237" s="186"/>
+      <c r="M237" s="186"/>
+      <c r="N237" s="186"/>
+      <c r="O237" s="186"/>
+      <c r="P237" s="186"/>
+      <c r="Q237" s="186"/>
+      <c r="R237" s="186"/>
+      <c r="S237" s="186"/>
+      <c r="T237" s="186"/>
+      <c r="U237" s="186"/>
+      <c r="V237" s="187"/>
+      <c r="W237" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X237" s="187"/>
-      <c r="Y237" s="187"/>
-      <c r="Z237" s="187"/>
-      <c r="AA237" s="187"/>
-      <c r="AB237" s="187"/>
-      <c r="AC237" s="187"/>
-      <c r="AD237" s="187"/>
-      <c r="AE237" s="187"/>
-      <c r="AF237" s="187"/>
-      <c r="AG237" s="187"/>
-      <c r="AH237" s="188"/>
+      <c r="X237" s="186"/>
+      <c r="Y237" s="186"/>
+      <c r="Z237" s="186"/>
+      <c r="AA237" s="186"/>
+      <c r="AB237" s="186"/>
+      <c r="AC237" s="186"/>
+      <c r="AD237" s="186"/>
+      <c r="AE237" s="186"/>
+      <c r="AF237" s="186"/>
+      <c r="AG237" s="186"/>
+      <c r="AH237" s="187"/>
       <c r="AI237" s="18"/>
     </row>
     <row r="238" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -32359,39 +32330,39 @@
       <c r="C259" s="12"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
-      <c r="F259" s="186" t="s">
+      <c r="F259" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G259" s="187"/>
-      <c r="H259" s="187"/>
-      <c r="I259" s="187"/>
-      <c r="J259" s="187"/>
-      <c r="K259" s="187"/>
-      <c r="L259" s="187"/>
-      <c r="M259" s="187"/>
-      <c r="N259" s="187"/>
-      <c r="O259" s="187"/>
-      <c r="P259" s="187"/>
-      <c r="Q259" s="187"/>
-      <c r="R259" s="187"/>
-      <c r="S259" s="187"/>
-      <c r="T259" s="187"/>
-      <c r="U259" s="187"/>
-      <c r="V259" s="188"/>
-      <c r="W259" s="186" t="s">
+      <c r="G259" s="186"/>
+      <c r="H259" s="186"/>
+      <c r="I259" s="186"/>
+      <c r="J259" s="186"/>
+      <c r="K259" s="186"/>
+      <c r="L259" s="186"/>
+      <c r="M259" s="186"/>
+      <c r="N259" s="186"/>
+      <c r="O259" s="186"/>
+      <c r="P259" s="186"/>
+      <c r="Q259" s="186"/>
+      <c r="R259" s="186"/>
+      <c r="S259" s="186"/>
+      <c r="T259" s="186"/>
+      <c r="U259" s="186"/>
+      <c r="V259" s="187"/>
+      <c r="W259" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X259" s="187"/>
-      <c r="Y259" s="187"/>
-      <c r="Z259" s="187"/>
-      <c r="AA259" s="187"/>
-      <c r="AB259" s="187"/>
-      <c r="AC259" s="187"/>
-      <c r="AD259" s="187"/>
-      <c r="AE259" s="187"/>
-      <c r="AF259" s="187"/>
-      <c r="AG259" s="187"/>
-      <c r="AH259" s="188"/>
+      <c r="X259" s="186"/>
+      <c r="Y259" s="186"/>
+      <c r="Z259" s="186"/>
+      <c r="AA259" s="186"/>
+      <c r="AB259" s="186"/>
+      <c r="AC259" s="186"/>
+      <c r="AD259" s="186"/>
+      <c r="AE259" s="186"/>
+      <c r="AF259" s="186"/>
+      <c r="AG259" s="186"/>
+      <c r="AH259" s="187"/>
       <c r="AI259" s="18"/>
     </row>
     <row r="260" spans="1:35" x14ac:dyDescent="0.15">
@@ -32899,39 +32870,39 @@
       <c r="C273" s="12"/>
       <c r="D273" s="12"/>
       <c r="E273" s="12"/>
-      <c r="F273" s="186" t="s">
+      <c r="F273" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="G273" s="187"/>
-      <c r="H273" s="187"/>
-      <c r="I273" s="187"/>
-      <c r="J273" s="187"/>
-      <c r="K273" s="187"/>
-      <c r="L273" s="187"/>
-      <c r="M273" s="187"/>
-      <c r="N273" s="187"/>
-      <c r="O273" s="187"/>
-      <c r="P273" s="187"/>
-      <c r="Q273" s="187"/>
-      <c r="R273" s="187"/>
-      <c r="S273" s="187"/>
-      <c r="T273" s="187"/>
-      <c r="U273" s="187"/>
-      <c r="V273" s="188"/>
-      <c r="W273" s="186" t="s">
+      <c r="G273" s="186"/>
+      <c r="H273" s="186"/>
+      <c r="I273" s="186"/>
+      <c r="J273" s="186"/>
+      <c r="K273" s="186"/>
+      <c r="L273" s="186"/>
+      <c r="M273" s="186"/>
+      <c r="N273" s="186"/>
+      <c r="O273" s="186"/>
+      <c r="P273" s="186"/>
+      <c r="Q273" s="186"/>
+      <c r="R273" s="186"/>
+      <c r="S273" s="186"/>
+      <c r="T273" s="186"/>
+      <c r="U273" s="186"/>
+      <c r="V273" s="187"/>
+      <c r="W273" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X273" s="187"/>
-      <c r="Y273" s="187"/>
-      <c r="Z273" s="187"/>
-      <c r="AA273" s="187"/>
-      <c r="AB273" s="187"/>
-      <c r="AC273" s="187"/>
-      <c r="AD273" s="187"/>
-      <c r="AE273" s="187"/>
-      <c r="AF273" s="187"/>
-      <c r="AG273" s="187"/>
-      <c r="AH273" s="188"/>
+      <c r="X273" s="186"/>
+      <c r="Y273" s="186"/>
+      <c r="Z273" s="186"/>
+      <c r="AA273" s="186"/>
+      <c r="AB273" s="186"/>
+      <c r="AC273" s="186"/>
+      <c r="AD273" s="186"/>
+      <c r="AE273" s="186"/>
+      <c r="AF273" s="186"/>
+      <c r="AG273" s="186"/>
+      <c r="AH273" s="187"/>
       <c r="AI273" s="12"/>
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.15">
@@ -33761,39 +33732,39 @@
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
-      <c r="F295" s="186" t="s">
+      <c r="F295" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="G295" s="187"/>
-      <c r="H295" s="187"/>
-      <c r="I295" s="187"/>
-      <c r="J295" s="187"/>
-      <c r="K295" s="187"/>
-      <c r="L295" s="187"/>
-      <c r="M295" s="187"/>
-      <c r="N295" s="187"/>
-      <c r="O295" s="187"/>
-      <c r="P295" s="187"/>
-      <c r="Q295" s="187"/>
-      <c r="R295" s="187"/>
-      <c r="S295" s="187"/>
-      <c r="T295" s="187"/>
-      <c r="U295" s="187"/>
-      <c r="V295" s="188"/>
-      <c r="W295" s="186" t="s">
+      <c r="G295" s="186"/>
+      <c r="H295" s="186"/>
+      <c r="I295" s="186"/>
+      <c r="J295" s="186"/>
+      <c r="K295" s="186"/>
+      <c r="L295" s="186"/>
+      <c r="M295" s="186"/>
+      <c r="N295" s="186"/>
+      <c r="O295" s="186"/>
+      <c r="P295" s="186"/>
+      <c r="Q295" s="186"/>
+      <c r="R295" s="186"/>
+      <c r="S295" s="186"/>
+      <c r="T295" s="186"/>
+      <c r="U295" s="186"/>
+      <c r="V295" s="187"/>
+      <c r="W295" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X295" s="187"/>
-      <c r="Y295" s="187"/>
-      <c r="Z295" s="187"/>
-      <c r="AA295" s="187"/>
-      <c r="AB295" s="187"/>
-      <c r="AC295" s="187"/>
-      <c r="AD295" s="187"/>
-      <c r="AE295" s="187"/>
-      <c r="AF295" s="187"/>
-      <c r="AG295" s="187"/>
-      <c r="AH295" s="188"/>
+      <c r="X295" s="186"/>
+      <c r="Y295" s="186"/>
+      <c r="Z295" s="186"/>
+      <c r="AA295" s="186"/>
+      <c r="AB295" s="186"/>
+      <c r="AC295" s="186"/>
+      <c r="AD295" s="186"/>
+      <c r="AE295" s="186"/>
+      <c r="AF295" s="186"/>
+      <c r="AG295" s="186"/>
+      <c r="AH295" s="187"/>
       <c r="AI295" s="18"/>
     </row>
     <row r="296" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -35387,39 +35358,39 @@
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
       <c r="E337" s="12"/>
-      <c r="F337" s="186" t="s">
+      <c r="F337" s="185" t="s">
         <v>180</v>
       </c>
-      <c r="G337" s="187"/>
-      <c r="H337" s="187"/>
-      <c r="I337" s="187"/>
-      <c r="J337" s="187"/>
-      <c r="K337" s="187"/>
-      <c r="L337" s="187"/>
-      <c r="M337" s="187"/>
-      <c r="N337" s="187"/>
-      <c r="O337" s="187"/>
-      <c r="P337" s="187"/>
-      <c r="Q337" s="187"/>
-      <c r="R337" s="187"/>
-      <c r="S337" s="187"/>
-      <c r="T337" s="187"/>
-      <c r="U337" s="187"/>
-      <c r="V337" s="188"/>
-      <c r="W337" s="186" t="s">
+      <c r="G337" s="186"/>
+      <c r="H337" s="186"/>
+      <c r="I337" s="186"/>
+      <c r="J337" s="186"/>
+      <c r="K337" s="186"/>
+      <c r="L337" s="186"/>
+      <c r="M337" s="186"/>
+      <c r="N337" s="186"/>
+      <c r="O337" s="186"/>
+      <c r="P337" s="186"/>
+      <c r="Q337" s="186"/>
+      <c r="R337" s="186"/>
+      <c r="S337" s="186"/>
+      <c r="T337" s="186"/>
+      <c r="U337" s="186"/>
+      <c r="V337" s="187"/>
+      <c r="W337" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X337" s="187"/>
-      <c r="Y337" s="187"/>
-      <c r="Z337" s="187"/>
-      <c r="AA337" s="187"/>
-      <c r="AB337" s="187"/>
-      <c r="AC337" s="187"/>
-      <c r="AD337" s="187"/>
-      <c r="AE337" s="187"/>
-      <c r="AF337" s="187"/>
-      <c r="AG337" s="187"/>
-      <c r="AH337" s="188"/>
+      <c r="X337" s="186"/>
+      <c r="Y337" s="186"/>
+      <c r="Z337" s="186"/>
+      <c r="AA337" s="186"/>
+      <c r="AB337" s="186"/>
+      <c r="AC337" s="186"/>
+      <c r="AD337" s="186"/>
+      <c r="AE337" s="186"/>
+      <c r="AF337" s="186"/>
+      <c r="AG337" s="186"/>
+      <c r="AH337" s="187"/>
       <c r="AI337" s="12"/>
     </row>
     <row r="338" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -35839,20 +35810,15 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="W198:AH198"/>
-    <mergeCell ref="F49:V49"/>
-    <mergeCell ref="W49:AH49"/>
-    <mergeCell ref="F79:V79"/>
-    <mergeCell ref="W79:AH79"/>
-    <mergeCell ref="F108:V108"/>
-    <mergeCell ref="W108:AH108"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="F295:V295"/>
     <mergeCell ref="W295:AH295"/>
     <mergeCell ref="F337:V337"/>
@@ -35869,15 +35835,20 @@
     <mergeCell ref="F166:V166"/>
     <mergeCell ref="W166:AH166"/>
     <mergeCell ref="F198:V198"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="W198:AH198"/>
+    <mergeCell ref="F49:V49"/>
+    <mergeCell ref="W49:AH49"/>
+    <mergeCell ref="F79:V79"/>
+    <mergeCell ref="W79:AH79"/>
+    <mergeCell ref="F108:V108"/>
+    <mergeCell ref="W108:AH108"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -35915,163 +35886,163 @@
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="154" t="str">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="164" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="169" t="s">
         <v>277</v>
       </c>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="189" t="str">
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="151" t="str">
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="178">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="179"/>
-      <c r="AI1" s="180"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="154" t="str">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="151" t="str">
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="178" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="180"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="154" t="str">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="196"/>
-      <c r="W3" s="196"/>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="151" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="201"/>
+      <c r="U3" s="201"/>
+      <c r="V3" s="201"/>
+      <c r="W3" s="201"/>
+      <c r="X3" s="201"/>
+      <c r="Y3" s="201"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="178" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="179"/>
-      <c r="AI3" s="180"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -36413,40 +36384,40 @@
       <c r="D10" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="E10" s="186" t="s">
+      <c r="E10" s="185" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="187"/>
-      <c r="P10" s="187"/>
-      <c r="Q10" s="187"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="187"/>
-      <c r="T10" s="187"/>
-      <c r="U10" s="188"/>
-      <c r="V10" s="186" t="s">
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="186"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="187"/>
+      <c r="V10" s="185" t="s">
         <v>115</v>
       </c>
-      <c r="W10" s="187"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="187"/>
-      <c r="Z10" s="187"/>
-      <c r="AA10" s="187"/>
-      <c r="AB10" s="187"/>
-      <c r="AC10" s="187"/>
-      <c r="AD10" s="187"/>
-      <c r="AE10" s="187"/>
-      <c r="AF10" s="187"/>
-      <c r="AG10" s="187"/>
-      <c r="AH10" s="188"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="186"/>
+      <c r="Z10" s="186"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="186"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="186"/>
+      <c r="AF10" s="186"/>
+      <c r="AG10" s="186"/>
+      <c r="AH10" s="187"/>
       <c r="AI10" s="12"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
@@ -36473,38 +36444,38 @@
       <c r="D11" s="75">
         <v>1</v>
       </c>
-      <c r="E11" s="201" t="s">
+      <c r="E11" s="191" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="202"/>
-      <c r="O11" s="202"/>
-      <c r="P11" s="202"/>
-      <c r="Q11" s="202"/>
-      <c r="R11" s="202"/>
-      <c r="S11" s="202"/>
-      <c r="T11" s="202"/>
-      <c r="U11" s="203"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="100"/>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="100"/>
-      <c r="AB11" s="100"/>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="100"/>
-      <c r="AE11" s="100"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="101"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="192"/>
+      <c r="N11" s="192"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="192"/>
+      <c r="R11" s="192"/>
+      <c r="S11" s="192"/>
+      <c r="T11" s="192"/>
+      <c r="U11" s="193"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="136"/>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="136"/>
+      <c r="AA11" s="136"/>
+      <c r="AB11" s="136"/>
+      <c r="AC11" s="136"/>
+      <c r="AD11" s="136"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="136"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="137"/>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
@@ -36532,39 +36503,39 @@
         <v>2</v>
       </c>
       <c r="E12" s="74"/>
-      <c r="F12" s="198" t="s">
+      <c r="F12" s="188" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="199"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="199"/>
-      <c r="L12" s="199"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="199"/>
-      <c r="O12" s="199"/>
-      <c r="P12" s="199"/>
-      <c r="Q12" s="199"/>
-      <c r="R12" s="199"/>
-      <c r="S12" s="199"/>
-      <c r="T12" s="199"/>
-      <c r="U12" s="200"/>
-      <c r="V12" s="198" t="s">
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="189"/>
+      <c r="S12" s="189"/>
+      <c r="T12" s="189"/>
+      <c r="U12" s="190"/>
+      <c r="V12" s="188" t="s">
         <v>173</v>
       </c>
-      <c r="W12" s="199"/>
-      <c r="X12" s="199"/>
-      <c r="Y12" s="199"/>
-      <c r="Z12" s="199"/>
-      <c r="AA12" s="199"/>
-      <c r="AB12" s="199"/>
-      <c r="AC12" s="199"/>
-      <c r="AD12" s="199"/>
-      <c r="AE12" s="199"/>
-      <c r="AF12" s="199"/>
-      <c r="AG12" s="199"/>
-      <c r="AH12" s="200"/>
+      <c r="W12" s="189"/>
+      <c r="X12" s="189"/>
+      <c r="Y12" s="189"/>
+      <c r="Z12" s="189"/>
+      <c r="AA12" s="189"/>
+      <c r="AB12" s="189"/>
+      <c r="AC12" s="189"/>
+      <c r="AD12" s="189"/>
+      <c r="AE12" s="189"/>
+      <c r="AF12" s="189"/>
+      <c r="AG12" s="189"/>
+      <c r="AH12" s="190"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
@@ -36592,39 +36563,39 @@
         <v>3</v>
       </c>
       <c r="E13" s="74"/>
-      <c r="F13" s="198" t="s">
+      <c r="F13" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="199"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="199"/>
-      <c r="L13" s="199"/>
-      <c r="M13" s="199"/>
-      <c r="N13" s="199"/>
-      <c r="O13" s="199"/>
-      <c r="P13" s="199"/>
-      <c r="Q13" s="199"/>
-      <c r="R13" s="199"/>
-      <c r="S13" s="199"/>
-      <c r="T13" s="199"/>
-      <c r="U13" s="200"/>
-      <c r="V13" s="198" t="s">
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="189"/>
+      <c r="S13" s="189"/>
+      <c r="T13" s="189"/>
+      <c r="U13" s="190"/>
+      <c r="V13" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="W13" s="199"/>
-      <c r="X13" s="199"/>
-      <c r="Y13" s="199"/>
-      <c r="Z13" s="199"/>
-      <c r="AA13" s="199"/>
-      <c r="AB13" s="199"/>
-      <c r="AC13" s="199"/>
-      <c r="AD13" s="199"/>
-      <c r="AE13" s="199"/>
-      <c r="AF13" s="199"/>
-      <c r="AG13" s="199"/>
-      <c r="AH13" s="200"/>
+      <c r="W13" s="189"/>
+      <c r="X13" s="189"/>
+      <c r="Y13" s="189"/>
+      <c r="Z13" s="189"/>
+      <c r="AA13" s="189"/>
+      <c r="AB13" s="189"/>
+      <c r="AC13" s="189"/>
+      <c r="AD13" s="189"/>
+      <c r="AE13" s="189"/>
+      <c r="AF13" s="189"/>
+      <c r="AG13" s="189"/>
+      <c r="AH13" s="190"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
@@ -36652,39 +36623,39 @@
         <v>4</v>
       </c>
       <c r="E14" s="74"/>
-      <c r="F14" s="198" t="s">
+      <c r="F14" s="188" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="199"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="199"/>
-      <c r="L14" s="199"/>
-      <c r="M14" s="199"/>
-      <c r="N14" s="199"/>
-      <c r="O14" s="199"/>
-      <c r="P14" s="199"/>
-      <c r="Q14" s="199"/>
-      <c r="R14" s="199"/>
-      <c r="S14" s="199"/>
-      <c r="T14" s="199"/>
-      <c r="U14" s="200"/>
-      <c r="V14" s="198" t="s">
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="189"/>
+      <c r="S14" s="189"/>
+      <c r="T14" s="189"/>
+      <c r="U14" s="190"/>
+      <c r="V14" s="188" t="s">
         <v>110</v>
       </c>
-      <c r="W14" s="199"/>
-      <c r="X14" s="199"/>
-      <c r="Y14" s="199"/>
-      <c r="Z14" s="199"/>
-      <c r="AA14" s="199"/>
-      <c r="AB14" s="199"/>
-      <c r="AC14" s="199"/>
-      <c r="AD14" s="199"/>
-      <c r="AE14" s="199"/>
-      <c r="AF14" s="199"/>
-      <c r="AG14" s="199"/>
-      <c r="AH14" s="200"/>
+      <c r="W14" s="189"/>
+      <c r="X14" s="189"/>
+      <c r="Y14" s="189"/>
+      <c r="Z14" s="189"/>
+      <c r="AA14" s="189"/>
+      <c r="AB14" s="189"/>
+      <c r="AC14" s="189"/>
+      <c r="AD14" s="189"/>
+      <c r="AE14" s="189"/>
+      <c r="AF14" s="189"/>
+      <c r="AG14" s="189"/>
+      <c r="AH14" s="190"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
@@ -36711,40 +36682,40 @@
       <c r="D15" s="75">
         <v>5</v>
       </c>
-      <c r="E15" s="198" t="s">
+      <c r="E15" s="188" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="199"/>
-      <c r="K15" s="199"/>
-      <c r="L15" s="199"/>
-      <c r="M15" s="199"/>
-      <c r="N15" s="199"/>
-      <c r="O15" s="199"/>
-      <c r="P15" s="199"/>
-      <c r="Q15" s="199"/>
-      <c r="R15" s="199"/>
-      <c r="S15" s="199"/>
-      <c r="T15" s="199"/>
-      <c r="U15" s="200"/>
-      <c r="V15" s="198" t="s">
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="189"/>
+      <c r="S15" s="189"/>
+      <c r="T15" s="189"/>
+      <c r="U15" s="190"/>
+      <c r="V15" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="W15" s="199"/>
-      <c r="X15" s="199"/>
-      <c r="Y15" s="199"/>
-      <c r="Z15" s="199"/>
-      <c r="AA15" s="199"/>
-      <c r="AB15" s="199"/>
-      <c r="AC15" s="199"/>
-      <c r="AD15" s="199"/>
-      <c r="AE15" s="199"/>
-      <c r="AF15" s="199"/>
-      <c r="AG15" s="199"/>
-      <c r="AH15" s="200"/>
+      <c r="W15" s="189"/>
+      <c r="X15" s="189"/>
+      <c r="Y15" s="189"/>
+      <c r="Z15" s="189"/>
+      <c r="AA15" s="189"/>
+      <c r="AB15" s="189"/>
+      <c r="AC15" s="189"/>
+      <c r="AD15" s="189"/>
+      <c r="AE15" s="189"/>
+      <c r="AF15" s="189"/>
+      <c r="AG15" s="189"/>
+      <c r="AH15" s="190"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
@@ -36824,7 +36795,7 @@
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="203" t="s">
         <v>419</v>
       </c>
       <c r="E17" s="12"/>
@@ -39104,15 +39075,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="V15:AH15"/>
     <mergeCell ref="E10:U10"/>
     <mergeCell ref="E11:U11"/>
@@ -39125,14 +39095,15 @@
     <mergeCell ref="V12:AH12"/>
     <mergeCell ref="V13:AH13"/>
     <mergeCell ref="V14:AH14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/shell/シェルスクリプト開発標準.xlsx
+++ b/サンプルプロジェクト/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/shell/シェルスクリプト開発標準.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0238636-86B4-459C-9CFC-366648CA73C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F2E801-2F1E-4EFF-838A-4AB9DCA5A87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="21" r:id="rId1"/>
@@ -40,6 +40,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2182,7 +2184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -3131,36 +3133,8 @@
     <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{1F5119C5-E015-4D11-A20F-E49F62891CF0}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3202,8 +3176,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="7905750" y="285750"/>
+          <a:ext cx="1390650" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -3811,8 +3785,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1495425" y="30965775"/>
-          <a:ext cx="6248400" cy="1866900"/>
+          <a:off x="1479550" y="30289500"/>
+          <a:ext cx="6175375" cy="1825625"/>
           <a:chOff x="1495425" y="30965775"/>
           <a:chExt cx="6429375" cy="1866900"/>
         </a:xfrm>
@@ -4492,8 +4466,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1495425" y="22783800"/>
-          <a:ext cx="5362575" cy="2286000"/>
+          <a:off x="1479550" y="22288500"/>
+          <a:ext cx="5302250" cy="2235200"/>
           <a:chOff x="1495425" y="22783800"/>
           <a:chExt cx="5543550" cy="2286000"/>
         </a:xfrm>
@@ -5649,8 +5623,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1495425" y="28641675"/>
-          <a:ext cx="6057900" cy="1257300"/>
+          <a:off x="1479550" y="28016200"/>
+          <a:ext cx="5988050" cy="1228725"/>
           <a:chOff x="1495425" y="28641675"/>
           <a:chExt cx="6238875" cy="1257300"/>
         </a:xfrm>
@@ -5970,8 +5944,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1438275" y="15792450"/>
-          <a:ext cx="7734300" cy="1047750"/>
+          <a:off x="1422400" y="15452725"/>
+          <a:ext cx="7645400" cy="1025525"/>
           <a:chOff x="158" y="1195"/>
           <a:chExt cx="812" cy="111"/>
         </a:xfrm>
@@ -7408,8 +7382,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1114425" y="1905000"/>
-          <a:ext cx="7677150" cy="2466975"/>
+          <a:off x="1101725" y="1873250"/>
+          <a:ext cx="7591425" cy="2413000"/>
           <a:chOff x="88" y="155"/>
           <a:chExt cx="732" cy="259"/>
         </a:xfrm>
@@ -8812,42 +8786,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="22"/>
+    <col min="1" max="16384" width="8.77734375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="23"/>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F22" s="26"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
@@ -8855,12 +8829,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -8871,36 +8845,36 @@
       <c r="J25" s="92"/>
       <c r="K25" s="92"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F28" s="27"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="26"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F30" s="26"/>
       <c r="G30" s="28"/>
       <c r="H30" s="26"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F31" s="26"/>
       <c r="G31" s="28"/>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:11" ht="19" x14ac:dyDescent="0.3">
       <c r="F32" s="26"/>
       <c r="G32" s="28"/>
       <c r="H32" s="26"/>
@@ -8908,497 +8882,497 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:10" ht="19" x14ac:dyDescent="0.3">
       <c r="F33" s="26"/>
       <c r="H33" s="26"/>
       <c r="J33" s="30"/>
     </row>
-    <row r="34" spans="6:10" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:10" ht="19" x14ac:dyDescent="0.3">
       <c r="F34" s="26"/>
       <c r="H34" s="26"/>
       <c r="J34" s="29" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -9423,12 +9397,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="10"/>
+    <col min="1" max="16384" width="4.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
         <v>32</v>
       </c>
@@ -9486,7 +9460,7 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="2"/>
     </row>
-    <row r="2" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="124" t="s">
         <v>33</v>
       </c>
@@ -9540,7 +9514,7 @@
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
     </row>
-    <row r="3" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="124" t="s">
         <v>35</v>
       </c>
@@ -9584,7 +9558,7 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="5" spans="1:40" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N5" s="6" t="s">
         <v>38</v>
       </c>
@@ -9598,7 +9572,7 @@
       <c r="AH5" s="20"/>
       <c r="AI5" s="20"/>
     </row>
-    <row r="6" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="90"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
@@ -9610,7 +9584,7 @@
       <c r="AH6" s="20"/>
       <c r="AI6" s="20"/>
     </row>
-    <row r="7" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>278</v>
       </c>
@@ -9661,7 +9635,7 @@
       <c r="AH7" s="123"/>
       <c r="AI7" s="122"/>
     </row>
-    <row r="8" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="87">
         <v>1</v>
       </c>
@@ -9712,7 +9686,7 @@
       <c r="AH8" s="113"/>
       <c r="AI8" s="114"/>
     </row>
-    <row r="9" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="72"/>
       <c r="B9" s="93"/>
       <c r="C9" s="94"/>
@@ -9749,7 +9723,7 @@
       <c r="AH9" s="100"/>
       <c r="AI9" s="101"/>
     </row>
-    <row r="10" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="72"/>
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
@@ -9786,7 +9760,7 @@
       <c r="AH10" s="100"/>
       <c r="AI10" s="101"/>
     </row>
-    <row r="11" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="72"/>
       <c r="B11" s="93"/>
       <c r="C11" s="94"/>
@@ -9823,7 +9797,7 @@
       <c r="AH11" s="100"/>
       <c r="AI11" s="101"/>
     </row>
-    <row r="12" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="72"/>
       <c r="B12" s="93"/>
       <c r="C12" s="94"/>
@@ -9860,7 +9834,7 @@
       <c r="AH12" s="100"/>
       <c r="AI12" s="101"/>
     </row>
-    <row r="13" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="72"/>
       <c r="B13" s="93"/>
       <c r="C13" s="94"/>
@@ -9897,7 +9871,7 @@
       <c r="AH13" s="100"/>
       <c r="AI13" s="101"/>
     </row>
-    <row r="14" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="72"/>
       <c r="B14" s="93"/>
       <c r="C14" s="94"/>
@@ -9934,7 +9908,7 @@
       <c r="AH14" s="100"/>
       <c r="AI14" s="101"/>
     </row>
-    <row r="15" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="72"/>
       <c r="B15" s="93"/>
       <c r="C15" s="94"/>
@@ -9971,7 +9945,7 @@
       <c r="AH15" s="100"/>
       <c r="AI15" s="101"/>
     </row>
-    <row r="16" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="72"/>
       <c r="B16" s="93"/>
       <c r="C16" s="94"/>
@@ -10008,7 +9982,7 @@
       <c r="AH16" s="100"/>
       <c r="AI16" s="101"/>
     </row>
-    <row r="17" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="72"/>
       <c r="B17" s="93"/>
       <c r="C17" s="94"/>
@@ -10045,7 +10019,7 @@
       <c r="AH17" s="100"/>
       <c r="AI17" s="101"/>
     </row>
-    <row r="18" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="72"/>
       <c r="B18" s="93"/>
       <c r="C18" s="94"/>
@@ -10082,7 +10056,7 @@
       <c r="AH18" s="100"/>
       <c r="AI18" s="101"/>
     </row>
-    <row r="19" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="72"/>
       <c r="B19" s="93"/>
       <c r="C19" s="94"/>
@@ -10119,7 +10093,7 @@
       <c r="AH19" s="100"/>
       <c r="AI19" s="101"/>
     </row>
-    <row r="20" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="72"/>
       <c r="B20" s="93"/>
       <c r="C20" s="94"/>
@@ -10156,7 +10130,7 @@
       <c r="AH20" s="100"/>
       <c r="AI20" s="101"/>
     </row>
-    <row r="21" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="72"/>
       <c r="B21" s="93"/>
       <c r="C21" s="94"/>
@@ -10193,7 +10167,7 @@
       <c r="AH21" s="100"/>
       <c r="AI21" s="101"/>
     </row>
-    <row r="22" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="72"/>
       <c r="B22" s="93"/>
       <c r="C22" s="94"/>
@@ -10230,7 +10204,7 @@
       <c r="AH22" s="100"/>
       <c r="AI22" s="101"/>
     </row>
-    <row r="23" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="72"/>
       <c r="B23" s="93"/>
       <c r="C23" s="94"/>
@@ -10267,7 +10241,7 @@
       <c r="AH23" s="100"/>
       <c r="AI23" s="101"/>
     </row>
-    <row r="24" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="72"/>
       <c r="B24" s="93"/>
       <c r="C24" s="94"/>
@@ -10304,7 +10278,7 @@
       <c r="AH24" s="100"/>
       <c r="AI24" s="101"/>
     </row>
-    <row r="25" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="72"/>
       <c r="B25" s="93"/>
       <c r="C25" s="94"/>
@@ -10341,7 +10315,7 @@
       <c r="AH25" s="100"/>
       <c r="AI25" s="101"/>
     </row>
-    <row r="26" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="72"/>
       <c r="B26" s="93"/>
       <c r="C26" s="94"/>
@@ -10378,7 +10352,7 @@
       <c r="AH26" s="100"/>
       <c r="AI26" s="101"/>
     </row>
-    <row r="27" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="72"/>
       <c r="B27" s="93"/>
       <c r="C27" s="94"/>
@@ -10415,7 +10389,7 @@
       <c r="AH27" s="100"/>
       <c r="AI27" s="101"/>
     </row>
-    <row r="28" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="72"/>
       <c r="B28" s="93"/>
       <c r="C28" s="94"/>
@@ -10452,7 +10426,7 @@
       <c r="AH28" s="100"/>
       <c r="AI28" s="101"/>
     </row>
-    <row r="29" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="72"/>
       <c r="B29" s="93"/>
       <c r="C29" s="94"/>
@@ -10489,7 +10463,7 @@
       <c r="AH29" s="100"/>
       <c r="AI29" s="101"/>
     </row>
-    <row r="30" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="72"/>
       <c r="B30" s="93"/>
       <c r="C30" s="94"/>
@@ -10526,7 +10500,7 @@
       <c r="AH30" s="100"/>
       <c r="AI30" s="101"/>
     </row>
-    <row r="31" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="93"/>
       <c r="C31" s="94"/>
@@ -10563,7 +10537,7 @@
       <c r="AH31" s="100"/>
       <c r="AI31" s="101"/>
     </row>
-    <row r="32" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="72"/>
       <c r="B32" s="93"/>
       <c r="C32" s="94"/>
@@ -10600,7 +10574,7 @@
       <c r="AH32" s="100"/>
       <c r="AI32" s="101"/>
     </row>
-    <row r="33" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="72"/>
       <c r="B33" s="93"/>
       <c r="C33" s="94"/>
@@ -10838,142 +10812,142 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="36" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="39" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="36" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="39" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="36"/>
-    <col min="257" max="290" width="4.83203125" style="36" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="36"/>
-    <col min="513" max="546" width="4.83203125" style="36" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="36"/>
-    <col min="769" max="802" width="4.83203125" style="36" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="36"/>
-    <col min="1025" max="1058" width="4.83203125" style="36" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="36"/>
-    <col min="1281" max="1314" width="4.83203125" style="36" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="36"/>
-    <col min="1537" max="1570" width="4.83203125" style="36" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="36"/>
-    <col min="1793" max="1826" width="4.83203125" style="36" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="36"/>
-    <col min="2049" max="2082" width="4.83203125" style="36" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="36"/>
-    <col min="2305" max="2338" width="4.83203125" style="36" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="36"/>
-    <col min="2561" max="2594" width="4.83203125" style="36" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="36"/>
-    <col min="2817" max="2850" width="4.83203125" style="36" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="36"/>
-    <col min="3073" max="3106" width="4.83203125" style="36" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="36"/>
-    <col min="3329" max="3362" width="4.83203125" style="36" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="36"/>
-    <col min="3585" max="3618" width="4.83203125" style="36" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="36"/>
-    <col min="3841" max="3874" width="4.83203125" style="36" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="36"/>
-    <col min="4097" max="4130" width="4.83203125" style="36" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="36"/>
-    <col min="4353" max="4386" width="4.83203125" style="36" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="36"/>
-    <col min="4609" max="4642" width="4.83203125" style="36" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="36"/>
-    <col min="4865" max="4898" width="4.83203125" style="36" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="36"/>
-    <col min="5121" max="5154" width="4.83203125" style="36" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="36"/>
-    <col min="5377" max="5410" width="4.83203125" style="36" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="36"/>
-    <col min="5633" max="5666" width="4.83203125" style="36" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="36"/>
-    <col min="5889" max="5922" width="4.83203125" style="36" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="36"/>
-    <col min="6145" max="6178" width="4.83203125" style="36" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="36"/>
-    <col min="6401" max="6434" width="4.83203125" style="36" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="36"/>
-    <col min="6657" max="6690" width="4.83203125" style="36" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="36"/>
-    <col min="6913" max="6946" width="4.83203125" style="36" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="36"/>
-    <col min="7169" max="7202" width="4.83203125" style="36" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="36"/>
-    <col min="7425" max="7458" width="4.83203125" style="36" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="36"/>
-    <col min="7681" max="7714" width="4.83203125" style="36" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="36"/>
-    <col min="7937" max="7970" width="4.83203125" style="36" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="36"/>
-    <col min="8193" max="8226" width="4.83203125" style="36" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="36"/>
-    <col min="8449" max="8482" width="4.83203125" style="36" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="36"/>
-    <col min="8705" max="8738" width="4.83203125" style="36" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="36"/>
-    <col min="8961" max="8994" width="4.83203125" style="36" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="36"/>
-    <col min="9217" max="9250" width="4.83203125" style="36" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="36"/>
-    <col min="9473" max="9506" width="4.83203125" style="36" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="36"/>
-    <col min="9729" max="9762" width="4.83203125" style="36" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="36"/>
-    <col min="9985" max="10018" width="4.83203125" style="36" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="36"/>
-    <col min="10241" max="10274" width="4.83203125" style="36" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="36"/>
-    <col min="10497" max="10530" width="4.83203125" style="36" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="36"/>
-    <col min="10753" max="10786" width="4.83203125" style="36" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="36"/>
-    <col min="11009" max="11042" width="4.83203125" style="36" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="36"/>
-    <col min="11265" max="11298" width="4.83203125" style="36" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="36"/>
-    <col min="11521" max="11554" width="4.83203125" style="36" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="36"/>
-    <col min="11777" max="11810" width="4.83203125" style="36" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="36"/>
-    <col min="12033" max="12066" width="4.83203125" style="36" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="36"/>
-    <col min="12289" max="12322" width="4.83203125" style="36" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="36"/>
-    <col min="12545" max="12578" width="4.83203125" style="36" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="36"/>
-    <col min="12801" max="12834" width="4.83203125" style="36" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="36"/>
-    <col min="13057" max="13090" width="4.83203125" style="36" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="36"/>
-    <col min="13313" max="13346" width="4.83203125" style="36" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="36"/>
-    <col min="13569" max="13602" width="4.83203125" style="36" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="36"/>
-    <col min="13825" max="13858" width="4.83203125" style="36" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="36"/>
-    <col min="14081" max="14114" width="4.83203125" style="36" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="36"/>
-    <col min="14337" max="14370" width="4.83203125" style="36" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="36"/>
-    <col min="14593" max="14626" width="4.83203125" style="36" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="36"/>
-    <col min="14849" max="14882" width="4.83203125" style="36" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="36"/>
-    <col min="15105" max="15138" width="4.83203125" style="36" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="36"/>
-    <col min="15361" max="15394" width="4.83203125" style="36" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="36"/>
-    <col min="15617" max="15650" width="4.83203125" style="36" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="36"/>
-    <col min="15873" max="15906" width="4.83203125" style="36" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="36"/>
-    <col min="16129" max="16162" width="4.83203125" style="36" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="36"/>
+    <col min="1" max="16" width="4.77734375" style="36" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" style="39" customWidth="1"/>
+    <col min="18" max="33" width="4.77734375" style="36" customWidth="1"/>
+    <col min="34" max="34" width="4.77734375" style="39" customWidth="1"/>
+    <col min="35" max="256" width="4.77734375" style="36"/>
+    <col min="257" max="290" width="4.77734375" style="36" customWidth="1"/>
+    <col min="291" max="512" width="4.77734375" style="36"/>
+    <col min="513" max="546" width="4.77734375" style="36" customWidth="1"/>
+    <col min="547" max="768" width="4.77734375" style="36"/>
+    <col min="769" max="802" width="4.77734375" style="36" customWidth="1"/>
+    <col min="803" max="1024" width="4.77734375" style="36"/>
+    <col min="1025" max="1058" width="4.77734375" style="36" customWidth="1"/>
+    <col min="1059" max="1280" width="4.77734375" style="36"/>
+    <col min="1281" max="1314" width="4.77734375" style="36" customWidth="1"/>
+    <col min="1315" max="1536" width="4.77734375" style="36"/>
+    <col min="1537" max="1570" width="4.77734375" style="36" customWidth="1"/>
+    <col min="1571" max="1792" width="4.77734375" style="36"/>
+    <col min="1793" max="1826" width="4.77734375" style="36" customWidth="1"/>
+    <col min="1827" max="2048" width="4.77734375" style="36"/>
+    <col min="2049" max="2082" width="4.77734375" style="36" customWidth="1"/>
+    <col min="2083" max="2304" width="4.77734375" style="36"/>
+    <col min="2305" max="2338" width="4.77734375" style="36" customWidth="1"/>
+    <col min="2339" max="2560" width="4.77734375" style="36"/>
+    <col min="2561" max="2594" width="4.77734375" style="36" customWidth="1"/>
+    <col min="2595" max="2816" width="4.77734375" style="36"/>
+    <col min="2817" max="2850" width="4.77734375" style="36" customWidth="1"/>
+    <col min="2851" max="3072" width="4.77734375" style="36"/>
+    <col min="3073" max="3106" width="4.77734375" style="36" customWidth="1"/>
+    <col min="3107" max="3328" width="4.77734375" style="36"/>
+    <col min="3329" max="3362" width="4.77734375" style="36" customWidth="1"/>
+    <col min="3363" max="3584" width="4.77734375" style="36"/>
+    <col min="3585" max="3618" width="4.77734375" style="36" customWidth="1"/>
+    <col min="3619" max="3840" width="4.77734375" style="36"/>
+    <col min="3841" max="3874" width="4.77734375" style="36" customWidth="1"/>
+    <col min="3875" max="4096" width="4.77734375" style="36"/>
+    <col min="4097" max="4130" width="4.77734375" style="36" customWidth="1"/>
+    <col min="4131" max="4352" width="4.77734375" style="36"/>
+    <col min="4353" max="4386" width="4.77734375" style="36" customWidth="1"/>
+    <col min="4387" max="4608" width="4.77734375" style="36"/>
+    <col min="4609" max="4642" width="4.77734375" style="36" customWidth="1"/>
+    <col min="4643" max="4864" width="4.77734375" style="36"/>
+    <col min="4865" max="4898" width="4.77734375" style="36" customWidth="1"/>
+    <col min="4899" max="5120" width="4.77734375" style="36"/>
+    <col min="5121" max="5154" width="4.77734375" style="36" customWidth="1"/>
+    <col min="5155" max="5376" width="4.77734375" style="36"/>
+    <col min="5377" max="5410" width="4.77734375" style="36" customWidth="1"/>
+    <col min="5411" max="5632" width="4.77734375" style="36"/>
+    <col min="5633" max="5666" width="4.77734375" style="36" customWidth="1"/>
+    <col min="5667" max="5888" width="4.77734375" style="36"/>
+    <col min="5889" max="5922" width="4.77734375" style="36" customWidth="1"/>
+    <col min="5923" max="6144" width="4.77734375" style="36"/>
+    <col min="6145" max="6178" width="4.77734375" style="36" customWidth="1"/>
+    <col min="6179" max="6400" width="4.77734375" style="36"/>
+    <col min="6401" max="6434" width="4.77734375" style="36" customWidth="1"/>
+    <col min="6435" max="6656" width="4.77734375" style="36"/>
+    <col min="6657" max="6690" width="4.77734375" style="36" customWidth="1"/>
+    <col min="6691" max="6912" width="4.77734375" style="36"/>
+    <col min="6913" max="6946" width="4.77734375" style="36" customWidth="1"/>
+    <col min="6947" max="7168" width="4.77734375" style="36"/>
+    <col min="7169" max="7202" width="4.77734375" style="36" customWidth="1"/>
+    <col min="7203" max="7424" width="4.77734375" style="36"/>
+    <col min="7425" max="7458" width="4.77734375" style="36" customWidth="1"/>
+    <col min="7459" max="7680" width="4.77734375" style="36"/>
+    <col min="7681" max="7714" width="4.77734375" style="36" customWidth="1"/>
+    <col min="7715" max="7936" width="4.77734375" style="36"/>
+    <col min="7937" max="7970" width="4.77734375" style="36" customWidth="1"/>
+    <col min="7971" max="8192" width="4.77734375" style="36"/>
+    <col min="8193" max="8226" width="4.77734375" style="36" customWidth="1"/>
+    <col min="8227" max="8448" width="4.77734375" style="36"/>
+    <col min="8449" max="8482" width="4.77734375" style="36" customWidth="1"/>
+    <col min="8483" max="8704" width="4.77734375" style="36"/>
+    <col min="8705" max="8738" width="4.77734375" style="36" customWidth="1"/>
+    <col min="8739" max="8960" width="4.77734375" style="36"/>
+    <col min="8961" max="8994" width="4.77734375" style="36" customWidth="1"/>
+    <col min="8995" max="9216" width="4.77734375" style="36"/>
+    <col min="9217" max="9250" width="4.77734375" style="36" customWidth="1"/>
+    <col min="9251" max="9472" width="4.77734375" style="36"/>
+    <col min="9473" max="9506" width="4.77734375" style="36" customWidth="1"/>
+    <col min="9507" max="9728" width="4.77734375" style="36"/>
+    <col min="9729" max="9762" width="4.77734375" style="36" customWidth="1"/>
+    <col min="9763" max="9984" width="4.77734375" style="36"/>
+    <col min="9985" max="10018" width="4.77734375" style="36" customWidth="1"/>
+    <col min="10019" max="10240" width="4.77734375" style="36"/>
+    <col min="10241" max="10274" width="4.77734375" style="36" customWidth="1"/>
+    <col min="10275" max="10496" width="4.77734375" style="36"/>
+    <col min="10497" max="10530" width="4.77734375" style="36" customWidth="1"/>
+    <col min="10531" max="10752" width="4.77734375" style="36"/>
+    <col min="10753" max="10786" width="4.77734375" style="36" customWidth="1"/>
+    <col min="10787" max="11008" width="4.77734375" style="36"/>
+    <col min="11009" max="11042" width="4.77734375" style="36" customWidth="1"/>
+    <col min="11043" max="11264" width="4.77734375" style="36"/>
+    <col min="11265" max="11298" width="4.77734375" style="36" customWidth="1"/>
+    <col min="11299" max="11520" width="4.77734375" style="36"/>
+    <col min="11521" max="11554" width="4.77734375" style="36" customWidth="1"/>
+    <col min="11555" max="11776" width="4.77734375" style="36"/>
+    <col min="11777" max="11810" width="4.77734375" style="36" customWidth="1"/>
+    <col min="11811" max="12032" width="4.77734375" style="36"/>
+    <col min="12033" max="12066" width="4.77734375" style="36" customWidth="1"/>
+    <col min="12067" max="12288" width="4.77734375" style="36"/>
+    <col min="12289" max="12322" width="4.77734375" style="36" customWidth="1"/>
+    <col min="12323" max="12544" width="4.77734375" style="36"/>
+    <col min="12545" max="12578" width="4.77734375" style="36" customWidth="1"/>
+    <col min="12579" max="12800" width="4.77734375" style="36"/>
+    <col min="12801" max="12834" width="4.77734375" style="36" customWidth="1"/>
+    <col min="12835" max="13056" width="4.77734375" style="36"/>
+    <col min="13057" max="13090" width="4.77734375" style="36" customWidth="1"/>
+    <col min="13091" max="13312" width="4.77734375" style="36"/>
+    <col min="13313" max="13346" width="4.77734375" style="36" customWidth="1"/>
+    <col min="13347" max="13568" width="4.77734375" style="36"/>
+    <col min="13569" max="13602" width="4.77734375" style="36" customWidth="1"/>
+    <col min="13603" max="13824" width="4.77734375" style="36"/>
+    <col min="13825" max="13858" width="4.77734375" style="36" customWidth="1"/>
+    <col min="13859" max="14080" width="4.77734375" style="36"/>
+    <col min="14081" max="14114" width="4.77734375" style="36" customWidth="1"/>
+    <col min="14115" max="14336" width="4.77734375" style="36"/>
+    <col min="14337" max="14370" width="4.77734375" style="36" customWidth="1"/>
+    <col min="14371" max="14592" width="4.77734375" style="36"/>
+    <col min="14593" max="14626" width="4.77734375" style="36" customWidth="1"/>
+    <col min="14627" max="14848" width="4.77734375" style="36"/>
+    <col min="14849" max="14882" width="4.77734375" style="36" customWidth="1"/>
+    <col min="14883" max="15104" width="4.77734375" style="36"/>
+    <col min="15105" max="15138" width="4.77734375" style="36" customWidth="1"/>
+    <col min="15139" max="15360" width="4.77734375" style="36"/>
+    <col min="15361" max="15394" width="4.77734375" style="36" customWidth="1"/>
+    <col min="15395" max="15616" width="4.77734375" style="36"/>
+    <col min="15617" max="15650" width="4.77734375" style="36" customWidth="1"/>
+    <col min="15651" max="15872" width="4.77734375" style="36"/>
+    <col min="15873" max="15906" width="4.77734375" style="36" customWidth="1"/>
+    <col min="15907" max="16128" width="4.77734375" style="36"/>
+    <col min="16129" max="16162" width="4.77734375" style="36" customWidth="1"/>
+    <col min="16163" max="16384" width="4.77734375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
         <v>32</v>
       </c>
@@ -11031,7 +11005,7 @@
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="124" t="s">
         <v>33</v>
       </c>
@@ -11084,7 +11058,7 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
-    <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="124" t="s">
         <v>35</v>
       </c>
@@ -11135,7 +11109,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -11172,7 +11146,7 @@
       <c r="AH4" s="32"/>
       <c r="AI4" s="32"/>
     </row>
-    <row r="5" spans="1:38" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -11211,7 +11185,7 @@
       <c r="AH5" s="32"/>
       <c r="AI5" s="32"/>
     </row>
-    <row r="6" spans="1:38" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -11248,7 +11222,7 @@
       <c r="AH6" s="18"/>
       <c r="AI6" s="18"/>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
         <v>375</v>
@@ -11287,7 +11261,7 @@
       <c r="AH7" s="59"/>
       <c r="AI7" s="52"/>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
@@ -11326,7 +11300,7 @@
       <c r="AH8" s="61"/>
       <c r="AI8" s="52"/>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
@@ -11365,7 +11339,7 @@
       <c r="AH9" s="62"/>
       <c r="AI9" s="12"/>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
@@ -11404,7 +11378,7 @@
       <c r="AH10" s="59"/>
       <c r="AI10" s="52"/>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -11441,7 +11415,7 @@
       <c r="AH11" s="59"/>
       <c r="AI11" s="52"/>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
         <v>376</v>
@@ -11480,7 +11454,7 @@
       <c r="AH12" s="59"/>
       <c r="AI12" s="52"/>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
@@ -11519,7 +11493,7 @@
       <c r="AH13" s="59"/>
       <c r="AI13" s="52"/>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
@@ -11556,7 +11530,7 @@
       <c r="AH14" s="59"/>
       <c r="AI14" s="52"/>
     </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="63" t="s">
         <v>377</v>
@@ -11595,7 +11569,7 @@
       <c r="AH15" s="59"/>
       <c r="AI15" s="52"/>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="18"/>
       <c r="C16" s="12" t="s">
@@ -11634,7 +11608,7 @@
       <c r="AH16" s="59"/>
       <c r="AI16" s="52"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="18"/>
       <c r="C17" s="12"/>
@@ -11671,7 +11645,7 @@
       <c r="AH17" s="59"/>
       <c r="AI17" s="52"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="18" t="s">
         <v>287</v>
@@ -11710,7 +11684,7 @@
       <c r="AH18" s="59"/>
       <c r="AI18" s="52"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="18"/>
       <c r="C19" s="12"/>
@@ -11747,7 +11721,7 @@
       <c r="AH19" s="59"/>
       <c r="AI19" s="52"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="18"/>
       <c r="C20" s="12"/>
@@ -11784,7 +11758,7 @@
       <c r="AH20" s="59"/>
       <c r="AI20" s="52"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="18"/>
       <c r="C21" s="12"/>
@@ -11821,7 +11795,7 @@
       <c r="AH21" s="59"/>
       <c r="AI21" s="52"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="18"/>
       <c r="C22" s="12"/>
@@ -11858,7 +11832,7 @@
       <c r="AH22" s="59"/>
       <c r="AI22" s="52"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="63"/>
       <c r="C23" s="13"/>
@@ -11895,7 +11869,7 @@
       <c r="AH23" s="59"/>
       <c r="AI23" s="52"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="18"/>
       <c r="C24" s="12"/>
@@ -11932,7 +11906,7 @@
       <c r="AH24" s="59"/>
       <c r="AI24" s="52"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="18"/>
       <c r="C25" s="12"/>
@@ -11969,7 +11943,7 @@
       <c r="AH25" s="59"/>
       <c r="AI25" s="52"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="18"/>
       <c r="C26" s="12"/>
@@ -12006,7 +11980,7 @@
       <c r="AH26" s="59"/>
       <c r="AI26" s="52"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="18"/>
       <c r="C27" s="12"/>
@@ -12043,7 +12017,7 @@
       <c r="AH27" s="59"/>
       <c r="AI27" s="52"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="18"/>
       <c r="C28" s="12"/>
@@ -12080,7 +12054,7 @@
       <c r="AH28" s="59"/>
       <c r="AI28" s="52"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="18"/>
       <c r="C29" s="12"/>
@@ -12117,7 +12091,7 @@
       <c r="AH29" s="59"/>
       <c r="AI29" s="52"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -12154,7 +12128,7 @@
       <c r="AH30" s="59"/>
       <c r="AI30" s="52"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="18"/>
       <c r="C31" s="57"/>
@@ -12191,7 +12165,7 @@
       <c r="AH31" s="59"/>
       <c r="AI31" s="52"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="18"/>
       <c r="C32" s="12"/>
@@ -12228,7 +12202,7 @@
       <c r="AH32" s="59"/>
       <c r="AI32" s="52"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="18"/>
       <c r="C33" s="12"/>
@@ -12265,7 +12239,7 @@
       <c r="AH33" s="59"/>
       <c r="AI33" s="52"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="18"/>
       <c r="C34" s="12"/>
@@ -12302,7 +12276,7 @@
       <c r="AH34" s="59"/>
       <c r="AI34" s="52"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="18"/>
       <c r="C35" s="12"/>
@@ -12339,7 +12313,7 @@
       <c r="AH35" s="59"/>
       <c r="AI35" s="52"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -12376,7 +12350,7 @@
       <c r="AH36" s="62"/>
       <c r="AI36" s="12"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="37"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
@@ -12408,7 +12382,7 @@
       <c r="AH37" s="44"/>
       <c r="AI37" s="40"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S38" s="40"/>
       <c r="T38" s="40"/>
       <c r="U38" s="41"/>
@@ -12427,7 +12401,7 @@
       <c r="AH38" s="47"/>
       <c r="AI38" s="40"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q39" s="48"/>
       <c r="S39" s="40"/>
       <c r="T39" s="41"/>
@@ -12447,7 +12421,7 @@
       <c r="AH39" s="47"/>
       <c r="AI39" s="40"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S40" s="40"/>
       <c r="T40" s="40"/>
       <c r="U40" s="40"/>
@@ -12466,7 +12440,7 @@
       <c r="AH40" s="47"/>
       <c r="AI40" s="40"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J41" s="37"/>
       <c r="K41" s="37"/>
       <c r="L41" s="37"/>
@@ -12480,37 +12454,37 @@
       <c r="AH41" s="47"/>
       <c r="AI41" s="40"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AE42" s="40"/>
       <c r="AF42" s="45"/>
       <c r="AG42" s="46"/>
       <c r="AH42" s="47"/>
       <c r="AI42" s="40"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AE43" s="40"/>
       <c r="AF43" s="45"/>
       <c r="AG43" s="45"/>
       <c r="AH43" s="47"/>
       <c r="AI43" s="40"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="37"/>
       <c r="AF44" s="49"/>
       <c r="AG44" s="49"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="37"/>
       <c r="AG45" s="49"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AF46" s="49"/>
       <c r="AG46" s="49"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AG47" s="49"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
       <c r="V48" s="37"/>
@@ -12523,7 +12497,7 @@
       <c r="AC48" s="37"/>
       <c r="AD48" s="37"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R49" s="37"/>
       <c r="S49" s="37"/>
       <c r="T49" s="37"/>
@@ -12538,10 +12512,10 @@
       <c r="AD49" s="37"/>
       <c r="AG49" s="49"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R50" s="37"/>
     </row>
-    <row r="51" spans="1:34" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -12574,7 +12548,7 @@
       <c r="AD51" s="36"/>
       <c r="AH51" s="48"/>
     </row>
-    <row r="52" spans="1:34" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -12646,12 +12620,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="10"/>
+    <col min="1" max="16384" width="4.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
         <v>32</v>
       </c>
@@ -12709,7 +12683,7 @@
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="158" t="s">
         <v>33</v>
       </c>
@@ -12762,7 +12736,7 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
-    <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="161" t="s">
         <v>35</v>
       </c>
@@ -12813,86 +12787,86 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C6" s="10" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D8" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D10" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D11" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="D12" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="D17" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="D18" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="D19" s="10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="D21" s="10" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D26" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E28" s="175" t="s">
         <v>186</v>
       </c>
@@ -12924,7 +12898,7 @@
       <c r="AC28" s="176"/>
       <c r="AD28" s="177"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="E29" s="66" t="s">
         <v>178</v>
@@ -12957,7 +12931,7 @@
       <c r="AC29" s="17"/>
       <c r="AD29" s="67"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E30" s="19" t="s">
         <v>189</v>
       </c>
@@ -12989,7 +12963,7 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="68"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E31" s="19" t="s">
         <v>191</v>
       </c>
@@ -13021,7 +12995,7 @@
       <c r="AC31" s="15"/>
       <c r="AD31" s="68"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E32" s="19" t="s">
         <v>192</v>
       </c>
@@ -13051,7 +13025,7 @@
       <c r="AC32" s="15"/>
       <c r="AD32" s="68"/>
     </row>
-    <row r="33" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E33" s="19" t="s">
         <v>193</v>
       </c>
@@ -13081,7 +13055,7 @@
       <c r="AC33" s="15"/>
       <c r="AD33" s="68"/>
     </row>
-    <row r="34" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E34" s="19" t="s">
         <v>194</v>
       </c>
@@ -13111,7 +13085,7 @@
       <c r="AC34" s="15"/>
       <c r="AD34" s="68"/>
     </row>
-    <row r="35" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E35" s="19" t="s">
         <v>195</v>
       </c>
@@ -13141,7 +13115,7 @@
       <c r="AC35" s="15"/>
       <c r="AD35" s="68"/>
     </row>
-    <row r="36" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E36" s="19" t="s">
         <v>196</v>
       </c>
@@ -13171,7 +13145,7 @@
       <c r="AC36" s="15"/>
       <c r="AD36" s="68"/>
     </row>
-    <row r="37" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E37" s="19" t="s">
         <v>197</v>
       </c>
@@ -13201,7 +13175,7 @@
       <c r="AC37" s="15"/>
       <c r="AD37" s="68"/>
     </row>
-    <row r="38" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E38" s="69" t="s">
         <v>198</v>
       </c>
@@ -13274,14 +13248,14 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="4.83203125" style="10"/>
-    <col min="7" max="7" width="4.83203125" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="4.83203125" style="10"/>
+    <col min="1" max="6" width="4.77734375" style="10"/>
+    <col min="7" max="7" width="4.77734375" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="4.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="161" t="s">
         <v>32</v>
       </c>
@@ -13339,7 +13313,7 @@
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="161" t="s">
         <v>33</v>
       </c>
@@ -13392,7 +13366,7 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
-    <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="161" t="s">
         <v>35</v>
       </c>
@@ -13443,7 +13417,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -13480,7 +13454,7 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
         <v>383</v>
@@ -13519,7 +13493,7 @@
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -13556,7 +13530,7 @@
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -13595,7 +13569,7 @@
       <c r="AH7" s="12"/>
       <c r="AI7" s="12"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -13634,7 +13608,7 @@
       <c r="AH8" s="12"/>
       <c r="AI8" s="12"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -13671,7 +13645,7 @@
       <c r="AH9" s="12"/>
       <c r="AI9" s="12"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -13710,7 +13684,7 @@
       <c r="AH10" s="12"/>
       <c r="AI10" s="12"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -13749,7 +13723,7 @@
       <c r="AH11" s="12"/>
       <c r="AI11" s="12"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -13786,7 +13760,7 @@
       <c r="AH12" s="12"/>
       <c r="AI12" s="12"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -13825,7 +13799,7 @@
       <c r="AH13" s="12"/>
       <c r="AI13" s="12"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -13864,7 +13838,7 @@
       <c r="AH14" s="12"/>
       <c r="AI14" s="12"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -13901,7 +13875,7 @@
       <c r="AH15" s="12"/>
       <c r="AI15" s="12"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -13940,7 +13914,7 @@
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -13979,7 +13953,7 @@
       <c r="AH17" s="12"/>
       <c r="AI17" s="12"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -14018,7 +13992,7 @@
       <c r="AH18" s="12"/>
       <c r="AI18" s="12"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -14055,7 +14029,7 @@
       <c r="AH19" s="12"/>
       <c r="AI19" s="12"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -14094,7 +14068,7 @@
       <c r="AH20" s="12"/>
       <c r="AI20" s="12"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -14137,7 +14111,7 @@
       <c r="AH21" s="50"/>
       <c r="AI21" s="50"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -14180,7 +14154,7 @@
       <c r="AH22" s="50"/>
       <c r="AI22" s="50"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -14223,7 +14197,7 @@
       <c r="AH23" s="50"/>
       <c r="AI23" s="50"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -14262,7 +14236,7 @@
       <c r="AH24" s="12"/>
       <c r="AI24" s="12"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -14299,7 +14273,7 @@
       <c r="AH25" s="12"/>
       <c r="AI25" s="12"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -14337,7 +14311,7 @@
       <c r="AH26" s="12"/>
       <c r="AI26" s="12"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -14380,7 +14354,7 @@
       <c r="AH27" s="50"/>
       <c r="AI27" s="50"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="52"/>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
@@ -14423,7 +14397,7 @@
       <c r="AH28" s="50"/>
       <c r="AI28" s="50"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="52"/>
       <c r="B29" s="52"/>
       <c r="C29" s="52"/>
@@ -14466,7 +14440,7 @@
       <c r="AH29" s="50"/>
       <c r="AI29" s="50"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="52"/>
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
@@ -14509,7 +14483,7 @@
       <c r="AH30" s="50"/>
       <c r="AI30" s="50"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="52"/>
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
@@ -14552,7 +14526,7 @@
       <c r="AH31" s="50"/>
       <c r="AI31" s="50"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="52"/>
       <c r="B32" s="52"/>
       <c r="C32" s="52"/>
@@ -14595,7 +14569,7 @@
       <c r="AH32" s="50"/>
       <c r="AI32" s="50"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="52"/>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
@@ -14638,7 +14612,7 @@
       <c r="AH33" s="50"/>
       <c r="AI33" s="50"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="52"/>
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
@@ -14675,7 +14649,7 @@
       <c r="AH34" s="50"/>
       <c r="AI34" s="50"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -14712,7 +14686,7 @@
       <c r="AH35" s="50"/>
       <c r="AI35" s="50"/>
     </row>
-    <row r="36" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -14751,7 +14725,7 @@
       <c r="AH36" s="12"/>
       <c r="AI36" s="12"/>
     </row>
-    <row r="37" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -14788,7 +14762,7 @@
       <c r="AH37" s="12"/>
       <c r="AI37" s="12"/>
     </row>
-    <row r="38" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -14827,7 +14801,7 @@
       <c r="AH38" s="12"/>
       <c r="AI38" s="12"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="50"/>
       <c r="B39" s="50"/>
       <c r="C39" s="50"/>
@@ -14870,7 +14844,7 @@
       <c r="AH39" s="50"/>
       <c r="AI39" s="50"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="50"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
@@ -14913,7 +14887,7 @@
       <c r="AH40" s="50"/>
       <c r="AI40" s="50"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="50"/>
       <c r="B41" s="50"/>
       <c r="C41" s="50"/>
@@ -14956,7 +14930,7 @@
       <c r="AH41" s="50"/>
       <c r="AI41" s="50"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="50"/>
       <c r="B42" s="50"/>
       <c r="C42" s="50"/>
@@ -14999,7 +14973,7 @@
       <c r="AH42" s="50"/>
       <c r="AI42" s="50"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="50"/>
       <c r="B43" s="50"/>
       <c r="C43" s="50"/>
@@ -15042,7 +15016,7 @@
       <c r="AH43" s="50"/>
       <c r="AI43" s="50"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="50"/>
       <c r="B44" s="50"/>
       <c r="C44" s="50"/>
@@ -15085,7 +15059,7 @@
       <c r="AH44" s="50"/>
       <c r="AI44" s="50"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="50"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
@@ -15128,7 +15102,7 @@
       <c r="AH45" s="50"/>
       <c r="AI45" s="50"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="50"/>
       <c r="B46" s="50"/>
       <c r="C46" s="50"/>
@@ -15167,7 +15141,7 @@
       <c r="AH46" s="50"/>
       <c r="AI46" s="50"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="50"/>
       <c r="B47" s="50"/>
       <c r="C47" s="50"/>
@@ -15206,7 +15180,7 @@
       <c r="AH47" s="50"/>
       <c r="AI47" s="50"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="50"/>
       <c r="B48" s="50"/>
       <c r="C48" s="50"/>
@@ -15245,7 +15219,7 @@
       <c r="AH48" s="50"/>
       <c r="AI48" s="50"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="50"/>
       <c r="B49" s="50"/>
       <c r="C49" s="50"/>
@@ -15282,7 +15256,7 @@
       <c r="AH49" s="50"/>
       <c r="AI49" s="50"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
       <c r="B50" s="50"/>
       <c r="C50" s="50"/>
@@ -15319,7 +15293,7 @@
       <c r="AH50" s="50"/>
       <c r="AI50" s="50"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="50"/>
       <c r="B51" s="50"/>
       <c r="C51" s="50"/>
@@ -15356,7 +15330,7 @@
       <c r="AH51" s="50"/>
       <c r="AI51" s="50"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="50"/>
       <c r="B52" s="50"/>
       <c r="C52" s="50"/>
@@ -15393,7 +15367,7 @@
       <c r="AH52" s="50"/>
       <c r="AI52" s="50"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="50"/>
       <c r="B53" s="50"/>
       <c r="C53" s="50"/>
@@ -15430,7 +15404,7 @@
       <c r="AH53" s="50"/>
       <c r="AI53" s="50"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="50"/>
       <c r="B54" s="50"/>
       <c r="C54" s="50"/>
@@ -15467,7 +15441,7 @@
       <c r="AH54" s="50"/>
       <c r="AI54" s="50"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="50"/>
       <c r="B55" s="50"/>
       <c r="C55" s="50"/>
@@ -15504,7 +15478,7 @@
       <c r="AH55" s="50"/>
       <c r="AI55" s="50"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="50"/>
       <c r="B56" s="50"/>
       <c r="C56" s="50"/>
@@ -15541,7 +15515,7 @@
       <c r="AH56" s="50"/>
       <c r="AI56" s="50"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="50"/>
       <c r="B57" s="50"/>
       <c r="C57" s="50"/>
@@ -15578,7 +15552,7 @@
       <c r="AH57" s="50"/>
       <c r="AI57" s="50"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="50"/>
       <c r="B58" s="50"/>
       <c r="C58" s="50"/>
@@ -15615,7 +15589,7 @@
       <c r="AH58" s="50"/>
       <c r="AI58" s="50"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="50"/>
       <c r="B59" s="50"/>
       <c r="C59" s="50"/>
@@ -15652,7 +15626,7 @@
       <c r="AH59" s="50"/>
       <c r="AI59" s="50"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="50"/>
       <c r="B60" s="50"/>
       <c r="C60" s="50"/>
@@ -15689,7 +15663,7 @@
       <c r="AH60" s="50"/>
       <c r="AI60" s="50"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="50"/>
       <c r="B61" s="50"/>
       <c r="C61" s="50"/>
@@ -15728,7 +15702,7 @@
       <c r="AH61" s="50"/>
       <c r="AI61" s="50"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="50"/>
       <c r="B62" s="50"/>
       <c r="C62" s="50"/>
@@ -15765,7 +15739,7 @@
       <c r="AH62" s="50"/>
       <c r="AI62" s="50"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="50"/>
       <c r="B63" s="50"/>
       <c r="C63" s="50"/>
@@ -15804,7 +15778,7 @@
       <c r="AH63" s="50"/>
       <c r="AI63" s="50"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="50"/>
       <c r="B64" s="50"/>
       <c r="C64" s="50"/>
@@ -15843,7 +15817,7 @@
       <c r="AH64" s="50"/>
       <c r="AI64" s="50"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="50"/>
       <c r="B65" s="50"/>
       <c r="C65" s="50"/>
@@ -15882,7 +15856,7 @@
       <c r="AH65" s="50"/>
       <c r="AI65" s="50"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="50"/>
       <c r="B66" s="50"/>
       <c r="C66" s="50"/>
@@ -15919,7 +15893,7 @@
       <c r="AH66" s="50"/>
       <c r="AI66" s="50"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="50"/>
       <c r="B67" s="50"/>
       <c r="C67" s="50"/>
@@ -15956,7 +15930,7 @@
       <c r="AH67" s="50"/>
       <c r="AI67" s="50"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -15995,7 +15969,7 @@
       <c r="AH68" s="12"/>
       <c r="AI68" s="12"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -16032,7 +16006,7 @@
       <c r="AH69" s="12"/>
       <c r="AI69" s="12"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -16071,7 +16045,7 @@
       <c r="AH70" s="12"/>
       <c r="AI70" s="12"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -16110,7 +16084,7 @@
       <c r="AH71" s="12"/>
       <c r="AI71" s="12"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -16149,7 +16123,7 @@
       <c r="AH72" s="12"/>
       <c r="AI72" s="12"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -16188,7 +16162,7 @@
       <c r="AH73" s="12"/>
       <c r="AI73" s="12"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -16227,7 +16201,7 @@
       <c r="AH74" s="12"/>
       <c r="AI74" s="12"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -16266,7 +16240,7 @@
       <c r="AH75" s="12"/>
       <c r="AI75" s="12"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="52"/>
       <c r="B76" s="52"/>
       <c r="C76" s="12"/>
@@ -16305,7 +16279,7 @@
       <c r="AH76" s="12"/>
       <c r="AI76" s="12"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="52"/>
       <c r="B77" s="52"/>
       <c r="C77" s="12"/>
@@ -16344,7 +16318,7 @@
       <c r="AH77" s="12"/>
       <c r="AI77" s="12"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="52"/>
       <c r="B78" s="52"/>
       <c r="C78" s="12"/>
@@ -16383,7 +16357,7 @@
       <c r="AH78" s="12"/>
       <c r="AI78" s="12"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="52"/>
       <c r="B79" s="52"/>
       <c r="C79" s="12"/>
@@ -16422,7 +16396,7 @@
       <c r="AH79" s="12"/>
       <c r="AI79" s="12"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="52"/>
       <c r="B80" s="52"/>
       <c r="C80" s="12"/>
@@ -16461,7 +16435,7 @@
       <c r="AH80" s="12"/>
       <c r="AI80" s="12"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="52"/>
       <c r="B81" s="52"/>
       <c r="C81" s="12"/>
@@ -16500,7 +16474,7 @@
       <c r="AH81" s="12"/>
       <c r="AI81" s="12"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="52"/>
       <c r="B82" s="52"/>
       <c r="C82" s="12"/>
@@ -16539,7 +16513,7 @@
       <c r="AH82" s="12"/>
       <c r="AI82" s="12"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="52"/>
       <c r="B83" s="52"/>
       <c r="C83" s="12"/>
@@ -16578,7 +16552,7 @@
       <c r="AH83" s="12"/>
       <c r="AI83" s="12"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="52"/>
       <c r="B84" s="52"/>
       <c r="C84" s="12"/>
@@ -16617,7 +16591,7 @@
       <c r="AH84" s="12"/>
       <c r="AI84" s="12"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="52"/>
       <c r="B85" s="52"/>
       <c r="C85" s="12"/>
@@ -16656,7 +16630,7 @@
       <c r="AH85" s="12"/>
       <c r="AI85" s="12"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="52"/>
       <c r="B86" s="52"/>
       <c r="C86" s="12"/>
@@ -16695,7 +16669,7 @@
       <c r="AH86" s="12"/>
       <c r="AI86" s="12"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" s="52"/>
       <c r="B87" s="52"/>
       <c r="C87" s="12"/>
@@ -16734,7 +16708,7 @@
       <c r="AH87" s="12"/>
       <c r="AI87" s="12"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -16773,7 +16747,7 @@
       <c r="AH88" s="12"/>
       <c r="AI88" s="12"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -16812,7 +16786,7 @@
       <c r="AH89" s="12"/>
       <c r="AI89" s="12"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -16851,7 +16825,7 @@
       <c r="AH90" s="12"/>
       <c r="AI90" s="12"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -16890,7 +16864,7 @@
       <c r="AH91" s="12"/>
       <c r="AI91" s="12"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -16929,7 +16903,7 @@
       <c r="AH92" s="12"/>
       <c r="AI92" s="12"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -16968,7 +16942,7 @@
       <c r="AH93" s="12"/>
       <c r="AI93" s="12"/>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -17007,7 +16981,7 @@
       <c r="AH94" s="12"/>
       <c r="AI94" s="12"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -17046,7 +17020,7 @@
       <c r="AH95" s="12"/>
       <c r="AI95" s="12"/>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -17083,7 +17057,7 @@
       <c r="AH96" s="12"/>
       <c r="AI96" s="12"/>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -17120,7 +17094,7 @@
       <c r="AH97" s="12"/>
       <c r="AI97" s="12"/>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -17157,7 +17131,7 @@
       <c r="AH98" s="12"/>
       <c r="AI98" s="12"/>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -17194,7 +17168,7 @@
       <c r="AH99" s="12"/>
       <c r="AI99" s="12"/>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -17231,7 +17205,7 @@
       <c r="AH100" s="12"/>
       <c r="AI100" s="12"/>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -17268,7 +17242,7 @@
       <c r="AH101" s="12"/>
       <c r="AI101" s="12"/>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -17305,7 +17279,7 @@
       <c r="AH102" s="12"/>
       <c r="AI102" s="12"/>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -17342,7 +17316,7 @@
       <c r="AH103" s="12"/>
       <c r="AI103" s="12"/>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -17379,7 +17353,7 @@
       <c r="AH104" s="12"/>
       <c r="AI104" s="12"/>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -17416,7 +17390,7 @@
       <c r="AH105" s="12"/>
       <c r="AI105" s="12"/>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -17453,7 +17427,7 @@
       <c r="AH106" s="12"/>
       <c r="AI106" s="12"/>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -17492,7 +17466,7 @@
       <c r="AH107" s="12"/>
       <c r="AI107" s="12"/>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -17531,7 +17505,7 @@
       <c r="AH108" s="12"/>
       <c r="AI108" s="12"/>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -17570,7 +17544,7 @@
       <c r="AH109" s="12"/>
       <c r="AI109" s="12"/>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -17607,7 +17581,7 @@
       <c r="AH110" s="12"/>
       <c r="AI110" s="12"/>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -17644,7 +17618,7 @@
       <c r="AH111" s="12"/>
       <c r="AI111" s="12"/>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -17681,7 +17655,7 @@
       <c r="AH112" s="12"/>
       <c r="AI112" s="12"/>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -17718,7 +17692,7 @@
       <c r="AH113" s="12"/>
       <c r="AI113" s="12"/>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -17755,7 +17729,7 @@
       <c r="AH114" s="12"/>
       <c r="AI114" s="12"/>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -17792,7 +17766,7 @@
       <c r="AH115" s="12"/>
       <c r="AI115" s="12"/>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -17829,7 +17803,7 @@
       <c r="AH116" s="12"/>
       <c r="AI116" s="12"/>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -17866,7 +17840,7 @@
       <c r="AH117" s="12"/>
       <c r="AI117" s="12"/>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -17903,7 +17877,7 @@
       <c r="AH118" s="12"/>
       <c r="AI118" s="12"/>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -17940,7 +17914,7 @@
       <c r="AH119" s="12"/>
       <c r="AI119" s="12"/>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A120" s="52"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -17979,7 +17953,7 @@
       <c r="AH120" s="12"/>
       <c r="AI120" s="12"/>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A121" s="52"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -18018,7 +17992,7 @@
       <c r="AH121" s="12"/>
       <c r="AI121" s="12"/>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A122" s="52"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -18057,7 +18031,7 @@
       <c r="AH122" s="12"/>
       <c r="AI122" s="12"/>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A123" s="52"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -18096,7 +18070,7 @@
       <c r="AH123" s="12"/>
       <c r="AI123" s="12"/>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A124" s="52"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -18135,7 +18109,7 @@
       <c r="AH124" s="12"/>
       <c r="AI124" s="12"/>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125" s="52"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -18174,7 +18148,7 @@
       <c r="AH125" s="12"/>
       <c r="AI125" s="12"/>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A126" s="52"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -18213,7 +18187,7 @@
       <c r="AH126" s="12"/>
       <c r="AI126" s="12"/>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -18252,7 +18226,7 @@
       <c r="AH127" s="12"/>
       <c r="AI127" s="12"/>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -18291,7 +18265,7 @@
       <c r="AH128" s="12"/>
       <c r="AI128" s="12"/>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -18330,7 +18304,7 @@
       <c r="AH129" s="12"/>
       <c r="AI129" s="12"/>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -18369,7 +18343,7 @@
       <c r="AH130" s="12"/>
       <c r="AI130" s="12"/>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -18408,7 +18382,7 @@
       <c r="AH131" s="12"/>
       <c r="AI131" s="12"/>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -18447,7 +18421,7 @@
       <c r="AH132" s="12"/>
       <c r="AI132" s="12"/>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -18486,7 +18460,7 @@
       <c r="AH133" s="12"/>
       <c r="AI133" s="12"/>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -18523,7 +18497,7 @@
       <c r="AH134" s="12"/>
       <c r="AI134" s="12"/>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -18560,7 +18534,7 @@
       <c r="AH135" s="12"/>
       <c r="AI135" s="12"/>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -18597,7 +18571,7 @@
       <c r="AH136" s="12"/>
       <c r="AI136" s="12"/>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -18636,7 +18610,7 @@
       <c r="AH137" s="12"/>
       <c r="AI137" s="12"/>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -18673,7 +18647,7 @@
       <c r="AH138" s="12"/>
       <c r="AI138" s="12"/>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -18712,7 +18686,7 @@
       <c r="AH139" s="12"/>
       <c r="AI139" s="12"/>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -18751,7 +18725,7 @@
       <c r="AH140" s="12"/>
       <c r="AI140" s="12"/>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -18790,7 +18764,7 @@
       <c r="AH141" s="12"/>
       <c r="AI141" s="12"/>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -18829,7 +18803,7 @@
       <c r="AH142" s="12"/>
       <c r="AI142" s="12"/>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -18868,7 +18842,7 @@
       <c r="AH143" s="12"/>
       <c r="AI143" s="12"/>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -18907,7 +18881,7 @@
       <c r="AH144" s="12"/>
       <c r="AI144" s="12"/>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -18946,7 +18920,7 @@
       <c r="AH145" s="12"/>
       <c r="AI145" s="12"/>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -18985,7 +18959,7 @@
       <c r="AH146" s="12"/>
       <c r="AI146" s="12"/>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -19024,7 +18998,7 @@
       <c r="AH147" s="12"/>
       <c r="AI147" s="12"/>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -19063,7 +19037,7 @@
       <c r="AH148" s="12"/>
       <c r="AI148" s="12"/>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -19100,7 +19074,7 @@
       <c r="AH149" s="12"/>
       <c r="AI149" s="12"/>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -19139,7 +19113,7 @@
       <c r="AH150" s="12"/>
       <c r="AI150" s="12"/>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -19178,7 +19152,7 @@
       <c r="AH151" s="12"/>
       <c r="AI151" s="12"/>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -19217,7 +19191,7 @@
       <c r="AH152" s="12"/>
       <c r="AI152" s="12"/>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -19256,7 +19230,7 @@
       <c r="AH153" s="12"/>
       <c r="AI153" s="12"/>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -19295,7 +19269,7 @@
       <c r="AH154" s="12"/>
       <c r="AI154" s="12"/>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -19334,7 +19308,7 @@
       <c r="AH155" s="12"/>
       <c r="AI155" s="12"/>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -19373,7 +19347,7 @@
       <c r="AH156" s="12"/>
       <c r="AI156" s="12"/>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -19412,7 +19386,7 @@
       <c r="AH157" s="12"/>
       <c r="AI157" s="12"/>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -19451,7 +19425,7 @@
       <c r="AH158" s="12"/>
       <c r="AI158" s="12"/>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -19488,7 +19462,7 @@
       <c r="AH159" s="12"/>
       <c r="AI159" s="12"/>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -19525,7 +19499,7 @@
       <c r="AH160" s="12"/>
       <c r="AI160" s="12"/>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -19562,7 +19536,7 @@
       <c r="AH161" s="12"/>
       <c r="AI161" s="12"/>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -19599,7 +19573,7 @@
       <c r="AH162" s="12"/>
       <c r="AI162" s="12"/>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -19636,7 +19610,7 @@
       <c r="AH163" s="12"/>
       <c r="AI163" s="12"/>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -19673,7 +19647,7 @@
       <c r="AH164" s="12"/>
       <c r="AI164" s="12"/>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -19710,7 +19684,7 @@
       <c r="AH165" s="12"/>
       <c r="AI165" s="12"/>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -19747,7 +19721,7 @@
       <c r="AH166" s="12"/>
       <c r="AI166" s="12"/>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -19784,7 +19758,7 @@
       <c r="AH167" s="12"/>
       <c r="AI167" s="12"/>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -19821,7 +19795,7 @@
       <c r="AH168" s="12"/>
       <c r="AI168" s="12"/>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -19858,7 +19832,7 @@
       <c r="AH169" s="12"/>
       <c r="AI169" s="12"/>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -19895,7 +19869,7 @@
       <c r="AH170" s="12"/>
       <c r="AI170" s="12"/>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -19932,7 +19906,7 @@
       <c r="AH171" s="12"/>
       <c r="AI171" s="12"/>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -19969,7 +19943,7 @@
       <c r="AH172" s="12"/>
       <c r="AI172" s="12"/>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -20006,7 +19980,7 @@
       <c r="AH173" s="12"/>
       <c r="AI173" s="12"/>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -20043,7 +20017,7 @@
       <c r="AH174" s="12"/>
       <c r="AI174" s="12"/>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -20080,7 +20054,7 @@
       <c r="AH175" s="12"/>
       <c r="AI175" s="12"/>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -20117,7 +20091,7 @@
       <c r="AH176" s="12"/>
       <c r="AI176" s="12"/>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -20156,7 +20130,7 @@
       <c r="AH177" s="12"/>
       <c r="AI177" s="12"/>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -20193,7 +20167,7 @@
       <c r="AH178" s="12"/>
       <c r="AI178" s="12"/>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -20230,7 +20204,7 @@
       <c r="AH179" s="12"/>
       <c r="AI179" s="12"/>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -20269,7 +20243,7 @@
       <c r="AH180" s="12"/>
       <c r="AI180" s="12"/>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -20308,7 +20282,7 @@
       <c r="AH181" s="12"/>
       <c r="AI181" s="12"/>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -20347,7 +20321,7 @@
       <c r="AH182" s="12"/>
       <c r="AI182" s="12"/>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -20384,7 +20358,7 @@
       <c r="AH183" s="12"/>
       <c r="AI183" s="12"/>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -20421,7 +20395,7 @@
       <c r="AH184" s="12"/>
       <c r="AI184" s="12"/>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -20458,7 +20432,7 @@
       <c r="AH185" s="12"/>
       <c r="AI185" s="12"/>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -20495,7 +20469,7 @@
       <c r="AH186" s="12"/>
       <c r="AI186" s="12"/>
     </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -20532,7 +20506,7 @@
       <c r="AH187" s="12"/>
       <c r="AI187" s="12"/>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -20569,7 +20543,7 @@
       <c r="AH188" s="12"/>
       <c r="AI188" s="12"/>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -20606,7 +20580,7 @@
       <c r="AH189" s="12"/>
       <c r="AI189" s="12"/>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -20643,7 +20617,7 @@
       <c r="AH190" s="12"/>
       <c r="AI190" s="12"/>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -20680,7 +20654,7 @@
       <c r="AH191" s="12"/>
       <c r="AI191" s="12"/>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -20717,7 +20691,7 @@
       <c r="AH192" s="12"/>
       <c r="AI192" s="12"/>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -20754,7 +20728,7 @@
       <c r="AH193" s="12"/>
       <c r="AI193" s="12"/>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -20793,7 +20767,7 @@
       <c r="AH194" s="12"/>
       <c r="AI194" s="12"/>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -20832,7 +20806,7 @@
       <c r="AH195" s="12"/>
       <c r="AI195" s="12"/>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -20869,7 +20843,7 @@
       <c r="AH196" s="12"/>
       <c r="AI196" s="12"/>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -20908,7 +20882,7 @@
       <c r="AH197" s="12"/>
       <c r="AI197" s="12"/>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -20947,7 +20921,7 @@
       <c r="AH198" s="12"/>
       <c r="AI198" s="12"/>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -20986,7 +20960,7 @@
       <c r="AH199" s="12"/>
       <c r="AI199" s="12"/>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -21023,7 +20997,7 @@
       <c r="AH200" s="12"/>
       <c r="AI200" s="12"/>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -21060,7 +21034,7 @@
       <c r="AH201" s="12"/>
       <c r="AI201" s="12"/>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -21097,7 +21071,7 @@
       <c r="AH202" s="12"/>
       <c r="AI202" s="12"/>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -21134,7 +21108,7 @@
       <c r="AH203" s="12"/>
       <c r="AI203" s="12"/>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -21171,7 +21145,7 @@
       <c r="AH204" s="12"/>
       <c r="AI204" s="12"/>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -21208,7 +21182,7 @@
       <c r="AH205" s="12"/>
       <c r="AI205" s="12"/>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -21245,7 +21219,7 @@
       <c r="AH206" s="12"/>
       <c r="AI206" s="12"/>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -21282,7 +21256,7 @@
       <c r="AH207" s="12"/>
       <c r="AI207" s="12"/>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -21319,7 +21293,7 @@
       <c r="AH208" s="12"/>
       <c r="AI208" s="12"/>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -21356,7 +21330,7 @@
       <c r="AH209" s="12"/>
       <c r="AI209" s="12"/>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -21393,7 +21367,7 @@
       <c r="AH210" s="12"/>
       <c r="AI210" s="12"/>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -21430,7 +21404,7 @@
       <c r="AH211" s="12"/>
       <c r="AI211" s="12"/>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -21469,7 +21443,7 @@
       <c r="AH212" s="12"/>
       <c r="AI212" s="12"/>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -21508,7 +21482,7 @@
       <c r="AH213" s="12"/>
       <c r="AI213" s="12"/>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -21547,7 +21521,7 @@
       <c r="AH214" s="12"/>
       <c r="AI214" s="12"/>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -21586,7 +21560,7 @@
       <c r="AH215" s="12"/>
       <c r="AI215" s="12"/>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -21623,7 +21597,7 @@
       <c r="AH216" s="12"/>
       <c r="AI216" s="12"/>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -21660,7 +21634,7 @@
       <c r="AH217" s="12"/>
       <c r="AI217" s="12"/>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -21697,7 +21671,7 @@
       <c r="AH218" s="12"/>
       <c r="AI218" s="12"/>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -21734,7 +21708,7 @@
       <c r="AH219" s="12"/>
       <c r="AI219" s="12"/>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -21771,7 +21745,7 @@
       <c r="AH220" s="12"/>
       <c r="AI220" s="12"/>
     </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -21808,7 +21782,7 @@
       <c r="AH221" s="12"/>
       <c r="AI221" s="12"/>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -21845,7 +21819,7 @@
       <c r="AH222" s="12"/>
       <c r="AI222" s="12"/>
     </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -21882,7 +21856,7 @@
       <c r="AH223" s="12"/>
       <c r="AI223" s="12"/>
     </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -21919,7 +21893,7 @@
       <c r="AH224" s="12"/>
       <c r="AI224" s="12"/>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -21956,7 +21930,7 @@
       <c r="AH225" s="12"/>
       <c r="AI225" s="12"/>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -21993,7 +21967,7 @@
       <c r="AH226" s="12"/>
       <c r="AI226" s="12"/>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -22030,7 +22004,7 @@
       <c r="AH227" s="12"/>
       <c r="AI227" s="12"/>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -22067,7 +22041,7 @@
       <c r="AH228" s="12"/>
       <c r="AI228" s="12"/>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -22104,7 +22078,7 @@
       <c r="AH229" s="12"/>
       <c r="AI229" s="12"/>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -22141,7 +22115,7 @@
       <c r="AH230" s="12"/>
       <c r="AI230" s="12"/>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -22178,7 +22152,7 @@
       <c r="AH231" s="12"/>
       <c r="AI231" s="12"/>
     </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -22299,12 +22273,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="10"/>
+    <col min="1" max="16384" width="4.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="161" t="s">
         <v>32</v>
       </c>
@@ -22362,7 +22336,7 @@
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="161" t="s">
         <v>33</v>
       </c>
@@ -22415,7 +22389,7 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
-    <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="161" t="s">
         <v>35</v>
       </c>
@@ -22466,7 +22440,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -22503,7 +22477,7 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
         <v>404</v>
@@ -22542,7 +22516,7 @@
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -22579,7 +22553,7 @@
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -22618,7 +22592,7 @@
       <c r="AH7" s="12"/>
       <c r="AI7" s="12"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -22655,7 +22629,7 @@
       <c r="AH8" s="12"/>
       <c r="AI8" s="12"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
@@ -22694,7 +22668,7 @@
       <c r="AH9" s="12"/>
       <c r="AI9" s="12"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -22733,7 +22707,7 @@
       <c r="AH10" s="12"/>
       <c r="AI10" s="12"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -22770,7 +22744,7 @@
       <c r="AH11" s="12"/>
       <c r="AI11" s="12"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -22809,7 +22783,7 @@
       <c r="AH12" s="12"/>
       <c r="AI12" s="12"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -22846,7 +22820,7 @@
       <c r="AH13" s="12"/>
       <c r="AI13" s="12"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -22883,7 +22857,7 @@
       <c r="AH14" s="12"/>
       <c r="AI14" s="12"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -22920,7 +22894,7 @@
       <c r="AH15" s="12"/>
       <c r="AI15" s="12"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -22957,7 +22931,7 @@
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -22994,7 +22968,7 @@
       <c r="AH17" s="12"/>
       <c r="AI17" s="12"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -23031,7 +23005,7 @@
       <c r="AH18" s="12"/>
       <c r="AI18" s="12"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -23068,7 +23042,7 @@
       <c r="AH19" s="12"/>
       <c r="AI19" s="12"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -23105,7 +23079,7 @@
       <c r="AH20" s="12"/>
       <c r="AI20" s="12"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -23142,7 +23116,7 @@
       <c r="AH21" s="12"/>
       <c r="AI21" s="12"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -23179,7 +23153,7 @@
       <c r="AH22" s="12"/>
       <c r="AI22" s="12"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -23216,7 +23190,7 @@
       <c r="AH23" s="12"/>
       <c r="AI23" s="12"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -23253,7 +23227,7 @@
       <c r="AH24" s="12"/>
       <c r="AI24" s="12"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -23290,7 +23264,7 @@
       <c r="AH25" s="12"/>
       <c r="AI25" s="12"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -23327,7 +23301,7 @@
       <c r="AH26" s="12"/>
       <c r="AI26" s="12"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -23364,7 +23338,7 @@
       <c r="AH27" s="12"/>
       <c r="AI27" s="12"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -23401,7 +23375,7 @@
       <c r="AH28" s="12"/>
       <c r="AI28" s="12"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -23438,7 +23412,7 @@
       <c r="AH29" s="12"/>
       <c r="AI29" s="12"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -23475,7 +23449,7 @@
       <c r="AH30" s="12"/>
       <c r="AI30" s="12"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -23512,7 +23486,7 @@
       <c r="AH31" s="12"/>
       <c r="AI31" s="12"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -23549,7 +23523,7 @@
       <c r="AH32" s="12"/>
       <c r="AI32" s="12"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -23588,7 +23562,7 @@
       <c r="AH33" s="12"/>
       <c r="AI33" s="12"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -23625,7 +23599,7 @@
       <c r="AH34" s="12"/>
       <c r="AI34" s="12"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -23664,7 +23638,7 @@
       <c r="AH35" s="12"/>
       <c r="AI35" s="12"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -23703,7 +23677,7 @@
       <c r="AH36" s="12"/>
       <c r="AI36" s="12"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -23742,7 +23716,7 @@
       <c r="AH37" s="12"/>
       <c r="AI37" s="12"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -23781,7 +23755,7 @@
       <c r="AH38" s="12"/>
       <c r="AI38" s="12"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -23818,7 +23792,7 @@
       <c r="AH39" s="12"/>
       <c r="AI39" s="12"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -23855,7 +23829,7 @@
       <c r="AH40" s="12"/>
       <c r="AI40" s="12"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -23892,7 +23866,7 @@
       <c r="AH41" s="12"/>
       <c r="AI41" s="12"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -23929,7 +23903,7 @@
       <c r="AH42" s="12"/>
       <c r="AI42" s="12"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -23966,7 +23940,7 @@
       <c r="AH43" s="12"/>
       <c r="AI43" s="12"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -24003,7 +23977,7 @@
       <c r="AH44" s="12"/>
       <c r="AI44" s="12"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -24040,7 +24014,7 @@
       <c r="AH45" s="12"/>
       <c r="AI45" s="12"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -24077,7 +24051,7 @@
       <c r="AH46" s="12"/>
       <c r="AI46" s="12"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -24116,7 +24090,7 @@
       <c r="AH47" s="12"/>
       <c r="AI47" s="12"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -24153,7 +24127,7 @@
       <c r="AH48" s="12"/>
       <c r="AI48" s="12"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -24194,7 +24168,7 @@
       <c r="AH49" s="188"/>
       <c r="AI49" s="12"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -24233,7 +24207,7 @@
       <c r="AH50" s="82"/>
       <c r="AI50" s="12"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -24272,7 +24246,7 @@
       <c r="AH51" s="82"/>
       <c r="AI51" s="12"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -24313,7 +24287,7 @@
       <c r="AH52" s="82"/>
       <c r="AI52" s="12"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -24352,7 +24326,7 @@
       <c r="AH53" s="82"/>
       <c r="AI53" s="12"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -24391,7 +24365,7 @@
       <c r="AH54" s="82"/>
       <c r="AI54" s="12"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -24430,7 +24404,7 @@
       <c r="AH55" s="82"/>
       <c r="AI55" s="12"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -24469,7 +24443,7 @@
       <c r="AH56" s="82"/>
       <c r="AI56" s="12"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -24508,7 +24482,7 @@
       <c r="AH57" s="82"/>
       <c r="AI57" s="12"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -24547,7 +24521,7 @@
       <c r="AH58" s="82"/>
       <c r="AI58" s="12"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -24586,7 +24560,7 @@
       <c r="AH59" s="82"/>
       <c r="AI59" s="12"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -24625,7 +24599,7 @@
       <c r="AH60" s="82"/>
       <c r="AI60" s="12"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -24662,7 +24636,7 @@
       <c r="AH61" s="82"/>
       <c r="AI61" s="12"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -24701,7 +24675,7 @@
       <c r="AH62" s="82"/>
       <c r="AI62" s="12"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -24742,7 +24716,7 @@
       <c r="AH63" s="82"/>
       <c r="AI63" s="12"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -24783,7 +24757,7 @@
       <c r="AH64" s="82"/>
       <c r="AI64" s="12"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -24824,7 +24798,7 @@
       <c r="AH65" s="82"/>
       <c r="AI65" s="12"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -24863,7 +24837,7 @@
       <c r="AH66" s="82"/>
       <c r="AI66" s="12"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -24902,7 +24876,7 @@
       <c r="AH67" s="82"/>
       <c r="AI67" s="12"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -24943,7 +24917,7 @@
       <c r="AH68" s="82"/>
       <c r="AI68" s="12"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -24980,7 +24954,7 @@
       <c r="AH69" s="82"/>
       <c r="AI69" s="12"/>
     </row>
-    <row r="70" spans="1:35" ht="12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -25021,7 +24995,7 @@
       <c r="AH70" s="82"/>
       <c r="AI70" s="12"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -25062,7 +25036,7 @@
       <c r="AH71" s="82"/>
       <c r="AI71" s="12"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -25101,7 +25075,7 @@
       <c r="AH72" s="82"/>
       <c r="AI72" s="12"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -25138,7 +25112,7 @@
       <c r="AH73" s="82"/>
       <c r="AI73" s="12"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -25177,7 +25151,7 @@
       <c r="AH74" s="82"/>
       <c r="AI74" s="12"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -25216,7 +25190,7 @@
       <c r="AH75" s="82"/>
       <c r="AI75" s="12"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -25253,7 +25227,7 @@
       <c r="AH76" s="83"/>
       <c r="AI76" s="12"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -25290,7 +25264,7 @@
       <c r="AH77" s="18"/>
       <c r="AI77" s="18"/>
     </row>
-    <row r="78" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -25327,7 +25301,7 @@
       <c r="AH78" s="18"/>
       <c r="AI78" s="18"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -25368,7 +25342,7 @@
       <c r="AH79" s="188"/>
       <c r="AI79" s="18"/>
     </row>
-    <row r="80" spans="1:35" ht="12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -25409,7 +25383,7 @@
       <c r="AH80" s="82"/>
       <c r="AI80" s="12"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -25450,7 +25424,7 @@
       <c r="AH81" s="82"/>
       <c r="AI81" s="12"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -25489,7 +25463,7 @@
       <c r="AH82" s="82"/>
       <c r="AI82" s="12"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -25528,7 +25502,7 @@
       <c r="AH83" s="82"/>
       <c r="AI83" s="12"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -25567,7 +25541,7 @@
       <c r="AH84" s="82"/>
       <c r="AI84" s="12"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -25604,7 +25578,7 @@
       <c r="AH85" s="82"/>
       <c r="AI85" s="12"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -25643,7 +25617,7 @@
       <c r="AH86" s="82"/>
       <c r="AI86" s="12"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -25682,7 +25656,7 @@
       <c r="AH87" s="82"/>
       <c r="AI87" s="12"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -25721,7 +25695,7 @@
       <c r="AH88" s="82"/>
       <c r="AI88" s="12"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -25760,7 +25734,7 @@
       <c r="AH89" s="82"/>
       <c r="AI89" s="12"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -25797,7 +25771,7 @@
       <c r="AH90" s="82"/>
       <c r="AI90" s="12"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -25836,7 +25810,7 @@
       <c r="AH91" s="82"/>
       <c r="AI91" s="12"/>
     </row>
-    <row r="92" spans="1:35" ht="12" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -25877,7 +25851,7 @@
       <c r="AH92" s="82"/>
       <c r="AI92" s="12"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -25918,7 +25892,7 @@
       <c r="AH93" s="82"/>
       <c r="AI93" s="12"/>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -25957,7 +25931,7 @@
       <c r="AH94" s="82"/>
       <c r="AI94" s="12"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -25996,7 +25970,7 @@
       <c r="AH95" s="82"/>
       <c r="AI95" s="12"/>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -26035,7 +26009,7 @@
       <c r="AH96" s="82"/>
       <c r="AI96" s="12"/>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -26072,7 +26046,7 @@
       <c r="AH97" s="82"/>
       <c r="AI97" s="12"/>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -26111,7 +26085,7 @@
       <c r="AH98" s="82"/>
       <c r="AI98" s="12"/>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -26150,7 +26124,7 @@
       <c r="AH99" s="82"/>
       <c r="AI99" s="12"/>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -26189,7 +26163,7 @@
       <c r="AH100" s="82"/>
       <c r="AI100" s="12"/>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -26226,7 +26200,7 @@
       <c r="AH101" s="82"/>
       <c r="AI101" s="12"/>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -26265,7 +26239,7 @@
       <c r="AH102" s="82"/>
       <c r="AI102" s="12"/>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -26304,7 +26278,7 @@
       <c r="AH103" s="82"/>
       <c r="AI103" s="12"/>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -26341,7 +26315,7 @@
       <c r="AH104" s="83"/>
       <c r="AI104" s="12"/>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -26378,7 +26352,7 @@
       <c r="AH105" s="12"/>
       <c r="AI105" s="12"/>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -26417,7 +26391,7 @@
       <c r="AH106" s="12"/>
       <c r="AI106" s="12"/>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -26454,7 +26428,7 @@
       <c r="AH107" s="12"/>
       <c r="AI107" s="12"/>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -26495,7 +26469,7 @@
       <c r="AH108" s="101"/>
       <c r="AI108" s="12"/>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -26536,7 +26510,7 @@
       <c r="AH109" s="82"/>
       <c r="AI109" s="12"/>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -26577,7 +26551,7 @@
       <c r="AH110" s="82"/>
       <c r="AI110" s="12"/>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -26616,7 +26590,7 @@
       <c r="AH111" s="82"/>
       <c r="AI111" s="12"/>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -26655,7 +26629,7 @@
       <c r="AH112" s="82"/>
       <c r="AI112" s="12"/>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -26694,7 +26668,7 @@
       <c r="AH113" s="82"/>
       <c r="AI113" s="12"/>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -26731,7 +26705,7 @@
       <c r="AH114" s="82"/>
       <c r="AI114" s="12"/>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -26770,7 +26744,7 @@
       <c r="AH115" s="82"/>
       <c r="AI115" s="12"/>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -26809,7 +26783,7 @@
       <c r="AH116" s="82"/>
       <c r="AI116" s="12"/>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -26848,7 +26822,7 @@
       <c r="AH117" s="82"/>
       <c r="AI117" s="12"/>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -26885,7 +26859,7 @@
       <c r="AH118" s="82"/>
       <c r="AI118" s="12"/>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -26924,7 +26898,7 @@
       <c r="AH119" s="82"/>
       <c r="AI119" s="12"/>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -26963,7 +26937,7 @@
       <c r="AH120" s="82"/>
       <c r="AI120" s="12"/>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -27002,7 +26976,7 @@
       <c r="AH121" s="83"/>
       <c r="AI121" s="18"/>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -27039,7 +27013,7 @@
       <c r="AH122" s="18"/>
       <c r="AI122" s="18"/>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -27076,7 +27050,7 @@
       <c r="AH123" s="18"/>
       <c r="AI123" s="18"/>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -27117,7 +27091,7 @@
       <c r="AH124" s="101"/>
       <c r="AI124" s="12"/>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -27156,7 +27130,7 @@
       <c r="AH125" s="82"/>
       <c r="AI125" s="12"/>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -27195,7 +27169,7 @@
       <c r="AH126" s="82"/>
       <c r="AI126" s="12"/>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -27234,7 +27208,7 @@
       <c r="AH127" s="82"/>
       <c r="AI127" s="12"/>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -27271,7 +27245,7 @@
       <c r="AH128" s="82"/>
       <c r="AI128" s="12"/>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -27310,7 +27284,7 @@
       <c r="AH129" s="82"/>
       <c r="AI129" s="12"/>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -27351,7 +27325,7 @@
       <c r="AH130" s="82"/>
       <c r="AI130" s="12"/>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -27392,7 +27366,7 @@
       <c r="AH131" s="82"/>
       <c r="AI131" s="12"/>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -27433,7 +27407,7 @@
       <c r="AH132" s="82"/>
       <c r="AI132" s="12"/>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -27474,7 +27448,7 @@
       <c r="AH133" s="82"/>
       <c r="AI133" s="12"/>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -27515,7 +27489,7 @@
       <c r="AH134" s="82"/>
       <c r="AI134" s="12"/>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -27554,7 +27528,7 @@
       <c r="AH135" s="82"/>
       <c r="AI135" s="12"/>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -27593,7 +27567,7 @@
       <c r="AH136" s="82"/>
       <c r="AI136" s="12"/>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -27632,7 +27606,7 @@
       <c r="AH137" s="82"/>
       <c r="AI137" s="12"/>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -27671,7 +27645,7 @@
       <c r="AH138" s="82"/>
       <c r="AI138" s="12"/>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -27710,7 +27684,7 @@
       <c r="AH139" s="82"/>
       <c r="AI139" s="12"/>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -27749,7 +27723,7 @@
       <c r="AH140" s="82"/>
       <c r="AI140" s="12"/>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -27788,7 +27762,7 @@
       <c r="AH141" s="82"/>
       <c r="AI141" s="12"/>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -27827,7 +27801,7 @@
       <c r="AH142" s="82"/>
       <c r="AI142" s="12"/>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -27866,7 +27840,7 @@
       <c r="AH143" s="82"/>
       <c r="AI143" s="12"/>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -27907,7 +27881,7 @@
       <c r="AH144" s="82"/>
       <c r="AI144" s="12"/>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -27948,7 +27922,7 @@
       <c r="AH145" s="82"/>
       <c r="AI145" s="12"/>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -27989,7 +27963,7 @@
       <c r="AH146" s="82"/>
       <c r="AI146" s="12"/>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -28030,7 +28004,7 @@
       <c r="AH147" s="82"/>
       <c r="AI147" s="12"/>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -28069,7 +28043,7 @@
       <c r="AH148" s="82"/>
       <c r="AI148" s="12"/>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -28108,7 +28082,7 @@
       <c r="AH149" s="82"/>
       <c r="AI149" s="12"/>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -28145,7 +28119,7 @@
       <c r="AH150" s="82"/>
       <c r="AI150" s="12"/>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -28184,7 +28158,7 @@
       <c r="AH151" s="82"/>
       <c r="AI151" s="12"/>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -28223,7 +28197,7 @@
       <c r="AH152" s="82"/>
       <c r="AI152" s="12"/>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -28262,7 +28236,7 @@
       <c r="AH153" s="82"/>
       <c r="AI153" s="12"/>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -28301,7 +28275,7 @@
       <c r="AH154" s="82"/>
       <c r="AI154" s="12"/>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -28340,7 +28314,7 @@
       <c r="AH155" s="82"/>
       <c r="AI155" s="12"/>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -28381,7 +28355,7 @@
       <c r="AH156" s="82"/>
       <c r="AI156" s="12"/>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -28420,7 +28394,7 @@
       <c r="AH157" s="82"/>
       <c r="AI157" s="12"/>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -28461,7 +28435,7 @@
       <c r="AH158" s="82"/>
       <c r="AI158" s="12"/>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -28502,7 +28476,7 @@
       <c r="AH159" s="82"/>
       <c r="AI159" s="12"/>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -28541,7 +28515,7 @@
       <c r="AH160" s="82"/>
       <c r="AI160" s="12"/>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -28580,7 +28554,7 @@
       <c r="AH161" s="82"/>
       <c r="AI161" s="12"/>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -28619,7 +28593,7 @@
       <c r="AH162" s="82"/>
       <c r="AI162" s="12"/>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -28656,7 +28630,7 @@
       <c r="AH163" s="83"/>
       <c r="AI163" s="18"/>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -28693,7 +28667,7 @@
       <c r="AH164" s="18"/>
       <c r="AI164" s="18"/>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -28730,7 +28704,7 @@
       <c r="AH165" s="18"/>
       <c r="AI165" s="18"/>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -28771,7 +28745,7 @@
       <c r="AH166" s="188"/>
       <c r="AI166" s="18"/>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -28812,7 +28786,7 @@
       <c r="AH167" s="82"/>
       <c r="AI167" s="12"/>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -28853,7 +28827,7 @@
       <c r="AH168" s="82"/>
       <c r="AI168" s="12"/>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -28894,7 +28868,7 @@
       <c r="AH169" s="82"/>
       <c r="AI169" s="12"/>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -28935,7 +28909,7 @@
       <c r="AH170" s="82"/>
       <c r="AI170" s="12"/>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -28974,7 +28948,7 @@
       <c r="AH171" s="82"/>
       <c r="AI171" s="12"/>
     </row>
-    <row r="172" spans="1:35" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:35" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -29013,7 +28987,7 @@
       <c r="AH172" s="82"/>
       <c r="AI172" s="12"/>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -29050,7 +29024,7 @@
       <c r="AH173" s="82"/>
       <c r="AI173" s="12"/>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -29089,7 +29063,7 @@
       <c r="AH174" s="82"/>
       <c r="AI174" s="12"/>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -29128,7 +29102,7 @@
       <c r="AH175" s="82"/>
       <c r="AI175" s="12"/>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -29167,7 +29141,7 @@
       <c r="AH176" s="82"/>
       <c r="AI176" s="12"/>
     </row>
-    <row r="177" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -29206,7 +29180,7 @@
       <c r="AH177" s="82"/>
       <c r="AI177" s="12"/>
     </row>
-    <row r="178" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -29245,7 +29219,7 @@
       <c r="AH178" s="82"/>
       <c r="AI178" s="12"/>
     </row>
-    <row r="179" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -29282,7 +29256,7 @@
       <c r="AH179" s="82"/>
       <c r="AI179" s="12"/>
     </row>
-    <row r="180" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -29319,7 +29293,7 @@
       <c r="AH180" s="82"/>
       <c r="AI180" s="12"/>
     </row>
-    <row r="181" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -29358,7 +29332,7 @@
       <c r="AH181" s="82"/>
       <c r="AI181" s="12"/>
     </row>
-    <row r="182" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -29399,7 +29373,7 @@
       <c r="AH182" s="82"/>
       <c r="AI182" s="12"/>
     </row>
-    <row r="183" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -29440,7 +29414,7 @@
       <c r="AH183" s="82"/>
       <c r="AI183" s="12"/>
     </row>
-    <row r="184" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -29481,7 +29455,7 @@
       <c r="AH184" s="82"/>
       <c r="AI184" s="12"/>
     </row>
-    <row r="185" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -29520,7 +29494,7 @@
       <c r="AH185" s="82"/>
       <c r="AI185" s="12"/>
     </row>
-    <row r="186" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -29559,7 +29533,7 @@
       <c r="AH186" s="82"/>
       <c r="AI186" s="12"/>
     </row>
-    <row r="187" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -29598,7 +29572,7 @@
       <c r="AH187" s="82"/>
       <c r="AI187" s="12"/>
     </row>
-    <row r="188" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -29637,7 +29611,7 @@
       <c r="AH188" s="82"/>
       <c r="AI188" s="12"/>
     </row>
-    <row r="189" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -29676,7 +29650,7 @@
       <c r="AH189" s="82"/>
       <c r="AI189" s="12"/>
     </row>
-    <row r="190" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -29715,7 +29689,7 @@
       <c r="AH190" s="82"/>
       <c r="AI190" s="12"/>
     </row>
-    <row r="191" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -29754,7 +29728,7 @@
       <c r="AH191" s="82"/>
       <c r="AI191" s="12"/>
     </row>
-    <row r="192" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -29793,7 +29767,7 @@
       <c r="AH192" s="82"/>
       <c r="AI192" s="12"/>
     </row>
-    <row r="193" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -29832,7 +29806,7 @@
       <c r="AH193" s="82"/>
       <c r="AI193" s="12"/>
     </row>
-    <row r="194" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -29871,7 +29845,7 @@
       <c r="AH194" s="82"/>
       <c r="AI194" s="12"/>
     </row>
-    <row r="195" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -29910,7 +29884,7 @@
       <c r="AH195" s="83"/>
       <c r="AI195" s="18"/>
     </row>
-    <row r="196" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -29947,7 +29921,7 @@
       <c r="AH196" s="18"/>
       <c r="AI196" s="18"/>
     </row>
-    <row r="197" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -29984,7 +29958,7 @@
       <c r="AH197" s="18"/>
       <c r="AI197" s="18"/>
     </row>
-    <row r="198" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -30025,7 +29999,7 @@
       <c r="AH198" s="188"/>
       <c r="AI198" s="18"/>
     </row>
-    <row r="199" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -30064,7 +30038,7 @@
       <c r="AH199" s="82"/>
       <c r="AI199" s="12"/>
     </row>
-    <row r="200" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -30103,7 +30077,7 @@
       <c r="AH200" s="82"/>
       <c r="AI200" s="12"/>
     </row>
-    <row r="201" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -30142,7 +30116,7 @@
       <c r="AH201" s="82"/>
       <c r="AI201" s="12"/>
     </row>
-    <row r="202" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -30181,7 +30155,7 @@
       <c r="AH202" s="82"/>
       <c r="AI202" s="12"/>
     </row>
-    <row r="203" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -30220,7 +30194,7 @@
       <c r="AH203" s="82"/>
       <c r="AI203" s="12"/>
     </row>
-    <row r="204" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -30259,7 +30233,7 @@
       <c r="AH204" s="82"/>
       <c r="AI204" s="12"/>
     </row>
-    <row r="205" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -30298,7 +30272,7 @@
       <c r="AH205" s="82"/>
       <c r="AI205" s="12"/>
     </row>
-    <row r="206" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -30335,7 +30309,7 @@
       <c r="AH206" s="82"/>
       <c r="AI206" s="12"/>
     </row>
-    <row r="207" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -30374,7 +30348,7 @@
       <c r="AH207" s="82"/>
       <c r="AI207" s="12"/>
     </row>
-    <row r="208" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -30413,7 +30387,7 @@
       <c r="AH208" s="82"/>
       <c r="AI208" s="12"/>
     </row>
-    <row r="209" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -30452,7 +30426,7 @@
       <c r="AH209" s="82"/>
       <c r="AI209" s="12"/>
     </row>
-    <row r="210" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -30491,7 +30465,7 @@
       <c r="AH210" s="82"/>
       <c r="AI210" s="12"/>
     </row>
-    <row r="211" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -30530,7 +30504,7 @@
       <c r="AH211" s="82"/>
       <c r="AI211" s="12"/>
     </row>
-    <row r="212" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -30569,7 +30543,7 @@
       <c r="AH212" s="82"/>
       <c r="AI212" s="12"/>
     </row>
-    <row r="213" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -30608,7 +30582,7 @@
       <c r="AH213" s="82"/>
       <c r="AI213" s="12"/>
     </row>
-    <row r="214" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -30647,7 +30621,7 @@
       <c r="AH214" s="82"/>
       <c r="AI214" s="12"/>
     </row>
-    <row r="215" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -30686,7 +30660,7 @@
       <c r="AH215" s="82"/>
       <c r="AI215" s="12"/>
     </row>
-    <row r="216" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -30725,7 +30699,7 @@
       <c r="AH216" s="82"/>
       <c r="AI216" s="12"/>
     </row>
-    <row r="217" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -30764,7 +30738,7 @@
       <c r="AH217" s="82"/>
       <c r="AI217" s="12"/>
     </row>
-    <row r="218" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -30803,7 +30777,7 @@
       <c r="AH218" s="82"/>
       <c r="AI218" s="12"/>
     </row>
-    <row r="219" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -30842,7 +30816,7 @@
       <c r="AH219" s="82"/>
       <c r="AI219" s="12"/>
     </row>
-    <row r="220" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -30881,7 +30855,7 @@
       <c r="AH220" s="82"/>
       <c r="AI220" s="12"/>
     </row>
-    <row r="221" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -30920,7 +30894,7 @@
       <c r="AH221" s="82"/>
       <c r="AI221" s="12"/>
     </row>
-    <row r="222" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -30959,7 +30933,7 @@
       <c r="AH222" s="82"/>
       <c r="AI222" s="12"/>
     </row>
-    <row r="223" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -30998,7 +30972,7 @@
       <c r="AH223" s="82"/>
       <c r="AI223" s="12"/>
     </row>
-    <row r="224" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -31037,7 +31011,7 @@
       <c r="AH224" s="82"/>
       <c r="AI224" s="12"/>
     </row>
-    <row r="225" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -31076,7 +31050,7 @@
       <c r="AH225" s="82"/>
       <c r="AI225" s="12"/>
     </row>
-    <row r="226" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -31115,7 +31089,7 @@
       <c r="AH226" s="82"/>
       <c r="AI226" s="12"/>
     </row>
-    <row r="227" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -31154,7 +31128,7 @@
       <c r="AH227" s="82"/>
       <c r="AI227" s="12"/>
     </row>
-    <row r="228" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -31193,7 +31167,7 @@
       <c r="AH228" s="82"/>
       <c r="AI228" s="12"/>
     </row>
-    <row r="229" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -31232,7 +31206,7 @@
       <c r="AH229" s="82"/>
       <c r="AI229" s="12"/>
     </row>
-    <row r="230" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -31271,7 +31245,7 @@
       <c r="AH230" s="82"/>
       <c r="AI230" s="12"/>
     </row>
-    <row r="231" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -31310,7 +31284,7 @@
       <c r="AH231" s="82"/>
       <c r="AI231" s="12"/>
     </row>
-    <row r="232" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -31349,7 +31323,7 @@
       <c r="AH232" s="82"/>
       <c r="AI232" s="12"/>
     </row>
-    <row r="233" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="12"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
@@ -31388,7 +31362,7 @@
       <c r="AH233" s="82"/>
       <c r="AI233" s="12"/>
     </row>
-    <row r="234" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="12"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
@@ -31425,7 +31399,7 @@
       <c r="AH234" s="83"/>
       <c r="AI234" s="18"/>
     </row>
-    <row r="235" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="12"/>
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
@@ -31462,7 +31436,7 @@
       <c r="AH235" s="18"/>
       <c r="AI235" s="18"/>
     </row>
-    <row r="236" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
@@ -31499,7 +31473,7 @@
       <c r="AH236" s="18"/>
       <c r="AI236" s="18"/>
     </row>
-    <row r="237" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="12"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
@@ -31540,7 +31514,7 @@
       <c r="AH237" s="188"/>
       <c r="AI237" s="18"/>
     </row>
-    <row r="238" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="12"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
@@ -31579,7 +31553,7 @@
       <c r="AH238" s="82"/>
       <c r="AI238" s="12"/>
     </row>
-    <row r="239" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="12"/>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
@@ -31618,7 +31592,7 @@
       <c r="AH239" s="82"/>
       <c r="AI239" s="12"/>
     </row>
-    <row r="240" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="12"/>
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
@@ -31657,7 +31631,7 @@
       <c r="AH240" s="82"/>
       <c r="AI240" s="12"/>
     </row>
-    <row r="241" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="12"/>
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
@@ -31696,7 +31670,7 @@
       <c r="AH241" s="82"/>
       <c r="AI241" s="12"/>
     </row>
-    <row r="242" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="12"/>
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
@@ -31735,7 +31709,7 @@
       <c r="AH242" s="82"/>
       <c r="AI242" s="12"/>
     </row>
-    <row r="243" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="12"/>
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
@@ -31774,7 +31748,7 @@
       <c r="AH243" s="82"/>
       <c r="AI243" s="12"/>
     </row>
-    <row r="244" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="12"/>
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
@@ -31813,7 +31787,7 @@
       <c r="AH244" s="82"/>
       <c r="AI244" s="12"/>
     </row>
-    <row r="245" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
@@ -31852,7 +31826,7 @@
       <c r="AH245" s="82"/>
       <c r="AI245" s="12"/>
     </row>
-    <row r="246" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="12"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
@@ -31891,7 +31865,7 @@
       <c r="AH246" s="82"/>
       <c r="AI246" s="12"/>
     </row>
-    <row r="247" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="12"/>
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
@@ -31930,7 +31904,7 @@
       <c r="AH247" s="82"/>
       <c r="AI247" s="12"/>
     </row>
-    <row r="248" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="12"/>
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
@@ -31969,7 +31943,7 @@
       <c r="AH248" s="82"/>
       <c r="AI248" s="12"/>
     </row>
-    <row r="249" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="12"/>
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
@@ -32008,7 +31982,7 @@
       <c r="AH249" s="82"/>
       <c r="AI249" s="12"/>
     </row>
-    <row r="250" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="12"/>
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
@@ -32047,7 +32021,7 @@
       <c r="AH250" s="82"/>
       <c r="AI250" s="12"/>
     </row>
-    <row r="251" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="12"/>
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
@@ -32086,7 +32060,7 @@
       <c r="AH251" s="82"/>
       <c r="AI251" s="12"/>
     </row>
-    <row r="252" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="12"/>
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
@@ -32125,7 +32099,7 @@
       <c r="AH252" s="82"/>
       <c r="AI252" s="12"/>
     </row>
-    <row r="253" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="12"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
@@ -32164,7 +32138,7 @@
       <c r="AH253" s="82"/>
       <c r="AI253" s="12"/>
     </row>
-    <row r="254" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="12"/>
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
@@ -32203,7 +32177,7 @@
       <c r="AH254" s="82"/>
       <c r="AI254" s="12"/>
     </row>
-    <row r="255" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -32242,7 +32216,7 @@
       <c r="AH255" s="82"/>
       <c r="AI255" s="12"/>
     </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A256" s="12"/>
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
@@ -32279,7 +32253,7 @@
       <c r="AH256" s="83"/>
       <c r="AI256" s="18"/>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A257" s="12"/>
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
@@ -32316,7 +32290,7 @@
       <c r="AH257" s="18"/>
       <c r="AI257" s="18"/>
     </row>
-    <row r="258" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="18"/>
       <c r="B258" s="18"/>
       <c r="C258" s="18"/>
@@ -32353,7 +32327,7 @@
       <c r="AH258" s="18"/>
       <c r="AI258" s="18"/>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
@@ -32394,7 +32368,7 @@
       <c r="AH259" s="188"/>
       <c r="AI259" s="18"/>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
@@ -32435,7 +32409,7 @@
       <c r="AH260" s="82"/>
       <c r="AI260" s="12"/>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
@@ -32476,7 +32450,7 @@
       <c r="AH261" s="82"/>
       <c r="AI261" s="12"/>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A262" s="12"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
@@ -32515,7 +32489,7 @@
       <c r="AH262" s="82"/>
       <c r="AI262" s="12"/>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A263" s="12"/>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
@@ -32552,7 +32526,7 @@
       <c r="AH263" s="82"/>
       <c r="AI263" s="12"/>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A264" s="12"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
@@ -32591,7 +32565,7 @@
       <c r="AH264" s="82"/>
       <c r="AI264" s="12"/>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A265" s="12"/>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
@@ -32630,7 +32604,7 @@
       <c r="AH265" s="82"/>
       <c r="AI265" s="12"/>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A266" s="12"/>
       <c r="B266" s="12"/>
       <c r="C266" s="12"/>
@@ -32669,7 +32643,7 @@
       <c r="AH266" s="82"/>
       <c r="AI266" s="12"/>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A267" s="12"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
@@ -32706,7 +32680,7 @@
       <c r="AH267" s="82"/>
       <c r="AI267" s="12"/>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A268" s="12"/>
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
@@ -32743,7 +32717,7 @@
       <c r="AH268" s="82"/>
       <c r="AI268" s="12"/>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
@@ -32780,7 +32754,7 @@
       <c r="AH269" s="83"/>
       <c r="AI269" s="12"/>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
@@ -32817,7 +32791,7 @@
       <c r="AH270" s="12"/>
       <c r="AI270" s="12"/>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A271" s="12"/>
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
@@ -32856,7 +32830,7 @@
       <c r="AH271" s="12"/>
       <c r="AI271" s="12"/>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A272" s="12"/>
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
@@ -32893,7 +32867,7 @@
       <c r="AH272" s="12"/>
       <c r="AI272" s="12"/>
     </row>
-    <row r="273" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A273" s="12"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
@@ -32934,7 +32908,7 @@
       <c r="AH273" s="188"/>
       <c r="AI273" s="12"/>
     </row>
-    <row r="274" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -32973,7 +32947,7 @@
       <c r="AH274" s="82"/>
       <c r="AI274" s="12"/>
     </row>
-    <row r="275" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A275" s="12"/>
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
@@ -33010,7 +32984,7 @@
       <c r="AH275" s="82"/>
       <c r="AI275" s="12"/>
     </row>
-    <row r="276" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
@@ -33051,7 +33025,7 @@
       <c r="AH276" s="82"/>
       <c r="AI276" s="12"/>
     </row>
-    <row r="277" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A277" s="12"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
@@ -33092,7 +33066,7 @@
       <c r="AH277" s="82"/>
       <c r="AI277" s="12"/>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -33131,7 +33105,7 @@
       <c r="AH278" s="82"/>
       <c r="AI278" s="12"/>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A279" s="12"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -33170,7 +33144,7 @@
       <c r="AH279" s="82"/>
       <c r="AI279" s="12"/>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A280" s="12"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
@@ -33209,7 +33183,7 @@
       <c r="AH280" s="82"/>
       <c r="AI280" s="12"/>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
@@ -33248,7 +33222,7 @@
       <c r="AH281" s="82"/>
       <c r="AI281" s="12"/>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
@@ -33287,7 +33261,7 @@
       <c r="AH282" s="82"/>
       <c r="AI282" s="12"/>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -33326,7 +33300,7 @@
       <c r="AH283" s="82"/>
       <c r="AI283" s="12"/>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -33365,7 +33339,7 @@
       <c r="AH284" s="82"/>
       <c r="AI284" s="12"/>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -33402,7 +33376,7 @@
       <c r="AH285" s="82"/>
       <c r="AI285" s="12"/>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -33443,7 +33417,7 @@
       <c r="AH286" s="82"/>
       <c r="AI286" s="12"/>
     </row>
-    <row r="287" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -33484,7 +33458,7 @@
       <c r="AH287" s="82"/>
       <c r="AI287" s="12"/>
     </row>
-    <row r="288" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A288" s="12"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -33525,7 +33499,7 @@
       <c r="AH288" s="82"/>
       <c r="AI288" s="12"/>
     </row>
-    <row r="289" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A289" s="12"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -33564,7 +33538,7 @@
       <c r="AH289" s="82"/>
       <c r="AI289" s="12"/>
     </row>
-    <row r="290" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -33605,7 +33579,7 @@
       <c r="AH290" s="82"/>
       <c r="AI290" s="12"/>
     </row>
-    <row r="291" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -33642,7 +33616,7 @@
       <c r="AH291" s="82"/>
       <c r="AI291" s="12"/>
     </row>
-    <row r="292" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -33681,7 +33655,7 @@
       <c r="AH292" s="83"/>
       <c r="AI292" s="12"/>
     </row>
-    <row r="293" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -33718,7 +33692,7 @@
       <c r="AH293" s="18"/>
       <c r="AI293" s="18"/>
     </row>
-    <row r="294" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -33755,7 +33729,7 @@
       <c r="AH294" s="18"/>
       <c r="AI294" s="18"/>
     </row>
-    <row r="295" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -33796,7 +33770,7 @@
       <c r="AH295" s="188"/>
       <c r="AI295" s="18"/>
     </row>
-    <row r="296" spans="1:35" ht="12" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -33837,7 +33811,7 @@
       <c r="AH296" s="82"/>
       <c r="AI296" s="12"/>
     </row>
-    <row r="297" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -33878,7 +33852,7 @@
       <c r="AH297" s="82"/>
       <c r="AI297" s="12"/>
     </row>
-    <row r="298" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -33917,7 +33891,7 @@
       <c r="AH298" s="82"/>
       <c r="AI298" s="12"/>
     </row>
-    <row r="299" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -33956,7 +33930,7 @@
       <c r="AH299" s="82"/>
       <c r="AI299" s="12"/>
     </row>
-    <row r="300" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -33995,7 +33969,7 @@
       <c r="AH300" s="82"/>
       <c r="AI300" s="12"/>
     </row>
-    <row r="301" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A301" s="12"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
@@ -34032,7 +34006,7 @@
       <c r="AH301" s="82"/>
       <c r="AI301" s="12"/>
     </row>
-    <row r="302" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A302" s="12"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
@@ -34071,7 +34045,7 @@
       <c r="AH302" s="82"/>
       <c r="AI302" s="12"/>
     </row>
-    <row r="303" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A303" s="12"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
@@ -34110,7 +34084,7 @@
       <c r="AH303" s="82"/>
       <c r="AI303" s="12"/>
     </row>
-    <row r="304" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A304" s="12"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
@@ -34149,7 +34123,7 @@
       <c r="AH304" s="82"/>
       <c r="AI304" s="12"/>
     </row>
-    <row r="305" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A305" s="12"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
@@ -34188,7 +34162,7 @@
       <c r="AH305" s="82"/>
       <c r="AI305" s="12"/>
     </row>
-    <row r="306" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A306" s="12"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
@@ -34225,7 +34199,7 @@
       <c r="AH306" s="82"/>
       <c r="AI306" s="12"/>
     </row>
-    <row r="307" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A307" s="12"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
@@ -34264,7 +34238,7 @@
       <c r="AH307" s="82"/>
       <c r="AI307" s="12"/>
     </row>
-    <row r="308" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A308" s="12"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
@@ -34303,7 +34277,7 @@
       <c r="AH308" s="82"/>
       <c r="AI308" s="12"/>
     </row>
-    <row r="309" spans="1:35" ht="12" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="A309" s="12"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
@@ -34342,7 +34316,7 @@
       <c r="AH309" s="82"/>
       <c r="AI309" s="12"/>
     </row>
-    <row r="310" spans="1:35" ht="12" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="A310" s="12"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -34383,7 +34357,7 @@
       <c r="AH310" s="82"/>
       <c r="AI310" s="12"/>
     </row>
-    <row r="311" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -34422,7 +34396,7 @@
       <c r="AH311" s="82"/>
       <c r="AI311" s="12"/>
     </row>
-    <row r="312" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A312" s="12"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
@@ -34461,7 +34435,7 @@
       <c r="AH312" s="82"/>
       <c r="AI312" s="12"/>
     </row>
-    <row r="313" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -34500,7 +34474,7 @@
       <c r="AH313" s="82"/>
       <c r="AI313" s="12"/>
     </row>
-    <row r="314" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A314" s="12"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
@@ -34539,7 +34513,7 @@
       <c r="AH314" s="82"/>
       <c r="AI314" s="12"/>
     </row>
-    <row r="315" spans="1:35" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:35" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="12"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
@@ -34576,7 +34550,7 @@
       <c r="AH315" s="82"/>
       <c r="AI315" s="12"/>
     </row>
-    <row r="316" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A316" s="12"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
@@ -34615,7 +34589,7 @@
       <c r="AH316" s="82"/>
       <c r="AI316" s="12"/>
     </row>
-    <row r="317" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A317" s="12"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
@@ -34652,7 +34626,7 @@
       <c r="AH317" s="82"/>
       <c r="AI317" s="12"/>
     </row>
-    <row r="318" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A318" s="12"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
@@ -34691,7 +34665,7 @@
       <c r="AH318" s="82"/>
       <c r="AI318" s="12"/>
     </row>
-    <row r="319" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A319" s="12"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
@@ -34730,7 +34704,7 @@
       <c r="AH319" s="82"/>
       <c r="AI319" s="12"/>
     </row>
-    <row r="320" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
@@ -34769,7 +34743,7 @@
       <c r="AH320" s="82"/>
       <c r="AI320" s="12"/>
     </row>
-    <row r="321" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A321" s="12"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
@@ -34808,7 +34782,7 @@
       <c r="AH321" s="82"/>
       <c r="AI321" s="12"/>
     </row>
-    <row r="322" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
@@ -34847,7 +34821,7 @@
       <c r="AH322" s="82"/>
       <c r="AI322" s="12"/>
     </row>
-    <row r="323" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
@@ -34886,7 +34860,7 @@
       <c r="AH323" s="82"/>
       <c r="AI323" s="12"/>
     </row>
-    <row r="324" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
@@ -34925,7 +34899,7 @@
       <c r="AH324" s="82"/>
       <c r="AI324" s="12"/>
     </row>
-    <row r="325" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -34964,7 +34938,7 @@
       <c r="AH325" s="82"/>
       <c r="AI325" s="12"/>
     </row>
-    <row r="326" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
@@ -35003,7 +34977,7 @@
       <c r="AH326" s="82"/>
       <c r="AI326" s="12"/>
     </row>
-    <row r="327" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A327" s="12"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
@@ -35042,7 +35016,7 @@
       <c r="AH327" s="82"/>
       <c r="AI327" s="12"/>
     </row>
-    <row r="328" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A328" s="12"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
@@ -35081,7 +35055,7 @@
       <c r="AH328" s="82"/>
       <c r="AI328" s="12"/>
     </row>
-    <row r="329" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
@@ -35118,7 +35092,7 @@
       <c r="AH329" s="82"/>
       <c r="AI329" s="12"/>
     </row>
-    <row r="330" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A330" s="12"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
@@ -35157,7 +35131,7 @@
       <c r="AH330" s="82"/>
       <c r="AI330" s="12"/>
     </row>
-    <row r="331" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A331" s="12"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
@@ -35194,7 +35168,7 @@
       <c r="AH331" s="82"/>
       <c r="AI331" s="12"/>
     </row>
-    <row r="332" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A332" s="12"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
@@ -35231,7 +35205,7 @@
       <c r="AH332" s="83"/>
       <c r="AI332" s="12"/>
     </row>
-    <row r="333" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A333" s="12"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
@@ -35268,7 +35242,7 @@
       <c r="AH333" s="12"/>
       <c r="AI333" s="12"/>
     </row>
-    <row r="334" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A334" s="12"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
@@ -35305,7 +35279,7 @@
       <c r="AH334" s="12"/>
       <c r="AI334" s="12"/>
     </row>
-    <row r="335" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A335" s="12"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -35344,7 +35318,7 @@
       <c r="AH335" s="12"/>
       <c r="AI335" s="12"/>
     </row>
-    <row r="336" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A336" s="12"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
@@ -35381,7 +35355,7 @@
       <c r="AH336" s="12"/>
       <c r="AI336" s="12"/>
     </row>
-    <row r="337" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -35422,7 +35396,7 @@
       <c r="AH337" s="188"/>
       <c r="AI337" s="12"/>
     </row>
-    <row r="338" spans="1:35" ht="12" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="A338" s="12"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
@@ -35461,7 +35435,7 @@
       <c r="AH338" s="82"/>
       <c r="AI338" s="12"/>
     </row>
-    <row r="339" spans="1:35" ht="12" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:35" ht="12" x14ac:dyDescent="0.2">
       <c r="A339" s="12"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
@@ -35500,7 +35474,7 @@
       <c r="AH339" s="82"/>
       <c r="AI339" s="12"/>
     </row>
-    <row r="340" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A340" s="12"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
@@ -35539,7 +35513,7 @@
       <c r="AH340" s="82"/>
       <c r="AI340" s="12"/>
     </row>
-    <row r="341" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A341" s="12"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
@@ -35576,7 +35550,7 @@
       <c r="AH341" s="82"/>
       <c r="AI341" s="12"/>
     </row>
-    <row r="342" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A342" s="12"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
@@ -35615,7 +35589,7 @@
       <c r="AH342" s="82"/>
       <c r="AI342" s="12"/>
     </row>
-    <row r="343" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A343" s="12"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -35652,7 +35626,7 @@
       <c r="AH343" s="82"/>
       <c r="AI343" s="12"/>
     </row>
-    <row r="344" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A344" s="12"/>
       <c r="B344" s="12"/>
       <c r="C344" s="12"/>
@@ -35689,7 +35663,7 @@
       <c r="AH344" s="82"/>
       <c r="AI344" s="12"/>
     </row>
-    <row r="345" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -35726,7 +35700,7 @@
       <c r="AH345" s="82"/>
       <c r="AI345" s="12"/>
     </row>
-    <row r="346" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A346" s="12"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -35763,7 +35737,7 @@
       <c r="AH346" s="82"/>
       <c r="AI346" s="12"/>
     </row>
-    <row r="347" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A347" s="12"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -35800,7 +35774,7 @@
       <c r="AH347" s="83"/>
       <c r="AI347" s="12"/>
     </row>
-    <row r="348" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A348" s="12"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
@@ -35912,9 +35886,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="161" t="s">
         <v>32</v>
       </c>
@@ -35972,7 +35946,7 @@
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="161" t="s">
         <v>33</v>
       </c>
@@ -36025,7 +35999,7 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
-    <row r="3" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="161" t="s">
         <v>35</v>
       </c>
@@ -36076,7 +36050,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -36130,7 +36104,7 @@
       <c r="AY4" s="10"/>
       <c r="AZ4" s="10"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="73" t="s">
         <v>270</v>
@@ -36186,7 +36160,7 @@
       <c r="AY5" s="10"/>
       <c r="AZ5" s="10"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -36240,7 +36214,7 @@
       <c r="AY6" s="10"/>
       <c r="AZ6" s="10"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -36296,7 +36270,7 @@
       <c r="AY7" s="10"/>
       <c r="AZ7" s="10"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
@@ -36352,7 +36326,7 @@
       <c r="AY8" s="10"/>
       <c r="AZ8" s="10"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -36406,7 +36380,7 @@
       <c r="AY9" s="10"/>
       <c r="AZ9" s="10"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -36466,7 +36440,7 @@
       <c r="AY10" s="10"/>
       <c r="AZ10" s="10"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -36524,7 +36498,7 @@
       <c r="AY11" s="10"/>
       <c r="AZ11" s="10"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -36584,7 +36558,7 @@
       <c r="AY12" s="10"/>
       <c r="AZ12" s="10"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -36644,7 +36618,7 @@
       <c r="AY13" s="10"/>
       <c r="AZ13" s="10"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -36704,7 +36678,7 @@
       <c r="AY14" s="10"/>
       <c r="AZ14" s="10"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -36764,7 +36738,7 @@
       <c r="AY15" s="10"/>
       <c r="AZ15" s="10"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -36820,7 +36794,7 @@
       <c r="AY16" s="10"/>
       <c r="AZ16" s="10"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -36876,7 +36850,7 @@
       <c r="AY17" s="10"/>
       <c r="AZ17" s="10"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -36932,7 +36906,7 @@
       <c r="AY18" s="10"/>
       <c r="AZ18" s="10"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -36988,7 +36962,7 @@
       <c r="AY19" s="10"/>
       <c r="AZ19" s="10"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -37044,7 +37018,7 @@
       <c r="AY20" s="10"/>
       <c r="AZ20" s="10"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -37100,7 +37074,7 @@
       <c r="AY21" s="10"/>
       <c r="AZ21" s="10"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -37156,7 +37130,7 @@
       <c r="AY22" s="10"/>
       <c r="AZ22" s="10"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -37212,7 +37186,7 @@
       <c r="AY23" s="10"/>
       <c r="AZ23" s="10"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -37266,7 +37240,7 @@
       <c r="AY24" s="10"/>
       <c r="AZ24" s="10"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -37320,7 +37294,7 @@
       <c r="AY25" s="10"/>
       <c r="AZ25" s="10"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -37374,7 +37348,7 @@
       <c r="AY26" s="10"/>
       <c r="AZ26" s="10"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -37428,7 +37402,7 @@
       <c r="AY27" s="10"/>
       <c r="AZ27" s="10"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -37482,7 +37456,7 @@
       <c r="AY28" s="10"/>
       <c r="AZ28" s="10"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -37536,7 +37510,7 @@
       <c r="AY29" s="10"/>
       <c r="AZ29" s="10"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -37590,7 +37564,7 @@
       <c r="AY30" s="10"/>
       <c r="AZ30" s="10"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -37644,7 +37618,7 @@
       <c r="AY31" s="10"/>
       <c r="AZ31" s="10"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -37698,7 +37672,7 @@
       <c r="AY32" s="10"/>
       <c r="AZ32" s="10"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -37752,7 +37726,7 @@
       <c r="AY33" s="10"/>
       <c r="AZ33" s="10"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -37806,7 +37780,7 @@
       <c r="AY34" s="10"/>
       <c r="AZ34" s="10"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -37860,7 +37834,7 @@
       <c r="AY35" s="10"/>
       <c r="AZ35" s="10"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -37914,7 +37888,7 @@
       <c r="AY36" s="10"/>
       <c r="AZ36" s="10"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -37968,7 +37942,7 @@
       <c r="AY37" s="10"/>
       <c r="AZ37" s="10"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -38022,7 +37996,7 @@
       <c r="AY38" s="10"/>
       <c r="AZ38" s="10"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -38076,7 +38050,7 @@
       <c r="AY39" s="10"/>
       <c r="AZ39" s="10"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -38130,7 +38104,7 @@
       <c r="AY40" s="10"/>
       <c r="AZ40" s="10"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -38184,7 +38158,7 @@
       <c r="AY41" s="10"/>
       <c r="AZ41" s="10"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -38238,7 +38212,7 @@
       <c r="AY42" s="10"/>
       <c r="AZ42" s="10"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -38292,7 +38266,7 @@
       <c r="AY43" s="10"/>
       <c r="AZ43" s="10"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -38346,7 +38320,7 @@
       <c r="AY44" s="10"/>
       <c r="AZ44" s="10"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -38400,7 +38374,7 @@
       <c r="AY45" s="10"/>
       <c r="AZ45" s="10"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -38454,7 +38428,7 @@
       <c r="AY46" s="10"/>
       <c r="AZ46" s="10"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -38508,7 +38482,7 @@
       <c r="AY47" s="10"/>
       <c r="AZ47" s="10"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -38562,7 +38536,7 @@
       <c r="AY48" s="10"/>
       <c r="AZ48" s="10"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -38616,7 +38590,7 @@
       <c r="AY49" s="10"/>
       <c r="AZ49" s="10"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -38670,7 +38644,7 @@
       <c r="AY50" s="10"/>
       <c r="AZ50" s="10"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -38724,7 +38698,7 @@
       <c r="AY51" s="10"/>
       <c r="AZ51" s="10"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -38778,7 +38752,7 @@
       <c r="AY52" s="10"/>
       <c r="AZ52" s="10"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -38832,7 +38806,7 @@
       <c r="AY53" s="10"/>
       <c r="AZ53" s="10"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -38886,7 +38860,7 @@
       <c r="AY54" s="10"/>
       <c r="AZ54" s="10"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -38940,7 +38914,7 @@
       <c r="AY55" s="10"/>
       <c r="AZ55" s="10"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -38994,7 +38968,7 @@
       <c r="AY56" s="10"/>
       <c r="AZ56" s="10"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -39048,7 +39022,7 @@
       <c r="AY57" s="10"/>
       <c r="AZ57" s="10"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
